--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\mv2040_outcomes_framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34388218-284B-42D7-90DF-273ACC76548A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1274E6-4C1B-41FE-96B7-A3C09CA45B9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="8" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="7" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="774">
   <si>
     <t>FAIR</t>
   </si>
@@ -3162,6 +3162,9 @@
   </si>
   <si>
     <t>Calculated from Public Transport Victoria (PTV) GTFS data</t>
+  </si>
+  <si>
+    <t>Desired</t>
   </si>
 </sst>
 </file>
@@ -3784,7 +3787,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="159">
+  <dxfs count="161">
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5"/>
@@ -5912,8 +5935,8 @@
   </sheetPr>
   <dimension ref="A1:AD132"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="K114" sqref="H114:K114"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V132" sqref="V1:V132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15028,643 +15051,643 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="U112:U113 U57 U60:U62 U84:U92 U103 U105 U130 U95:U99 U127:U128 U115:U125 U64:U81 U33:U55 U1:U31">
-    <cfRule type="containsText" dxfId="158" priority="179" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="160" priority="179" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U58:U59">
-    <cfRule type="containsText" dxfId="157" priority="178" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="159" priority="178" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="containsText" dxfId="156" priority="177" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="158" priority="177" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",W1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U56">
-    <cfRule type="containsText" dxfId="155" priority="176" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="157" priority="176" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U112:U113 U84:U92 U103 U105 U130 U95:U99 U127:U128 U115:U125 U64:U81 U33:U62 U1:U31">
-    <cfRule type="containsText" dxfId="154" priority="174" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="156" priority="174" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="175" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="155" priority="175" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U93:U94">
-    <cfRule type="containsText" dxfId="152" priority="173" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="154" priority="173" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U93:U94">
-    <cfRule type="containsText" dxfId="151" priority="171" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="153" priority="171" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="172" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="152" priority="172" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U100">
-    <cfRule type="containsText" dxfId="149" priority="170" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="151" priority="170" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U100">
-    <cfRule type="containsText" dxfId="148" priority="168" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="150" priority="168" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="169" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="149" priority="169" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U102">
-    <cfRule type="containsText" dxfId="146" priority="167" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="148" priority="167" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U102">
-    <cfRule type="containsText" dxfId="145" priority="165" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="147" priority="165" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="166" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="146" priority="166" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U107">
-    <cfRule type="containsText" dxfId="143" priority="158" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="145" priority="158" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U107">
-    <cfRule type="containsText" dxfId="142" priority="156" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="144" priority="156" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="157" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="143" priority="157" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U104">
-    <cfRule type="containsText" dxfId="140" priority="164" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="142" priority="164" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U104">
-    <cfRule type="containsText" dxfId="139" priority="162" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="141" priority="162" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="163" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="140" priority="163" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U106">
-    <cfRule type="containsText" dxfId="137" priority="161" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="139" priority="161" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U106">
-    <cfRule type="containsText" dxfId="136" priority="159" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="138" priority="159" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="160" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="137" priority="160" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U108:U109">
-    <cfRule type="containsText" dxfId="134" priority="155" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="136" priority="155" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U108:U109">
-    <cfRule type="containsText" dxfId="133" priority="153" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="135" priority="153" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="154" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="134" priority="154" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U110">
-    <cfRule type="containsText" dxfId="131" priority="152" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="133" priority="152" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U110">
-    <cfRule type="containsText" dxfId="130" priority="150" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="132" priority="150" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U110)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="151" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="131" priority="151" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U111">
-    <cfRule type="containsText" dxfId="128" priority="149" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="130" priority="149" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U111">
-    <cfRule type="containsText" dxfId="127" priority="147" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="129" priority="147" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="148" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="128" priority="148" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U114">
-    <cfRule type="containsText" dxfId="125" priority="146" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="127" priority="146" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U114">
-    <cfRule type="containsText" dxfId="124" priority="144" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="126" priority="144" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U114)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="145" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="125" priority="145" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AB1">
-    <cfRule type="containsText" dxfId="122" priority="143" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="124" priority="143" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",X1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W33:Z37 W38:Y38 W1:AB1 AB33:AB40 W130:Z130 AB130 W121:Z125 AB121:AB125 AB127:AB128 W127:Z128 W64:Z81 AB64:AB81 AB43:AB62 W39:Z62 W84:Z100 AB84:AB100 W102:Z118 AB102:AB118 AB2:AB31 W2:Z31">
-    <cfRule type="containsText" dxfId="121" priority="141" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="123" priority="141" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",W1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="142" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="122" priority="142" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",W1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:AB1">
-    <cfRule type="containsText" dxfId="119" priority="140" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="121" priority="140" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",X1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="containsText" dxfId="118" priority="139" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="120" priority="139" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="containsText" dxfId="117" priority="137" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="119" priority="137" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="138" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="118" priority="138" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32:Z32 AB32">
-    <cfRule type="containsText" dxfId="115" priority="135" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="117" priority="135" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",W32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="136" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="116" priority="136" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",W32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA130 AA121:AA125 AC124 AA127:AA128 AC64:AC81 AA64:AA81 AA43:AA62 AC43:AC62 AC84:AC100 AA84:AA100 AC102:AC118 AA102:AA118 AC2:AC40 AA2:AA40">
-    <cfRule type="containsText" dxfId="113" priority="132" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="115" priority="132" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="133" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="114" priority="133" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="134" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="113" priority="134" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AA2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB41">
-    <cfRule type="containsText" dxfId="110" priority="130" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="112" priority="130" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",AB41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="131" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="111" priority="131" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",AB41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA41">
-    <cfRule type="containsText" dxfId="108" priority="127" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="110" priority="127" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AA41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="128" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="109" priority="128" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AA41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="129" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="108" priority="129" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AA41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB42">
-    <cfRule type="containsText" dxfId="105" priority="125" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="107" priority="125" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",AB42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="126" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="106" priority="126" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",AB42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA42">
-    <cfRule type="containsText" dxfId="103" priority="122" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="105" priority="122" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AA42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="123" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="104" priority="123" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AA42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="124" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="103" priority="124" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AA42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1">
-    <cfRule type="containsText" dxfId="100" priority="121" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="102" priority="121" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1">
-    <cfRule type="containsText" dxfId="99" priority="119" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="101" priority="119" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",AC1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="120" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="100" priority="120" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1">
-    <cfRule type="containsText" dxfId="97" priority="118" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="99" priority="118" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC121:AC123 AC130 AC125 AC127:AC128">
-    <cfRule type="containsText" dxfId="96" priority="115" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="98" priority="115" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AC121)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="116" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="97" priority="116" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AC121)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="117" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="96" priority="117" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AC121)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC41">
-    <cfRule type="containsText" dxfId="93" priority="112" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="95" priority="112" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AC41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="113" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="94" priority="113" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AC41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="114" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="93" priority="114" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AC41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC42">
-    <cfRule type="containsText" dxfId="90" priority="109" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="92" priority="109" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AC42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="110" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="91" priority="110" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AC42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="111" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="90" priority="111" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AC42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W120:Z120 AB120">
-    <cfRule type="containsText" dxfId="87" priority="107" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="89" priority="107" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",W120)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="108" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="88" priority="108" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",W120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA120">
-    <cfRule type="containsText" dxfId="85" priority="104" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="87" priority="104" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AA120)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="105" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="86" priority="105" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AA120)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="106" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="85" priority="106" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AA120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC120">
-    <cfRule type="containsText" dxfId="82" priority="101" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="84" priority="101" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AC120)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="102" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="83" priority="102" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AC120)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="103" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="82" priority="103" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AC120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W119:Z119 AB119">
-    <cfRule type="containsText" dxfId="79" priority="99" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="81" priority="99" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",W119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="100" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="80" priority="100" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",W119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA119">
-    <cfRule type="containsText" dxfId="77" priority="96" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="79" priority="96" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AA119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="97" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="78" priority="97" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AA119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="98" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="77" priority="98" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AA119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC119">
-    <cfRule type="containsText" dxfId="74" priority="93" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="76" priority="93" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AC119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="94" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="75" priority="94" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AC119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="95" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="74" priority="95" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AC119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U101">
-    <cfRule type="containsText" dxfId="71" priority="92" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="73" priority="92" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U101">
-    <cfRule type="containsText" dxfId="70" priority="90" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="72" priority="90" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="91" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="71" priority="91" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB101 W101:Z101">
-    <cfRule type="containsText" dxfId="68" priority="88" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="70" priority="88" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",W101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="89" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="69" priority="89" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",W101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA101 AC101">
-    <cfRule type="containsText" dxfId="66" priority="85" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="68" priority="85" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AA101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="86" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="67" priority="86" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AA101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="87" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="66" priority="87" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AA101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U82:U83">
-    <cfRule type="containsText" dxfId="63" priority="84" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="65" priority="84" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U82:U83">
-    <cfRule type="containsText" dxfId="62" priority="82" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="64" priority="82" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="83" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="63" priority="83" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB82:AB83 Z82:Z83">
-    <cfRule type="containsText" dxfId="60" priority="80" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="62" priority="80" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",Z82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="81" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="61" priority="81" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",Z82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA82:AA83 AC82:AC83">
-    <cfRule type="containsText" dxfId="58" priority="77" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="60" priority="77" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AA82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="78" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="59" priority="78" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AA82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="79" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="58" priority="79" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AA82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W82:Y83">
-    <cfRule type="containsText" dxfId="55" priority="75" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="57" priority="75" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",W82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="76" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="56" priority="76" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",W82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U126">
-    <cfRule type="containsText" dxfId="53" priority="74" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="55" priority="74" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U126">
-    <cfRule type="containsText" dxfId="52" priority="72" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="54" priority="72" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="73" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="53" priority="73" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W126:Z126 AB126">
-    <cfRule type="containsText" dxfId="50" priority="70" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="52" priority="70" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",W126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="71" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="51" priority="71" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",W126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA126">
-    <cfRule type="containsText" dxfId="48" priority="67" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="50" priority="67" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AA126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="68" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="49" priority="68" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AA126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="69" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="48" priority="69" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AA126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC126">
-    <cfRule type="containsText" dxfId="45" priority="64" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="47" priority="64" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AC126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="65" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="46" priority="65" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AC126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="66" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="45" priority="66" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AC126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U129">
-    <cfRule type="containsText" dxfId="42" priority="63" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="44" priority="63" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U129">
-    <cfRule type="containsText" dxfId="41" priority="61" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="43" priority="61" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U129)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="62" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="42" priority="62" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W129:Z129 AB129">
-    <cfRule type="containsText" dxfId="39" priority="59" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="41" priority="59" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",W129)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="60" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="40" priority="60" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",W129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA129">
-    <cfRule type="containsText" dxfId="37" priority="56" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="39" priority="56" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AA129)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="57" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="38" priority="57" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AA129)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="58" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="37" priority="58" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AA129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC129">
-    <cfRule type="containsText" dxfId="34" priority="53" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="36" priority="53" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AC129)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="54" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="35" priority="54" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AC129)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="55" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AC129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U131">
-    <cfRule type="containsText" dxfId="31" priority="52" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="33" priority="52" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U131">
-    <cfRule type="containsText" dxfId="30" priority="50" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="32" priority="50" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U131)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="51" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="31" priority="51" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W131:Z131 AB131">
-    <cfRule type="containsText" dxfId="28" priority="48" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="30" priority="48" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",W131)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="49" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",W131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA131">
-    <cfRule type="containsText" dxfId="26" priority="45" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="28" priority="45" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AA131)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="46" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="27" priority="46" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AA131)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="47" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="26" priority="47" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AA131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC131">
-    <cfRule type="containsText" dxfId="23" priority="42" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="25" priority="42" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AC131)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="43" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AC131)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="44" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="23" priority="44" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AC131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB132 W132:Z132">
-    <cfRule type="containsText" dxfId="20" priority="40" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="22" priority="40" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",W132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="21" priority="41" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",W132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA132">
-    <cfRule type="containsText" dxfId="18" priority="37" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="20" priority="37" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AA132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="38" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="19" priority="38" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AA132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="39" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AA132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC132">
-    <cfRule type="containsText" dxfId="15" priority="34" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="17" priority="34" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AC132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="35" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AC132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="36" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="15" priority="36" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AC132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U132">
-    <cfRule type="containsText" dxfId="12" priority="33" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="14" priority="33" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U132">
-    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="32" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="12" priority="32" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U63">
-    <cfRule type="containsText" dxfId="9" priority="30" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="11" priority="30" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",U63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U63">
-    <cfRule type="containsText" dxfId="8" priority="28" operator="containsText" text="Secondary">
+    <cfRule type="containsText" dxfId="10" priority="28" operator="containsText" text="Secondary">
       <formula>NOT(ISERROR(SEARCH("Secondary",U63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="29" operator="containsText" text="Primary">
+    <cfRule type="containsText" dxfId="9" priority="29" operator="containsText" text="Primary">
       <formula>NOT(ISERROR(SEARCH("Primary",U63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W63:Z63 AB63">
-    <cfRule type="containsText" dxfId="6" priority="26" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="26" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",W63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="27" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="7" priority="27" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",W63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC63 AA63">
-    <cfRule type="containsText" dxfId="4" priority="23" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="6" priority="23" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",AA63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="24" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="5" priority="24" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",AA63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="25" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="4" priority="25" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",AA63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V132">
-    <cfRule type="containsText" dxfId="1" priority="21" operator="containsText" text="Increase">
+    <cfRule type="containsText" dxfId="3" priority="21" operator="containsText" text="Increase">
       <formula>NOT(ISERROR(SEARCH("Increase",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="22" operator="containsText" text="Decrease">
+    <cfRule type="containsText" dxfId="2" priority="22" operator="containsText" text="Decrease">
       <formula>NOT(ISERROR(SEARCH("Decrease",V2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18375,10 +18398,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18391,7 +18414,7 @@
     <col min="8" max="8" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>729</v>
       </c>
@@ -18422,8 +18445,11 @@
       <c r="J1" s="52" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K1" s="52" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>690</v>
       </c>
@@ -18454,8 +18480,11 @@
       <c r="J2" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>692</v>
       </c>
@@ -18486,8 +18515,11 @@
       <c r="J3" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>691</v>
       </c>
@@ -18518,8 +18550,11 @@
       <c r="J4" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>693</v>
       </c>
@@ -18550,8 +18585,11 @@
       <c r="J5" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>694</v>
       </c>
@@ -18582,8 +18620,11 @@
       <c r="J6" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>695</v>
       </c>
@@ -18614,8 +18655,11 @@
       <c r="J7" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>698</v>
       </c>
@@ -18646,8 +18690,11 @@
       <c r="J8" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>739</v>
       </c>
@@ -18678,8 +18725,11 @@
       <c r="J9" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>740</v>
       </c>
@@ -18710,8 +18760,11 @@
       <c r="J10" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>696</v>
       </c>
@@ -18742,8 +18795,11 @@
       <c r="J11" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>697</v>
       </c>
@@ -18774,8 +18830,11 @@
       <c r="J12" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>699</v>
       </c>
@@ -18806,8 +18865,11 @@
       <c r="J13" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>700</v>
       </c>
@@ -18838,8 +18900,11 @@
       <c r="J14" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>701</v>
       </c>
@@ -18870,8 +18935,11 @@
       <c r="J15" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>702</v>
       </c>
@@ -18902,8 +18970,11 @@
       <c r="J16" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>703</v>
       </c>
@@ -18932,8 +19003,11 @@
       <c r="J17" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>704</v>
       </c>
@@ -18964,8 +19038,11 @@
       <c r="J18" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>705</v>
       </c>
@@ -18996,8 +19073,11 @@
       <c r="J19" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>706</v>
       </c>
@@ -19024,8 +19104,9 @@
       <c r="J20" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>707</v>
       </c>
@@ -19056,8 +19137,11 @@
       <c r="J21" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>708</v>
       </c>
@@ -19086,8 +19170,11 @@
       <c r="J22" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>709</v>
       </c>
@@ -19116,8 +19203,11 @@
       <c r="J23" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>710</v>
       </c>
@@ -19146,8 +19236,11 @@
       <c r="J24" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>711</v>
       </c>
@@ -19176,8 +19269,11 @@
       <c r="J25" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>712</v>
       </c>
@@ -19208,8 +19304,11 @@
       <c r="J26" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>713</v>
       </c>
@@ -19240,8 +19339,11 @@
       <c r="J27" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>720</v>
       </c>
@@ -19272,8 +19374,11 @@
       <c r="J28" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>714</v>
       </c>
@@ -19304,8 +19409,11 @@
       <c r="J29" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>721</v>
       </c>
@@ -19336,8 +19444,11 @@
       <c r="J30" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>722</v>
       </c>
@@ -19368,8 +19479,11 @@
       <c r="J31" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>723</v>
       </c>
@@ -19400,8 +19514,11 @@
       <c r="J32" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>724</v>
       </c>
@@ -19430,8 +19547,11 @@
       <c r="J33" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>715</v>
       </c>
@@ -19462,8 +19582,11 @@
       <c r="J34" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>716</v>
       </c>
@@ -19494,8 +19617,11 @@
       <c r="J35" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>725</v>
       </c>
@@ -19526,8 +19652,11 @@
       <c r="J36" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>717</v>
       </c>
@@ -19558,8 +19687,11 @@
       <c r="J37" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>718</v>
       </c>
@@ -19590,8 +19722,11 @@
       <c r="J38" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>726</v>
       </c>
@@ -19620,8 +19755,11 @@
       <c r="J39" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>719</v>
       </c>
@@ -19652,8 +19790,11 @@
       <c r="J40" s="8" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>727</v>
       </c>
@@ -19682,9 +19823,20 @@
       <c r="J41" s="8" t="s">
         <v>766</v>
       </c>
+      <c r="K41" t="s">
+        <v>599</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H41" xr:uid="{AF0461F5-5522-4400-ADC3-010F7ED92A51}"/>
+  <conditionalFormatting sqref="K2:K41">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Increase">
+      <formula>NOT(ISERROR(SEARCH("Increase",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Decrease">
+      <formula>NOT(ISERROR(SEARCH("Decrease",K2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20403,8 +20555,8 @@
   </sheetPr>
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20444,7 +20596,7 @@
       <c r="C2" s="2">
         <v>5.04</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>769</v>
       </c>
     </row>
@@ -20458,7 +20610,7 @@
       <c r="C3" s="2">
         <v>4.8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>769</v>
       </c>
     </row>
@@ -20472,7 +20624,7 @@
       <c r="C4" s="2">
         <v>4.72</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>769</v>
       </c>
     </row>
@@ -20486,7 +20638,7 @@
       <c r="C5" s="2">
         <v>4.79</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>769</v>
       </c>
     </row>
@@ -20500,7 +20652,7 @@
       <c r="C6" s="2">
         <v>4.84</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>769</v>
       </c>
     </row>
@@ -22178,8 +22330,8 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1274E6-4C1B-41FE-96B7-A3C09CA45B9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A065B83F-6590-423B-B168-3BEDA017403B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="7" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="4" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -18400,8 +18400,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18481,7 +18481,7 @@
         <v>766</v>
       </c>
       <c r="K2" t="s">
-        <v>599</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -20555,7 +20555,7 @@
   </sheetPr>
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A065B83F-6590-423B-B168-3BEDA017403B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08499924-8EDE-48A6-B8F5-DF5D46C5E0D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="4" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="775">
   <si>
     <t>FAIR</t>
   </si>
@@ -3165,6 +3165,9 @@
   </si>
   <si>
     <t>Desired</t>
+  </si>
+  <si>
+    <t>Proportion of properties with good accessibility to community facilities based on walkable network distance (methodology to be defined)</t>
   </si>
 </sst>
 </file>
@@ -18401,7 +18404,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18554,7 +18557,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>693</v>
       </c>
@@ -18568,7 +18571,7 @@
         <v>658</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>491</v>
+        <v>774</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>683</v>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08499924-8EDE-48A6-B8F5-DF5D46C5E0D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A356B8-C860-4644-95F2-170D21AC363B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="4" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Additional indicators'!$B$2:$F$143</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">data!$A$1:$I$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">data!$A$1:$I$114</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">indicator_list!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Targets Indicators Measures'!$B$1:$AD$132</definedName>
   </definedNames>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="813">
   <si>
     <t>FAIR</t>
   </si>
@@ -3168,6 +3168,120 @@
   </si>
   <si>
     <t>Proportion of properties with good accessibility to community facilities based on walkable network distance (methodology to be defined)</t>
+  </si>
+  <si>
+    <t>The ratio of income distribution between the top 20 per cent of households (P80) and the bottom 20 per cent (P20) decreased to 4.72 in 2013, but has risen since.</t>
+  </si>
+  <si>
+    <t>In 2019, around 67 per cent of residents felt agreed that they felt part of the community.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2019, around 60 per cent of residents  valued living in Moonee Valley because of its multiculturalism. </t>
+  </si>
+  <si>
+    <t>Less than half of all Moonee Valley residents feel safe walking alone in thei local area at night.</t>
+  </si>
+  <si>
+    <t>About 58 per cent of adults did required amount of physical activity as wet out by Australia’s physical activity and sedentary behaviour guidelines, Department of Health, 2014</t>
+  </si>
+  <si>
+    <t>About two-thirds of respondents reported either 'very good' or 'excellent' health.</t>
+  </si>
+  <si>
+    <t>About 12.5 per cent of adults had high or very high levels of psychological distress.</t>
+  </si>
+  <si>
+    <t>The proportion of children who are not developmentally vulnerable on one or more domains has been slowly increasing.</t>
+  </si>
+  <si>
+    <t>There was a decrease in the index score for satisfactoin with Council decision making between 2018 and 2019.</t>
+  </si>
+  <si>
+    <t>The proportion of households with housing costs that represented 30 per cent or more of household income decrease between 2011 and 2016.</t>
+  </si>
+  <si>
+    <t>The unemployment rate in Moonee Valley has decreased since June 2017. There are pockets of higher unemployment in Flemington and Ascot Vale.</t>
+  </si>
+  <si>
+    <t>The proportion of residents who volunteered increased between 2011 and 2016.</t>
+  </si>
+  <si>
+    <t>The kindergarten enrolment rate in Meeonee Valley is around 92 per cent.</t>
+  </si>
+  <si>
+    <t>Number of first year children enrolled in kindergarten divided by the number of 3 year old children (70%) and 4 year old children (30%) based on the previous year's estimated resident population</t>
+  </si>
+  <si>
+    <t>Approximately 17 per cent of Moonee Valley residents are active library members. Council is rolling out a number of programs to increase this figure.</t>
+  </si>
+  <si>
+    <t>Around one-third of jobs in Moonee Valley are filled by residents of the municipality.</t>
+  </si>
+  <si>
+    <t>There were approximately 47 community run projects supported by grants per 100,000 population in the 2018/19 financial year.</t>
+  </si>
+  <si>
+    <t>The satisfaction with recreation facilities remained steady between 2018 and 2019.</t>
+  </si>
+  <si>
+    <t>One of the six activity centres in Moonee Valley has public Wi-Fi.</t>
+  </si>
+  <si>
+    <t>About 23 per cent of Moonee Valley residents travel to work by either public transport, cycling or walking. This is an increase from the 2011 figure.</t>
+  </si>
+  <si>
+    <t>About 11 per cent of workers travel to jobs in Moonee Valley using public transport, by walking or cycling. This is slightly higher than in 2011.</t>
+  </si>
+  <si>
+    <t>There was one fatality on roads within Moonee Valley in 2018</t>
+  </si>
+  <si>
+    <t>At present, no residential streets have a speed limit of 40 kph.</t>
+  </si>
+  <si>
+    <t>There are 1,500 parking sensors installed in parking spaces in activity centres within Moonee Valley.</t>
+  </si>
+  <si>
+    <t>Net carbon emissions from Council's operations have been decreasing.</t>
+  </si>
+  <si>
+    <t>Carbon emissions from the community were at 1.3 million tonnes in the year to June 2018.</t>
+  </si>
+  <si>
+    <t>The number of street trees within Moonee Valley is increasing.</t>
+  </si>
+  <si>
+    <t>About 12,000 megalitres of stormwater were discharged in to local waterways in the year to June 2015.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagery from 2018 shows that about 17 per cent of the municipality is covered by tree canopy. </t>
+  </si>
+  <si>
+    <t>There were about 127 megalitres of potable water used outdoors in the municipality in the year to June 2015.</t>
+  </si>
+  <si>
+    <t>Indoor potable water use by Council in megalitres</t>
+  </si>
+  <si>
+    <t>Outdoor potable water use by Council in mega litres</t>
+  </si>
+  <si>
+    <t>About 39 megalitres of water was used by Council for indoor operations in the year to June 2015.</t>
+  </si>
+  <si>
+    <t>Data not yet available.</t>
+  </si>
+  <si>
+    <t>About 80 per cent of Council's facilities are disability accessible</t>
+  </si>
+  <si>
+    <t>About five per cent of Council's open spaces have been upgraded since 2018</t>
+  </si>
+  <si>
+    <t>Open space provision is at about 4.1 hectares per 1,000 population</t>
+  </si>
+  <si>
+    <t>This is an interim figure only!!!</t>
   </si>
 </sst>
 </file>
@@ -5938,7 +6052,7 @@
   </sheetPr>
   <dimension ref="A1:AD132"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="A120" workbookViewId="0">
       <selection activeCell="V132" sqref="V1:V132"/>
     </sheetView>
   </sheetViews>
@@ -18403,8 +18517,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18415,9 +18529,11 @@
     <col min="6" max="6" width="31.85546875" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" customWidth="1"/>
     <col min="8" max="8" width="46" customWidth="1"/>
+    <col min="9" max="9" width="38" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>729</v>
       </c>
@@ -18452,7 +18568,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>690</v>
       </c>
@@ -18478,7 +18594,7 @@
         <v>632</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>766</v>
@@ -18487,7 +18603,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>692</v>
       </c>
@@ -18513,7 +18629,7 @@
         <v>625</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>766</v>
@@ -18522,7 +18638,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>691</v>
       </c>
@@ -18548,7 +18664,7 @@
         <v>625</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>766</v>
@@ -18557,7 +18673,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>693</v>
       </c>
@@ -18592,7 +18708,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>694</v>
       </c>
@@ -18618,7 +18734,7 @@
         <v>625</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>766</v>
@@ -18627,7 +18743,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>695</v>
       </c>
@@ -18653,7 +18769,7 @@
         <v>677</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>766</v>
@@ -18662,7 +18778,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>698</v>
       </c>
@@ -18688,7 +18804,7 @@
         <v>641</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>766</v>
@@ -18697,7 +18813,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>739</v>
       </c>
@@ -18723,7 +18839,7 @@
         <v>676</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>766</v>
@@ -18732,7 +18848,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>740</v>
       </c>
@@ -18758,7 +18874,7 @@
         <v>639</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>766</v>
@@ -18767,7 +18883,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>696</v>
       </c>
@@ -18793,7 +18909,7 @@
         <v>626</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>766</v>
@@ -18802,7 +18918,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>697</v>
       </c>
@@ -18828,7 +18944,7 @@
         <v>603</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>766</v>
@@ -18837,7 +18953,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>699</v>
       </c>
@@ -18863,7 +18979,7 @@
         <v>628</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>766</v>
@@ -18872,7 +18988,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>700</v>
       </c>
@@ -18898,7 +19014,7 @@
         <v>629</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>766</v>
@@ -18907,7 +19023,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>701</v>
       </c>
@@ -18921,7 +19037,7 @@
         <v>526</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>587</v>
+        <v>788</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>623</v>
@@ -18933,7 +19049,7 @@
         <v>602</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>766</v>
@@ -18942,7 +19058,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>702</v>
       </c>
@@ -18968,7 +19084,7 @@
         <v>625</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>766</v>
@@ -18977,7 +19093,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>703</v>
       </c>
@@ -19001,7 +19117,7 @@
         <v>633</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>766</v>
@@ -19010,7 +19126,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>704</v>
       </c>
@@ -19036,7 +19152,7 @@
         <v>602</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>768</v>
+        <v>791</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>766</v>
@@ -19045,7 +19161,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>705</v>
       </c>
@@ -19071,7 +19187,7 @@
         <v>626</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>766</v>
@@ -19080,7 +19196,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>706</v>
       </c>
@@ -19102,14 +19218,14 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="8" t="s">
-        <v>768</v>
+        <v>793</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>766</v>
       </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>707</v>
       </c>
@@ -19135,7 +19251,7 @@
         <v>634</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>764</v>
+        <v>812</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>766</v>
@@ -19144,7 +19260,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>708</v>
       </c>
@@ -19168,7 +19284,7 @@
         <v>604</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>766</v>
@@ -19177,7 +19293,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>709</v>
       </c>
@@ -19201,7 +19317,7 @@
         <v>602</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>768</v>
+        <v>795</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>766</v>
@@ -19210,7 +19326,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>710</v>
       </c>
@@ -19234,7 +19350,7 @@
         <v>598</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>768</v>
+        <v>796</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>766</v>
@@ -19243,7 +19359,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>711</v>
       </c>
@@ -19267,7 +19383,7 @@
         <v>625</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>766</v>
@@ -19276,7 +19392,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>712</v>
       </c>
@@ -19302,7 +19418,7 @@
         <v>625</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>768</v>
+        <v>798</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>766</v>
@@ -19311,7 +19427,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>713</v>
       </c>
@@ -19337,7 +19453,7 @@
         <v>604</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>768</v>
+        <v>799</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>766</v>
@@ -19346,7 +19462,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>720</v>
       </c>
@@ -19372,7 +19488,7 @@
         <v>604</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>768</v>
+        <v>800</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>766</v>
@@ -19381,7 +19497,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>714</v>
       </c>
@@ -19407,7 +19523,7 @@
         <v>609</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>768</v>
+        <v>801</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>766</v>
@@ -19416,7 +19532,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>721</v>
       </c>
@@ -19430,7 +19546,7 @@
         <v>410</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>646</v>
+        <v>806</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>168</v>
@@ -19442,7 +19558,7 @@
         <v>608</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>768</v>
+        <v>804</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>766</v>
@@ -19451,7 +19567,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>722</v>
       </c>
@@ -19477,7 +19593,7 @@
         <v>608</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>766</v>
@@ -19486,7 +19602,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>723</v>
       </c>
@@ -19512,7 +19628,7 @@
         <v>604</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>768</v>
+        <v>803</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>766</v>
@@ -19521,7 +19637,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>724</v>
       </c>
@@ -19535,7 +19651,7 @@
         <v>413</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>381</v>
+        <v>805</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="3" t="s">
@@ -19545,7 +19661,7 @@
         <v>608</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>768</v>
+        <v>807</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>766</v>
@@ -19554,7 +19670,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>715</v>
       </c>
@@ -19589,7 +19705,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>716</v>
       </c>
@@ -19615,7 +19731,7 @@
         <v>634</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>768</v>
+        <v>808</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>766</v>
@@ -19624,7 +19740,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>725</v>
       </c>
@@ -19650,7 +19766,7 @@
         <v>634</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>768</v>
+        <v>808</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>766</v>
@@ -19659,7 +19775,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>717</v>
       </c>
@@ -19685,7 +19801,7 @@
         <v>605</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>768</v>
+        <v>809</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>766</v>
@@ -19694,7 +19810,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>718</v>
       </c>
@@ -19720,7 +19836,7 @@
         <v>640</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>768</v>
+        <v>810</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>766</v>
@@ -19729,7 +19845,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>726</v>
       </c>
@@ -19753,7 +19869,7 @@
         <v>602</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>768</v>
+        <v>811</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>766</v>
@@ -19762,7 +19878,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>719</v>
       </c>
@@ -19788,7 +19904,7 @@
         <v>490</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>768</v>
+        <v>812</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>766</v>
@@ -19797,7 +19913,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>727</v>
       </c>
@@ -19821,7 +19937,7 @@
         <v>602</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>768</v>
+        <v>808</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>766</v>
@@ -20556,10 +20672,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="L115" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21024,119 +21140,119 @@
         <v>740</v>
       </c>
       <c r="B28" s="91">
-        <v>43281</v>
+        <v>41090</v>
       </c>
       <c r="C28" s="95">
-        <v>85.1</v>
-      </c>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="42" t="s">
-        <v>736</v>
+        <v>83.8</v>
+      </c>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="2" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
         <v>740</v>
       </c>
-      <c r="B29" s="90">
-        <v>51317</v>
-      </c>
-      <c r="C29" s="89">
-        <v>89.9</v>
-      </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="42" t="s">
-        <v>738</v>
+      <c r="B29" s="91">
+        <v>42185</v>
+      </c>
+      <c r="C29" s="95">
+        <v>84.1</v>
+      </c>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="2" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
-        <v>696</v>
+        <v>740</v>
       </c>
       <c r="B30" s="91">
         <v>43281</v>
       </c>
-      <c r="C30" s="89">
-        <v>52</v>
-      </c>
-      <c r="D30" s="89">
-        <v>50.302758398000002</v>
-      </c>
-      <c r="E30" s="89">
-        <v>53.871574222</v>
-      </c>
+      <c r="C30" s="95">
+        <v>85.1</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>696</v>
-      </c>
-      <c r="B31" s="91">
-        <v>43646</v>
+        <v>740</v>
+      </c>
+      <c r="B31" s="90">
+        <v>51317</v>
       </c>
       <c r="C31" s="89">
-        <v>49</v>
-      </c>
-      <c r="D31" s="89">
-        <v>46.735637591080902</v>
-      </c>
-      <c r="E31" s="89">
-        <v>50.539152862397202</v>
-      </c>
+        <v>89.9</v>
+      </c>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
       <c r="F31" s="42" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
         <v>696</v>
       </c>
-      <c r="B32" s="90">
-        <v>51317</v>
+      <c r="B32" s="91">
+        <v>43281</v>
       </c>
       <c r="C32" s="89">
-        <v>63</v>
-      </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="2" t="s">
-        <v>738</v>
+        <v>52</v>
+      </c>
+      <c r="D32" s="89">
+        <v>50.302758398000002</v>
+      </c>
+      <c r="E32" s="89">
+        <v>53.871574222</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>697</v>
-      </c>
-      <c r="B33" s="90">
-        <v>40724</v>
-      </c>
-      <c r="C33" s="95">
-        <v>16.7</v>
-      </c>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
+        <v>696</v>
+      </c>
+      <c r="B33" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C33" s="89">
+        <v>49</v>
+      </c>
+      <c r="D33" s="89">
+        <v>46.735637591080902</v>
+      </c>
+      <c r="E33" s="89">
+        <v>50.539152862397202</v>
+      </c>
       <c r="F33" s="42" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B34" s="90">
-        <v>42551</v>
-      </c>
-      <c r="C34" s="95">
-        <v>15.9</v>
-      </c>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="42" t="s">
-        <v>736</v>
+        <v>51317</v>
+      </c>
+      <c r="C34" s="89">
+        <v>63</v>
+      </c>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -21144,47 +21260,47 @@
         <v>697</v>
       </c>
       <c r="B35" s="90">
-        <v>51317</v>
+        <v>40724</v>
       </c>
       <c r="C35" s="95">
-        <v>15.1</v>
+        <v>16.7</v>
       </c>
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
-      <c r="F35" s="2" t="s">
-        <v>738</v>
+      <c r="F35" s="42" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
-        <v>699</v>
-      </c>
-      <c r="B36" s="91">
+      <c r="A36" s="58" t="s">
+        <v>697</v>
+      </c>
+      <c r="B36" s="90">
         <v>42551</v>
       </c>
       <c r="C36" s="95">
-        <v>5.0999999999999996</v>
+        <v>15.9</v>
       </c>
       <c r="D36" s="87"/>
       <c r="E36" s="87"/>
-      <c r="F36" s="2" t="s">
-        <v>769</v>
+      <c r="F36" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
-        <v>699</v>
-      </c>
-      <c r="B37" s="91">
-        <v>42916</v>
+      <c r="A37" s="58" t="s">
+        <v>697</v>
+      </c>
+      <c r="B37" s="90">
+        <v>51317</v>
       </c>
       <c r="C37" s="95">
-        <v>5.2</v>
+        <v>15.1</v>
       </c>
       <c r="D37" s="87"/>
       <c r="E37" s="87"/>
       <c r="F37" s="2" t="s">
-        <v>769</v>
+        <v>738</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -21192,63 +21308,63 @@
         <v>699</v>
       </c>
       <c r="B38" s="91">
-        <v>43281</v>
+        <v>42551</v>
       </c>
       <c r="C38" s="95">
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
-      <c r="F38" s="42" t="s">
-        <v>736</v>
+      <c r="F38" s="2" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
         <v>699</v>
       </c>
-      <c r="B39" s="90">
-        <v>51317</v>
+      <c r="B39" s="91">
+        <v>42916</v>
       </c>
       <c r="C39" s="95">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="D39" s="87"/>
       <c r="E39" s="87"/>
       <c r="F39" s="2" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
-        <v>700</v>
-      </c>
-      <c r="B40" s="90">
-        <v>40724</v>
+        <v>699</v>
+      </c>
+      <c r="B40" s="91">
+        <v>43281</v>
       </c>
       <c r="C40" s="95">
-        <v>15.3</v>
+        <v>4.8</v>
       </c>
       <c r="D40" s="87"/>
       <c r="E40" s="87"/>
       <c r="F40" s="42" t="s">
-        <v>769</v>
+        <v>736</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B41" s="90">
-        <v>42551</v>
+        <v>51317</v>
       </c>
       <c r="C41" s="95">
-        <v>17.2</v>
+        <v>2.1</v>
       </c>
       <c r="D41" s="87"/>
       <c r="E41" s="87"/>
-      <c r="F41" s="42" t="s">
-        <v>736</v>
+      <c r="F41" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -21256,74 +21372,74 @@
         <v>700</v>
       </c>
       <c r="B42" s="90">
-        <v>51317</v>
+        <v>40724</v>
       </c>
       <c r="C42" s="95">
-        <v>21.5</v>
+        <v>15.3</v>
       </c>
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
-      <c r="F42" s="2" t="s">
-        <v>738</v>
+      <c r="F42" s="42" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
-        <v>701</v>
-      </c>
-      <c r="B43" s="92">
+        <v>700</v>
+      </c>
+      <c r="B43" s="90">
         <v>42551</v>
       </c>
       <c r="C43" s="95">
-        <v>91.8</v>
+        <v>17.2</v>
       </c>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
-      <c r="F43" s="2" t="s">
-        <v>769</v>
+      <c r="F43" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
-        <v>701</v>
-      </c>
-      <c r="B44" s="92">
-        <v>42916</v>
+        <v>700</v>
+      </c>
+      <c r="B44" s="90">
+        <v>51317</v>
       </c>
       <c r="C44" s="95">
-        <v>91.600000000000009</v>
+        <v>21.5</v>
       </c>
       <c r="D44" s="87"/>
       <c r="E44" s="87"/>
-      <c r="F44" s="42" t="s">
-        <v>736</v>
+      <c r="F44" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
         <v>701</v>
       </c>
-      <c r="B45" s="90">
-        <v>51317</v>
+      <c r="B45" s="92">
+        <v>42551</v>
       </c>
       <c r="C45" s="95">
-        <v>96.2</v>
+        <v>91.8</v>
       </c>
       <c r="D45" s="87"/>
       <c r="E45" s="87"/>
       <c r="F45" s="2" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="s">
-        <v>702</v>
-      </c>
-      <c r="B46" s="91">
-        <v>43281</v>
+        <v>701</v>
+      </c>
+      <c r="B46" s="92">
+        <v>42916</v>
       </c>
       <c r="C46" s="95">
-        <v>17.599999999999998</v>
+        <v>91.600000000000009</v>
       </c>
       <c r="D46" s="87"/>
       <c r="E46" s="87"/>
@@ -21333,431 +21449,431 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="s">
-        <v>702</v>
-      </c>
-      <c r="B47" s="91">
-        <v>43646</v>
+        <v>701</v>
+      </c>
+      <c r="B47" s="90">
+        <v>51317</v>
       </c>
       <c r="C47" s="95">
-        <v>16.97</v>
+        <v>96.2</v>
       </c>
       <c r="D47" s="87"/>
       <c r="E47" s="87"/>
-      <c r="F47" s="42" t="s">
-        <v>737</v>
+      <c r="F47" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="s">
         <v>702</v>
       </c>
-      <c r="B48" s="90">
-        <v>51317</v>
+      <c r="B48" s="91">
+        <v>43281</v>
       </c>
       <c r="C48" s="95">
-        <v>80</v>
-      </c>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="2" t="s">
-        <v>738</v>
+        <v>17.599999999999998</v>
+      </c>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="59" t="s">
-        <v>703</v>
-      </c>
-      <c r="B49" s="92">
-        <v>40724</v>
+        <v>702</v>
+      </c>
+      <c r="B49" s="91">
+        <v>43646</v>
       </c>
       <c r="C49" s="95">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="2" t="s">
-        <v>769</v>
+        <v>16.97</v>
+      </c>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="59" t="s">
-        <v>703</v>
-      </c>
-      <c r="B50" s="92">
-        <v>42551</v>
+        <v>702</v>
+      </c>
+      <c r="B50" s="90">
+        <v>51317</v>
       </c>
       <c r="C50" s="95">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D50" s="86"/>
       <c r="E50" s="86"/>
-      <c r="F50" s="42" t="s">
-        <v>736</v>
+      <c r="F50" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="s">
         <v>703</v>
       </c>
-      <c r="B51" s="90">
-        <v>51317</v>
+      <c r="B51" s="92">
+        <v>40724</v>
       </c>
       <c r="C51" s="95">
-        <v>48.199999999999996</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D51" s="86"/>
       <c r="E51" s="86"/>
       <c r="F51" s="2" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="59" t="s">
-        <v>704</v>
-      </c>
-      <c r="B52" s="91">
-        <v>43646</v>
-      </c>
-      <c r="C52" s="89">
-        <v>46.9</v>
-      </c>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
+        <v>703</v>
+      </c>
+      <c r="B52" s="92">
+        <v>42551</v>
+      </c>
+      <c r="C52" s="95">
+        <v>33</v>
+      </c>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
       <c r="F52" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="59" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B53" s="90">
         <v>51317</v>
       </c>
-      <c r="C53" s="89">
-        <v>49.3</v>
-      </c>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
+      <c r="C53" s="95">
+        <v>48.199999999999996</v>
+      </c>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
       <c r="F53" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="59" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B54" s="91">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C54" s="89">
-        <v>71</v>
-      </c>
-      <c r="D54" s="89">
-        <v>69.282534772719998</v>
-      </c>
-      <c r="E54" s="89">
-        <v>71.891836587279997</v>
-      </c>
+        <v>46.9</v>
+      </c>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
       <c r="F54" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="59" t="s">
-        <v>705</v>
-      </c>
-      <c r="B55" s="91">
-        <v>43646</v>
+        <v>704</v>
+      </c>
+      <c r="B55" s="90">
+        <v>51317</v>
       </c>
       <c r="C55" s="89">
-        <v>71</v>
-      </c>
-      <c r="D55" s="89">
-        <v>69.310210964059195</v>
-      </c>
-      <c r="E55" s="89">
-        <v>71.990952281489598</v>
-      </c>
-      <c r="F55" s="42" t="s">
-        <v>737</v>
+        <v>49.3</v>
+      </c>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="59" t="s">
         <v>705</v>
       </c>
-      <c r="B56" s="90">
-        <v>51317</v>
+      <c r="B56" s="91">
+        <v>43281</v>
       </c>
       <c r="C56" s="89">
-        <v>79</v>
-      </c>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="2" t="s">
-        <v>738</v>
+        <v>71</v>
+      </c>
+      <c r="D56" s="89">
+        <v>69.282534772719998</v>
+      </c>
+      <c r="E56" s="89">
+        <v>71.891836587279997</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="59" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B57" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C57" s="95">
-        <v>16.7</v>
-      </c>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
+        <v>43646</v>
+      </c>
+      <c r="C57" s="89">
+        <v>71</v>
+      </c>
+      <c r="D57" s="89">
+        <v>69.310210964059195</v>
+      </c>
+      <c r="E57" s="89">
+        <v>71.990952281489598</v>
+      </c>
       <c r="F57" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="59" t="s">
-        <v>706</v>
-      </c>
-      <c r="B58" s="91">
-        <v>43646</v>
-      </c>
-      <c r="C58" s="95">
-        <v>16.7</v>
-      </c>
-      <c r="D58" s="88"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="42" t="s">
-        <v>737</v>
+        <v>705</v>
+      </c>
+      <c r="B58" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C58" s="89">
+        <v>79</v>
+      </c>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="59" t="s">
         <v>706</v>
       </c>
-      <c r="B59" s="90">
-        <v>51317</v>
+      <c r="B59" s="91">
+        <v>43281</v>
       </c>
       <c r="C59" s="95">
-        <v>100</v>
+        <v>16.7</v>
       </c>
       <c r="D59" s="88"/>
       <c r="E59" s="88"/>
-      <c r="F59" s="2" t="s">
-        <v>738</v>
+      <c r="F59" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="84" t="s">
-        <v>707</v>
+      <c r="A60" s="59" t="s">
+        <v>706</v>
       </c>
       <c r="B60" s="91">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C60" s="95">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
+        <v>16.7</v>
+      </c>
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
       <c r="F60" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="84" t="s">
-        <v>707</v>
+      <c r="A61" s="59" t="s">
+        <v>706</v>
       </c>
       <c r="B61" s="90">
         <v>51317</v>
       </c>
       <c r="C61" s="95">
-        <v>90</v>
-      </c>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
+        <v>100</v>
+      </c>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
       <c r="F61" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="98" t="s">
-        <v>708</v>
-      </c>
-      <c r="B62" s="90">
-        <v>40724</v>
+      <c r="A62" s="84" t="s">
+        <v>707</v>
+      </c>
+      <c r="B62" s="91">
+        <v>43281</v>
       </c>
       <c r="C62" s="95">
-        <v>21.6</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="D62" s="87"/>
       <c r="E62" s="87"/>
       <c r="F62" s="42" t="s">
-        <v>769</v>
+        <v>736</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="84" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B63" s="90">
-        <v>42551</v>
+        <v>51317</v>
       </c>
       <c r="C63" s="95">
-        <v>23.6</v>
+        <v>90</v>
       </c>
       <c r="D63" s="87"/>
       <c r="E63" s="87"/>
-      <c r="F63" s="42" t="s">
-        <v>736</v>
+      <c r="F63" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="84" t="s">
+      <c r="A64" s="98" t="s">
         <v>708</v>
       </c>
       <c r="B64" s="90">
-        <v>51317</v>
+        <v>40724</v>
       </c>
       <c r="C64" s="95">
-        <v>50.1</v>
+        <v>21.6</v>
       </c>
       <c r="D64" s="87"/>
       <c r="E64" s="87"/>
-      <c r="F64" s="2" t="s">
-        <v>738</v>
+      <c r="F64" s="42" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="99" t="s">
-        <v>709</v>
+      <c r="A65" s="84" t="s">
+        <v>708</v>
       </c>
       <c r="B65" s="90">
-        <v>40724</v>
+        <v>42551</v>
       </c>
       <c r="C65" s="95">
-        <v>10.4</v>
+        <v>23.6</v>
       </c>
       <c r="D65" s="87"/>
       <c r="E65" s="87"/>
-      <c r="F65" s="2" t="s">
-        <v>769</v>
+      <c r="F65" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="84" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B66" s="90">
-        <v>42551</v>
+        <v>51317</v>
       </c>
       <c r="C66" s="95">
-        <v>11</v>
+        <v>50.1</v>
       </c>
       <c r="D66" s="87"/>
       <c r="E66" s="87"/>
-      <c r="F66" s="42" t="s">
-        <v>736</v>
+      <c r="F66" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="84" t="s">
+      <c r="A67" s="99" t="s">
         <v>709</v>
       </c>
       <c r="B67" s="90">
-        <v>51317</v>
+        <v>40724</v>
       </c>
       <c r="C67" s="95">
-        <v>11.600000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="D67" s="87"/>
       <c r="E67" s="87"/>
       <c r="F67" s="2" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="84" t="s">
-        <v>710</v>
-      </c>
-      <c r="B68" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C68" s="89">
-        <v>2</v>
-      </c>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
+        <v>709</v>
+      </c>
+      <c r="B68" s="90">
+        <v>42551</v>
+      </c>
+      <c r="C68" s="95">
+        <v>11</v>
+      </c>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
       <c r="F68" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="84" t="s">
-        <v>710</v>
-      </c>
-      <c r="B69" s="91">
-        <v>43646</v>
-      </c>
-      <c r="C69" s="89">
-        <v>1</v>
-      </c>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="42" t="s">
-        <v>737</v>
+        <v>709</v>
+      </c>
+      <c r="B69" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C69" s="95">
+        <v>11.600000000000001</v>
+      </c>
+      <c r="D69" s="87"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="84" t="s">
         <v>710</v>
       </c>
-      <c r="B70" s="90">
-        <v>51317</v>
+      <c r="B70" s="91">
+        <v>43281</v>
       </c>
       <c r="C70" s="89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70" s="89"/>
       <c r="E70" s="89"/>
-      <c r="F70" s="2" t="s">
-        <v>738</v>
+      <c r="F70" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B71" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C71" s="95">
-        <v>0</v>
-      </c>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
+        <v>43646</v>
+      </c>
+      <c r="C71" s="89">
+        <v>1</v>
+      </c>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
       <c r="F71" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B72" s="90">
         <v>51317</v>
       </c>
-      <c r="C72" s="95">
-        <v>100</v>
-      </c>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87"/>
+      <c r="C72" s="89">
+        <v>0</v>
+      </c>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
       <c r="F72" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="84" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B73" s="91">
         <v>43281</v>
@@ -21765,117 +21881,117 @@
       <c r="C73" s="95">
         <v>0</v>
       </c>
-      <c r="D73" s="88"/>
-      <c r="E73" s="88"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="87"/>
       <c r="F73" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="84" t="s">
-        <v>712</v>
-      </c>
-      <c r="B74" s="91">
-        <v>43646</v>
+        <v>711</v>
+      </c>
+      <c r="B74" s="90">
+        <v>51317</v>
       </c>
       <c r="C74" s="95">
-        <v>60.699999999999996</v>
-      </c>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="42" t="s">
-        <v>737</v>
+        <v>100</v>
+      </c>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="84" t="s">
         <v>712</v>
       </c>
-      <c r="B75" s="90">
-        <v>51317</v>
+      <c r="B75" s="91">
+        <v>43281</v>
       </c>
       <c r="C75" s="95">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D75" s="88"/>
       <c r="E75" s="88"/>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="84" t="s">
+        <v>712</v>
+      </c>
+      <c r="B76" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C76" s="95">
+        <v>60.699999999999996</v>
+      </c>
+      <c r="D76" s="88"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="42" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="84" t="s">
+        <v>712</v>
+      </c>
+      <c r="B77" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C77" s="95">
+        <v>100</v>
+      </c>
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="2" t="s">
         <v>738</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="60" t="s">
-        <v>713</v>
-      </c>
-      <c r="B76" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C76" s="89">
-        <v>2773</v>
-      </c>
-      <c r="D76" s="89"/>
-      <c r="E76" s="89"/>
-      <c r="F76" s="42" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="60" t="s">
-        <v>713</v>
-      </c>
-      <c r="B77" s="91">
-        <v>43646</v>
-      </c>
-      <c r="C77" s="89">
-        <v>1746</v>
-      </c>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="42" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B78" s="90">
-        <v>51317</v>
+      <c r="B78" s="91">
+        <v>43281</v>
       </c>
       <c r="C78" s="89">
-        <v>139</v>
+        <v>2773</v>
       </c>
       <c r="D78" s="89"/>
       <c r="E78" s="89"/>
-      <c r="F78" s="2" t="s">
-        <v>738</v>
+      <c r="F78" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="60" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B79" s="91">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C79" s="89">
-        <v>1300000</v>
+        <v>1746</v>
       </c>
       <c r="D79" s="89"/>
       <c r="E79" s="89"/>
       <c r="F79" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="60" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B80" s="90">
         <v>51317</v>
       </c>
       <c r="C80" s="89">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D80" s="89"/>
       <c r="E80" s="89"/>
@@ -21885,13 +22001,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="60" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B81" s="91">
         <v>43281</v>
       </c>
       <c r="C81" s="89">
-        <v>49917</v>
+        <v>1300000</v>
       </c>
       <c r="D81" s="89"/>
       <c r="E81" s="89"/>
@@ -21901,61 +22017,61 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="60" t="s">
-        <v>714</v>
-      </c>
-      <c r="B82" s="91">
-        <v>43646</v>
+        <v>720</v>
+      </c>
+      <c r="B82" s="90">
+        <v>51317</v>
       </c>
       <c r="C82" s="89">
-        <v>51573</v>
+        <v>0</v>
       </c>
       <c r="D82" s="89"/>
       <c r="E82" s="89"/>
-      <c r="F82" s="42" t="s">
-        <v>737</v>
+      <c r="F82" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="60" t="s">
         <v>714</v>
       </c>
-      <c r="B83" s="90">
-        <v>51317</v>
+      <c r="B83" s="91">
+        <v>43281</v>
       </c>
       <c r="C83" s="89">
-        <v>54909</v>
+        <v>49917</v>
       </c>
       <c r="D83" s="89"/>
       <c r="E83" s="89"/>
-      <c r="F83" s="2" t="s">
-        <v>738</v>
+      <c r="F83" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="60" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B84" s="91">
-        <v>42185</v>
+        <v>43646</v>
       </c>
       <c r="C84" s="89">
-        <v>127</v>
+        <v>51573</v>
       </c>
       <c r="D84" s="89"/>
       <c r="E84" s="89"/>
       <c r="F84" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="60" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B85" s="90">
         <v>51317</v>
       </c>
       <c r="C85" s="89">
-        <v>57</v>
+        <v>54909</v>
       </c>
       <c r="D85" s="89"/>
       <c r="E85" s="89"/>
@@ -21965,13 +22081,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="60" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B86" s="91">
         <v>42185</v>
       </c>
       <c r="C86" s="89">
-        <v>12000</v>
+        <v>127</v>
       </c>
       <c r="D86" s="89"/>
       <c r="E86" s="89"/>
@@ -21981,13 +22097,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="60" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B87" s="90">
         <v>51317</v>
       </c>
       <c r="C87" s="89">
-        <v>6700</v>
+        <v>57</v>
       </c>
       <c r="D87" s="89"/>
       <c r="E87" s="89"/>
@@ -21997,65 +22113,65 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="60" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B88" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C88" s="95">
-        <v>17</v>
-      </c>
-      <c r="D88" s="95">
-        <v>16</v>
-      </c>
-      <c r="E88" s="95">
-        <v>18</v>
-      </c>
+        <v>42185</v>
+      </c>
+      <c r="C88" s="89">
+        <v>12000</v>
+      </c>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
       <c r="F88" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="60" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B89" s="90">
         <v>51317</v>
       </c>
-      <c r="C89" s="95">
-        <v>30</v>
-      </c>
-      <c r="D89" s="95"/>
-      <c r="E89" s="95"/>
+      <c r="C89" s="89">
+        <v>6700</v>
+      </c>
+      <c r="D89" s="89"/>
+      <c r="E89" s="89"/>
       <c r="F89" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="60" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B90" s="91">
-        <v>42185</v>
+        <v>43281</v>
       </c>
       <c r="C90" s="95">
-        <v>39</v>
-      </c>
-      <c r="D90" s="95"/>
-      <c r="E90" s="95"/>
+        <v>17</v>
+      </c>
+      <c r="D90" s="95">
+        <v>16</v>
+      </c>
+      <c r="E90" s="95">
+        <v>18</v>
+      </c>
       <c r="F90" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="60" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B91" s="90">
         <v>51317</v>
       </c>
       <c r="C91" s="95">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D91" s="95"/>
       <c r="E91" s="95"/>
@@ -22065,79 +22181,89 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="60" t="s">
-        <v>723</v>
-      </c>
-      <c r="B92" s="90">
-        <v>51317</v>
+        <v>724</v>
+      </c>
+      <c r="B92" s="91">
+        <v>42185</v>
       </c>
       <c r="C92" s="95">
-        <v>30</v>
-      </c>
-      <c r="D92" s="88"/>
-      <c r="E92" s="88"/>
-      <c r="F92" s="2" t="s">
-        <v>738</v>
+        <v>39</v>
+      </c>
+      <c r="D92" s="95"/>
+      <c r="E92" s="95"/>
+      <c r="F92" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="60" t="s">
-        <v>715</v>
-      </c>
-      <c r="B93" s="91">
-        <v>43281</v>
+        <v>724</v>
+      </c>
+      <c r="B93" s="90">
+        <v>51317</v>
       </c>
       <c r="C93" s="95">
-        <v>41.67</v>
-      </c>
-      <c r="F93" s="42" t="s">
-        <v>736</v>
+        <v>35</v>
+      </c>
+      <c r="D93" s="95"/>
+      <c r="E93" s="95"/>
+      <c r="F93" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="60" t="s">
-        <v>715</v>
-      </c>
-      <c r="B94" s="91">
-        <v>43646</v>
+        <v>723</v>
+      </c>
+      <c r="B94" s="90">
+        <v>51317</v>
       </c>
       <c r="C94" s="95">
-        <v>41.11</v>
-      </c>
-      <c r="F94" s="42" t="s">
-        <v>737</v>
+        <v>30</v>
+      </c>
+      <c r="D94" s="88"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="60" t="s">
         <v>715</v>
       </c>
-      <c r="B95" s="90">
-        <v>51317</v>
+      <c r="B95" s="91">
+        <v>43281</v>
       </c>
       <c r="C95" s="95">
-        <v>90</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>738</v>
+        <v>41.67</v>
+      </c>
+      <c r="F95" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="60" t="s">
-        <v>716</v>
+        <v>715</v>
+      </c>
+      <c r="B96" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C96" s="95">
+        <v>41.11</v>
       </c>
       <c r="F96" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="60" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B97" s="90">
         <v>51317</v>
       </c>
       <c r="C97" s="95">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>738</v>
@@ -22145,7 +22271,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="60" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="F98" s="42" t="s">
         <v>736</v>
@@ -22153,77 +22279,71 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="60" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="B99" s="90">
         <v>51317</v>
       </c>
       <c r="C99" s="95">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="61" t="s">
-        <v>717</v>
-      </c>
-      <c r="B100" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C100" s="95">
-        <v>75</v>
+      <c r="A100" s="60" t="s">
+        <v>725</v>
       </c>
       <c r="F100" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="61" t="s">
-        <v>717</v>
-      </c>
-      <c r="B101" s="91">
-        <v>43646</v>
+      <c r="A101" s="60" t="s">
+        <v>725</v>
+      </c>
+      <c r="B101" s="90">
+        <v>51317</v>
       </c>
       <c r="C101" s="95">
-        <v>80</v>
-      </c>
-      <c r="F101" s="42" t="s">
-        <v>737</v>
+        <v>100</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="61" t="s">
         <v>717</v>
       </c>
-      <c r="B102" s="90">
-        <v>51317</v>
+      <c r="B102" s="91">
+        <v>43281</v>
       </c>
       <c r="C102" s="95">
-        <v>100</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>738</v>
+        <v>75</v>
+      </c>
+      <c r="F102" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B103" s="91">
         <v>43646</v>
       </c>
       <c r="C103" s="95">
-        <v>5.5</v>
+        <v>80</v>
       </c>
       <c r="F103" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B104" s="90">
         <v>51317</v>
@@ -22237,13 +22357,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="61" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B105" s="91">
         <v>43281</v>
       </c>
-      <c r="C105" s="89">
-        <v>4.17</v>
+      <c r="C105" s="95">
+        <v>0</v>
       </c>
       <c r="F105" s="42" t="s">
         <v>736</v>
@@ -22251,13 +22371,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B106" s="91">
         <v>43646</v>
       </c>
-      <c r="C106" s="89">
-        <v>4.13</v>
+      <c r="C106" s="95">
+        <v>5.5</v>
       </c>
       <c r="F106" s="42" t="s">
         <v>737</v>
@@ -22265,13 +22385,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B107" s="90">
         <v>51317</v>
       </c>
-      <c r="C107" s="89">
-        <v>4.38</v>
+      <c r="C107" s="95">
+        <v>100</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>738</v>
@@ -22279,7 +22399,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
-        <v>719</v>
+        <v>726</v>
+      </c>
+      <c r="B108" s="91">
+        <v>43281</v>
+      </c>
+      <c r="C108" s="89">
+        <v>4.17</v>
       </c>
       <c r="F108" s="42" t="s">
         <v>736</v>
@@ -22287,37 +22413,85 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="61" t="s">
-        <v>719</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>738</v>
+        <v>726</v>
+      </c>
+      <c r="B109" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C109" s="89">
+        <v>4.13</v>
+      </c>
+      <c r="F109" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="61" t="s">
-        <v>727</v>
-      </c>
-      <c r="B110" s="92">
-        <v>40724</v>
-      </c>
-      <c r="C110" s="95">
-        <v>55.000000000000007</v>
-      </c>
-      <c r="F110" s="42" t="s">
-        <v>736</v>
+        <v>726</v>
+      </c>
+      <c r="B110" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C110" s="89">
+        <v>4.38</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="B111" s="91">
+        <v>43281</v>
+      </c>
+      <c r="C111" s="89">
+        <v>91.1</v>
+      </c>
+      <c r="F111" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="B112" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C112">
+        <v>95</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="61" t="s">
         <v>727</v>
       </c>
-      <c r="B111" s="90">
+      <c r="B113" s="92">
+        <v>40724</v>
+      </c>
+      <c r="C113" s="95">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="F113" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="61" t="s">
+        <v>727</v>
+      </c>
+      <c r="B114" s="90">
         <v>51317</v>
       </c>
-      <c r="C111" s="95">
+      <c r="C114" s="95">
         <v>57.8</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>738</v>
       </c>
     </row>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A356B8-C860-4644-95F2-170D21AC363B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C34DA8B-2FAF-453C-AEAC-126DC1CA881E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="4" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="7" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -3137,9 +3137,6 @@
     <t>Commentary</t>
   </si>
   <si>
-    <t>Data to be added</t>
-  </si>
-  <si>
     <t>Kerbside waste collected and diverted from landfill</t>
   </si>
   <si>
@@ -3282,6 +3279,9 @@
   </si>
   <si>
     <t>This is an interim figure only!!!</t>
+  </si>
+  <si>
+    <t>Data to be added. This is just test data!!!</t>
   </si>
 </sst>
 </file>
@@ -18517,8 +18517,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18565,7 +18565,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -18594,10 +18594,10 @@
         <v>632</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K2" t="s">
         <v>649</v>
@@ -18629,10 +18629,10 @@
         <v>625</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K3" t="s">
         <v>599</v>
@@ -18664,10 +18664,10 @@
         <v>625</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K4" t="s">
         <v>599</v>
@@ -18687,7 +18687,7 @@
         <v>658</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>683</v>
@@ -18699,10 +18699,10 @@
         <v>602</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>764</v>
+        <v>812</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K5" t="s">
         <v>599</v>
@@ -18734,10 +18734,10 @@
         <v>625</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K6" t="s">
         <v>599</v>
@@ -18769,10 +18769,10 @@
         <v>677</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K7" t="s">
         <v>599</v>
@@ -18804,10 +18804,10 @@
         <v>641</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K8" t="s">
         <v>649</v>
@@ -18839,10 +18839,10 @@
         <v>676</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K9" t="s">
         <v>599</v>
@@ -18874,10 +18874,10 @@
         <v>639</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K10" t="s">
         <v>599</v>
@@ -18909,10 +18909,10 @@
         <v>626</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K11" t="s">
         <v>599</v>
@@ -18944,10 +18944,10 @@
         <v>603</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K12" t="s">
         <v>649</v>
@@ -18973,16 +18973,16 @@
         <v>160</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H13" s="73" t="s">
         <v>628</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K13" t="s">
         <v>649</v>
@@ -19014,10 +19014,10 @@
         <v>629</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K14" t="s">
         <v>599</v>
@@ -19037,7 +19037,7 @@
         <v>526</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>623</v>
@@ -19049,10 +19049,10 @@
         <v>602</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K15" t="s">
         <v>599</v>
@@ -19084,10 +19084,10 @@
         <v>625</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K16" t="s">
         <v>599</v>
@@ -19117,10 +19117,10 @@
         <v>633</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K17" t="s">
         <v>599</v>
@@ -19152,10 +19152,10 @@
         <v>602</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K18" t="s">
         <v>599</v>
@@ -19187,10 +19187,10 @@
         <v>626</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K19" t="s">
         <v>599</v>
@@ -19218,10 +19218,10 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K20" s="2"/>
     </row>
@@ -19245,16 +19245,16 @@
         <v>143</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H21" s="73" t="s">
         <v>634</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K21" t="s">
         <v>599</v>
@@ -19284,10 +19284,10 @@
         <v>604</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K22" t="s">
         <v>599</v>
@@ -19317,10 +19317,10 @@
         <v>602</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K23" t="s">
         <v>599</v>
@@ -19350,10 +19350,10 @@
         <v>598</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K24" t="s">
         <v>649</v>
@@ -19383,10 +19383,10 @@
         <v>625</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K25" t="s">
         <v>599</v>
@@ -19418,10 +19418,10 @@
         <v>625</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K26" t="s">
         <v>599</v>
@@ -19453,10 +19453,10 @@
         <v>604</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K27" t="s">
         <v>649</v>
@@ -19488,10 +19488,10 @@
         <v>604</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K28" t="s">
         <v>649</v>
@@ -19523,10 +19523,10 @@
         <v>609</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K29" t="s">
         <v>599</v>
@@ -19546,7 +19546,7 @@
         <v>410</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>168</v>
@@ -19558,10 +19558,10 @@
         <v>608</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K30" t="s">
         <v>649</v>
@@ -19593,10 +19593,10 @@
         <v>608</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K31" t="s">
         <v>649</v>
@@ -19622,16 +19622,16 @@
         <v>145</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H32" s="66" t="s">
         <v>604</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K32" t="s">
         <v>599</v>
@@ -19651,7 +19651,7 @@
         <v>413</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="3" t="s">
@@ -19661,10 +19661,10 @@
         <v>608</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K33" t="s">
         <v>649</v>
@@ -19681,7 +19681,7 @@
         <v>192</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>383</v>
@@ -19696,10 +19696,10 @@
         <v>604</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K34" t="s">
         <v>599</v>
@@ -19731,10 +19731,10 @@
         <v>634</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K35" t="s">
         <v>599</v>
@@ -19766,10 +19766,10 @@
         <v>634</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K36" t="s">
         <v>599</v>
@@ -19801,10 +19801,10 @@
         <v>605</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K37" t="s">
         <v>599</v>
@@ -19836,10 +19836,10 @@
         <v>640</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K38" t="s">
         <v>599</v>
@@ -19869,10 +19869,10 @@
         <v>602</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K39" t="s">
         <v>599</v>
@@ -19904,10 +19904,10 @@
         <v>490</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K40" t="s">
         <v>599</v>
@@ -19927,7 +19927,7 @@
         <v>584</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
@@ -19937,10 +19937,10 @@
         <v>602</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K41" t="s">
         <v>599</v>
@@ -20674,8 +20674,8 @@
   </sheetPr>
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="L115" sqref="L115"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20716,7 +20716,7 @@
         <v>5.04</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -20730,7 +20730,7 @@
         <v>4.8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -20744,7 +20744,7 @@
         <v>4.72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -20758,7 +20758,7 @@
         <v>4.79</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -20772,7 +20772,7 @@
         <v>4.84</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -20923,6 +20923,12 @@
       <c r="A15" s="58" t="s">
         <v>693</v>
       </c>
+      <c r="B15" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C15" s="95">
+        <v>60.699999999999996</v>
+      </c>
       <c r="F15" s="42" t="s">
         <v>736</v>
       </c>
@@ -20930,6 +20936,12 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>693</v>
+      </c>
+      <c r="B16" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C16" s="95">
+        <v>90</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>738</v>
@@ -21040,7 +21052,7 @@
         <v>21.1</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -21148,7 +21160,7 @@
       <c r="D28" s="86"/>
       <c r="E28" s="86"/>
       <c r="F28" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -21164,7 +21176,7 @@
       <c r="D29" s="86"/>
       <c r="E29" s="86"/>
       <c r="F29" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -21268,7 +21280,7 @@
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
       <c r="F35" s="42" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -21316,7 +21328,7 @@
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
       <c r="F38" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -21332,7 +21344,7 @@
       <c r="D39" s="87"/>
       <c r="E39" s="87"/>
       <c r="F39" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -21380,7 +21392,7 @@
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
       <c r="F42" s="42" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -21428,7 +21440,7 @@
       <c r="D45" s="87"/>
       <c r="E45" s="87"/>
       <c r="F45" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -21524,7 +21536,7 @@
       <c r="D51" s="86"/>
       <c r="E51" s="86"/>
       <c r="F51" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -21740,7 +21752,7 @@
       <c r="D64" s="87"/>
       <c r="E64" s="87"/>
       <c r="F64" s="42" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -21788,7 +21800,7 @@
       <c r="D67" s="87"/>
       <c r="E67" s="87"/>
       <c r="F67" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -22273,6 +22285,12 @@
       <c r="A98" s="60" t="s">
         <v>716</v>
       </c>
+      <c r="B98" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C98" s="95">
+        <v>50</v>
+      </c>
       <c r="F98" s="42" t="s">
         <v>736</v>
       </c>
@@ -22294,6 +22312,12 @@
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="60" t="s">
         <v>725</v>
+      </c>
+      <c r="B100" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C100" s="95">
+        <v>80</v>
       </c>
       <c r="F100" s="42" t="s">
         <v>736</v>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C34DA8B-2FAF-453C-AEAC-126DC1CA881E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA96FF20-8E27-4FFC-9CA8-D6D1ACC6C0A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="7" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="8" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="814">
   <si>
     <t>FAIR</t>
   </si>
@@ -3101,9 +3101,6 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>Index score</t>
-  </si>
-  <si>
     <t>Deaths</t>
   </si>
   <si>
@@ -3282,6 +3279,12 @@
   </si>
   <si>
     <t>Data to be added. This is just test data!!!</t>
+  </si>
+  <si>
+    <t>Percentage (with 95% CI)</t>
+  </si>
+  <si>
+    <t>Index score (with 95% CI)</t>
   </si>
 </sst>
 </file>
@@ -18479,7 +18482,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -18488,7 +18491,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -18497,7 +18500,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
@@ -18559,13 +18562,13 @@
         <v>429</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J1" s="52" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -18588,16 +18591,16 @@
         <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2" s="73" t="s">
         <v>632</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K2" t="s">
         <v>649</v>
@@ -18629,10 +18632,10 @@
         <v>625</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K3" t="s">
         <v>599</v>
@@ -18664,10 +18667,10 @@
         <v>625</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K4" t="s">
         <v>599</v>
@@ -18687,7 +18690,7 @@
         <v>658</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>683</v>
@@ -18699,10 +18702,10 @@
         <v>602</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K5" t="s">
         <v>599</v>
@@ -18734,10 +18737,10 @@
         <v>625</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K6" t="s">
         <v>599</v>
@@ -18769,10 +18772,10 @@
         <v>677</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K7" t="s">
         <v>599</v>
@@ -18804,10 +18807,10 @@
         <v>641</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K8" t="s">
         <v>649</v>
@@ -18839,10 +18842,10 @@
         <v>676</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K9" t="s">
         <v>599</v>
@@ -18874,10 +18877,10 @@
         <v>639</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K10" t="s">
         <v>599</v>
@@ -18909,10 +18912,10 @@
         <v>626</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K11" t="s">
         <v>599</v>
@@ -18944,10 +18947,10 @@
         <v>603</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K12" t="s">
         <v>649</v>
@@ -18973,16 +18976,16 @@
         <v>160</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H13" s="73" t="s">
         <v>628</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K13" t="s">
         <v>649</v>
@@ -19014,10 +19017,10 @@
         <v>629</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K14" t="s">
         <v>599</v>
@@ -19037,7 +19040,7 @@
         <v>526</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>623</v>
@@ -19049,10 +19052,10 @@
         <v>602</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K15" t="s">
         <v>599</v>
@@ -19084,10 +19087,10 @@
         <v>625</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K16" t="s">
         <v>599</v>
@@ -19117,10 +19120,10 @@
         <v>633</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K17" t="s">
         <v>599</v>
@@ -19152,10 +19155,10 @@
         <v>602</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K18" t="s">
         <v>599</v>
@@ -19187,10 +19190,10 @@
         <v>626</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K19" t="s">
         <v>599</v>
@@ -19218,10 +19221,10 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K20" s="2"/>
     </row>
@@ -19245,16 +19248,16 @@
         <v>143</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H21" s="73" t="s">
         <v>634</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K21" t="s">
         <v>599</v>
@@ -19284,10 +19287,10 @@
         <v>604</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K22" t="s">
         <v>599</v>
@@ -19317,10 +19320,10 @@
         <v>602</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K23" t="s">
         <v>599</v>
@@ -19350,10 +19353,10 @@
         <v>598</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K24" t="s">
         <v>649</v>
@@ -19383,10 +19386,10 @@
         <v>625</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K25" t="s">
         <v>599</v>
@@ -19418,10 +19421,10 @@
         <v>625</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K26" t="s">
         <v>599</v>
@@ -19453,10 +19456,10 @@
         <v>604</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K27" t="s">
         <v>649</v>
@@ -19488,10 +19491,10 @@
         <v>604</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K28" t="s">
         <v>649</v>
@@ -19523,10 +19526,10 @@
         <v>609</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K29" t="s">
         <v>599</v>
@@ -19546,7 +19549,7 @@
         <v>410</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>168</v>
@@ -19558,10 +19561,10 @@
         <v>608</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K30" t="s">
         <v>649</v>
@@ -19593,10 +19596,10 @@
         <v>608</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K31" t="s">
         <v>649</v>
@@ -19622,16 +19625,16 @@
         <v>145</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H32" s="66" t="s">
         <v>604</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K32" t="s">
         <v>599</v>
@@ -19651,7 +19654,7 @@
         <v>413</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="3" t="s">
@@ -19661,10 +19664,10 @@
         <v>608</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K33" t="s">
         <v>649</v>
@@ -19681,7 +19684,7 @@
         <v>192</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>383</v>
@@ -19696,10 +19699,10 @@
         <v>604</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K34" t="s">
         <v>599</v>
@@ -19731,10 +19734,10 @@
         <v>634</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K35" t="s">
         <v>599</v>
@@ -19766,10 +19769,10 @@
         <v>634</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K36" t="s">
         <v>599</v>
@@ -19801,10 +19804,10 @@
         <v>605</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K37" t="s">
         <v>599</v>
@@ -19836,10 +19839,10 @@
         <v>640</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K38" t="s">
         <v>599</v>
@@ -19863,16 +19866,16 @@
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H39" s="70" t="s">
         <v>602</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K39" t="s">
         <v>599</v>
@@ -19898,16 +19901,16 @@
         <v>143</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H40" s="66" t="s">
         <v>490</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K40" t="s">
         <v>599</v>
@@ -19927,7 +19930,7 @@
         <v>584</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
@@ -19937,10 +19940,10 @@
         <v>602</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K41" t="s">
         <v>599</v>
@@ -20674,8 +20677,8 @@
   </sheetPr>
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="K100" sqref="K100"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20716,7 +20719,7 @@
         <v>5.04</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -20730,7 +20733,7 @@
         <v>4.8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -20744,7 +20747,7 @@
         <v>4.72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -20758,7 +20761,7 @@
         <v>4.79</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -20772,7 +20775,7 @@
         <v>4.84</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -21052,7 +21055,7 @@
         <v>21.1</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -21160,7 +21163,7 @@
       <c r="D28" s="86"/>
       <c r="E28" s="86"/>
       <c r="F28" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -21176,7 +21179,7 @@
       <c r="D29" s="86"/>
       <c r="E29" s="86"/>
       <c r="F29" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -21280,7 +21283,7 @@
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
       <c r="F35" s="42" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -21328,7 +21331,7 @@
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
       <c r="F38" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -21344,7 +21347,7 @@
       <c r="D39" s="87"/>
       <c r="E39" s="87"/>
       <c r="F39" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -21392,7 +21395,7 @@
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
       <c r="F42" s="42" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -21440,7 +21443,7 @@
       <c r="D45" s="87"/>
       <c r="E45" s="87"/>
       <c r="F45" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -21536,7 +21539,7 @@
       <c r="D51" s="86"/>
       <c r="E51" s="86"/>
       <c r="F51" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -21752,7 +21755,7 @@
       <c r="D64" s="87"/>
       <c r="E64" s="87"/>
       <c r="F64" s="42" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -21800,7 +21803,7 @@
       <c r="D67" s="87"/>
       <c r="E67" s="87"/>
       <c r="F67" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -22531,14 +22534,15 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -22571,7 +22575,7 @@
         <v>734</v>
       </c>
       <c r="C3" t="s">
-        <v>751</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -22582,7 +22586,7 @@
         <v>734</v>
       </c>
       <c r="C4" t="s">
-        <v>751</v>
+        <v>812</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -22604,7 +22608,7 @@
         <v>734</v>
       </c>
       <c r="C6" t="s">
-        <v>751</v>
+        <v>812</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -22626,7 +22630,7 @@
         <v>734</v>
       </c>
       <c r="C8" t="s">
-        <v>751</v>
+        <v>812</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -22637,7 +22641,7 @@
         <v>734</v>
       </c>
       <c r="C9" t="s">
-        <v>751</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -22659,7 +22663,7 @@
         <v>733</v>
       </c>
       <c r="C11" t="s">
-        <v>752</v>
+        <v>813</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -22747,7 +22751,7 @@
         <v>733</v>
       </c>
       <c r="C19" t="s">
-        <v>752</v>
+        <v>813</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -22802,7 +22806,7 @@
         <v>733</v>
       </c>
       <c r="C24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -22835,7 +22839,7 @@
         <v>733</v>
       </c>
       <c r="C27" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -22846,7 +22850,7 @@
         <v>733</v>
       </c>
       <c r="C28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -22857,7 +22861,7 @@
         <v>733</v>
       </c>
       <c r="C29" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -22868,7 +22872,7 @@
         <v>733</v>
       </c>
       <c r="C30" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -22879,7 +22883,7 @@
         <v>733</v>
       </c>
       <c r="C31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -22890,7 +22894,7 @@
         <v>734</v>
       </c>
       <c r="C32" t="s">
-        <v>751</v>
+        <v>812</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -22901,7 +22905,7 @@
         <v>733</v>
       </c>
       <c r="C33" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA96FF20-8E27-4FFC-9CA8-D6D1ACC6C0A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EE052D-E91C-4444-B45D-74BA6E23D101}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="8" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="4" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="814">
   <si>
     <t>FAIR</t>
   </si>
@@ -18520,8 +18520,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19226,7 +19226,9 @@
       <c r="J20" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -22534,7 +22536,7 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EE052D-E91C-4444-B45D-74BA6E23D101}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0FE424-D348-4600-8E75-97EF87B54018}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="4" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -3143,9 +3143,6 @@
     <t>The percentage of people who have visited local green space weekly or more often</t>
   </si>
   <si>
-    <t xml:space="preserve">Add commentary about what the the results mean. </t>
-  </si>
-  <si>
     <t>prior</t>
   </si>
   <si>
@@ -3285,6 +3282,9 @@
   </si>
   <si>
     <t>Index score (with 95% CI)</t>
+  </si>
+  <si>
+    <t>Approximately 41 per cent of kerbside waste is collected diverted from landfill (in to the recyclable and green organics streams).</t>
   </si>
 </sst>
 </file>
@@ -18520,8 +18520,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18568,7 +18568,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -18597,7 +18597,7 @@
         <v>632</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>764</v>
@@ -18632,7 +18632,7 @@
         <v>625</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>764</v>
@@ -18667,7 +18667,7 @@
         <v>625</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>764</v>
@@ -18690,7 +18690,7 @@
         <v>658</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>683</v>
@@ -18702,7 +18702,7 @@
         <v>602</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>764</v>
@@ -18737,7 +18737,7 @@
         <v>625</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>764</v>
@@ -18772,7 +18772,7 @@
         <v>677</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>764</v>
@@ -18807,7 +18807,7 @@
         <v>641</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>764</v>
@@ -18842,7 +18842,7 @@
         <v>676</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>764</v>
@@ -18877,7 +18877,7 @@
         <v>639</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>764</v>
@@ -18912,7 +18912,7 @@
         <v>626</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>764</v>
@@ -18947,7 +18947,7 @@
         <v>603</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>764</v>
@@ -18976,13 +18976,13 @@
         <v>160</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H13" s="73" t="s">
         <v>628</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>764</v>
@@ -19017,7 +19017,7 @@
         <v>629</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>764</v>
@@ -19040,7 +19040,7 @@
         <v>526</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>623</v>
@@ -19052,7 +19052,7 @@
         <v>602</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>764</v>
@@ -19087,7 +19087,7 @@
         <v>625</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>764</v>
@@ -19120,7 +19120,7 @@
         <v>633</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>764</v>
@@ -19155,7 +19155,7 @@
         <v>602</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>764</v>
@@ -19190,7 +19190,7 @@
         <v>626</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>764</v>
@@ -19221,7 +19221,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>764</v>
@@ -19250,13 +19250,13 @@
         <v>143</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H21" s="73" t="s">
         <v>634</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>764</v>
@@ -19289,7 +19289,7 @@
         <v>604</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>764</v>
@@ -19322,7 +19322,7 @@
         <v>602</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>764</v>
@@ -19355,7 +19355,7 @@
         <v>598</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>764</v>
@@ -19388,7 +19388,7 @@
         <v>625</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>764</v>
@@ -19423,7 +19423,7 @@
         <v>625</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>764</v>
@@ -19458,7 +19458,7 @@
         <v>604</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>764</v>
@@ -19493,7 +19493,7 @@
         <v>604</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>764</v>
@@ -19528,7 +19528,7 @@
         <v>609</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>764</v>
@@ -19551,7 +19551,7 @@
         <v>410</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>168</v>
@@ -19563,7 +19563,7 @@
         <v>608</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>764</v>
@@ -19598,7 +19598,7 @@
         <v>608</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>764</v>
@@ -19627,13 +19627,13 @@
         <v>145</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H32" s="66" t="s">
         <v>604</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>764</v>
@@ -19656,7 +19656,7 @@
         <v>413</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="3" t="s">
@@ -19666,7 +19666,7 @@
         <v>608</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>764</v>
@@ -19675,7 +19675,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>715</v>
       </c>
@@ -19701,7 +19701,7 @@
         <v>604</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>766</v>
+        <v>813</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>764</v>
@@ -19736,7 +19736,7 @@
         <v>634</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>764</v>
@@ -19771,7 +19771,7 @@
         <v>634</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>764</v>
@@ -19806,7 +19806,7 @@
         <v>605</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>764</v>
@@ -19841,7 +19841,7 @@
         <v>640</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>764</v>
@@ -19874,7 +19874,7 @@
         <v>602</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>764</v>
@@ -19909,7 +19909,7 @@
         <v>490</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>764</v>
@@ -19942,7 +19942,7 @@
         <v>602</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>764</v>
@@ -20721,7 +20721,7 @@
         <v>5.04</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -20735,7 +20735,7 @@
         <v>4.8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -20749,7 +20749,7 @@
         <v>4.72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -20763,7 +20763,7 @@
         <v>4.79</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -20777,7 +20777,7 @@
         <v>4.84</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -21057,7 +21057,7 @@
         <v>21.1</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -21165,7 +21165,7 @@
       <c r="D28" s="86"/>
       <c r="E28" s="86"/>
       <c r="F28" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -21181,7 +21181,7 @@
       <c r="D29" s="86"/>
       <c r="E29" s="86"/>
       <c r="F29" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -21285,7 +21285,7 @@
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
       <c r="F35" s="42" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -21333,7 +21333,7 @@
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
       <c r="F38" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -21349,7 +21349,7 @@
       <c r="D39" s="87"/>
       <c r="E39" s="87"/>
       <c r="F39" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -21397,7 +21397,7 @@
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
       <c r="F42" s="42" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -21445,7 +21445,7 @@
       <c r="D45" s="87"/>
       <c r="E45" s="87"/>
       <c r="F45" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -21541,7 +21541,7 @@
       <c r="D51" s="86"/>
       <c r="E51" s="86"/>
       <c r="F51" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -21757,7 +21757,7 @@
       <c r="D64" s="87"/>
       <c r="E64" s="87"/>
       <c r="F64" s="42" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -21805,7 +21805,7 @@
       <c r="D67" s="87"/>
       <c r="E67" s="87"/>
       <c r="F67" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -22577,7 +22577,7 @@
         <v>734</v>
       </c>
       <c r="C3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -22588,7 +22588,7 @@
         <v>734</v>
       </c>
       <c r="C4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -22610,7 +22610,7 @@
         <v>734</v>
       </c>
       <c r="C6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -22632,7 +22632,7 @@
         <v>734</v>
       </c>
       <c r="C8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -22643,7 +22643,7 @@
         <v>734</v>
       </c>
       <c r="C9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -22665,7 +22665,7 @@
         <v>733</v>
       </c>
       <c r="C11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -22753,7 +22753,7 @@
         <v>733</v>
       </c>
       <c r="C19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -22896,7 +22896,7 @@
         <v>734</v>
       </c>
       <c r="C32" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0FE424-D348-4600-8E75-97EF87B54018}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B2F63E-90D5-42BA-88D7-AEFAAB1B11A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="4" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="7" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Additional indicators'!$B$2:$F$143</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">data!$A$1:$I$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">data!$A$1:$I$115</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">indicator_list!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Targets Indicators Measures'!$B$1:$AD$132</definedName>
   </definedNames>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3267" uniqueCount="814">
   <si>
     <t>FAIR</t>
   </si>
@@ -18520,8 +18520,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20677,10 +20677,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21372,32 +21372,32 @@
       <c r="A41" s="59" t="s">
         <v>699</v>
       </c>
-      <c r="B41" s="90">
-        <v>51317</v>
+      <c r="B41" s="91">
+        <v>43646</v>
       </c>
       <c r="C41" s="95">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="D41" s="87"/>
       <c r="E41" s="87"/>
-      <c r="F41" s="2" t="s">
-        <v>738</v>
+      <c r="F41" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B42" s="90">
-        <v>40724</v>
+        <v>51317</v>
       </c>
       <c r="C42" s="95">
-        <v>15.3</v>
+        <v>2.1</v>
       </c>
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
-      <c r="F42" s="42" t="s">
-        <v>766</v>
+      <c r="F42" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -21405,15 +21405,15 @@
         <v>700</v>
       </c>
       <c r="B43" s="90">
-        <v>42551</v>
+        <v>40724</v>
       </c>
       <c r="C43" s="95">
-        <v>17.2</v>
+        <v>15.3</v>
       </c>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
       <c r="F43" s="42" t="s">
-        <v>736</v>
+        <v>766</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -21421,31 +21421,31 @@
         <v>700</v>
       </c>
       <c r="B44" s="90">
-        <v>51317</v>
+        <v>42551</v>
       </c>
       <c r="C44" s="95">
-        <v>21.5</v>
+        <v>17.2</v>
       </c>
       <c r="D44" s="87"/>
       <c r="E44" s="87"/>
-      <c r="F44" s="2" t="s">
-        <v>738</v>
+      <c r="F44" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
-        <v>701</v>
-      </c>
-      <c r="B45" s="92">
-        <v>42551</v>
+        <v>700</v>
+      </c>
+      <c r="B45" s="90">
+        <v>51317</v>
       </c>
       <c r="C45" s="95">
-        <v>91.8</v>
+        <v>21.5</v>
       </c>
       <c r="D45" s="87"/>
       <c r="E45" s="87"/>
       <c r="F45" s="2" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -21453,47 +21453,47 @@
         <v>701</v>
       </c>
       <c r="B46" s="92">
-        <v>42916</v>
+        <v>42551</v>
       </c>
       <c r="C46" s="95">
-        <v>91.600000000000009</v>
+        <v>91.8</v>
       </c>
       <c r="D46" s="87"/>
       <c r="E46" s="87"/>
-      <c r="F46" s="42" t="s">
-        <v>736</v>
+      <c r="F46" s="2" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="s">
         <v>701</v>
       </c>
-      <c r="B47" s="90">
-        <v>51317</v>
+      <c r="B47" s="92">
+        <v>42916</v>
       </c>
       <c r="C47" s="95">
-        <v>96.2</v>
+        <v>91.600000000000009</v>
       </c>
       <c r="D47" s="87"/>
       <c r="E47" s="87"/>
-      <c r="F47" s="2" t="s">
-        <v>738</v>
+      <c r="F47" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="s">
-        <v>702</v>
-      </c>
-      <c r="B48" s="91">
-        <v>43281</v>
+        <v>701</v>
+      </c>
+      <c r="B48" s="90">
+        <v>51317</v>
       </c>
       <c r="C48" s="95">
-        <v>17.599999999999998</v>
+        <v>96.2</v>
       </c>
       <c r="D48" s="87"/>
       <c r="E48" s="87"/>
-      <c r="F48" s="42" t="s">
-        <v>736</v>
+      <c r="F48" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -21501,47 +21501,47 @@
         <v>702</v>
       </c>
       <c r="B49" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C49" s="95">
-        <v>16.97</v>
+        <v>17.599999999999998</v>
       </c>
       <c r="D49" s="87"/>
       <c r="E49" s="87"/>
       <c r="F49" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="59" t="s">
         <v>702</v>
       </c>
-      <c r="B50" s="90">
-        <v>51317</v>
+      <c r="B50" s="91">
+        <v>43646</v>
       </c>
       <c r="C50" s="95">
-        <v>80</v>
-      </c>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="2" t="s">
-        <v>738</v>
+        <v>16.97</v>
+      </c>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="s">
-        <v>703</v>
-      </c>
-      <c r="B51" s="92">
-        <v>40724</v>
+        <v>702</v>
+      </c>
+      <c r="B51" s="90">
+        <v>51317</v>
       </c>
       <c r="C51" s="95">
-        <v>33.799999999999997</v>
+        <v>80</v>
       </c>
       <c r="D51" s="86"/>
       <c r="E51" s="86"/>
       <c r="F51" s="2" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -21549,83 +21549,79 @@
         <v>703</v>
       </c>
       <c r="B52" s="92">
-        <v>42551</v>
+        <v>40724</v>
       </c>
       <c r="C52" s="95">
-        <v>33</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D52" s="86"/>
       <c r="E52" s="86"/>
-      <c r="F52" s="42" t="s">
-        <v>736</v>
+      <c r="F52" s="2" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="59" t="s">
         <v>703</v>
       </c>
-      <c r="B53" s="90">
-        <v>51317</v>
+      <c r="B53" s="92">
+        <v>42551</v>
       </c>
       <c r="C53" s="95">
-        <v>48.199999999999996</v>
+        <v>33</v>
       </c>
       <c r="D53" s="86"/>
       <c r="E53" s="86"/>
-      <c r="F53" s="2" t="s">
-        <v>738</v>
+      <c r="F53" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="59" t="s">
-        <v>704</v>
-      </c>
-      <c r="B54" s="91">
-        <v>43646</v>
-      </c>
-      <c r="C54" s="89">
-        <v>46.9</v>
-      </c>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="42" t="s">
-        <v>736</v>
+        <v>703</v>
+      </c>
+      <c r="B54" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C54" s="95">
+        <v>48.199999999999996</v>
+      </c>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="59" t="s">
         <v>704</v>
       </c>
-      <c r="B55" s="90">
-        <v>51317</v>
+      <c r="B55" s="91">
+        <v>43646</v>
       </c>
       <c r="C55" s="89">
-        <v>49.3</v>
+        <v>46.9</v>
       </c>
       <c r="D55" s="89"/>
       <c r="E55" s="89"/>
-      <c r="F55" s="2" t="s">
-        <v>738</v>
+      <c r="F55" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="59" t="s">
-        <v>705</v>
-      </c>
-      <c r="B56" s="91">
-        <v>43281</v>
+        <v>704</v>
+      </c>
+      <c r="B56" s="90">
+        <v>51317</v>
       </c>
       <c r="C56" s="89">
-        <v>71</v>
-      </c>
-      <c r="D56" s="89">
-        <v>69.282534772719998</v>
-      </c>
-      <c r="E56" s="89">
-        <v>71.891836587279997</v>
-      </c>
-      <c r="F56" s="42" t="s">
-        <v>736</v>
+        <v>49.3</v>
+      </c>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -21633,51 +21629,55 @@
         <v>705</v>
       </c>
       <c r="B57" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C57" s="89">
         <v>71</v>
       </c>
       <c r="D57" s="89">
-        <v>69.310210964059195</v>
+        <v>69.282534772719998</v>
       </c>
       <c r="E57" s="89">
-        <v>71.990952281489598</v>
+        <v>71.891836587279997</v>
       </c>
       <c r="F57" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="59" t="s">
         <v>705</v>
       </c>
-      <c r="B58" s="90">
-        <v>51317</v>
+      <c r="B58" s="91">
+        <v>43646</v>
       </c>
       <c r="C58" s="89">
-        <v>79</v>
-      </c>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="2" t="s">
-        <v>738</v>
+        <v>71</v>
+      </c>
+      <c r="D58" s="89">
+        <v>69.310210964059195</v>
+      </c>
+      <c r="E58" s="89">
+        <v>71.990952281489598</v>
+      </c>
+      <c r="F58" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="59" t="s">
-        <v>706</v>
-      </c>
-      <c r="B59" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C59" s="95">
-        <v>16.7</v>
-      </c>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="42" t="s">
-        <v>736</v>
+        <v>705</v>
+      </c>
+      <c r="B59" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C59" s="89">
+        <v>79</v>
+      </c>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -21685,7 +21685,7 @@
         <v>706</v>
       </c>
       <c r="B60" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C60" s="95">
         <v>16.7</v>
@@ -21693,87 +21693,87 @@
       <c r="D60" s="88"/>
       <c r="E60" s="88"/>
       <c r="F60" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="59" t="s">
         <v>706</v>
       </c>
-      <c r="B61" s="90">
-        <v>51317</v>
+      <c r="B61" s="91">
+        <v>43646</v>
       </c>
       <c r="C61" s="95">
-        <v>100</v>
+        <v>16.7</v>
       </c>
       <c r="D61" s="88"/>
       <c r="E61" s="88"/>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="42" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="59" t="s">
+        <v>706</v>
+      </c>
+      <c r="B62" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C62" s="95">
+        <v>100</v>
+      </c>
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="2" t="s">
         <v>738</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="84" t="s">
-        <v>707</v>
-      </c>
-      <c r="B62" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C62" s="95">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="D62" s="87"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="42" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="84" t="s">
         <v>707</v>
       </c>
-      <c r="B63" s="90">
-        <v>51317</v>
+      <c r="B63" s="91">
+        <v>43281</v>
       </c>
       <c r="C63" s="95">
-        <v>90</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="D63" s="87"/>
       <c r="E63" s="87"/>
-      <c r="F63" s="2" t="s">
-        <v>738</v>
+      <c r="F63" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="98" t="s">
-        <v>708</v>
+      <c r="A64" s="84" t="s">
+        <v>707</v>
       </c>
       <c r="B64" s="90">
-        <v>40724</v>
+        <v>51317</v>
       </c>
       <c r="C64" s="95">
-        <v>21.6</v>
+        <v>90</v>
       </c>
       <c r="D64" s="87"/>
       <c r="E64" s="87"/>
-      <c r="F64" s="42" t="s">
-        <v>766</v>
+      <c r="F64" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="84" t="s">
+      <c r="A65" s="98" t="s">
         <v>708</v>
       </c>
       <c r="B65" s="90">
-        <v>42551</v>
+        <v>40724</v>
       </c>
       <c r="C65" s="95">
-        <v>23.6</v>
+        <v>21.6</v>
       </c>
       <c r="D65" s="87"/>
       <c r="E65" s="87"/>
       <c r="F65" s="42" t="s">
-        <v>736</v>
+        <v>766</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -21781,47 +21781,47 @@
         <v>708</v>
       </c>
       <c r="B66" s="90">
-        <v>51317</v>
+        <v>42551</v>
       </c>
       <c r="C66" s="95">
-        <v>50.1</v>
+        <v>23.6</v>
       </c>
       <c r="D66" s="87"/>
       <c r="E66" s="87"/>
-      <c r="F66" s="2" t="s">
-        <v>738</v>
+      <c r="F66" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="99" t="s">
-        <v>709</v>
+      <c r="A67" s="84" t="s">
+        <v>708</v>
       </c>
       <c r="B67" s="90">
-        <v>40724</v>
+        <v>51317</v>
       </c>
       <c r="C67" s="95">
-        <v>10.4</v>
+        <v>50.1</v>
       </c>
       <c r="D67" s="87"/>
       <c r="E67" s="87"/>
       <c r="F67" s="2" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="84" t="s">
+      <c r="A68" s="99" t="s">
         <v>709</v>
       </c>
       <c r="B68" s="90">
-        <v>42551</v>
+        <v>40724</v>
       </c>
       <c r="C68" s="95">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="D68" s="87"/>
       <c r="E68" s="87"/>
-      <c r="F68" s="42" t="s">
-        <v>736</v>
+      <c r="F68" s="2" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -21829,31 +21829,31 @@
         <v>709</v>
       </c>
       <c r="B69" s="90">
-        <v>51317</v>
+        <v>42551</v>
       </c>
       <c r="C69" s="95">
-        <v>11.600000000000001</v>
+        <v>11</v>
       </c>
       <c r="D69" s="87"/>
       <c r="E69" s="87"/>
-      <c r="F69" s="2" t="s">
-        <v>738</v>
+      <c r="F69" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="84" t="s">
-        <v>710</v>
-      </c>
-      <c r="B70" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C70" s="89">
-        <v>2</v>
-      </c>
-      <c r="D70" s="89"/>
-      <c r="E70" s="89"/>
-      <c r="F70" s="42" t="s">
-        <v>736</v>
+        <v>709</v>
+      </c>
+      <c r="B70" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C70" s="95">
+        <v>11.600000000000001</v>
+      </c>
+      <c r="D70" s="87"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -21861,79 +21861,79 @@
         <v>710</v>
       </c>
       <c r="B71" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C71" s="89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="89"/>
       <c r="E71" s="89"/>
       <c r="F71" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="84" t="s">
         <v>710</v>
       </c>
-      <c r="B72" s="90">
-        <v>51317</v>
+      <c r="B72" s="91">
+        <v>43646</v>
       </c>
       <c r="C72" s="89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="89"/>
       <c r="E72" s="89"/>
-      <c r="F72" s="2" t="s">
-        <v>738</v>
+      <c r="F72" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="B73" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C73" s="95">
+        <v>710</v>
+      </c>
+      <c r="B73" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C73" s="89">
         <v>0</v>
       </c>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="42" t="s">
-        <v>736</v>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="84" t="s">
         <v>711</v>
       </c>
-      <c r="B74" s="90">
-        <v>51317</v>
+      <c r="B74" s="91">
+        <v>43281</v>
       </c>
       <c r="C74" s="95">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D74" s="87"/>
       <c r="E74" s="87"/>
-      <c r="F74" s="2" t="s">
-        <v>738</v>
+      <c r="F74" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="84" t="s">
-        <v>712</v>
-      </c>
-      <c r="B75" s="91">
-        <v>43281</v>
+        <v>711</v>
+      </c>
+      <c r="B75" s="90">
+        <v>51317</v>
       </c>
       <c r="C75" s="95">
-        <v>0</v>
-      </c>
-      <c r="D75" s="88"/>
-      <c r="E75" s="88"/>
-      <c r="F75" s="42" t="s">
-        <v>736</v>
+        <v>100</v>
+      </c>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -21941,47 +21941,47 @@
         <v>712</v>
       </c>
       <c r="B76" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C76" s="95">
-        <v>60.699999999999996</v>
+        <v>0</v>
       </c>
       <c r="D76" s="88"/>
       <c r="E76" s="88"/>
       <c r="F76" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="84" t="s">
         <v>712</v>
       </c>
-      <c r="B77" s="90">
-        <v>51317</v>
+      <c r="B77" s="91">
+        <v>43646</v>
       </c>
       <c r="C77" s="95">
-        <v>100</v>
+        <v>60.699999999999996</v>
       </c>
       <c r="D77" s="88"/>
       <c r="E77" s="88"/>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="42" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="84" t="s">
+        <v>712</v>
+      </c>
+      <c r="B78" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C78" s="95">
+        <v>100</v>
+      </c>
+      <c r="D78" s="88"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="2" t="s">
         <v>738</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="60" t="s">
-        <v>713</v>
-      </c>
-      <c r="B78" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C78" s="89">
-        <v>2773</v>
-      </c>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="42" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -21989,79 +21989,79 @@
         <v>713</v>
       </c>
       <c r="B79" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C79" s="89">
-        <v>1746</v>
+        <v>2773</v>
       </c>
       <c r="D79" s="89"/>
       <c r="E79" s="89"/>
       <c r="F79" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B80" s="90">
-        <v>51317</v>
+      <c r="B80" s="91">
+        <v>43646</v>
       </c>
       <c r="C80" s="89">
-        <v>139</v>
+        <v>1746</v>
       </c>
       <c r="D80" s="89"/>
       <c r="E80" s="89"/>
-      <c r="F80" s="2" t="s">
-        <v>738</v>
+      <c r="F80" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="60" t="s">
-        <v>720</v>
-      </c>
-      <c r="B81" s="91">
-        <v>43281</v>
+        <v>713</v>
+      </c>
+      <c r="B81" s="90">
+        <v>51317</v>
       </c>
       <c r="C81" s="89">
-        <v>1300000</v>
+        <v>139</v>
       </c>
       <c r="D81" s="89"/>
       <c r="E81" s="89"/>
-      <c r="F81" s="42" t="s">
-        <v>736</v>
+      <c r="F81" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="60" t="s">
         <v>720</v>
       </c>
-      <c r="B82" s="90">
-        <v>51317</v>
+      <c r="B82" s="91">
+        <v>43281</v>
       </c>
       <c r="C82" s="89">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="D82" s="89"/>
       <c r="E82" s="89"/>
-      <c r="F82" s="2" t="s">
-        <v>738</v>
+      <c r="F82" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="60" t="s">
-        <v>714</v>
-      </c>
-      <c r="B83" s="91">
-        <v>43281</v>
+        <v>720</v>
+      </c>
+      <c r="B83" s="90">
+        <v>51317</v>
       </c>
       <c r="C83" s="89">
-        <v>49917</v>
+        <v>0</v>
       </c>
       <c r="D83" s="89"/>
       <c r="E83" s="89"/>
-      <c r="F83" s="42" t="s">
-        <v>736</v>
+      <c r="F83" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -22069,193 +22069,195 @@
         <v>714</v>
       </c>
       <c r="B84" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C84" s="89">
-        <v>51573</v>
+        <v>49917</v>
       </c>
       <c r="D84" s="89"/>
       <c r="E84" s="89"/>
       <c r="F84" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="60" t="s">
         <v>714</v>
       </c>
-      <c r="B85" s="90">
-        <v>51317</v>
+      <c r="B85" s="91">
+        <v>43646</v>
       </c>
       <c r="C85" s="89">
-        <v>54909</v>
+        <v>51573</v>
       </c>
       <c r="D85" s="89"/>
       <c r="E85" s="89"/>
-      <c r="F85" s="2" t="s">
-        <v>738</v>
+      <c r="F85" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="60" t="s">
-        <v>721</v>
-      </c>
-      <c r="B86" s="91">
-        <v>42185</v>
+        <v>714</v>
+      </c>
+      <c r="B86" s="90">
+        <v>51317</v>
       </c>
       <c r="C86" s="89">
-        <v>127</v>
+        <v>54909</v>
       </c>
       <c r="D86" s="89"/>
       <c r="E86" s="89"/>
-      <c r="F86" s="42" t="s">
-        <v>736</v>
+      <c r="F86" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="60" t="s">
         <v>721</v>
       </c>
-      <c r="B87" s="90">
-        <v>51317</v>
+      <c r="B87" s="91">
+        <v>42185</v>
       </c>
       <c r="C87" s="89">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="D87" s="89"/>
       <c r="E87" s="89"/>
-      <c r="F87" s="2" t="s">
-        <v>738</v>
+      <c r="F87" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="60" t="s">
-        <v>722</v>
-      </c>
-      <c r="B88" s="91">
-        <v>42185</v>
+        <v>721</v>
+      </c>
+      <c r="B88" s="90">
+        <v>51317</v>
       </c>
       <c r="C88" s="89">
-        <v>12000</v>
+        <v>57</v>
       </c>
       <c r="D88" s="89"/>
       <c r="E88" s="89"/>
-      <c r="F88" s="42" t="s">
-        <v>736</v>
+      <c r="F88" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="60" t="s">
         <v>722</v>
       </c>
-      <c r="B89" s="90">
-        <v>51317</v>
+      <c r="B89" s="91">
+        <v>42185</v>
       </c>
       <c r="C89" s="89">
-        <v>6700</v>
+        <v>12000</v>
       </c>
       <c r="D89" s="89"/>
       <c r="E89" s="89"/>
-      <c r="F89" s="2" t="s">
-        <v>738</v>
+      <c r="F89" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="60" t="s">
-        <v>723</v>
-      </c>
-      <c r="B90" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C90" s="95">
-        <v>17</v>
-      </c>
-      <c r="D90" s="95">
-        <v>16</v>
-      </c>
-      <c r="E90" s="95">
-        <v>18</v>
-      </c>
-      <c r="F90" s="42" t="s">
-        <v>736</v>
+        <v>722</v>
+      </c>
+      <c r="B90" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C90" s="89">
+        <v>6700</v>
+      </c>
+      <c r="D90" s="89"/>
+      <c r="E90" s="89"/>
+      <c r="F90" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="60" t="s">
         <v>723</v>
       </c>
-      <c r="B91" s="90">
-        <v>51317</v>
+      <c r="B91" s="91">
+        <v>43281</v>
       </c>
       <c r="C91" s="95">
-        <v>30</v>
-      </c>
-      <c r="D91" s="95"/>
-      <c r="E91" s="95"/>
-      <c r="F91" s="2" t="s">
-        <v>738</v>
+        <v>17</v>
+      </c>
+      <c r="D91" s="95">
+        <v>16</v>
+      </c>
+      <c r="E91" s="95">
+        <v>18</v>
+      </c>
+      <c r="F91" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="60" t="s">
-        <v>724</v>
-      </c>
-      <c r="B92" s="91">
-        <v>42185</v>
+        <v>723</v>
+      </c>
+      <c r="B92" s="90">
+        <v>51317</v>
       </c>
       <c r="C92" s="95">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D92" s="95"/>
       <c r="E92" s="95"/>
-      <c r="F92" s="42" t="s">
-        <v>736</v>
+      <c r="F92" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="60" t="s">
         <v>724</v>
       </c>
-      <c r="B93" s="90">
-        <v>51317</v>
+      <c r="B93" s="91">
+        <v>42185</v>
       </c>
       <c r="C93" s="95">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D93" s="95"/>
       <c r="E93" s="95"/>
-      <c r="F93" s="2" t="s">
-        <v>738</v>
+      <c r="F93" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="60" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B94" s="90">
         <v>51317</v>
       </c>
       <c r="C94" s="95">
-        <v>30</v>
-      </c>
-      <c r="D94" s="88"/>
-      <c r="E94" s="88"/>
+        <v>35</v>
+      </c>
+      <c r="D94" s="95"/>
+      <c r="E94" s="95"/>
       <c r="F94" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="60" t="s">
-        <v>715</v>
-      </c>
-      <c r="B95" s="91">
-        <v>43281</v>
+        <v>723</v>
+      </c>
+      <c r="B95" s="90">
+        <v>51317</v>
       </c>
       <c r="C95" s="95">
-        <v>41.67</v>
-      </c>
-      <c r="F95" s="42" t="s">
-        <v>736</v>
+        <v>30</v>
+      </c>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -22263,97 +22265,97 @@
         <v>715</v>
       </c>
       <c r="B96" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C96" s="95">
-        <v>41.11</v>
+        <v>41.67</v>
       </c>
       <c r="F96" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="60" t="s">
         <v>715</v>
       </c>
-      <c r="B97" s="90">
-        <v>51317</v>
+      <c r="B97" s="91">
+        <v>43646</v>
       </c>
       <c r="C97" s="95">
-        <v>90</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>738</v>
+        <v>41.11</v>
+      </c>
+      <c r="F97" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="B98" s="91">
-        <v>43646</v>
+        <v>715</v>
+      </c>
+      <c r="B98" s="90">
+        <v>51317</v>
       </c>
       <c r="C98" s="95">
-        <v>50</v>
-      </c>
-      <c r="F98" s="42" t="s">
-        <v>736</v>
+        <v>90</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="60" t="s">
         <v>716</v>
       </c>
-      <c r="B99" s="90">
-        <v>51317</v>
+      <c r="B99" s="91">
+        <v>43646</v>
       </c>
       <c r="C99" s="95">
-        <v>75</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>738</v>
+        <v>50</v>
+      </c>
+      <c r="F99" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="60" t="s">
-        <v>725</v>
-      </c>
-      <c r="B100" s="91">
-        <v>43646</v>
+        <v>716</v>
+      </c>
+      <c r="B100" s="90">
+        <v>51317</v>
       </c>
       <c r="C100" s="95">
-        <v>80</v>
-      </c>
-      <c r="F100" s="42" t="s">
-        <v>736</v>
+        <v>75</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="60" t="s">
         <v>725</v>
       </c>
-      <c r="B101" s="90">
+      <c r="B101" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C101" s="95">
+        <v>80</v>
+      </c>
+      <c r="F101" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="60" t="s">
+        <v>725</v>
+      </c>
+      <c r="B102" s="90">
         <v>51317</v>
       </c>
-      <c r="C101" s="95">
+      <c r="C102" s="95">
         <v>100</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>738</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="61" t="s">
-        <v>717</v>
-      </c>
-      <c r="B102" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C102" s="95">
-        <v>75</v>
-      </c>
-      <c r="F102" s="42" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -22361,41 +22363,41 @@
         <v>717</v>
       </c>
       <c r="B103" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C103" s="95">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F103" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
         <v>717</v>
       </c>
-      <c r="B104" s="90">
-        <v>51317</v>
+      <c r="B104" s="91">
+        <v>43646</v>
       </c>
       <c r="C104" s="95">
-        <v>100</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>738</v>
+        <v>80</v>
+      </c>
+      <c r="F104" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="61" t="s">
-        <v>718</v>
-      </c>
-      <c r="B105" s="91">
-        <v>43281</v>
+        <v>717</v>
+      </c>
+      <c r="B105" s="90">
+        <v>51317</v>
       </c>
       <c r="C105" s="95">
-        <v>0</v>
-      </c>
-      <c r="F105" s="42" t="s">
-        <v>736</v>
+        <v>100</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -22403,41 +22405,41 @@
         <v>718</v>
       </c>
       <c r="B106" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C106" s="95">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="F106" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
         <v>718</v>
       </c>
-      <c r="B107" s="90">
-        <v>51317</v>
+      <c r="B107" s="91">
+        <v>43646</v>
       </c>
       <c r="C107" s="95">
-        <v>100</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>738</v>
+        <v>5.5</v>
+      </c>
+      <c r="F107" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
-        <v>726</v>
-      </c>
-      <c r="B108" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C108" s="89">
-        <v>4.17</v>
-      </c>
-      <c r="F108" s="42" t="s">
-        <v>736</v>
+        <v>718</v>
+      </c>
+      <c r="B108" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C108" s="95">
+        <v>100</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -22445,82 +22447,96 @@
         <v>726</v>
       </c>
       <c r="B109" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C109" s="89">
-        <v>4.13</v>
+        <v>4.17</v>
       </c>
       <c r="F109" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="61" t="s">
         <v>726</v>
       </c>
-      <c r="B110" s="90">
-        <v>51317</v>
+      <c r="B110" s="91">
+        <v>43646</v>
       </c>
       <c r="C110" s="89">
-        <v>4.38</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>738</v>
+        <v>4.13</v>
+      </c>
+      <c r="F110" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="61" t="s">
-        <v>719</v>
-      </c>
-      <c r="B111" s="91">
-        <v>43281</v>
+        <v>726</v>
+      </c>
+      <c r="B111" s="90">
+        <v>51317</v>
       </c>
       <c r="C111" s="89">
-        <v>91.1</v>
-      </c>
-      <c r="F111" s="42" t="s">
-        <v>736</v>
+        <v>4.38</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="B112" s="90">
-        <v>51317</v>
-      </c>
-      <c r="C112">
-        <v>95</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>738</v>
+      <c r="B112" s="91">
+        <v>43281</v>
+      </c>
+      <c r="C112" s="89">
+        <v>91.1</v>
+      </c>
+      <c r="F112" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="61" t="s">
-        <v>727</v>
-      </c>
-      <c r="B113" s="92">
-        <v>40724</v>
-      </c>
-      <c r="C113" s="95">
-        <v>55.000000000000007</v>
-      </c>
-      <c r="F113" s="42" t="s">
-        <v>736</v>
+        <v>719</v>
+      </c>
+      <c r="B113" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C113">
+        <v>95</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="61" t="s">
         <v>727</v>
       </c>
-      <c r="B114" s="90">
+      <c r="B114" s="92">
+        <v>40724</v>
+      </c>
+      <c r="C114" s="95">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="F114" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="61" t="s">
+        <v>727</v>
+      </c>
+      <c r="B115" s="90">
         <v>51317</v>
       </c>
-      <c r="C114" s="95">
+      <c r="C115" s="95">
         <v>57.8</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>738</v>
       </c>
     </row>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B2F63E-90D5-42BA-88D7-AEFAAB1B11A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8FF3B2-6304-4834-99DC-7AFF14AFF9FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="7" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="4" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Additional indicators'!$B$2:$F$143</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">data!$A$1:$I$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">data!$A$1:$I$118</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">indicator_list!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Targets Indicators Measures'!$B$1:$AD$132</definedName>
   </definedNames>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3267" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="816">
   <si>
     <t>FAIR</t>
   </si>
@@ -3191,9 +3191,6 @@
     <t>The proportion of households with housing costs that represented 30 per cent or more of household income decrease between 2011 and 2016.</t>
   </si>
   <si>
-    <t>The unemployment rate in Moonee Valley has decreased since June 2017. There are pockets of higher unemployment in Flemington and Ascot Vale.</t>
-  </si>
-  <si>
     <t>The proportion of residents who volunteered increased between 2011 and 2016.</t>
   </si>
   <si>
@@ -3224,9 +3221,6 @@
     <t>About 11 per cent of workers travel to jobs in Moonee Valley using public transport, by walking or cycling. This is slightly higher than in 2011.</t>
   </si>
   <si>
-    <t>There was one fatality on roads within Moonee Valley in 2018</t>
-  </si>
-  <si>
     <t>At present, no residential streets have a speed limit of 40 kph.</t>
   </si>
   <si>
@@ -3285,6 +3279,18 @@
   </si>
   <si>
     <t>Approximately 41 per cent of kerbside waste is collected diverted from landfill (in to the recyclable and green organics streams).</t>
+  </si>
+  <si>
+    <t>The unemployment rate in Moonee Valley has decreased since June 2017. There are pockets of higher unemployment in Flemington and Ascot Vale. The unemployment rate is heavily dependent on policies at other levels of government and also macroeconomic conditions.</t>
+  </si>
+  <si>
+    <t>Number of fatalities and serious injuries on roads within Moonee Valley in the calendar year</t>
+  </si>
+  <si>
+    <t>VicRoads CrashStats (Persons by injury level and year)</t>
+  </si>
+  <si>
+    <t>In 2018, there were four fatalities and 19 serious injuries in roads within Moonee Valley.</t>
   </si>
 </sst>
 </file>
@@ -3610,7 +3616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3881,6 +3887,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -17872,7 +17881,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="101" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -17893,7 +17902,7 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="100"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -17912,7 +17921,7 @@
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="100"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
@@ -17931,7 +17940,7 @@
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
@@ -17950,7 +17959,7 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="100"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="2" t="s">
         <v>204</v>
       </c>
@@ -17969,7 +17978,7 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="102" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -17990,7 +17999,7 @@
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" s="101"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
@@ -18009,7 +18018,7 @@
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" s="101"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
@@ -18019,7 +18028,7 @@
       <c r="A15">
         <v>9</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="103" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -18038,7 +18047,7 @@
       <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16" s="102"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
@@ -18057,7 +18066,7 @@
       <c r="A17">
         <v>11</v>
       </c>
-      <c r="B17" s="102"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="20"/>
       <c r="F17" s="2" t="s">
         <v>205</v>
@@ -18068,7 +18077,7 @@
       <c r="A18">
         <v>12</v>
       </c>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="104" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -18089,7 +18098,7 @@
       <c r="A19">
         <v>13</v>
       </c>
-      <c r="B19" s="103"/>
+      <c r="B19" s="104"/>
       <c r="D19" s="26" t="s">
         <v>180</v>
       </c>
@@ -18105,7 +18114,7 @@
       <c r="A20">
         <v>14</v>
       </c>
-      <c r="B20" s="103"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="2" t="s">
         <v>192</v>
       </c>
@@ -18124,7 +18133,7 @@
       <c r="A21">
         <v>15</v>
       </c>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="105" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -18145,7 +18154,7 @@
       <c r="A22">
         <v>16</v>
       </c>
-      <c r="B22" s="104"/>
+      <c r="B22" s="105"/>
       <c r="C22" s="2" t="s">
         <v>208</v>
       </c>
@@ -18520,8 +18529,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18702,7 +18711,7 @@
         <v>602</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>764</v>
@@ -18956,7 +18965,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>699</v>
       </c>
@@ -18982,7 +18991,7 @@
         <v>628</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>782</v>
+        <v>812</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>764</v>
@@ -19017,7 +19026,7 @@
         <v>629</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>764</v>
@@ -19040,7 +19049,7 @@
         <v>526</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>623</v>
@@ -19052,7 +19061,7 @@
         <v>602</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>764</v>
@@ -19087,7 +19096,7 @@
         <v>625</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>764</v>
@@ -19120,7 +19129,7 @@
         <v>633</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>764</v>
@@ -19155,7 +19164,7 @@
         <v>602</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>764</v>
@@ -19190,7 +19199,7 @@
         <v>626</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>764</v>
@@ -19221,7 +19230,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>764</v>
@@ -19256,7 +19265,7 @@
         <v>634</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>764</v>
@@ -19289,7 +19298,7 @@
         <v>604</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>764</v>
@@ -19322,7 +19331,7 @@
         <v>602</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>764</v>
@@ -19345,17 +19354,17 @@
         <v>681</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>556</v>
+        <v>813</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="2" t="s">
-        <v>569</v>
+        <v>814</v>
       </c>
       <c r="H24" s="66" t="s">
         <v>598</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>793</v>
+        <v>815</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>764</v>
@@ -19388,7 +19397,7 @@
         <v>625</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>764</v>
@@ -19423,7 +19432,7 @@
         <v>625</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>764</v>
@@ -19458,7 +19467,7 @@
         <v>604</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>764</v>
@@ -19493,7 +19502,7 @@
         <v>604</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>764</v>
@@ -19528,7 +19537,7 @@
         <v>609</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>764</v>
@@ -19551,7 +19560,7 @@
         <v>410</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>168</v>
@@ -19563,7 +19572,7 @@
         <v>608</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>764</v>
@@ -19598,7 +19607,7 @@
         <v>608</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>764</v>
@@ -19633,7 +19642,7 @@
         <v>604</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>764</v>
@@ -19656,7 +19665,7 @@
         <v>413</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="3" t="s">
@@ -19666,7 +19675,7 @@
         <v>608</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>764</v>
@@ -19701,7 +19710,7 @@
         <v>604</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>764</v>
@@ -19736,7 +19745,7 @@
         <v>634</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>764</v>
@@ -19771,7 +19780,7 @@
         <v>634</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>764</v>
@@ -19806,7 +19815,7 @@
         <v>605</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>764</v>
@@ -19841,7 +19850,7 @@
         <v>640</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>764</v>
@@ -19874,7 +19883,7 @@
         <v>602</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>764</v>
@@ -19909,7 +19918,7 @@
         <v>490</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>764</v>
@@ -19942,7 +19951,7 @@
         <v>602</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>764</v>
@@ -20677,10 +20686,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71:F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21857,120 +21866,120 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="84" t="s">
+      <c r="A71" s="100" t="s">
         <v>710</v>
       </c>
-      <c r="B71" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C71" s="89">
-        <v>2</v>
-      </c>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="42" t="s">
-        <v>736</v>
+      <c r="B71" s="90">
+        <v>42004</v>
+      </c>
+      <c r="C71" s="95">
+        <v>68</v>
+      </c>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="2" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="84" t="s">
+      <c r="A72" s="100" t="s">
         <v>710</v>
       </c>
-      <c r="B72" s="91">
-        <v>43646</v>
-      </c>
-      <c r="C72" s="89">
-        <v>1</v>
-      </c>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89"/>
-      <c r="F72" s="42" t="s">
-        <v>737</v>
+      <c r="B72" s="90">
+        <v>42369</v>
+      </c>
+      <c r="C72" s="95">
+        <v>50</v>
+      </c>
+      <c r="D72" s="87"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="2" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="100" t="s">
         <v>710</v>
       </c>
       <c r="B73" s="90">
-        <v>51317</v>
-      </c>
-      <c r="C73" s="89">
-        <v>0</v>
-      </c>
-      <c r="D73" s="89"/>
-      <c r="E73" s="89"/>
+        <v>42735</v>
+      </c>
+      <c r="C73" s="95">
+        <v>52</v>
+      </c>
+      <c r="D73" s="87"/>
+      <c r="E73" s="87"/>
       <c r="F73" s="2" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="B74" s="91">
-        <v>43281</v>
+      <c r="A74" s="100" t="s">
+        <v>710</v>
+      </c>
+      <c r="B74" s="90">
+        <v>43100</v>
       </c>
       <c r="C74" s="95">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D74" s="87"/>
       <c r="E74" s="87"/>
-      <c r="F74" s="42" t="s">
-        <v>736</v>
+      <c r="F74" s="2" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B75" s="90">
-        <v>51317</v>
-      </c>
-      <c r="C75" s="95">
-        <v>100</v>
-      </c>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="2" t="s">
-        <v>738</v>
+        <v>43465</v>
+      </c>
+      <c r="C75" s="89">
+        <v>23</v>
+      </c>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="84" t="s">
-        <v>712</v>
-      </c>
-      <c r="B76" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C76" s="95">
+        <v>710</v>
+      </c>
+      <c r="B76" s="90">
+        <v>51501</v>
+      </c>
+      <c r="C76" s="89">
         <v>0</v>
       </c>
-      <c r="D76" s="88"/>
-      <c r="E76" s="88"/>
-      <c r="F76" s="42" t="s">
-        <v>736</v>
+      <c r="D76" s="89"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="84" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B77" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C77" s="95">
-        <v>60.699999999999996</v>
-      </c>
-      <c r="D77" s="88"/>
-      <c r="E77" s="88"/>
+        <v>0</v>
+      </c>
+      <c r="D77" s="87"/>
+      <c r="E77" s="87"/>
       <c r="F77" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="84" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B78" s="90">
         <v>51317</v>
@@ -21978,69 +21987,69 @@
       <c r="C78" s="95">
         <v>100</v>
       </c>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
+      <c r="D78" s="87"/>
+      <c r="E78" s="87"/>
       <c r="F78" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="60" t="s">
-        <v>713</v>
+      <c r="A79" s="84" t="s">
+        <v>712</v>
       </c>
       <c r="B79" s="91">
         <v>43281</v>
       </c>
-      <c r="C79" s="89">
-        <v>2773</v>
-      </c>
-      <c r="D79" s="89"/>
-      <c r="E79" s="89"/>
+      <c r="C79" s="95">
+        <v>0</v>
+      </c>
+      <c r="D79" s="88"/>
+      <c r="E79" s="88"/>
       <c r="F79" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="60" t="s">
-        <v>713</v>
+      <c r="A80" s="84" t="s">
+        <v>712</v>
       </c>
       <c r="B80" s="91">
         <v>43646</v>
       </c>
-      <c r="C80" s="89">
-        <v>1746</v>
-      </c>
-      <c r="D80" s="89"/>
-      <c r="E80" s="89"/>
+      <c r="C80" s="95">
+        <v>60.699999999999996</v>
+      </c>
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
       <c r="F80" s="42" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="60" t="s">
-        <v>713</v>
+      <c r="A81" s="84" t="s">
+        <v>712</v>
       </c>
       <c r="B81" s="90">
         <v>51317</v>
       </c>
-      <c r="C81" s="89">
-        <v>139</v>
-      </c>
-      <c r="D81" s="89"/>
-      <c r="E81" s="89"/>
+      <c r="C81" s="95">
+        <v>100</v>
+      </c>
+      <c r="D81" s="88"/>
+      <c r="E81" s="88"/>
       <c r="F81" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="60" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B82" s="91">
         <v>43281</v>
       </c>
       <c r="C82" s="89">
-        <v>1300000</v>
+        <v>2773</v>
       </c>
       <c r="D82" s="89"/>
       <c r="E82" s="89"/>
@@ -22050,61 +22059,61 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="60" t="s">
-        <v>720</v>
-      </c>
-      <c r="B83" s="90">
-        <v>51317</v>
+        <v>713</v>
+      </c>
+      <c r="B83" s="91">
+        <v>43646</v>
       </c>
       <c r="C83" s="89">
-        <v>0</v>
+        <v>1746</v>
       </c>
       <c r="D83" s="89"/>
       <c r="E83" s="89"/>
-      <c r="F83" s="2" t="s">
-        <v>738</v>
+      <c r="F83" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="60" t="s">
-        <v>714</v>
-      </c>
-      <c r="B84" s="91">
-        <v>43281</v>
+        <v>713</v>
+      </c>
+      <c r="B84" s="90">
+        <v>51317</v>
       </c>
       <c r="C84" s="89">
-        <v>49917</v>
+        <v>139</v>
       </c>
       <c r="D84" s="89"/>
       <c r="E84" s="89"/>
-      <c r="F84" s="42" t="s">
-        <v>736</v>
+      <c r="F84" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="60" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B85" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C85" s="89">
-        <v>51573</v>
+        <v>1300000</v>
       </c>
       <c r="D85" s="89"/>
       <c r="E85" s="89"/>
       <c r="F85" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="60" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B86" s="90">
         <v>51317</v>
       </c>
       <c r="C86" s="89">
-        <v>54909</v>
+        <v>0</v>
       </c>
       <c r="D86" s="89"/>
       <c r="E86" s="89"/>
@@ -22114,13 +22123,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="60" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B87" s="91">
-        <v>42185</v>
+        <v>43281</v>
       </c>
       <c r="C87" s="89">
-        <v>127</v>
+        <v>49917</v>
       </c>
       <c r="D87" s="89"/>
       <c r="E87" s="89"/>
@@ -22130,118 +22139,118 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="60" t="s">
-        <v>721</v>
-      </c>
-      <c r="B88" s="90">
-        <v>51317</v>
+        <v>714</v>
+      </c>
+      <c r="B88" s="91">
+        <v>43646</v>
       </c>
       <c r="C88" s="89">
-        <v>57</v>
+        <v>51573</v>
       </c>
       <c r="D88" s="89"/>
       <c r="E88" s="89"/>
-      <c r="F88" s="2" t="s">
-        <v>738</v>
+      <c r="F88" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="60" t="s">
-        <v>722</v>
-      </c>
-      <c r="B89" s="91">
-        <v>42185</v>
+        <v>714</v>
+      </c>
+      <c r="B89" s="90">
+        <v>51317</v>
       </c>
       <c r="C89" s="89">
-        <v>12000</v>
+        <v>54909</v>
       </c>
       <c r="D89" s="89"/>
       <c r="E89" s="89"/>
-      <c r="F89" s="42" t="s">
-        <v>736</v>
+      <c r="F89" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="60" t="s">
-        <v>722</v>
-      </c>
-      <c r="B90" s="90">
-        <v>51317</v>
+        <v>721</v>
+      </c>
+      <c r="B90" s="91">
+        <v>42185</v>
       </c>
       <c r="C90" s="89">
-        <v>6700</v>
+        <v>127</v>
       </c>
       <c r="D90" s="89"/>
       <c r="E90" s="89"/>
-      <c r="F90" s="2" t="s">
-        <v>738</v>
+      <c r="F90" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="60" t="s">
-        <v>723</v>
-      </c>
-      <c r="B91" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C91" s="95">
-        <v>17</v>
-      </c>
-      <c r="D91" s="95">
-        <v>16</v>
-      </c>
-      <c r="E91" s="95">
-        <v>18</v>
-      </c>
-      <c r="F91" s="42" t="s">
-        <v>736</v>
+        <v>721</v>
+      </c>
+      <c r="B91" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C91" s="89">
+        <v>57</v>
+      </c>
+      <c r="D91" s="89"/>
+      <c r="E91" s="89"/>
+      <c r="F91" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="60" t="s">
-        <v>723</v>
-      </c>
-      <c r="B92" s="90">
-        <v>51317</v>
-      </c>
-      <c r="C92" s="95">
-        <v>30</v>
-      </c>
-      <c r="D92" s="95"/>
-      <c r="E92" s="95"/>
-      <c r="F92" s="2" t="s">
-        <v>738</v>
+        <v>722</v>
+      </c>
+      <c r="B92" s="91">
+        <v>42185</v>
+      </c>
+      <c r="C92" s="89">
+        <v>12000</v>
+      </c>
+      <c r="D92" s="89"/>
+      <c r="E92" s="89"/>
+      <c r="F92" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="60" t="s">
-        <v>724</v>
-      </c>
-      <c r="B93" s="91">
-        <v>42185</v>
-      </c>
-      <c r="C93" s="95">
-        <v>39</v>
-      </c>
-      <c r="D93" s="95"/>
-      <c r="E93" s="95"/>
-      <c r="F93" s="42" t="s">
-        <v>736</v>
+        <v>722</v>
+      </c>
+      <c r="B93" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C93" s="89">
+        <v>6700</v>
+      </c>
+      <c r="D93" s="89"/>
+      <c r="E93" s="89"/>
+      <c r="F93" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="60" t="s">
-        <v>724</v>
-      </c>
-      <c r="B94" s="90">
-        <v>51317</v>
+        <v>723</v>
+      </c>
+      <c r="B94" s="91">
+        <v>43281</v>
       </c>
       <c r="C94" s="95">
-        <v>35</v>
-      </c>
-      <c r="D94" s="95"/>
-      <c r="E94" s="95"/>
-      <c r="F94" s="2" t="s">
-        <v>738</v>
+        <v>17</v>
+      </c>
+      <c r="D94" s="95">
+        <v>16</v>
+      </c>
+      <c r="E94" s="95">
+        <v>18</v>
+      </c>
+      <c r="F94" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -22254,63 +22263,69 @@
       <c r="C95" s="95">
         <v>30</v>
       </c>
-      <c r="D95" s="88"/>
-      <c r="E95" s="88"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="95"/>
       <c r="F95" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="60" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="B96" s="91">
-        <v>43281</v>
+        <v>42185</v>
       </c>
       <c r="C96" s="95">
-        <v>41.67</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D96" s="95"/>
+      <c r="E96" s="95"/>
       <c r="F96" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="60" t="s">
-        <v>715</v>
-      </c>
-      <c r="B97" s="91">
-        <v>43646</v>
+        <v>724</v>
+      </c>
+      <c r="B97" s="90">
+        <v>51317</v>
       </c>
       <c r="C97" s="95">
-        <v>41.11</v>
-      </c>
-      <c r="F97" s="42" t="s">
-        <v>737</v>
+        <v>35</v>
+      </c>
+      <c r="D97" s="95"/>
+      <c r="E97" s="95"/>
+      <c r="F97" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="60" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="B98" s="90">
         <v>51317</v>
       </c>
       <c r="C98" s="95">
-        <v>90</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D98" s="88"/>
+      <c r="E98" s="88"/>
       <c r="F98" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="60" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B99" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C99" s="95">
-        <v>50</v>
+        <v>41.67</v>
       </c>
       <c r="F99" s="42" t="s">
         <v>736</v>
@@ -22318,63 +22333,63 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="B100" s="90">
-        <v>51317</v>
+        <v>715</v>
+      </c>
+      <c r="B100" s="91">
+        <v>43646</v>
       </c>
       <c r="C100" s="95">
-        <v>75</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>738</v>
+        <v>41.11</v>
+      </c>
+      <c r="F100" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="60" t="s">
-        <v>725</v>
-      </c>
-      <c r="B101" s="91">
-        <v>43646</v>
+        <v>715</v>
+      </c>
+      <c r="B101" s="90">
+        <v>51317</v>
       </c>
       <c r="C101" s="95">
-        <v>80</v>
-      </c>
-      <c r="F101" s="42" t="s">
-        <v>736</v>
+        <v>90</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="60" t="s">
-        <v>725</v>
-      </c>
-      <c r="B102" s="90">
+        <v>716</v>
+      </c>
+      <c r="B102" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C102" s="95">
+        <v>50</v>
+      </c>
+      <c r="F102" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="B103" s="90">
         <v>51317</v>
-      </c>
-      <c r="C102" s="95">
-        <v>100</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="61" t="s">
-        <v>717</v>
-      </c>
-      <c r="B103" s="91">
-        <v>43281</v>
       </c>
       <c r="C103" s="95">
         <v>75</v>
       </c>
-      <c r="F103" s="42" t="s">
-        <v>736</v>
+      <c r="F103" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="61" t="s">
-        <v>717</v>
+      <c r="A104" s="60" t="s">
+        <v>725</v>
       </c>
       <c r="B104" s="91">
         <v>43646</v>
@@ -22383,12 +22398,12 @@
         <v>80</v>
       </c>
       <c r="F104" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="61" t="s">
-        <v>717</v>
+      <c r="A105" s="60" t="s">
+        <v>725</v>
       </c>
       <c r="B105" s="90">
         <v>51317</v>
@@ -22402,13 +22417,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B106" s="91">
         <v>43281</v>
       </c>
       <c r="C106" s="95">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F106" s="42" t="s">
         <v>736</v>
@@ -22416,13 +22431,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B107" s="91">
         <v>43646</v>
       </c>
       <c r="C107" s="95">
-        <v>5.5</v>
+        <v>80</v>
       </c>
       <c r="F107" s="42" t="s">
         <v>737</v>
@@ -22430,7 +22445,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B108" s="90">
         <v>51317</v>
@@ -22444,13 +22459,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="61" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B109" s="91">
         <v>43281</v>
       </c>
-      <c r="C109" s="89">
-        <v>4.17</v>
+      <c r="C109" s="95">
+        <v>0</v>
       </c>
       <c r="F109" s="42" t="s">
         <v>736</v>
@@ -22458,13 +22473,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="61" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B110" s="91">
         <v>43646</v>
       </c>
-      <c r="C110" s="89">
-        <v>4.13</v>
+      <c r="C110" s="95">
+        <v>5.5</v>
       </c>
       <c r="F110" s="42" t="s">
         <v>737</v>
@@ -22472,13 +22487,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="61" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B111" s="90">
         <v>51317</v>
       </c>
-      <c r="C111" s="89">
-        <v>4.38</v>
+      <c r="C111" s="95">
+        <v>100</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>738</v>
@@ -22486,13 +22501,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="61" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="B112" s="91">
         <v>43281</v>
       </c>
       <c r="C112" s="89">
-        <v>91.1</v>
+        <v>4.17</v>
       </c>
       <c r="F112" s="42" t="s">
         <v>736</v>
@@ -22500,43 +22515,85 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="61" t="s">
-        <v>719</v>
-      </c>
-      <c r="B113" s="90">
-        <v>51317</v>
-      </c>
-      <c r="C113">
-        <v>95</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>738</v>
+        <v>726</v>
+      </c>
+      <c r="B113" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C113" s="89">
+        <v>4.13</v>
+      </c>
+      <c r="F113" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="61" t="s">
-        <v>727</v>
-      </c>
-      <c r="B114" s="92">
-        <v>40724</v>
-      </c>
-      <c r="C114" s="95">
-        <v>55.000000000000007</v>
-      </c>
-      <c r="F114" s="42" t="s">
-        <v>736</v>
+        <v>726</v>
+      </c>
+      <c r="B114" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C114" s="89">
+        <v>4.38</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="B115" s="91">
+        <v>43281</v>
+      </c>
+      <c r="C115" s="89">
+        <v>91.1</v>
+      </c>
+      <c r="F115" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="B116" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C116">
+        <v>95</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="61" t="s">
         <v>727</v>
       </c>
-      <c r="B115" s="90">
+      <c r="B117" s="92">
+        <v>40724</v>
+      </c>
+      <c r="C117" s="95">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="F117" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="61" t="s">
+        <v>727</v>
+      </c>
+      <c r="B118" s="90">
         <v>51317</v>
       </c>
-      <c r="C115" s="95">
+      <c r="C118" s="95">
         <v>57.8</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>738</v>
       </c>
     </row>
@@ -22593,7 +22650,7 @@
         <v>734</v>
       </c>
       <c r="C3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -22604,7 +22661,7 @@
         <v>734</v>
       </c>
       <c r="C4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -22626,7 +22683,7 @@
         <v>734</v>
       </c>
       <c r="C6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -22648,7 +22705,7 @@
         <v>734</v>
       </c>
       <c r="C8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -22659,7 +22716,7 @@
         <v>734</v>
       </c>
       <c r="C9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -22681,7 +22738,7 @@
         <v>733</v>
       </c>
       <c r="C11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -22769,7 +22826,7 @@
         <v>733</v>
       </c>
       <c r="C19" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -22912,7 +22969,7 @@
         <v>734</v>
       </c>
       <c r="C32" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8FF3B2-6304-4834-99DC-7AFF14AFF9FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14453BF7-F5C4-409A-96B0-C2D15A7C25B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="4" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="8" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -3101,9 +3101,6 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>Deaths</t>
-  </si>
-  <si>
     <t>Tonnes</t>
   </si>
   <si>
@@ -3291,6 +3288,9 @@
   </si>
   <si>
     <t>In 2018, there were four fatalities and 19 serious injuries in roads within Moonee Valley.</t>
+  </si>
+  <si>
+    <t>Deaths and serious injuries (combined)</t>
   </si>
 </sst>
 </file>
@@ -18491,7 +18491,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -18500,7 +18500,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -18509,7 +18509,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
@@ -18529,8 +18529,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18571,13 +18571,13 @@
         <v>429</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J1" s="52" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -18600,16 +18600,16 @@
         <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2" s="73" t="s">
         <v>632</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K2" t="s">
         <v>649</v>
@@ -18641,10 +18641,10 @@
         <v>625</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K3" t="s">
         <v>599</v>
@@ -18676,10 +18676,10 @@
         <v>625</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K4" t="s">
         <v>599</v>
@@ -18699,7 +18699,7 @@
         <v>658</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>683</v>
@@ -18711,10 +18711,10 @@
         <v>602</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K5" t="s">
         <v>599</v>
@@ -18746,10 +18746,10 @@
         <v>625</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K6" t="s">
         <v>599</v>
@@ -18781,10 +18781,10 @@
         <v>677</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K7" t="s">
         <v>599</v>
@@ -18816,10 +18816,10 @@
         <v>641</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K8" t="s">
         <v>649</v>
@@ -18851,10 +18851,10 @@
         <v>676</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K9" t="s">
         <v>599</v>
@@ -18886,10 +18886,10 @@
         <v>639</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K10" t="s">
         <v>599</v>
@@ -18921,10 +18921,10 @@
         <v>626</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K11" t="s">
         <v>599</v>
@@ -18956,10 +18956,10 @@
         <v>603</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K12" t="s">
         <v>649</v>
@@ -18985,16 +18985,16 @@
         <v>160</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H13" s="73" t="s">
         <v>628</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K13" t="s">
         <v>649</v>
@@ -19026,10 +19026,10 @@
         <v>629</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K14" t="s">
         <v>599</v>
@@ -19049,7 +19049,7 @@
         <v>526</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>623</v>
@@ -19061,10 +19061,10 @@
         <v>602</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K15" t="s">
         <v>599</v>
@@ -19096,10 +19096,10 @@
         <v>625</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K16" t="s">
         <v>599</v>
@@ -19129,10 +19129,10 @@
         <v>633</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K17" t="s">
         <v>599</v>
@@ -19164,10 +19164,10 @@
         <v>602</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K18" t="s">
         <v>599</v>
@@ -19199,10 +19199,10 @@
         <v>626</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K19" t="s">
         <v>599</v>
@@ -19230,10 +19230,10 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K20" t="s">
         <v>599</v>
@@ -19259,16 +19259,16 @@
         <v>143</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H21" s="73" t="s">
         <v>634</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K21" t="s">
         <v>599</v>
@@ -19298,10 +19298,10 @@
         <v>604</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K22" t="s">
         <v>599</v>
@@ -19331,10 +19331,10 @@
         <v>602</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K23" t="s">
         <v>599</v>
@@ -19354,20 +19354,20 @@
         <v>681</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H24" s="66" t="s">
         <v>598</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K24" t="s">
         <v>649</v>
@@ -19397,10 +19397,10 @@
         <v>625</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K25" t="s">
         <v>599</v>
@@ -19432,10 +19432,10 @@
         <v>625</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K26" t="s">
         <v>599</v>
@@ -19467,10 +19467,10 @@
         <v>604</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K27" t="s">
         <v>649</v>
@@ -19502,10 +19502,10 @@
         <v>604</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K28" t="s">
         <v>649</v>
@@ -19537,10 +19537,10 @@
         <v>609</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K29" t="s">
         <v>599</v>
@@ -19560,7 +19560,7 @@
         <v>410</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>168</v>
@@ -19572,10 +19572,10 @@
         <v>608</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K30" t="s">
         <v>649</v>
@@ -19607,10 +19607,10 @@
         <v>608</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K31" t="s">
         <v>649</v>
@@ -19636,16 +19636,16 @@
         <v>145</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H32" s="66" t="s">
         <v>604</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K32" t="s">
         <v>599</v>
@@ -19665,7 +19665,7 @@
         <v>413</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="3" t="s">
@@ -19675,10 +19675,10 @@
         <v>608</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K33" t="s">
         <v>649</v>
@@ -19695,7 +19695,7 @@
         <v>192</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>383</v>
@@ -19710,10 +19710,10 @@
         <v>604</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K34" t="s">
         <v>599</v>
@@ -19745,10 +19745,10 @@
         <v>634</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K35" t="s">
         <v>599</v>
@@ -19780,10 +19780,10 @@
         <v>634</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K36" t="s">
         <v>599</v>
@@ -19815,10 +19815,10 @@
         <v>605</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K37" t="s">
         <v>599</v>
@@ -19850,10 +19850,10 @@
         <v>640</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K38" t="s">
         <v>599</v>
@@ -19877,16 +19877,16 @@
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H39" s="70" t="s">
         <v>602</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K39" t="s">
         <v>599</v>
@@ -19912,16 +19912,16 @@
         <v>143</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H40" s="66" t="s">
         <v>490</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K40" t="s">
         <v>599</v>
@@ -19941,7 +19941,7 @@
         <v>584</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
@@ -19951,10 +19951,10 @@
         <v>602</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K41" t="s">
         <v>599</v>
@@ -20688,8 +20688,8 @@
   </sheetPr>
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71:F74"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20730,7 +20730,7 @@
         <v>5.04</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -20744,7 +20744,7 @@
         <v>4.8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -20758,7 +20758,7 @@
         <v>4.72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -20772,7 +20772,7 @@
         <v>4.79</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -20786,7 +20786,7 @@
         <v>4.84</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -21066,7 +21066,7 @@
         <v>21.1</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -21174,7 +21174,7 @@
       <c r="D28" s="86"/>
       <c r="E28" s="86"/>
       <c r="F28" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -21190,7 +21190,7 @@
       <c r="D29" s="86"/>
       <c r="E29" s="86"/>
       <c r="F29" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -21294,7 +21294,7 @@
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
       <c r="F35" s="42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -21342,7 +21342,7 @@
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
       <c r="F38" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -21358,7 +21358,7 @@
       <c r="D39" s="87"/>
       <c r="E39" s="87"/>
       <c r="F39" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -21422,7 +21422,7 @@
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
       <c r="F43" s="42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -21470,7 +21470,7 @@
       <c r="D46" s="87"/>
       <c r="E46" s="87"/>
       <c r="F46" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -21566,7 +21566,7 @@
       <c r="D52" s="86"/>
       <c r="E52" s="86"/>
       <c r="F52" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -21782,7 +21782,7 @@
       <c r="D65" s="87"/>
       <c r="E65" s="87"/>
       <c r="F65" s="42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -21830,7 +21830,7 @@
       <c r="D68" s="87"/>
       <c r="E68" s="87"/>
       <c r="F68" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -21878,7 +21878,7 @@
       <c r="D71" s="87"/>
       <c r="E71" s="87"/>
       <c r="F71" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -21894,7 +21894,7 @@
       <c r="D72" s="87"/>
       <c r="E72" s="87"/>
       <c r="F72" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -21910,7 +21910,7 @@
       <c r="D73" s="87"/>
       <c r="E73" s="87"/>
       <c r="F73" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -21926,7 +21926,7 @@
       <c r="D74" s="87"/>
       <c r="E74" s="87"/>
       <c r="F74" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -22609,8 +22609,8 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22650,7 +22650,7 @@
         <v>734</v>
       </c>
       <c r="C3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -22661,7 +22661,7 @@
         <v>734</v>
       </c>
       <c r="C4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -22683,7 +22683,7 @@
         <v>734</v>
       </c>
       <c r="C6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -22705,7 +22705,7 @@
         <v>734</v>
       </c>
       <c r="C8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -22716,7 +22716,7 @@
         <v>734</v>
       </c>
       <c r="C9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -22738,7 +22738,7 @@
         <v>733</v>
       </c>
       <c r="C11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -22826,7 +22826,7 @@
         <v>733</v>
       </c>
       <c r="C19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -22881,7 +22881,7 @@
         <v>733</v>
       </c>
       <c r="C24" t="s">
-        <v>752</v>
+        <v>815</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -22914,7 +22914,7 @@
         <v>733</v>
       </c>
       <c r="C27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -22925,7 +22925,7 @@
         <v>733</v>
       </c>
       <c r="C28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -22936,7 +22936,7 @@
         <v>733</v>
       </c>
       <c r="C29" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -22947,7 +22947,7 @@
         <v>733</v>
       </c>
       <c r="C30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -22958,7 +22958,7 @@
         <v>733</v>
       </c>
       <c r="C31" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -22969,7 +22969,7 @@
         <v>734</v>
       </c>
       <c r="C32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -22980,7 +22980,7 @@
         <v>733</v>
       </c>
       <c r="C33" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14453BF7-F5C4-409A-96B0-C2D15A7C25B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AF84E6-EA4E-4B45-A35D-4307AD7FCAF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="8" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="4" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="825">
   <si>
     <t>FAIR</t>
   </si>
@@ -3224,9 +3224,6 @@
     <t>There are 1,500 parking sensors installed in parking spaces in activity centres within Moonee Valley.</t>
   </si>
   <si>
-    <t>Net carbon emissions from Council's operations have been decreasing.</t>
-  </si>
-  <si>
     <t>Carbon emissions from the community were at 1.3 million tonnes in the year to June 2018.</t>
   </si>
   <si>
@@ -3291,6 +3288,36 @@
   </si>
   <si>
     <t>Deaths and serious injuries (combined)</t>
+  </si>
+  <si>
+    <t>To mitigate the effects of climate change, demonstrate leadership to the community in providing positive contribution to reducing emissions as part of a larger, worldwide effort to make progress to reduce global carbon emissions and reducing costs associated with energy consumption.</t>
+  </si>
+  <si>
+    <t>Important to understand our community emissions and where they are generated in order to support reductions within the community to help mitigate the effects of climate change.</t>
+  </si>
+  <si>
+    <t>To help mitigate the effects of climate change and urban heat by increasing vegetation in the street to cool the city, and to adapt to increasing heat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Important to understand where water is being used to target areas to reduce potable water consumption and reuse strormwater where possible. </t>
+  </si>
+  <si>
+    <t>To understand opportunities to reuse the stormwater where possible to create a water sensitive city and to treat stormwater prior to discharge to local waterways.</t>
+  </si>
+  <si>
+    <t>To help mitigate the effects of climate change and urban heat by increasing tree canopy cover to help cool the city.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To encourage the community to adapt and live more sustainably in order to reduce impacts on the environment. </t>
+  </si>
+  <si>
+    <t>Net carbon emissions from Council's operations have been decreasing since 2007.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Important to understand where water is being used to target areas to reduce potable water consumption to use water more sustainably. </t>
+  </si>
+  <si>
+    <t>Reducing waste, increasing reuse, recycling and other forms of resource recovery will reduce waste sent to landfill. If products are not reused or recycled and sent to landfill, then new material has to come from our environment to create new products. This uses energy, water and other natural resources. Greenhouse gases, which contribute to climate change, are created by the production and transport of materials as well as through rotting organic material in landfill. There is also less and less space available for landfill sites.</t>
   </si>
 </sst>
 </file>
@@ -18529,8 +18556,8 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18542,7 +18569,7 @@
     <col min="7" max="7" width="32.85546875" customWidth="1"/>
     <col min="8" max="8" width="46" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" customWidth="1"/>
+    <col min="10" max="10" width="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -18608,7 +18635,7 @@
       <c r="I2" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K2" t="s">
@@ -18643,7 +18670,7 @@
       <c r="I3" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K3" t="s">
@@ -18678,7 +18705,7 @@
       <c r="I4" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K4" t="s">
@@ -18711,9 +18738,9 @@
         <v>602</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="J5" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K5" t="s">
@@ -18748,7 +18775,7 @@
       <c r="I6" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K6" t="s">
@@ -18783,7 +18810,7 @@
       <c r="I7" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K7" t="s">
@@ -18818,7 +18845,7 @@
       <c r="I8" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K8" t="s">
@@ -18853,7 +18880,7 @@
       <c r="I9" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K9" t="s">
@@ -18888,7 +18915,7 @@
       <c r="I10" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K10" t="s">
@@ -18923,7 +18950,7 @@
       <c r="I11" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K11" t="s">
@@ -18958,7 +18985,7 @@
       <c r="I12" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K12" t="s">
@@ -18991,9 +19018,9 @@
         <v>628</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="J13" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K13" t="s">
@@ -19028,7 +19055,7 @@
       <c r="I14" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K14" t="s">
@@ -19063,7 +19090,7 @@
       <c r="I15" s="8" t="s">
         <v>782</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K15" t="s">
@@ -19098,7 +19125,7 @@
       <c r="I16" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K16" t="s">
@@ -19131,7 +19158,7 @@
       <c r="I17" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K17" t="s">
@@ -19166,7 +19193,7 @@
       <c r="I18" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K18" t="s">
@@ -19201,7 +19228,7 @@
       <c r="I19" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K19" t="s">
@@ -19232,7 +19259,7 @@
       <c r="I20" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K20" t="s">
@@ -19265,9 +19292,9 @@
         <v>634</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="J21" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="J21" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K21" t="s">
@@ -19300,7 +19327,7 @@
       <c r="I22" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K22" t="s">
@@ -19333,7 +19360,7 @@
       <c r="I23" s="8" t="s">
         <v>790</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K23" t="s">
@@ -19354,19 +19381,19 @@
         <v>681</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H24" s="66" t="s">
         <v>598</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="J24" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="J24" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K24" t="s">
@@ -19399,7 +19426,7 @@
       <c r="I25" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K25" t="s">
@@ -19434,14 +19461,14 @@
       <c r="I26" s="8" t="s">
         <v>792</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K26" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>713</v>
       </c>
@@ -19467,16 +19494,16 @@
         <v>604</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>793</v>
+        <v>822</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>763</v>
+        <v>815</v>
       </c>
       <c r="K27" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>720</v>
       </c>
@@ -19502,16 +19529,16 @@
         <v>604</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>763</v>
+        <v>816</v>
       </c>
       <c r="K28" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>714</v>
       </c>
@@ -19537,16 +19564,16 @@
         <v>609</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>763</v>
+        <v>817</v>
       </c>
       <c r="K29" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>721</v>
       </c>
@@ -19560,7 +19587,7 @@
         <v>410</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>168</v>
@@ -19572,16 +19599,16 @@
         <v>608</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>763</v>
+        <v>818</v>
       </c>
       <c r="K30" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>722</v>
       </c>
@@ -19607,10 +19634,10 @@
         <v>608</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>763</v>
+        <v>819</v>
       </c>
       <c r="K31" t="s">
         <v>649</v>
@@ -19642,10 +19669,10 @@
         <v>604</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>763</v>
+        <v>820</v>
       </c>
       <c r="K32" t="s">
         <v>599</v>
@@ -19665,7 +19692,7 @@
         <v>413</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="3" t="s">
@@ -19675,16 +19702,16 @@
         <v>608</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>763</v>
+        <v>823</v>
       </c>
       <c r="K33" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>715</v>
       </c>
@@ -19710,10 +19737,10 @@
         <v>604</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>763</v>
+        <v>824</v>
       </c>
       <c r="K34" t="s">
         <v>599</v>
@@ -19745,9 +19772,9 @@
         <v>634</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="J35" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="J35" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K35" t="s">
@@ -19780,10 +19807,10 @@
         <v>634</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>763</v>
+        <v>821</v>
       </c>
       <c r="K36" t="s">
         <v>599</v>
@@ -19815,9 +19842,9 @@
         <v>605</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="J37" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="J37" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K37" t="s">
@@ -19850,9 +19877,9 @@
         <v>640</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="J38" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="J38" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K38" t="s">
@@ -19883,9 +19910,9 @@
         <v>602</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="J39" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="J39" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K39" t="s">
@@ -19918,9 +19945,9 @@
         <v>490</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="J40" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="J40" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K40" t="s">
@@ -19951,9 +19978,9 @@
         <v>602</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="J41" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="J41" s="20" t="s">
         <v>763</v>
       </c>
       <c r="K41" t="s">
@@ -22609,7 +22636,7 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -22650,7 +22677,7 @@
         <v>734</v>
       </c>
       <c r="C3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -22661,7 +22688,7 @@
         <v>734</v>
       </c>
       <c r="C4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -22683,7 +22710,7 @@
         <v>734</v>
       </c>
       <c r="C6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -22705,7 +22732,7 @@
         <v>734</v>
       </c>
       <c r="C8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -22716,7 +22743,7 @@
         <v>734</v>
       </c>
       <c r="C9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -22738,7 +22765,7 @@
         <v>733</v>
       </c>
       <c r="C11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -22826,7 +22853,7 @@
         <v>733</v>
       </c>
       <c r="C19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -22881,7 +22908,7 @@
         <v>733</v>
       </c>
       <c r="C24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -22969,7 +22996,7 @@
         <v>734</v>
       </c>
       <c r="C32" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AF84E6-EA4E-4B45-A35D-4307AD7FCAF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004D10D1-0C22-4009-B5B8-DDE37CEB598C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="4" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="845">
   <si>
     <t>FAIR</t>
   </si>
@@ -3318,6 +3318,66 @@
   </si>
   <si>
     <t>Reducing waste, increasing reuse, recycling and other forms of resource recovery will reduce waste sent to landfill. If products are not reused or recycled and sent to landfill, then new material has to come from our environment to create new products. This uses energy, water and other natural resources. Greenhouse gases, which contribute to climate change, are created by the production and transport of materials as well as through rotting organic material in landfill. There is also less and less space available for landfill sites.</t>
+  </si>
+  <si>
+    <t>Sustainability</t>
+  </si>
+  <si>
+    <t>Urban Design</t>
+  </si>
+  <si>
+    <t>Facilities Management</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Who_Rationale</t>
+  </si>
+  <si>
+    <t>Economic Development</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>Social Planning and Wellbeing</t>
+  </si>
+  <si>
+    <t>Libraries</t>
+  </si>
+  <si>
+    <t>Community Development</t>
+  </si>
+  <si>
+    <t>Family and Childrens Services</t>
+  </si>
+  <si>
+    <t>Strategic Planning</t>
+  </si>
+  <si>
+    <t>Corporate Planning</t>
+  </si>
+  <si>
+    <t>Increasing the use of active and sustainable transport modes reduces congestion, while also improving health outcomes through increased physical activity.</t>
+  </si>
+  <si>
+    <t>Feeling unsafe in their community can affect peoples health and wellbeing. If people feel unsafe, it can negatively influence their social activities and erode trust within their communities.</t>
+  </si>
+  <si>
+    <t>Obesity is a risk factor for chronic diseases. Adequate physical activity reduces the risk of obesity.  High rates of obesity put added strain on health services. Being overweight or obese can also affect a person's quality of life.</t>
+  </si>
+  <si>
+    <t>he unemployment rate is an indicator of the amount of spare capacity in a city's labour market. Being unemployed also has implications for a person's economic, social and emotional wellbeing.</t>
+  </si>
+  <si>
+    <t>A well-integrated and accessible public transport system has potential to reduce traffic congestion in a city and improve residents' access to jobs and goods and services.</t>
+  </si>
+  <si>
+    <t>Access to green space provides amenity as well as opportunities for physical exercise and improved mental health. Green space can also improve air quality and heat management, making a city more liveable.</t>
   </si>
 </sst>
 </file>
@@ -6091,8 +6151,8 @@
   </sheetPr>
   <dimension ref="A1:AD132"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="V132" sqref="V1:V132"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15856,7 +15916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F190"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17838,7 +17900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18554,10 +18616,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="B1:G1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18572,7 +18634,7 @@
     <col min="10" max="10" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>729</v>
       </c>
@@ -18606,8 +18668,11 @@
       <c r="K1" s="52" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L1" s="52" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>690</v>
       </c>
@@ -18641,8 +18706,11 @@
       <c r="K2" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>692</v>
       </c>
@@ -18676,8 +18744,11 @@
       <c r="K3" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>691</v>
       </c>
@@ -18711,8 +18782,11 @@
       <c r="K4" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>693</v>
       </c>
@@ -18746,8 +18820,11 @@
       <c r="K5" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>694</v>
       </c>
@@ -18775,14 +18852,17 @@
       <c r="I6" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="J6" s="20" t="s">
-        <v>763</v>
+      <c r="J6" s="8" t="s">
+        <v>840</v>
       </c>
       <c r="K6" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>695</v>
       </c>
@@ -18810,14 +18890,17 @@
       <c r="I7" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>763</v>
+      <c r="J7" s="8" t="s">
+        <v>841</v>
       </c>
       <c r="K7" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>698</v>
       </c>
@@ -18851,8 +18934,11 @@
       <c r="K8" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>739</v>
       </c>
@@ -18886,8 +18972,11 @@
       <c r="K9" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>740</v>
       </c>
@@ -18921,8 +19010,11 @@
       <c r="K10" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>696</v>
       </c>
@@ -18956,8 +19048,11 @@
       <c r="K11" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>697</v>
       </c>
@@ -18991,8 +19086,11 @@
       <c r="K12" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>699</v>
       </c>
@@ -19020,14 +19118,17 @@
       <c r="I13" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>763</v>
+      <c r="J13" s="8" t="s">
+        <v>842</v>
       </c>
       <c r="K13" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>700</v>
       </c>
@@ -19061,8 +19162,11 @@
       <c r="K14" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>701</v>
       </c>
@@ -19096,8 +19200,11 @@
       <c r="K15" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>702</v>
       </c>
@@ -19131,8 +19238,11 @@
       <c r="K16" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>703</v>
       </c>
@@ -19164,8 +19274,11 @@
       <c r="K17" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>704</v>
       </c>
@@ -19199,8 +19312,11 @@
       <c r="K18" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>705</v>
       </c>
@@ -19234,8 +19350,11 @@
       <c r="K19" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>706</v>
       </c>
@@ -19265,8 +19384,11 @@
       <c r="K20" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>707</v>
       </c>
@@ -19294,14 +19416,17 @@
       <c r="I21" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="J21" s="20" t="s">
-        <v>763</v>
+      <c r="J21" s="8" t="s">
+        <v>843</v>
       </c>
       <c r="K21" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>708</v>
       </c>
@@ -19327,14 +19452,17 @@
       <c r="I22" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="J22" s="20" t="s">
-        <v>763</v>
+      <c r="J22" s="8" t="s">
+        <v>839</v>
       </c>
       <c r="K22" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>709</v>
       </c>
@@ -19366,8 +19494,11 @@
       <c r="K23" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>710</v>
       </c>
@@ -19399,8 +19530,11 @@
       <c r="K24" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>711</v>
       </c>
@@ -19432,8 +19566,11 @@
       <c r="K25" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>712</v>
       </c>
@@ -19467,8 +19604,11 @@
       <c r="K26" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>713</v>
       </c>
@@ -19502,8 +19642,11 @@
       <c r="K27" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>720</v>
       </c>
@@ -19537,8 +19680,11 @@
       <c r="K28" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>714</v>
       </c>
@@ -19572,8 +19718,11 @@
       <c r="K29" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>721</v>
       </c>
@@ -19607,8 +19756,11 @@
       <c r="K30" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>722</v>
       </c>
@@ -19642,8 +19794,11 @@
       <c r="K31" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>723</v>
       </c>
@@ -19677,8 +19832,11 @@
       <c r="K32" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>724</v>
       </c>
@@ -19710,8 +19868,11 @@
       <c r="K33" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>715</v>
       </c>
@@ -19745,8 +19906,11 @@
       <c r="K34" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>716</v>
       </c>
@@ -19780,8 +19944,11 @@
       <c r="K35" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>725</v>
       </c>
@@ -19815,8 +19982,11 @@
       <c r="K36" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>717</v>
       </c>
@@ -19850,8 +20020,11 @@
       <c r="K37" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>718</v>
       </c>
@@ -19885,8 +20058,11 @@
       <c r="K38" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>726</v>
       </c>
@@ -19918,8 +20094,11 @@
       <c r="K39" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>719</v>
       </c>
@@ -19947,14 +20126,17 @@
       <c r="I40" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="J40" s="20" t="s">
-        <v>763</v>
+      <c r="J40" s="8" t="s">
+        <v>844</v>
       </c>
       <c r="K40" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>727</v>
       </c>
@@ -19985,6 +20167,9 @@
       </c>
       <c r="K41" t="s">
         <v>599</v>
+      </c>
+      <c r="L41" t="s">
+        <v>826</v>
       </c>
     </row>
   </sheetData>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004D10D1-0C22-4009-B5B8-DDE37CEB598C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CC9A6F-07BA-4CD1-ADD5-B3B0A965CA31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="4" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -3149,9 +3149,6 @@
     <t>Calculated from aerial photographs (NIR) and Elevation (LiDAR) data</t>
   </si>
   <si>
-    <t>Calculated from Public Transport Victoria (PTV) GTFS data</t>
-  </si>
-  <si>
     <t>Desired</t>
   </si>
   <si>
@@ -3378,6 +3375,9 @@
   </si>
   <si>
     <t>Access to green space provides amenity as well as opportunities for physical exercise and improved mental health. Green space can also improve air quality and heat management, making a city more liveable.</t>
+  </si>
+  <si>
+    <t>Calculated from the Public Transport Victoria (PTV) General Transit Feed Specification (GTFS) dataset and Council data</t>
   </si>
 </sst>
 </file>
@@ -18618,8 +18618,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18666,10 +18666,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -18698,7 +18698,7 @@
         <v>632</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>763</v>
@@ -18707,7 +18707,7 @@
         <v>649</v>
       </c>
       <c r="L2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -18736,7 +18736,7 @@
         <v>625</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J3" s="20" t="s">
         <v>763</v>
@@ -18745,7 +18745,7 @@
         <v>599</v>
       </c>
       <c r="L3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -18774,7 +18774,7 @@
         <v>625</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J4" s="20" t="s">
         <v>763</v>
@@ -18783,7 +18783,7 @@
         <v>599</v>
       </c>
       <c r="L4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -18800,7 +18800,7 @@
         <v>658</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>683</v>
@@ -18812,7 +18812,7 @@
         <v>602</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>763</v>
@@ -18821,7 +18821,7 @@
         <v>599</v>
       </c>
       <c r="L5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -18850,16 +18850,16 @@
         <v>625</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K6" t="s">
         <v>599</v>
       </c>
       <c r="L6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -18888,16 +18888,16 @@
         <v>677</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K7" t="s">
         <v>599</v>
       </c>
       <c r="L7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -18926,7 +18926,7 @@
         <v>641</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>763</v>
@@ -18935,7 +18935,7 @@
         <v>649</v>
       </c>
       <c r="L8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -18964,7 +18964,7 @@
         <v>676</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>763</v>
@@ -18973,7 +18973,7 @@
         <v>599</v>
       </c>
       <c r="L9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -19002,7 +19002,7 @@
         <v>639</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>763</v>
@@ -19011,7 +19011,7 @@
         <v>599</v>
       </c>
       <c r="L10" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -19040,7 +19040,7 @@
         <v>626</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>763</v>
@@ -19049,7 +19049,7 @@
         <v>599</v>
       </c>
       <c r="L11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -19078,7 +19078,7 @@
         <v>603</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>763</v>
@@ -19087,7 +19087,7 @@
         <v>649</v>
       </c>
       <c r="L12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -19116,16 +19116,16 @@
         <v>628</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K13" t="s">
         <v>649</v>
       </c>
       <c r="L13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -19154,7 +19154,7 @@
         <v>629</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>763</v>
@@ -19163,7 +19163,7 @@
         <v>599</v>
       </c>
       <c r="L14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -19180,7 +19180,7 @@
         <v>526</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>623</v>
@@ -19192,7 +19192,7 @@
         <v>602</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>763</v>
@@ -19201,7 +19201,7 @@
         <v>599</v>
       </c>
       <c r="L15" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -19230,7 +19230,7 @@
         <v>625</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>763</v>
@@ -19239,7 +19239,7 @@
         <v>599</v>
       </c>
       <c r="L16" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -19266,7 +19266,7 @@
         <v>633</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J17" s="20" t="s">
         <v>763</v>
@@ -19275,7 +19275,7 @@
         <v>599</v>
       </c>
       <c r="L17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -19304,7 +19304,7 @@
         <v>602</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J18" s="20" t="s">
         <v>763</v>
@@ -19313,7 +19313,7 @@
         <v>599</v>
       </c>
       <c r="L18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -19342,7 +19342,7 @@
         <v>626</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J19" s="20" t="s">
         <v>763</v>
@@ -19351,7 +19351,7 @@
         <v>599</v>
       </c>
       <c r="L19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -19376,7 +19376,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J20" s="20" t="s">
         <v>763</v>
@@ -19385,7 +19385,7 @@
         <v>599</v>
       </c>
       <c r="L20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -19407,23 +19407,23 @@
       <c r="F21" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>768</v>
+      <c r="G21" s="5" t="s">
+        <v>844</v>
       </c>
       <c r="H21" s="73" t="s">
         <v>634</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K21" t="s">
         <v>599</v>
       </c>
       <c r="L21" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -19450,16 +19450,16 @@
         <v>604</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K22" t="s">
         <v>599</v>
       </c>
       <c r="L22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -19486,7 +19486,7 @@
         <v>602</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J23" s="20" t="s">
         <v>763</v>
@@ -19495,7 +19495,7 @@
         <v>599</v>
       </c>
       <c r="L23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -19512,17 +19512,17 @@
         <v>681</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H24" s="66" t="s">
         <v>598</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J24" s="20" t="s">
         <v>763</v>
@@ -19531,7 +19531,7 @@
         <v>649</v>
       </c>
       <c r="L24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -19558,7 +19558,7 @@
         <v>625</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>763</v>
@@ -19567,7 +19567,7 @@
         <v>599</v>
       </c>
       <c r="L25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -19596,7 +19596,7 @@
         <v>625</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J26" s="20" t="s">
         <v>763</v>
@@ -19605,7 +19605,7 @@
         <v>599</v>
       </c>
       <c r="L26" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -19634,16 +19634,16 @@
         <v>604</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K27" t="s">
         <v>649</v>
       </c>
       <c r="L27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -19672,16 +19672,16 @@
         <v>604</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K28" t="s">
         <v>649</v>
       </c>
       <c r="L28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -19710,16 +19710,16 @@
         <v>609</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K29" t="s">
         <v>599</v>
       </c>
       <c r="L29" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -19736,7 +19736,7 @@
         <v>410</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>168</v>
@@ -19748,16 +19748,16 @@
         <v>608</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K30" t="s">
         <v>649</v>
       </c>
       <c r="L30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -19786,16 +19786,16 @@
         <v>608</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K31" t="s">
         <v>649</v>
       </c>
       <c r="L31" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -19824,16 +19824,16 @@
         <v>604</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="K32" t="s">
         <v>599</v>
       </c>
       <c r="L32" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -19850,7 +19850,7 @@
         <v>413</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="3" t="s">
@@ -19860,16 +19860,16 @@
         <v>608</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K33" t="s">
         <v>649</v>
       </c>
       <c r="L33" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -19898,16 +19898,16 @@
         <v>604</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K34" t="s">
         <v>599</v>
       </c>
       <c r="L34" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -19936,7 +19936,7 @@
         <v>634</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>763</v>
@@ -19945,7 +19945,7 @@
         <v>599</v>
       </c>
       <c r="L35" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -19974,16 +19974,16 @@
         <v>634</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="K36" t="s">
         <v>599</v>
       </c>
       <c r="L36" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -20012,7 +20012,7 @@
         <v>605</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J37" s="20" t="s">
         <v>763</v>
@@ -20021,7 +20021,7 @@
         <v>599</v>
       </c>
       <c r="L37" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -20050,7 +20050,7 @@
         <v>640</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J38" s="20" t="s">
         <v>763</v>
@@ -20059,7 +20059,7 @@
         <v>599</v>
       </c>
       <c r="L38" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -20086,7 +20086,7 @@
         <v>602</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J39" s="20" t="s">
         <v>763</v>
@@ -20095,7 +20095,7 @@
         <v>599</v>
       </c>
       <c r="L39" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -20124,16 +20124,16 @@
         <v>490</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K40" t="s">
         <v>599</v>
       </c>
       <c r="L40" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -20160,7 +20160,7 @@
         <v>602</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J41" s="20" t="s">
         <v>763</v>
@@ -20169,7 +20169,7 @@
         <v>599</v>
       </c>
       <c r="L41" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -22862,7 +22862,7 @@
         <v>734</v>
       </c>
       <c r="C3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -22873,7 +22873,7 @@
         <v>734</v>
       </c>
       <c r="C4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -22895,7 +22895,7 @@
         <v>734</v>
       </c>
       <c r="C6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -22917,7 +22917,7 @@
         <v>734</v>
       </c>
       <c r="C8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -22928,7 +22928,7 @@
         <v>734</v>
       </c>
       <c r="C9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -22950,7 +22950,7 @@
         <v>733</v>
       </c>
       <c r="C11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -23038,7 +23038,7 @@
         <v>733</v>
       </c>
       <c r="C19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -23093,7 +23093,7 @@
         <v>733</v>
       </c>
       <c r="C24" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -23181,7 +23181,7 @@
         <v>734</v>
       </c>
       <c r="C32" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970EF717-ECE6-4357-B2C6-427A823A8A20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E16D0CC-1B85-4EFB-9DA8-ECAF412527F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="5" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="2" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="598">
   <si>
     <t>FAIR</t>
   </si>
@@ -1821,9 +1821,6 @@
     <t>The proportion of residents who volunteered increased between 2011 and 2016.</t>
   </si>
   <si>
-    <t>The kindergarten enrolment rate in Meeonee Valley is around 92 per cent.</t>
-  </si>
-  <si>
     <t>Number of first year children enrolled in kindergarten divided by the number of 3 year old children (70%) and 4 year old children (30%) based on the previous year's estimated resident population</t>
   </si>
   <si>
@@ -2011,6 +2008,15 @@
   </si>
   <si>
     <t>Calculated from the Public Transport Victoria (PTV) General Transit Feed Specification (GTFS) dataset and Council data</t>
+  </si>
+  <si>
+    <t>Seeking to understand how vulnerable the general population is in an extreme weather event or power outage, and what response they would have to enable better planning of emergency management approaches. The better prepared or resilient the community is, the less they will have to rely on Council services and the less likely they will be to rely on emergency refuges / community centres to seek relief.</t>
+  </si>
+  <si>
+    <t>Victorian Child and Adolescent Monitoring System (VCAMS), Indicator 31.1a Kindergarten participation rate</t>
+  </si>
+  <si>
+    <t>The kindergarten enrolment rate in Moonee Valley is around 92 per cent.</t>
   </si>
 </sst>
 </file>
@@ -14387,8 +14393,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A8:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14438,7 +14444,7 @@
         <v>519</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14476,7 +14482,7 @@
         <v>401</v>
       </c>
       <c r="L2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14514,7 +14520,7 @@
         <v>351</v>
       </c>
       <c r="L3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14552,7 +14558,7 @@
         <v>351</v>
       </c>
       <c r="L4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14581,7 +14587,7 @@
         <v>354</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>514</v>
@@ -14590,7 +14596,7 @@
         <v>351</v>
       </c>
       <c r="L5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14622,13 +14628,13 @@
         <v>524</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K6" t="s">
         <v>351</v>
       </c>
       <c r="L6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14660,13 +14666,13 @@
         <v>525</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K7" t="s">
         <v>351</v>
       </c>
       <c r="L7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14704,7 +14710,7 @@
         <v>401</v>
       </c>
       <c r="L8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14742,7 +14748,7 @@
         <v>351</v>
       </c>
       <c r="L9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14780,7 +14786,7 @@
         <v>351</v>
       </c>
       <c r="L10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14818,7 +14824,7 @@
         <v>351</v>
       </c>
       <c r="L11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14856,7 +14862,7 @@
         <v>401</v>
       </c>
       <c r="L12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -14885,16 +14891,16 @@
         <v>380</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K13" t="s">
         <v>401</v>
       </c>
       <c r="L13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14932,10 +14938,10 @@
         <v>351</v>
       </c>
       <c r="L14" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>452</v>
       </c>
@@ -14949,19 +14955,19 @@
         <v>278</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>375</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>437</v>
+        <v>596</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>354</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>532</v>
+        <v>597</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>514</v>
@@ -14970,7 +14976,7 @@
         <v>351</v>
       </c>
       <c r="L15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14999,7 +15005,7 @@
         <v>377</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>514</v>
@@ -15008,7 +15014,7 @@
         <v>351</v>
       </c>
       <c r="L16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15035,7 +15041,7 @@
         <v>385</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>514</v>
@@ -15044,7 +15050,7 @@
         <v>351</v>
       </c>
       <c r="L17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15073,7 +15079,7 @@
         <v>354</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>514</v>
@@ -15082,7 +15088,7 @@
         <v>351</v>
       </c>
       <c r="L18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15111,7 +15117,7 @@
         <v>378</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>514</v>
@@ -15120,7 +15126,7 @@
         <v>351</v>
       </c>
       <c r="L19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15145,7 +15151,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>514</v>
@@ -15154,7 +15160,7 @@
         <v>351</v>
       </c>
       <c r="L20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15177,22 +15183,22 @@
         <v>64</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H21" s="46" t="s">
         <v>386</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K21" t="s">
         <v>351</v>
       </c>
       <c r="L21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15219,16 +15225,16 @@
         <v>356</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K22" t="s">
         <v>351</v>
       </c>
       <c r="L22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15255,7 +15261,7 @@
         <v>354</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>514</v>
@@ -15264,7 +15270,7 @@
         <v>351</v>
       </c>
       <c r="L23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15281,17 +15287,17 @@
         <v>432</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>350</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>514</v>
@@ -15300,7 +15306,7 @@
         <v>401</v>
       </c>
       <c r="L24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15327,7 +15333,7 @@
         <v>377</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>514</v>
@@ -15336,7 +15342,7 @@
         <v>351</v>
       </c>
       <c r="L25" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15365,7 +15371,7 @@
         <v>377</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>514</v>
@@ -15374,7 +15380,7 @@
         <v>351</v>
       </c>
       <c r="L26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -15403,16 +15409,16 @@
         <v>356</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K27" t="s">
         <v>401</v>
       </c>
       <c r="L27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15441,16 +15447,16 @@
         <v>356</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K28" t="s">
         <v>401</v>
       </c>
       <c r="L28" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15479,16 +15485,16 @@
         <v>361</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K29" t="s">
         <v>351</v>
       </c>
       <c r="L29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15505,7 +15511,7 @@
         <v>162</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>89</v>
@@ -15517,16 +15523,16 @@
         <v>360</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K30" t="s">
         <v>401</v>
       </c>
       <c r="L30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15555,16 +15561,16 @@
         <v>360</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K31" t="s">
         <v>401</v>
       </c>
       <c r="L31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15593,16 +15599,16 @@
         <v>356</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K32" t="s">
         <v>351</v>
       </c>
       <c r="L32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15619,7 +15625,7 @@
         <v>165</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="3" t="s">
@@ -15629,16 +15635,16 @@
         <v>360</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K33" t="s">
         <v>401</v>
       </c>
       <c r="L33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -15667,19 +15673,19 @@
         <v>356</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K34" t="s">
         <v>351</v>
       </c>
       <c r="L34" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>467</v>
       </c>
@@ -15705,16 +15711,16 @@
         <v>386</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>514</v>
+        <v>555</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="K35" t="s">
         <v>351</v>
       </c>
       <c r="L35" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15743,16 +15749,16 @@
         <v>386</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K36" t="s">
         <v>351</v>
       </c>
       <c r="L36" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15781,7 +15787,7 @@
         <v>357</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>514</v>
@@ -15790,7 +15796,7 @@
         <v>351</v>
       </c>
       <c r="L37" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15819,7 +15825,7 @@
         <v>392</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>514</v>
@@ -15828,7 +15834,7 @@
         <v>351</v>
       </c>
       <c r="L38" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15855,7 +15861,7 @@
         <v>354</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>514</v>
@@ -15864,7 +15870,7 @@
         <v>351</v>
       </c>
       <c r="L39" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15893,16 +15899,16 @@
         <v>242</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K40" t="s">
         <v>351</v>
       </c>
       <c r="L40" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15929,7 +15935,7 @@
         <v>354</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>514</v>
@@ -15938,7 +15944,7 @@
         <v>351</v>
       </c>
       <c r="L41" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -16669,7 +16675,7 @@
   </sheetPr>
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
@@ -18651,7 +18657,7 @@
         <v>485</v>
       </c>
       <c r="C3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -18662,7 +18668,7 @@
         <v>485</v>
       </c>
       <c r="C4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -18684,7 +18690,7 @@
         <v>485</v>
       </c>
       <c r="C6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -18706,7 +18712,7 @@
         <v>485</v>
       </c>
       <c r="C8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -18717,7 +18723,7 @@
         <v>485</v>
       </c>
       <c r="C9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -18739,7 +18745,7 @@
         <v>484</v>
       </c>
       <c r="C11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -18827,7 +18833,7 @@
         <v>484</v>
       </c>
       <c r="C19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -18882,7 +18888,7 @@
         <v>484</v>
       </c>
       <c r="C24" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -18970,7 +18976,7 @@
         <v>485</v>
       </c>
       <c r="C32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E16D0CC-1B85-4EFB-9DA8-ECAF412527F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A14F7C-ACB0-4E78-AD8D-FA1CB648A108}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="2" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="598">
   <si>
     <t>FAIR</t>
   </si>
@@ -1812,9 +1812,6 @@
     <t>The proportion of children who are not developmentally vulnerable on one or more domains has been slowly increasing.</t>
   </si>
   <si>
-    <t>There was a decrease in the index score for satisfactoin with Council decision making between 2018 and 2019.</t>
-  </si>
-  <si>
     <t>The proportion of households with housing costs that represented 30 per cent or more of household income decrease between 2011 and 2016.</t>
   </si>
   <si>
@@ -1881,9 +1878,6 @@
     <t>About 80 per cent of Council's facilities are disability accessible</t>
   </si>
   <si>
-    <t>About five per cent of Council's open spaces have been upgraded since 2018</t>
-  </si>
-  <si>
     <t>Open space provision is at about 4.1 hectares per 1,000 population</t>
   </si>
   <si>
@@ -2017,6 +2011,12 @@
   </si>
   <si>
     <t>The kindergarten enrolment rate in Moonee Valley is around 92 per cent.</t>
+  </si>
+  <si>
+    <t>There was a decrease in the index score for satisfaction with Council decision making between 2018 and 2019.</t>
+  </si>
+  <si>
+    <t>About five per cent of Council's open spaces have been upgraded since June 2018 (eight out of 220 spaces)</t>
   </si>
 </sst>
 </file>
@@ -14393,8 +14393,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14444,7 +14444,7 @@
         <v>519</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14482,7 +14482,7 @@
         <v>401</v>
       </c>
       <c r="L2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14520,7 +14520,7 @@
         <v>351</v>
       </c>
       <c r="L3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14558,7 +14558,7 @@
         <v>351</v>
       </c>
       <c r="L4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14587,7 +14587,7 @@
         <v>354</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>514</v>
@@ -14596,7 +14596,7 @@
         <v>351</v>
       </c>
       <c r="L5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14628,13 +14628,13 @@
         <v>524</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="K6" t="s">
         <v>351</v>
       </c>
       <c r="L6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14666,13 +14666,13 @@
         <v>525</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K7" t="s">
         <v>351</v>
       </c>
       <c r="L7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14710,7 +14710,7 @@
         <v>401</v>
       </c>
       <c r="L8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14748,7 +14748,7 @@
         <v>351</v>
       </c>
       <c r="L9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14786,7 +14786,7 @@
         <v>351</v>
       </c>
       <c r="L10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14815,7 +14815,7 @@
         <v>378</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>514</v>
@@ -14824,7 +14824,7 @@
         <v>351</v>
       </c>
       <c r="L11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14853,7 +14853,7 @@
         <v>355</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>514</v>
@@ -14862,7 +14862,7 @@
         <v>401</v>
       </c>
       <c r="L12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -14891,16 +14891,16 @@
         <v>380</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K13" t="s">
         <v>401</v>
       </c>
       <c r="L13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14929,7 +14929,7 @@
         <v>381</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>514</v>
@@ -14938,7 +14938,7 @@
         <v>351</v>
       </c>
       <c r="L14" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14955,19 +14955,19 @@
         <v>278</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>375</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>354</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>514</v>
@@ -14976,7 +14976,7 @@
         <v>351</v>
       </c>
       <c r="L15" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15005,7 +15005,7 @@
         <v>377</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>514</v>
@@ -15014,7 +15014,7 @@
         <v>351</v>
       </c>
       <c r="L16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15041,7 +15041,7 @@
         <v>385</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>514</v>
@@ -15050,7 +15050,7 @@
         <v>351</v>
       </c>
       <c r="L17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15079,7 +15079,7 @@
         <v>354</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>514</v>
@@ -15088,7 +15088,7 @@
         <v>351</v>
       </c>
       <c r="L18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15117,7 +15117,7 @@
         <v>378</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>514</v>
@@ -15126,7 +15126,7 @@
         <v>351</v>
       </c>
       <c r="L19" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15149,9 +15149,11 @@
       <c r="G20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="46" t="s">
+        <v>377</v>
+      </c>
       <c r="I20" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>514</v>
@@ -15160,7 +15162,7 @@
         <v>351</v>
       </c>
       <c r="L20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15183,22 +15185,22 @@
         <v>64</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H21" s="46" t="s">
         <v>386</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K21" t="s">
         <v>351</v>
       </c>
       <c r="L21" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15225,16 +15227,16 @@
         <v>356</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K22" t="s">
         <v>351</v>
       </c>
       <c r="L22" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15261,7 +15263,7 @@
         <v>354</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>514</v>
@@ -15270,7 +15272,7 @@
         <v>351</v>
       </c>
       <c r="L23" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15287,17 +15289,17 @@
         <v>432</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>350</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>514</v>
@@ -15306,7 +15308,7 @@
         <v>401</v>
       </c>
       <c r="L24" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15333,7 +15335,7 @@
         <v>377</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>514</v>
@@ -15342,7 +15344,7 @@
         <v>351</v>
       </c>
       <c r="L25" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15371,7 +15373,7 @@
         <v>377</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>514</v>
@@ -15380,7 +15382,7 @@
         <v>351</v>
       </c>
       <c r="L26" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -15409,16 +15411,16 @@
         <v>356</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K27" t="s">
         <v>401</v>
       </c>
       <c r="L27" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15447,16 +15449,16 @@
         <v>356</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K28" t="s">
         <v>401</v>
       </c>
       <c r="L28" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15485,16 +15487,16 @@
         <v>361</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K29" t="s">
         <v>351</v>
       </c>
       <c r="L29" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15511,7 +15513,7 @@
         <v>162</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>89</v>
@@ -15523,16 +15525,16 @@
         <v>360</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K30" t="s">
         <v>401</v>
       </c>
       <c r="L30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15561,16 +15563,16 @@
         <v>360</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K31" t="s">
         <v>401</v>
       </c>
       <c r="L31" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15599,16 +15601,16 @@
         <v>356</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K32" t="s">
         <v>351</v>
       </c>
       <c r="L32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15625,7 +15627,7 @@
         <v>165</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="3" t="s">
@@ -15635,16 +15637,16 @@
         <v>360</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K33" t="s">
         <v>401</v>
       </c>
       <c r="L33" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -15673,16 +15675,16 @@
         <v>356</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K34" t="s">
         <v>351</v>
       </c>
       <c r="L34" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -15711,16 +15713,16 @@
         <v>386</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K35" t="s">
         <v>351</v>
       </c>
       <c r="L35" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15749,16 +15751,16 @@
         <v>386</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K36" t="s">
         <v>351</v>
       </c>
       <c r="L36" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15787,7 +15789,7 @@
         <v>357</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>514</v>
@@ -15796,10 +15798,10 @@
         <v>351</v>
       </c>
       <c r="L37" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>469</v>
       </c>
@@ -15825,7 +15827,7 @@
         <v>392</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>552</v>
+        <v>597</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>514</v>
@@ -15834,7 +15836,7 @@
         <v>351</v>
       </c>
       <c r="L38" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15861,7 +15863,7 @@
         <v>354</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>514</v>
@@ -15870,7 +15872,7 @@
         <v>351</v>
       </c>
       <c r="L39" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15899,16 +15901,16 @@
         <v>242</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K40" t="s">
         <v>351</v>
       </c>
       <c r="L40" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15935,7 +15937,7 @@
         <v>354</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>514</v>
@@ -15944,7 +15946,7 @@
         <v>351</v>
       </c>
       <c r="L41" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -18657,7 +18659,7 @@
         <v>485</v>
       </c>
       <c r="C3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -18668,7 +18670,7 @@
         <v>485</v>
       </c>
       <c r="C4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -18690,7 +18692,7 @@
         <v>485</v>
       </c>
       <c r="C6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -18712,7 +18714,7 @@
         <v>485</v>
       </c>
       <c r="C8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -18723,7 +18725,7 @@
         <v>485</v>
       </c>
       <c r="C9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -18745,7 +18747,7 @@
         <v>484</v>
       </c>
       <c r="C11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -18833,7 +18835,7 @@
         <v>484</v>
       </c>
       <c r="C19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -18888,7 +18890,7 @@
         <v>484</v>
       </c>
       <c r="C24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -18976,7 +18978,7 @@
         <v>485</v>
       </c>
       <c r="C32" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A14F7C-ACB0-4E78-AD8D-FA1CB648A108}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E428596F-12A6-4122-8611-1A2B0056D80D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="2" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="6" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -1992,9 +1992,6 @@
     <t>Obesity is a risk factor for chronic diseases. Adequate physical activity reduces the risk of obesity.  High rates of obesity put added strain on health services. Being overweight or obese can also affect a person's quality of life.</t>
   </si>
   <si>
-    <t>he unemployment rate is an indicator of the amount of spare capacity in a city's labour market. Being unemployed also has implications for a person's economic, social and emotional wellbeing.</t>
-  </si>
-  <si>
     <t>A well-integrated and accessible public transport system has potential to reduce traffic congestion in a city and improve residents' access to jobs and goods and services.</t>
   </si>
   <si>
@@ -2017,6 +2014,9 @@
   </si>
   <si>
     <t>About five per cent of Council's open spaces have been upgraded since June 2018 (eight out of 220 spaces)</t>
+  </si>
+  <si>
+    <t>The unemployment rate is an indicator of the amount of spare capacity in a city's labour market. Being unemployed also has implications for a person's economic, social and emotional wellbeing.</t>
   </si>
 </sst>
 </file>
@@ -14393,8 +14393,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14815,7 +14815,7 @@
         <v>378</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>514</v>
@@ -14894,7 +14894,7 @@
         <v>557</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="K13" t="s">
         <v>401</v>
@@ -14961,13 +14961,13 @@
         <v>375</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>354</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>514</v>
@@ -15185,7 +15185,7 @@
         <v>64</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H21" s="46" t="s">
         <v>386</v>
@@ -15194,7 +15194,7 @@
         <v>552</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K21" t="s">
         <v>351</v>
@@ -15716,7 +15716,7 @@
         <v>553</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K35" t="s">
         <v>351</v>
@@ -15827,7 +15827,7 @@
         <v>392</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>514</v>
@@ -15904,7 +15904,7 @@
         <v>552</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K40" t="s">
         <v>351</v>
@@ -18618,8 +18618,8 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E428596F-12A6-4122-8611-1A2B0056D80D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E3CB73-798D-4F71-B1C1-96FC82ECA912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="6" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="2" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="601">
   <si>
     <t>FAIR</t>
   </si>
@@ -1872,15 +1872,9 @@
     <t>About 39 megalitres of water was used by Council for indoor operations in the year to June 2015.</t>
   </si>
   <si>
-    <t>Data not yet available.</t>
-  </si>
-  <si>
     <t>About 80 per cent of Council's facilities are disability accessible</t>
   </si>
   <si>
-    <t>Open space provision is at about 4.1 hectares per 1,000 population</t>
-  </si>
-  <si>
     <t>This is an interim figure only!!!</t>
   </si>
   <si>
@@ -2013,10 +2007,25 @@
     <t>There was a decrease in the index score for satisfaction with Council decision making between 2018 and 2019.</t>
   </si>
   <si>
-    <t>About five per cent of Council's open spaces have been upgraded since June 2018 (eight out of 220 spaces)</t>
-  </si>
-  <si>
     <t>The unemployment rate is an indicator of the amount of spare capacity in a city's labour market. Being unemployed also has implications for a person's economic, social and emotional wellbeing.</t>
+  </si>
+  <si>
+    <t>Community Infrastructure</t>
+  </si>
+  <si>
+    <t>To ensure that our open spaces meet the needs of the community through the implementation of Master Plans, upgrades and renewals. Council is effectively managing Open Space Contributions as per Amendment C98.</t>
+  </si>
+  <si>
+    <t>Council aims to meet best practice provision of open space using World Health Organisation and State Government targets.</t>
+  </si>
+  <si>
+    <t>It is important to ensure that we are providing a diversity of open space which caters for all the community.</t>
+  </si>
+  <si>
+    <t>Since June 2018, 12 out of 220 open spaces and one streetscape have been upgraded. These include: Woodlands Park Stage 1 and 2; Rosehill Park Stage 1; Playspace Upgrades x 4; Cross Keys (new pathways); Union Road Stage 3; Green Spine Lighting installation; and Playspace upgrades x 4.</t>
+  </si>
+  <si>
+    <t>Open space provision is at about 4.1 hectares per 1,000 population. Our provision of 41 sqm per person is greater than the State Government's standard of 26 sqm per person.</t>
   </si>
 </sst>
 </file>
@@ -14393,8 +14402,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="F29" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14444,7 +14453,7 @@
         <v>519</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14482,7 +14491,7 @@
         <v>401</v>
       </c>
       <c r="L2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14520,7 +14529,7 @@
         <v>351</v>
       </c>
       <c r="L3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14558,7 +14567,7 @@
         <v>351</v>
       </c>
       <c r="L4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14587,7 +14596,7 @@
         <v>354</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>514</v>
@@ -14596,7 +14605,7 @@
         <v>351</v>
       </c>
       <c r="L5" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14628,13 +14637,13 @@
         <v>524</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K6" t="s">
         <v>351</v>
       </c>
       <c r="L6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14666,13 +14675,13 @@
         <v>525</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K7" t="s">
         <v>351</v>
       </c>
       <c r="L7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14710,7 +14719,7 @@
         <v>401</v>
       </c>
       <c r="L8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14748,7 +14757,7 @@
         <v>351</v>
       </c>
       <c r="L9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14786,7 +14795,7 @@
         <v>351</v>
       </c>
       <c r="L10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14815,7 +14824,7 @@
         <v>378</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>514</v>
@@ -14824,7 +14833,7 @@
         <v>351</v>
       </c>
       <c r="L11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14862,7 +14871,7 @@
         <v>401</v>
       </c>
       <c r="L12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -14891,16 +14900,16 @@
         <v>380</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="K13" t="s">
         <v>401</v>
       </c>
       <c r="L13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14938,7 +14947,7 @@
         <v>351</v>
       </c>
       <c r="L14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14961,13 +14970,13 @@
         <v>375</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>354</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>514</v>
@@ -14976,7 +14985,7 @@
         <v>351</v>
       </c>
       <c r="L15" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15014,7 +15023,7 @@
         <v>351</v>
       </c>
       <c r="L16" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15050,7 +15059,7 @@
         <v>351</v>
       </c>
       <c r="L17" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15088,7 +15097,7 @@
         <v>351</v>
       </c>
       <c r="L18" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15126,7 +15135,7 @@
         <v>351</v>
       </c>
       <c r="L19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15162,7 +15171,7 @@
         <v>351</v>
       </c>
       <c r="L20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15185,22 +15194,22 @@
         <v>64</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H21" s="46" t="s">
         <v>386</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="K21" t="s">
         <v>351</v>
       </c>
       <c r="L21" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15230,13 +15239,13 @@
         <v>537</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K22" t="s">
         <v>351</v>
       </c>
       <c r="L22" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15272,7 +15281,7 @@
         <v>351</v>
       </c>
       <c r="L23" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15289,17 +15298,17 @@
         <v>432</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>350</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>514</v>
@@ -15308,7 +15317,7 @@
         <v>401</v>
       </c>
       <c r="L24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15344,7 +15353,7 @@
         <v>351</v>
       </c>
       <c r="L25" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15382,7 +15391,7 @@
         <v>351</v>
       </c>
       <c r="L26" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -15411,16 +15420,16 @@
         <v>356</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K27" t="s">
         <v>401</v>
       </c>
       <c r="L27" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15452,13 +15461,13 @@
         <v>541</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K28" t="s">
         <v>401</v>
       </c>
       <c r="L28" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15490,13 +15499,13 @@
         <v>542</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K29" t="s">
         <v>351</v>
       </c>
       <c r="L29" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15528,13 +15537,13 @@
         <v>545</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K30" t="s">
         <v>401</v>
       </c>
       <c r="L30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15566,13 +15575,13 @@
         <v>543</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K31" t="s">
         <v>401</v>
       </c>
       <c r="L31" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15604,13 +15613,13 @@
         <v>544</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K32" t="s">
         <v>351</v>
       </c>
       <c r="L32" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15640,13 +15649,13 @@
         <v>548</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K33" t="s">
         <v>401</v>
       </c>
       <c r="L33" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -15675,16 +15684,16 @@
         <v>356</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K34" t="s">
         <v>351</v>
       </c>
       <c r="L34" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -15713,16 +15722,16 @@
         <v>386</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K35" t="s">
         <v>351</v>
       </c>
       <c r="L35" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15751,16 +15760,16 @@
         <v>386</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K36" t="s">
         <v>351</v>
       </c>
       <c r="L36" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15789,7 +15798,7 @@
         <v>357</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>514</v>
@@ -15798,10 +15807,10 @@
         <v>351</v>
       </c>
       <c r="L37" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>469</v>
       </c>
@@ -15827,19 +15836,19 @@
         <v>392</v>
       </c>
       <c r="I38" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>596</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>514</v>
       </c>
       <c r="K38" t="s">
         <v>351</v>
       </c>
       <c r="L38" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>477</v>
       </c>
@@ -15863,16 +15872,16 @@
         <v>354</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>514</v>
+        <v>600</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>597</v>
       </c>
       <c r="K39" t="s">
         <v>351</v>
       </c>
       <c r="L39" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15901,19 +15910,19 @@
         <v>242</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K40" t="s">
         <v>351</v>
       </c>
       <c r="L40" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>478</v>
       </c>
@@ -15937,16 +15946,16 @@
         <v>354</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>514</v>
+        <v>551</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>598</v>
       </c>
       <c r="K41" t="s">
         <v>351</v>
       </c>
       <c r="L41" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -16437,7 +16446,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16677,8 +16686,8 @@
   </sheetPr>
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18488,7 +18497,7 @@
         <v>43646</v>
       </c>
       <c r="C111" s="68">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="F111" s="18" t="s">
         <v>488</v>
@@ -18618,7 +18627,7 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -18659,7 +18668,7 @@
         <v>485</v>
       </c>
       <c r="C3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -18670,7 +18679,7 @@
         <v>485</v>
       </c>
       <c r="C4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -18692,7 +18701,7 @@
         <v>485</v>
       </c>
       <c r="C6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -18714,7 +18723,7 @@
         <v>485</v>
       </c>
       <c r="C8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -18725,7 +18734,7 @@
         <v>485</v>
       </c>
       <c r="C9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -18747,7 +18756,7 @@
         <v>484</v>
       </c>
       <c r="C11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -18835,7 +18844,7 @@
         <v>484</v>
       </c>
       <c r="C19" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -18890,7 +18899,7 @@
         <v>484</v>
       </c>
       <c r="C24" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -18978,7 +18987,7 @@
         <v>485</v>
       </c>
       <c r="C32" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E3CB73-798D-4F71-B1C1-96FC82ECA912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97D1279-A04C-47DC-9CC1-34A9BA6402A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="2" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="602">
   <si>
     <t>FAIR</t>
   </si>
@@ -2004,9 +2004,6 @@
     <t>The kindergarten enrolment rate in Moonee Valley is around 92 per cent.</t>
   </si>
   <si>
-    <t>There was a decrease in the index score for satisfaction with Council decision making between 2018 and 2019.</t>
-  </si>
-  <si>
     <t>The unemployment rate is an indicator of the amount of spare capacity in a city's labour market. Being unemployed also has implications for a person's economic, social and emotional wellbeing.</t>
   </si>
   <si>
@@ -2026,6 +2023,12 @@
   </si>
   <si>
     <t>Open space provision is at about 4.1 hectares per 1,000 population. Our provision of 41 sqm per person is greater than the State Government's standard of 26 sqm per person.</t>
+  </si>
+  <si>
+    <t>Moonee Valley’s 2018/19 result of 49 is lower than both the state (55.88) and similar council (64.56) averages. It is also a decrease in comparison to Moonee Valley's 2017/18 result (52).</t>
+  </si>
+  <si>
+    <t>Councils should act wisely for the community. A higher level of community satisfaction suggests an improvement in council decision making.</t>
   </si>
 </sst>
 </file>
@@ -14402,8 +14405,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F29" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14605,7 +14608,7 @@
         <v>351</v>
       </c>
       <c r="L5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14798,7 +14801,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>447</v>
       </c>
@@ -14824,10 +14827,10 @@
         <v>378</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>514</v>
+        <v>600</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>601</v>
       </c>
       <c r="K11" t="s">
         <v>351</v>
@@ -14903,7 +14906,7 @@
         <v>555</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K13" t="s">
         <v>401</v>
@@ -15836,10 +15839,10 @@
         <v>392</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K38" t="s">
         <v>351</v>
@@ -15872,10 +15875,10 @@
         <v>354</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K39" t="s">
         <v>351</v>
@@ -15949,7 +15952,7 @@
         <v>551</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K41" t="s">
         <v>351</v>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97D1279-A04C-47DC-9CC1-34A9BA6402A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D02C6FF-A351-4624-99A2-921DF97E5000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="2" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="604">
   <si>
     <t>FAIR</t>
   </si>
@@ -1743,9 +1743,6 @@
     <t>Megalitres</t>
   </si>
   <si>
-    <t>ABS (6524.0.55.002)</t>
-  </si>
-  <si>
     <t>Calculated from Council data</t>
   </si>
   <si>
@@ -1779,9 +1776,6 @@
     <t>Department of Employment, Skills, Small and Family Business – Small Area Labour Market (SALM) data</t>
   </si>
   <si>
-    <t>Calculated from aerial photographs (NIR) and Elevation (LiDAR) data</t>
-  </si>
-  <si>
     <t>Desired</t>
   </si>
   <si>
@@ -2029,6 +2023,18 @@
   </si>
   <si>
     <t>Councils should act wisely for the community. A higher level of community satisfaction suggests an improvement in council decision making.</t>
+  </si>
+  <si>
+    <t>Moonee Valley’s Transport Safety Strategy adopted the Safe System approach in 2016. This approach will prioritise safe people, safe speeds, safe vehicles and safe roads and will assist us to achieve our goal of zero fatalities and serious injuries within Moonee Valley.</t>
+  </si>
+  <si>
+    <t>Australian Bureau of Statistics (6524.0.55.002 - Estimates of Personal Income for Small Areas)</t>
+  </si>
+  <si>
+    <t>Australian Bureau of Statistics (Census of Population and Housing)</t>
+  </si>
+  <si>
+    <t>Calculated from aerial photographs (NIR) and elevation (LiDAR) data</t>
   </si>
 </sst>
 </file>
@@ -14367,7 +14373,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -14376,7 +14382,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -14385,7 +14391,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
@@ -14405,8 +14411,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14447,16 +14453,16 @@
         <v>181</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14479,22 +14485,22 @@
         <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>506</v>
+        <v>601</v>
       </c>
       <c r="H2" s="46" t="s">
         <v>384</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K2" t="s">
         <v>401</v>
       </c>
       <c r="L2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14523,16 +14529,16 @@
         <v>377</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K3" t="s">
         <v>351</v>
       </c>
       <c r="L3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14561,16 +14567,16 @@
         <v>377</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K4" t="s">
         <v>351</v>
       </c>
       <c r="L4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14587,7 +14593,7 @@
         <v>409</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>434</v>
@@ -14599,16 +14605,16 @@
         <v>354</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K5" t="s">
         <v>351</v>
       </c>
       <c r="L5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14637,16 +14643,16 @@
         <v>377</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K6" t="s">
         <v>351</v>
       </c>
       <c r="L6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14675,16 +14681,16 @@
         <v>428</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K7" t="s">
         <v>351</v>
       </c>
       <c r="L7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14713,16 +14719,16 @@
         <v>393</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K8" t="s">
         <v>401</v>
       </c>
       <c r="L8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14751,16 +14757,16 @@
         <v>427</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K9" t="s">
         <v>351</v>
       </c>
       <c r="L9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14789,16 +14795,16 @@
         <v>391</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K10" t="s">
         <v>351</v>
       </c>
       <c r="L10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14827,16 +14833,16 @@
         <v>378</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K11" t="s">
         <v>351</v>
       </c>
       <c r="L11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14859,22 +14865,22 @@
         <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>436</v>
+        <v>602</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>355</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K12" t="s">
         <v>401</v>
       </c>
       <c r="L12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -14897,22 +14903,22 @@
         <v>81</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H13" s="46" t="s">
         <v>380</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K13" t="s">
         <v>401</v>
       </c>
       <c r="L13" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14935,22 +14941,22 @@
         <v>35</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>436</v>
+        <v>602</v>
       </c>
       <c r="H14" s="46" t="s">
         <v>381</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K14" t="s">
         <v>351</v>
       </c>
       <c r="L14" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14967,28 +14973,28 @@
         <v>278</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>375</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>354</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K15" t="s">
         <v>351</v>
       </c>
       <c r="L15" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15017,16 +15023,16 @@
         <v>377</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K16" t="s">
         <v>351</v>
       </c>
       <c r="L16" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15047,22 +15053,22 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="2" t="s">
-        <v>436</v>
+        <v>602</v>
       </c>
       <c r="H17" s="46" t="s">
         <v>385</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K17" t="s">
         <v>351</v>
       </c>
       <c r="L17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15091,16 +15097,16 @@
         <v>354</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K18" t="s">
         <v>351</v>
       </c>
       <c r="L18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15129,16 +15135,16 @@
         <v>378</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K19" t="s">
         <v>351</v>
       </c>
       <c r="L19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15165,16 +15171,16 @@
         <v>377</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K20" t="s">
         <v>351</v>
       </c>
       <c r="L20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15197,22 +15203,22 @@
         <v>64</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H21" s="46" t="s">
         <v>386</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K21" t="s">
         <v>351</v>
       </c>
       <c r="L21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15233,22 +15239,22 @@
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="2" t="s">
-        <v>436</v>
+        <v>602</v>
       </c>
       <c r="H22" s="39" t="s">
         <v>356</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K22" t="s">
         <v>351</v>
       </c>
       <c r="L22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15269,25 +15275,25 @@
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="2" t="s">
-        <v>436</v>
+        <v>602</v>
       </c>
       <c r="H23" s="43" t="s">
         <v>354</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K23" t="s">
         <v>351</v>
       </c>
       <c r="L23" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>461</v>
       </c>
@@ -15301,26 +15307,26 @@
         <v>432</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>350</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>514</v>
+        <v>556</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>600</v>
       </c>
       <c r="K24" t="s">
         <v>401</v>
       </c>
       <c r="L24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15347,16 +15353,16 @@
         <v>377</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K25" t="s">
         <v>351</v>
       </c>
       <c r="L25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15385,16 +15391,16 @@
         <v>377</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K26" t="s">
         <v>351</v>
       </c>
       <c r="L26" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -15423,16 +15429,16 @@
         <v>356</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K27" t="s">
         <v>401</v>
       </c>
       <c r="L27" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15461,16 +15467,16 @@
         <v>356</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K28" t="s">
         <v>401</v>
       </c>
       <c r="L28" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15499,16 +15505,16 @@
         <v>361</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K29" t="s">
         <v>351</v>
       </c>
       <c r="L29" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15525,7 +15531,7 @@
         <v>162</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>89</v>
@@ -15537,16 +15543,16 @@
         <v>360</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K30" t="s">
         <v>401</v>
       </c>
       <c r="L30" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15575,16 +15581,16 @@
         <v>360</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="K31" t="s">
         <v>401</v>
       </c>
       <c r="L31" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15607,22 +15613,22 @@
         <v>66</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>518</v>
+        <v>603</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>356</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K32" t="s">
         <v>351</v>
       </c>
       <c r="L32" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15639,7 +15645,7 @@
         <v>165</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="3" t="s">
@@ -15649,16 +15655,16 @@
         <v>360</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K33" t="s">
         <v>401</v>
       </c>
       <c r="L33" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -15672,7 +15678,7 @@
         <v>94</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>135</v>
@@ -15687,16 +15693,16 @@
         <v>356</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K34" t="s">
         <v>351</v>
       </c>
       <c r="L34" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -15725,16 +15731,16 @@
         <v>386</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="K35" t="s">
         <v>351</v>
       </c>
       <c r="L35" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15763,16 +15769,16 @@
         <v>386</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K36" t="s">
         <v>351</v>
       </c>
       <c r="L36" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15801,16 +15807,16 @@
         <v>357</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K37" t="s">
         <v>351</v>
       </c>
       <c r="L37" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -15839,16 +15845,16 @@
         <v>392</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K38" t="s">
         <v>351</v>
       </c>
       <c r="L38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15869,22 +15875,22 @@
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H39" s="43" t="s">
         <v>354</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K39" t="s">
         <v>351</v>
       </c>
       <c r="L39" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15907,22 +15913,22 @@
         <v>64</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H40" s="39" t="s">
         <v>242</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K40" t="s">
         <v>351</v>
       </c>
       <c r="L40" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15939,7 +15945,7 @@
         <v>336</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
@@ -15949,16 +15955,16 @@
         <v>354</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K41" t="s">
         <v>351</v>
       </c>
       <c r="L41" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -15982,7 +15988,9 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -16731,7 +16739,7 @@
         <v>5.04</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -16745,7 +16753,7 @@
         <v>4.8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -16759,7 +16767,7 @@
         <v>4.72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -16773,7 +16781,7 @@
         <v>4.79</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -16787,7 +16795,7 @@
         <v>4.84</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -17067,7 +17075,7 @@
         <v>14.5</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -17087,7 +17095,7 @@
         <v>21.1</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -17195,7 +17203,7 @@
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
       <c r="F29" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -17211,7 +17219,7 @@
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
       <c r="F30" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -17315,7 +17323,7 @@
       <c r="D36" s="60"/>
       <c r="E36" s="60"/>
       <c r="F36" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -17363,7 +17371,7 @@
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
       <c r="F39" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -17379,7 +17387,7 @@
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
       <c r="F40" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -17443,7 +17451,7 @@
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
       <c r="F44" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -17491,7 +17499,7 @@
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
       <c r="F47" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -17587,7 +17595,7 @@
       <c r="D53" s="59"/>
       <c r="E53" s="59"/>
       <c r="F53" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -17803,7 +17811,7 @@
       <c r="D66" s="60"/>
       <c r="E66" s="60"/>
       <c r="F66" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -17851,7 +17859,7 @@
       <c r="D69" s="60"/>
       <c r="E69" s="60"/>
       <c r="F69" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -17899,7 +17907,7 @@
       <c r="D72" s="60"/>
       <c r="E72" s="60"/>
       <c r="F72" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -17915,7 +17923,7 @@
       <c r="D73" s="60"/>
       <c r="E73" s="60"/>
       <c r="F73" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -17931,7 +17939,7 @@
       <c r="D74" s="60"/>
       <c r="E74" s="60"/>
       <c r="F74" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -17947,7 +17955,7 @@
       <c r="D75" s="60"/>
       <c r="E75" s="60"/>
       <c r="F75" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -18671,7 +18679,7 @@
         <v>485</v>
       </c>
       <c r="C3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -18682,7 +18690,7 @@
         <v>485</v>
       </c>
       <c r="C4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -18704,7 +18712,7 @@
         <v>485</v>
       </c>
       <c r="C6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -18726,7 +18734,7 @@
         <v>485</v>
       </c>
       <c r="C8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -18737,7 +18745,7 @@
         <v>485</v>
       </c>
       <c r="C9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -18759,7 +18767,7 @@
         <v>484</v>
       </c>
       <c r="C11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -18847,7 +18855,7 @@
         <v>484</v>
       </c>
       <c r="C19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -18902,7 +18910,7 @@
         <v>484</v>
       </c>
       <c r="C24" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -18990,7 +18998,7 @@
         <v>485</v>
       </c>
       <c r="C32" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D02C6FF-A351-4624-99A2-921DF97E5000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD27A64-21E6-4FF0-8BE8-553AD730982E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="2" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="605">
   <si>
     <t>FAIR</t>
   </si>
@@ -1809,9 +1809,6 @@
     <t>The proportion of households with housing costs that represented 30 per cent or more of household income decrease between 2011 and 2016.</t>
   </si>
   <si>
-    <t>The proportion of residents who volunteered increased between 2011 and 2016.</t>
-  </si>
-  <si>
     <t>Number of first year children enrolled in kindergarten divided by the number of 3 year old children (70%) and 4 year old children (30%) based on the previous year's estimated resident population</t>
   </si>
   <si>
@@ -2035,6 +2032,12 @@
   </si>
   <si>
     <t>Calculated from aerial photographs (NIR) and elevation (LiDAR) data</t>
+  </si>
+  <si>
+    <t>The rate of volunteering in Moonee Valley increased from 15.3 per cent in 2011 to 17.8 per cent in 2016; this remains below the volunteering rate for Victoria of 19.2 per cent. While the number of volunteers increased, the amount of time given by volunteers decreased across all sectors and the rate of volunteering remains lower among disadvantaged communities. The volunteering contribution is dependent on policies at other levels of government, particularly those that prioritise the allocation of time to making monetised contributions above non-monetised contributions. Research also indicates that the level of volunteering contribution is impacted by conditions that reduce the amount of discretionary time available to individuals, such as caring responsibilities and traffic congestion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefits of volunteering include: increased health and wellbeing; pathways to employment; service delivery; and increased community resilience. The nature and extent of volunteering is changing in Moonee Valley and across the state of Victoria. Unless action is taken to protect and enhance volunteering, there is a risk that the benefits of volunteering will be lost. All levels of government are dependent on volunteering to enable service delivery across sectors including health, education, sporting, social, aged-care and environment where government leverages organisations with voluntary workforces. Trends and challenges in volunteering has placed organisations with voluntary workforces under pressure to adapt management practices in order to develop and grow the capability of the voluntary workforce to sustain service delivery and drive a strong and vibrant culture of volunteering. </t>
   </si>
 </sst>
 </file>
@@ -14411,8 +14414,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14423,8 +14426,7 @@
     <col min="6" max="6" width="31.85546875" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" customWidth="1"/>
     <col min="8" max="8" width="46" customWidth="1"/>
-    <col min="9" max="9" width="38" customWidth="1"/>
-    <col min="10" max="10" width="43" customWidth="1"/>
+    <col min="9" max="10" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14462,7 +14464,7 @@
         <v>517</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14485,7 +14487,7 @@
         <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H2" s="46" t="s">
         <v>384</v>
@@ -14500,7 +14502,7 @@
         <v>401</v>
       </c>
       <c r="L2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14538,7 +14540,7 @@
         <v>351</v>
       </c>
       <c r="L3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14576,7 +14578,7 @@
         <v>351</v>
       </c>
       <c r="L4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14605,7 +14607,7 @@
         <v>354</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>513</v>
@@ -14614,7 +14616,7 @@
         <v>351</v>
       </c>
       <c r="L5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14646,13 +14648,13 @@
         <v>522</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K6" t="s">
         <v>351</v>
       </c>
       <c r="L6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14684,13 +14686,13 @@
         <v>523</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K7" t="s">
         <v>351</v>
       </c>
       <c r="L7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14728,7 +14730,7 @@
         <v>401</v>
       </c>
       <c r="L8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14766,7 +14768,7 @@
         <v>351</v>
       </c>
       <c r="L9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14804,7 +14806,7 @@
         <v>351</v>
       </c>
       <c r="L10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14833,16 +14835,16 @@
         <v>378</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>598</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>599</v>
       </c>
       <c r="K11" t="s">
         <v>351</v>
       </c>
       <c r="L11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14865,7 +14867,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>355</v>
@@ -14880,7 +14882,7 @@
         <v>401</v>
       </c>
       <c r="L12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -14909,19 +14911,19 @@
         <v>380</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K13" t="s">
         <v>401</v>
       </c>
       <c r="L13" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>451</v>
       </c>
@@ -14941,22 +14943,22 @@
         <v>35</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H14" s="46" t="s">
         <v>381</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>513</v>
+        <v>603</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>604</v>
       </c>
       <c r="K14" t="s">
         <v>351</v>
       </c>
       <c r="L14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14973,19 +14975,19 @@
         <v>278</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>375</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>354</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>513</v>
@@ -14994,7 +14996,7 @@
         <v>351</v>
       </c>
       <c r="L15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15023,7 +15025,7 @@
         <v>377</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>513</v>
@@ -15032,7 +15034,7 @@
         <v>351</v>
       </c>
       <c r="L16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15053,13 +15055,13 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H17" s="46" t="s">
         <v>385</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>513</v>
@@ -15068,7 +15070,7 @@
         <v>351</v>
       </c>
       <c r="L17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15097,7 +15099,7 @@
         <v>354</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>513</v>
@@ -15106,7 +15108,7 @@
         <v>351</v>
       </c>
       <c r="L18" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15135,7 +15137,7 @@
         <v>378</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>513</v>
@@ -15144,7 +15146,7 @@
         <v>351</v>
       </c>
       <c r="L19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15171,7 +15173,7 @@
         <v>377</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>513</v>
@@ -15180,7 +15182,7 @@
         <v>351</v>
       </c>
       <c r="L20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15203,22 +15205,22 @@
         <v>64</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H21" s="46" t="s">
         <v>386</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K21" t="s">
         <v>351</v>
       </c>
       <c r="L21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15239,22 +15241,22 @@
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H22" s="39" t="s">
         <v>356</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K22" t="s">
         <v>351</v>
       </c>
       <c r="L22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15275,13 +15277,13 @@
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H23" s="43" t="s">
         <v>354</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>513</v>
@@ -15290,7 +15292,7 @@
         <v>351</v>
       </c>
       <c r="L23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -15307,26 +15309,26 @@
         <v>432</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>350</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K24" t="s">
         <v>401</v>
       </c>
       <c r="L24" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15353,7 +15355,7 @@
         <v>377</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>513</v>
@@ -15362,7 +15364,7 @@
         <v>351</v>
       </c>
       <c r="L25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15391,7 +15393,7 @@
         <v>377</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>513</v>
@@ -15400,7 +15402,7 @@
         <v>351</v>
       </c>
       <c r="L26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -15429,16 +15431,16 @@
         <v>356</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K27" t="s">
         <v>401</v>
       </c>
       <c r="L27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15467,16 +15469,16 @@
         <v>356</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K28" t="s">
         <v>401</v>
       </c>
       <c r="L28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15505,16 +15507,16 @@
         <v>361</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K29" t="s">
         <v>351</v>
       </c>
       <c r="L29" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15531,7 +15533,7 @@
         <v>162</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>89</v>
@@ -15543,16 +15545,16 @@
         <v>360</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K30" t="s">
         <v>401</v>
       </c>
       <c r="L30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15581,16 +15583,16 @@
         <v>360</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K31" t="s">
         <v>401</v>
       </c>
       <c r="L31" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15613,22 +15615,22 @@
         <v>66</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>356</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K32" t="s">
         <v>351</v>
       </c>
       <c r="L32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15645,7 +15647,7 @@
         <v>165</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="3" t="s">
@@ -15655,16 +15657,16 @@
         <v>360</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K33" t="s">
         <v>401</v>
       </c>
       <c r="L33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -15693,16 +15695,16 @@
         <v>356</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K34" t="s">
         <v>351</v>
       </c>
       <c r="L34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -15731,16 +15733,16 @@
         <v>386</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K35" t="s">
         <v>351</v>
       </c>
       <c r="L35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15769,16 +15771,16 @@
         <v>386</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K36" t="s">
         <v>351</v>
       </c>
       <c r="L36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15807,7 +15809,7 @@
         <v>357</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>513</v>
@@ -15816,7 +15818,7 @@
         <v>351</v>
       </c>
       <c r="L37" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -15845,16 +15847,16 @@
         <v>392</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K38" t="s">
         <v>351</v>
       </c>
       <c r="L38" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15881,16 +15883,16 @@
         <v>354</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K39" t="s">
         <v>351</v>
       </c>
       <c r="L39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15919,16 +15921,16 @@
         <v>242</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K40" t="s">
         <v>351</v>
       </c>
       <c r="L40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15955,16 +15957,16 @@
         <v>354</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K41" t="s">
         <v>351</v>
       </c>
       <c r="L41" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -16697,8 +16699,8 @@
   </sheetPr>
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17462,7 +17464,7 @@
         <v>42551</v>
       </c>
       <c r="C45" s="68">
-        <v>17.2</v>
+        <v>17.8</v>
       </c>
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
@@ -18679,7 +18681,7 @@
         <v>485</v>
       </c>
       <c r="C3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -18690,7 +18692,7 @@
         <v>485</v>
       </c>
       <c r="C4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -18712,7 +18714,7 @@
         <v>485</v>
       </c>
       <c r="C6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -18734,7 +18736,7 @@
         <v>485</v>
       </c>
       <c r="C8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -18745,7 +18747,7 @@
         <v>485</v>
       </c>
       <c r="C9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -18767,7 +18769,7 @@
         <v>484</v>
       </c>
       <c r="C11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -18855,7 +18857,7 @@
         <v>484</v>
       </c>
       <c r="C19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -18910,7 +18912,7 @@
         <v>484</v>
       </c>
       <c r="C24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -18998,7 +19000,7 @@
         <v>485</v>
       </c>
       <c r="C32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD27A64-21E6-4FF0-8BE8-553AD730982E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F318A0-D1A1-44B6-AC30-216A55D3AB7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="2" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="606">
   <si>
     <t>FAIR</t>
   </si>
@@ -1833,9 +1833,6 @@
     <t>About 11 per cent of workers travel to jobs in Moonee Valley using public transport, by walking or cycling. This is slightly higher than in 2011.</t>
   </si>
   <si>
-    <t>At present, no residential streets have a speed limit of 40 kph.</t>
-  </si>
-  <si>
     <t>There are 1,500 parking sensors installed in parking spaces in activity centres within Moonee Valley.</t>
   </si>
   <si>
@@ -2034,10 +2031,16 @@
     <t>Calculated from aerial photographs (NIR) and elevation (LiDAR) data</t>
   </si>
   <si>
-    <t>The rate of volunteering in Moonee Valley increased from 15.3 per cent in 2011 to 17.8 per cent in 2016; this remains below the volunteering rate for Victoria of 19.2 per cent. While the number of volunteers increased, the amount of time given by volunteers decreased across all sectors and the rate of volunteering remains lower among disadvantaged communities. The volunteering contribution is dependent on policies at other levels of government, particularly those that prioritise the allocation of time to making monetised contributions above non-monetised contributions. Research also indicates that the level of volunteering contribution is impacted by conditions that reduce the amount of discretionary time available to individuals, such as caring responsibilities and traffic congestion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benefits of volunteering include: increased health and wellbeing; pathways to employment; service delivery; and increased community resilience. The nature and extent of volunteering is changing in Moonee Valley and across the state of Victoria. Unless action is taken to protect and enhance volunteering, there is a risk that the benefits of volunteering will be lost. All levels of government are dependent on volunteering to enable service delivery across sectors including health, education, sporting, social, aged-care and environment where government leverages organisations with voluntary workforces. Trends and challenges in volunteering has placed organisations with voluntary workforces under pressure to adapt management practices in order to develop and grow the capability of the voluntary workforce to sustain service delivery and drive a strong and vibrant culture of volunteering. </t>
+    <t xml:space="preserve">Benefits of volunteering include: increased health and wellbeing; pathways to employment; service delivery; and increased community resilience. The nature and extent of volunteering is changing in Moonee Valley and across the state of Victoria. Unless action is taken to protect and enhance volunteering, there is a risk that the benefits of volunteering will be lost. All levels of government are dependent on volunteering to enable service delivery across sectors including health, education, sporting, social, aged-care and environment where government leverages organisations with voluntary workforces. </t>
+  </si>
+  <si>
+    <t>The rate of volunteering in Moonee Valley increased from between 2011 and 2016, but remains below the rate for Victoria (19.2 per cent). While the number of volunteers increased, the amount of time given by volunteers decreased across all sectors and the rate of volunteering remains lower among disadvantaged communities. The volunteering contribution is dependent on policies at other levels of government, particularly those that prioritise the allocation of time to making monetised contributions above non-monetised contributions.</t>
+  </si>
+  <si>
+    <t>At present, no residential streets have a speed limit of 40 km/h.</t>
+  </si>
+  <si>
+    <t>An action in Moonee Valley’s Transport Safety Strategy, adopted in 2016, is to explore 40km/h zones in residential streets.</t>
   </si>
 </sst>
 </file>
@@ -14414,8 +14417,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14464,7 +14467,7 @@
         <v>517</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14487,7 +14490,7 @@
         <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H2" s="46" t="s">
         <v>384</v>
@@ -14502,7 +14505,7 @@
         <v>401</v>
       </c>
       <c r="L2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14540,7 +14543,7 @@
         <v>351</v>
       </c>
       <c r="L3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14578,7 +14581,7 @@
         <v>351</v>
       </c>
       <c r="L4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14607,7 +14610,7 @@
         <v>354</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>513</v>
@@ -14616,7 +14619,7 @@
         <v>351</v>
       </c>
       <c r="L5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14648,13 +14651,13 @@
         <v>522</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K6" t="s">
         <v>351</v>
       </c>
       <c r="L6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14686,13 +14689,13 @@
         <v>523</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K7" t="s">
         <v>351</v>
       </c>
       <c r="L7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14730,7 +14733,7 @@
         <v>401</v>
       </c>
       <c r="L8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14768,7 +14771,7 @@
         <v>351</v>
       </c>
       <c r="L9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14806,10 +14809,10 @@
         <v>351</v>
       </c>
       <c r="L10" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>447</v>
       </c>
@@ -14835,16 +14838,16 @@
         <v>378</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>597</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>598</v>
       </c>
       <c r="K11" t="s">
         <v>351</v>
       </c>
       <c r="L11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14867,7 +14870,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>355</v>
@@ -14882,10 +14885,10 @@
         <v>401</v>
       </c>
       <c r="L12" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -14911,19 +14914,19 @@
         <v>380</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K13" t="s">
         <v>401</v>
       </c>
       <c r="L13" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>451</v>
       </c>
@@ -14943,7 +14946,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H14" s="46" t="s">
         <v>381</v>
@@ -14952,13 +14955,13 @@
         <v>603</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K14" t="s">
         <v>351</v>
       </c>
       <c r="L14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14981,13 +14984,13 @@
         <v>375</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>354</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>513</v>
@@ -14996,7 +14999,7 @@
         <v>351</v>
       </c>
       <c r="L15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15034,7 +15037,7 @@
         <v>351</v>
       </c>
       <c r="L16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15055,7 +15058,7 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H17" s="46" t="s">
         <v>385</v>
@@ -15070,10 +15073,10 @@
         <v>351</v>
       </c>
       <c r="L17" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>455</v>
       </c>
@@ -15108,10 +15111,10 @@
         <v>351</v>
       </c>
       <c r="L18" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>456</v>
       </c>
@@ -15146,7 +15149,7 @@
         <v>351</v>
       </c>
       <c r="L19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15182,10 +15185,10 @@
         <v>351</v>
       </c>
       <c r="L20" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>458</v>
       </c>
@@ -15205,25 +15208,25 @@
         <v>64</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H21" s="46" t="s">
         <v>386</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K21" t="s">
         <v>351</v>
       </c>
       <c r="L21" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>459</v>
       </c>
@@ -15241,7 +15244,7 @@
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H22" s="39" t="s">
         <v>356</v>
@@ -15250,16 +15253,16 @@
         <v>534</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K22" t="s">
         <v>351</v>
       </c>
       <c r="L22" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>460</v>
       </c>
@@ -15277,7 +15280,7 @@
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H23" s="43" t="s">
         <v>354</v>
@@ -15292,10 +15295,10 @@
         <v>351</v>
       </c>
       <c r="L23" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>461</v>
       </c>
@@ -15309,29 +15312,29 @@
         <v>432</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>350</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K24" t="s">
         <v>401</v>
       </c>
       <c r="L24" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>462</v>
       </c>
@@ -15354,20 +15357,20 @@
       <c r="H25" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>513</v>
+      <c r="I25" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>605</v>
       </c>
       <c r="K25" t="s">
         <v>351</v>
       </c>
       <c r="L25" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>463</v>
       </c>
@@ -15393,7 +15396,7 @@
         <v>377</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>513</v>
@@ -15402,10 +15405,10 @@
         <v>351</v>
       </c>
       <c r="L26" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>464</v>
       </c>
@@ -15431,19 +15434,19 @@
         <v>356</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K27" t="s">
         <v>401</v>
       </c>
       <c r="L27" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>471</v>
       </c>
@@ -15469,19 +15472,19 @@
         <v>356</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K28" t="s">
         <v>401</v>
       </c>
       <c r="L28" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>465</v>
       </c>
@@ -15507,19 +15510,19 @@
         <v>361</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K29" t="s">
         <v>351</v>
       </c>
       <c r="L29" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>472</v>
       </c>
@@ -15533,7 +15536,7 @@
         <v>162</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>89</v>
@@ -15545,16 +15548,16 @@
         <v>360</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K30" t="s">
         <v>401</v>
       </c>
       <c r="L30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15583,16 +15586,16 @@
         <v>360</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K31" t="s">
         <v>401</v>
       </c>
       <c r="L31" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15615,22 +15618,22 @@
         <v>66</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H32" s="39" t="s">
         <v>356</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K32" t="s">
         <v>351</v>
       </c>
       <c r="L32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15647,7 +15650,7 @@
         <v>165</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="3" t="s">
@@ -15657,19 +15660,19 @@
         <v>360</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K33" t="s">
         <v>401</v>
       </c>
       <c r="L33" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>466</v>
       </c>
@@ -15695,19 +15698,19 @@
         <v>356</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K34" t="s">
         <v>351</v>
       </c>
       <c r="L34" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>467</v>
       </c>
@@ -15733,16 +15736,16 @@
         <v>386</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K35" t="s">
         <v>351</v>
       </c>
       <c r="L35" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15771,16 +15774,16 @@
         <v>386</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K36" t="s">
         <v>351</v>
       </c>
       <c r="L36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15809,7 +15812,7 @@
         <v>357</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>513</v>
@@ -15818,10 +15821,10 @@
         <v>351</v>
       </c>
       <c r="L37" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>469</v>
       </c>
@@ -15847,19 +15850,19 @@
         <v>392</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K38" t="s">
         <v>351</v>
       </c>
       <c r="L38" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>477</v>
       </c>
@@ -15883,16 +15886,16 @@
         <v>354</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K39" t="s">
         <v>351</v>
       </c>
       <c r="L39" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15921,16 +15924,16 @@
         <v>242</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K40" t="s">
         <v>351</v>
       </c>
       <c r="L40" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15957,16 +15960,16 @@
         <v>354</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K41" t="s">
         <v>351</v>
       </c>
       <c r="L41" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -18681,7 +18684,7 @@
         <v>485</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -18692,7 +18695,7 @@
         <v>485</v>
       </c>
       <c r="C4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -18714,7 +18717,7 @@
         <v>485</v>
       </c>
       <c r="C6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -18736,7 +18739,7 @@
         <v>485</v>
       </c>
       <c r="C8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -18747,7 +18750,7 @@
         <v>485</v>
       </c>
       <c r="C9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -18769,7 +18772,7 @@
         <v>484</v>
       </c>
       <c r="C11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -18857,7 +18860,7 @@
         <v>484</v>
       </c>
       <c r="C19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -18912,7 +18915,7 @@
         <v>484</v>
       </c>
       <c r="C24" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -19000,7 +19003,7 @@
         <v>485</v>
       </c>
       <c r="C32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F318A0-D1A1-44B6-AC30-216A55D3AB7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC75C03-3ED0-4CAB-B0C2-D2BEC2BCB760}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="2" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="618">
   <si>
     <t>FAIR</t>
   </si>
@@ -2041,6 +2041,42 @@
   </si>
   <si>
     <t>An action in Moonee Valley’s Transport Safety Strategy, adopted in 2016, is to explore 40km/h zones in residential streets.</t>
+  </si>
+  <si>
+    <t>Aspirational target based on the desire to have residents feel part of the community</t>
+  </si>
+  <si>
+    <t>Aspirational target based on the desire to have residents valuing other cultures</t>
+  </si>
+  <si>
+    <t>Aspirational target for safer streets</t>
+  </si>
+  <si>
+    <t>Aspirational target for a healthier population</t>
+  </si>
+  <si>
+    <t>Aspirational target for greater library use and a well-educated population connected with their community</t>
+  </si>
+  <si>
+    <t>Aspirational target to provide public internet access in public areas</t>
+  </si>
+  <si>
+    <t>Aspirational target (TBC on when initial data is calculated)</t>
+  </si>
+  <si>
+    <t>Target set in MV2040</t>
+  </si>
+  <si>
+    <t>Aspirational target based on action in the MV Transport Safety Strategy</t>
+  </si>
+  <si>
+    <t>Aspiration for increased use of technology to improve efficiency and reduce transport emissions.</t>
+  </si>
+  <si>
+    <t>Target set in the 2040 Vision - A water sensitive city document</t>
+  </si>
+  <si>
+    <t>Based on the target in the Creating Liveable Cities in Australia document from RMIT.</t>
   </si>
 </sst>
 </file>
@@ -14417,8 +14453,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14508,7 +14544,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>443</v>
       </c>
@@ -14531,7 +14567,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>377</v>
+        <v>606</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>520</v>
@@ -14546,7 +14582,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>442</v>
       </c>
@@ -14569,7 +14605,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>377</v>
+        <v>607</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>521</v>
@@ -14622,7 +14658,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>445</v>
       </c>
@@ -14645,7 +14681,7 @@
         <v>73</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>377</v>
+        <v>608</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>522</v>
@@ -14736,7 +14772,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>490</v>
       </c>
@@ -14759,7 +14795,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>427</v>
+        <v>609</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>524</v>
@@ -15002,7 +15038,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>453</v>
       </c>
@@ -15025,7 +15061,7 @@
         <v>72</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>377</v>
+        <v>610</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>529</v>
@@ -15173,7 +15209,7 @@
         <v>72</v>
       </c>
       <c r="H20" s="46" t="s">
-        <v>377</v>
+        <v>611</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>533</v>
@@ -15211,7 +15247,7 @@
         <v>585</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>386</v>
+        <v>612</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>546</v>
@@ -15247,7 +15283,7 @@
         <v>600</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>356</v>
+        <v>613</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>534</v>
@@ -15355,7 +15391,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="46" t="s">
-        <v>377</v>
+        <v>614</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>604</v>
@@ -15370,7 +15406,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>463</v>
       </c>
@@ -15393,7 +15429,7 @@
         <v>15</v>
       </c>
       <c r="H26" s="46" t="s">
-        <v>377</v>
+        <v>615</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>536</v>
@@ -15431,7 +15467,7 @@
         <v>15</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>356</v>
+        <v>613</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>563</v>
@@ -15469,7 +15505,7 @@
         <v>15</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>356</v>
+        <v>613</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>537</v>
@@ -15545,7 +15581,7 @@
         <v>72</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>360</v>
+        <v>616</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>541</v>
@@ -15583,7 +15619,7 @@
         <v>72</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>360</v>
+        <v>616</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>539</v>
@@ -15621,7 +15657,7 @@
         <v>601</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>356</v>
+        <v>613</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>540</v>
@@ -15657,7 +15693,7 @@
         <v>72</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>360</v>
+        <v>616</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>544</v>
@@ -15695,7 +15731,7 @@
         <v>92</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>356</v>
+        <v>613</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>550</v>
@@ -15733,7 +15769,7 @@
         <v>151</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>386</v>
+        <v>612</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>547</v>
@@ -15771,7 +15807,7 @@
         <v>151</v>
       </c>
       <c r="H36" s="46" t="s">
-        <v>386</v>
+        <v>612</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>547</v>
@@ -15921,7 +15957,7 @@
         <v>506</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>242</v>
+        <v>617</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>546</v>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC75C03-3ED0-4CAB-B0C2-D2BEC2BCB760}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791986BD-2043-495F-997A-B7EC1BC427D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="2" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="619">
   <si>
     <t>FAIR</t>
   </si>
@@ -2077,6 +2077,9 @@
   </si>
   <si>
     <t>Based on the target in the Creating Liveable Cities in Australia document from RMIT.</t>
+  </si>
+  <si>
+    <t>Community Survey (baseline data from the 2011 VicHealth Indicators Survey)</t>
   </si>
 </sst>
 </file>
@@ -14454,7 +14457,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15990,7 +15993,7 @@
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>73</v>
+        <v>618</v>
       </c>
       <c r="H41" s="43" t="s">
         <v>354</v>
@@ -16738,8 +16741,8 @@
   </sheetPr>
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17356,7 +17359,7 @@
         <v>448</v>
       </c>
       <c r="B36" s="63">
-        <v>40724</v>
+        <v>40764</v>
       </c>
       <c r="C36" s="68">
         <v>16.7</v>
@@ -17372,7 +17375,7 @@
         <v>448</v>
       </c>
       <c r="B37" s="63">
-        <v>42551</v>
+        <v>42591</v>
       </c>
       <c r="C37" s="68">
         <v>15.9</v>
@@ -17484,7 +17487,7 @@
         <v>451</v>
       </c>
       <c r="B44" s="63">
-        <v>40724</v>
+        <v>40764</v>
       </c>
       <c r="C44" s="68">
         <v>15.3</v>
@@ -17500,7 +17503,7 @@
         <v>451</v>
       </c>
       <c r="B45" s="63">
-        <v>42551</v>
+        <v>42591</v>
       </c>
       <c r="C45" s="68">
         <v>17.8</v>
@@ -17627,8 +17630,8 @@
       <c r="A53" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="B53" s="65">
-        <v>40724</v>
+      <c r="B53" s="63">
+        <v>40764</v>
       </c>
       <c r="C53" s="68">
         <v>33.799999999999997</v>
@@ -17643,8 +17646,8 @@
       <c r="A54" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="B54" s="65">
-        <v>42551</v>
+      <c r="B54" s="63">
+        <v>42591</v>
       </c>
       <c r="C54" s="68">
         <v>33</v>
@@ -17844,7 +17847,7 @@
         <v>459</v>
       </c>
       <c r="B66" s="63">
-        <v>40724</v>
+        <v>40764</v>
       </c>
       <c r="C66" s="68">
         <v>21.6</v>
@@ -17860,7 +17863,7 @@
         <v>459</v>
       </c>
       <c r="B67" s="63">
-        <v>42551</v>
+        <v>42591</v>
       </c>
       <c r="C67" s="68">
         <v>23.6</v>
@@ -17892,7 +17895,7 @@
         <v>460</v>
       </c>
       <c r="B69" s="63">
-        <v>40724</v>
+        <v>40764</v>
       </c>
       <c r="C69" s="68">
         <v>10.4</v>
@@ -17908,7 +17911,7 @@
         <v>460</v>
       </c>
       <c r="B70" s="63">
-        <v>42551</v>
+        <v>42591</v>
       </c>
       <c r="C70" s="68">
         <v>11</v>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791986BD-2043-495F-997A-B7EC1BC427D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134873F0-4424-4841-BC97-CFC4526D0D70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="2" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -14457,7 +14457,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14645,8 +14645,8 @@
       <c r="G5" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="H5" s="43" t="s">
-        <v>354</v>
+      <c r="H5" s="46" t="s">
+        <v>612</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>547</v>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134873F0-4424-4841-BC97-CFC4526D0D70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F962CEE6-6090-4C1D-96EE-719C5DD38255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="2" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="6" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="data_format" sheetId="15" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">data!$A$1:$I$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">data!$A$1:$I$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">indicator_list!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Targets Indicators Measures'!$B$1:$AD$132</definedName>
   </definedNames>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="619">
   <si>
     <t>FAIR</t>
   </si>
@@ -1674,15 +1674,6 @@
     <t>value_format</t>
   </si>
   <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -2037,9 +2028,6 @@
     <t>The rate of volunteering in Moonee Valley increased from between 2011 and 2016, but remains below the rate for Victoria (19.2 per cent). While the number of volunteers increased, the amount of time given by volunteers decreased across all sectors and the rate of volunteering remains lower among disadvantaged communities. The volunteering contribution is dependent on policies at other levels of government, particularly those that prioritise the allocation of time to making monetised contributions above non-monetised contributions.</t>
   </si>
   <si>
-    <t>At present, no residential streets have a speed limit of 40 km/h.</t>
-  </si>
-  <si>
     <t>An action in Moonee Valley’s Transport Safety Strategy, adopted in 2016, is to explore 40km/h zones in residential streets.</t>
   </si>
   <si>
@@ -2080,6 +2068,18 @@
   </si>
   <si>
     <t>Community Survey (baseline data from the 2011 VicHealth Indicators Survey)</t>
+  </si>
+  <si>
+    <t>Ensuring our activity centres are equipped with public wi-fi helps us achieve our objectives to become a ‘smart city’. It allows us to provide more amenities for our residents and visitors, and attract further investment to continue to position our activity centres as economic and community anchors.</t>
+  </si>
+  <si>
+    <t>More people working in the municipality means we are boosting our local economy. Working closer to home also holds a range of environmental, social and health benefits.  </t>
+  </si>
+  <si>
+    <t>Council wants to understand whether its leisure, sport and recreation facilities are meeting your needs in regards to accessibility, quality, and the provision of support to live a healthy lifestyle.</t>
+  </si>
+  <si>
+    <t>Index score</t>
   </si>
 </sst>
 </file>
@@ -2288,7 +2288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2490,6 +2490,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5115,7 +5118,7 @@
         <v>266</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>35</v>
@@ -5201,7 +5204,7 @@
         <v>255</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>35</v>
@@ -5263,7 +5266,7 @@
         <v>408</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>35</v>
@@ -6025,7 +6028,7 @@
     </row>
     <row r="20" spans="1:30" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>0</v>
@@ -6925,7 +6928,7 @@
     </row>
     <row r="33" spans="1:30" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>0</v>
@@ -10361,7 +10364,7 @@
         <v>254</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>396</v>
@@ -12162,7 +12165,7 @@
         <v>422</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>89</v>
@@ -14418,7 +14421,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -14427,7 +14430,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -14436,7 +14439,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
@@ -14456,8 +14459,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14497,16 +14500,16 @@
         <v>181</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14529,22 +14532,22 @@
         <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H2" s="46" t="s">
         <v>384</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K2" t="s">
         <v>401</v>
       </c>
       <c r="L2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14561,7 +14564,7 @@
         <v>266</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>35</v>
@@ -14570,19 +14573,19 @@
         <v>13</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K3" t="s">
         <v>351</v>
       </c>
       <c r="L3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14599,7 +14602,7 @@
         <v>408</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>35</v>
@@ -14608,19 +14611,19 @@
         <v>13</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K4" t="s">
         <v>351</v>
       </c>
       <c r="L4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -14637,7 +14640,7 @@
         <v>409</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>434</v>
@@ -14646,19 +14649,19 @@
         <v>433</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>612</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>547</v>
+        <v>608</v>
+      </c>
+      <c r="I5" s="74" t="s">
+        <v>544</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K5" t="s">
         <v>351</v>
       </c>
       <c r="L5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14684,19 +14687,19 @@
         <v>73</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K6" t="s">
         <v>351</v>
       </c>
       <c r="L6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -14725,16 +14728,16 @@
         <v>428</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K7" t="s">
         <v>351</v>
       </c>
       <c r="L7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -14763,21 +14766,21 @@
         <v>393</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K8" t="s">
         <v>401</v>
       </c>
       <c r="L8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>0</v>
@@ -14798,24 +14801,24 @@
         <v>13</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K9" t="s">
         <v>351</v>
       </c>
       <c r="L9" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>0</v>
@@ -14839,16 +14842,16 @@
         <v>391</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K10" t="s">
         <v>351</v>
       </c>
       <c r="L10" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14877,16 +14880,16 @@
         <v>378</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="K11" t="s">
         <v>351</v>
       </c>
       <c r="L11" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -14909,22 +14912,22 @@
         <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>355</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K12" t="s">
         <v>401</v>
       </c>
       <c r="L12" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -14947,22 +14950,22 @@
         <v>81</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H13" s="46" t="s">
         <v>380</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K13" t="s">
         <v>401</v>
       </c>
       <c r="L13" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="180" x14ac:dyDescent="0.25">
@@ -14985,22 +14988,22 @@
         <v>35</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H14" s="46" t="s">
         <v>381</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="K14" t="s">
         <v>351</v>
       </c>
       <c r="L14" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15017,28 +15020,28 @@
         <v>278</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>375</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>354</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>513</v>
+        <v>585</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>586</v>
       </c>
       <c r="K15" t="s">
         <v>351</v>
       </c>
       <c r="L15" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15064,22 +15067,22 @@
         <v>72</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K16" t="s">
         <v>351</v>
       </c>
       <c r="L16" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>454</v>
       </c>
@@ -15097,22 +15100,22 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H17" s="46" t="s">
         <v>385</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>513</v>
+        <v>527</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>616</v>
       </c>
       <c r="K17" t="s">
         <v>351</v>
       </c>
       <c r="L17" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15141,19 +15144,19 @@
         <v>354</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K18" t="s">
         <v>351</v>
       </c>
       <c r="L18" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>456</v>
       </c>
@@ -15179,19 +15182,19 @@
         <v>378</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>513</v>
+        <v>529</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>617</v>
       </c>
       <c r="K19" t="s">
         <v>351</v>
       </c>
       <c r="L19" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>457</v>
       </c>
@@ -15212,19 +15215,19 @@
         <v>72</v>
       </c>
       <c r="H20" s="46" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>513</v>
+        <v>530</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>615</v>
       </c>
       <c r="K20" t="s">
         <v>351</v>
       </c>
       <c r="L20" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15247,22 +15250,22 @@
         <v>64</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>612</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>546</v>
+        <v>608</v>
+      </c>
+      <c r="I21" s="74" t="s">
+        <v>543</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="K21" t="s">
         <v>351</v>
       </c>
       <c r="L21" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15283,22 +15286,22 @@
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="K22" t="s">
         <v>351</v>
       </c>
       <c r="L22" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15312,29 +15315,29 @@
         <v>254</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>396</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H23" s="43" t="s">
         <v>354</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K23" t="s">
         <v>351</v>
       </c>
       <c r="L23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15351,26 +15354,26 @@
         <v>432</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>350</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="K24" t="s">
         <v>401</v>
       </c>
       <c r="L24" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15394,19 +15397,19 @@
         <v>15</v>
       </c>
       <c r="H25" s="46" t="s">
-        <v>614</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>604</v>
+        <v>610</v>
+      </c>
+      <c r="I25" s="74" t="s">
+        <v>543</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="K25" t="s">
         <v>351</v>
       </c>
       <c r="L25" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15432,19 +15435,19 @@
         <v>15</v>
       </c>
       <c r="H26" s="46" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K26" t="s">
         <v>351</v>
       </c>
       <c r="L26" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -15470,19 +15473,19 @@
         <v>15</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="K27" t="s">
         <v>401</v>
       </c>
       <c r="L27" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15508,19 +15511,19 @@
         <v>15</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="K28" t="s">
         <v>401</v>
       </c>
       <c r="L28" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15549,16 +15552,16 @@
         <v>361</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K29" t="s">
         <v>351</v>
       </c>
       <c r="L29" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15575,7 +15578,7 @@
         <v>162</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>89</v>
@@ -15584,19 +15587,19 @@
         <v>72</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K30" t="s">
         <v>401</v>
       </c>
       <c r="L30" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15613,7 +15616,7 @@
         <v>422</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>89</v>
@@ -15622,19 +15625,19 @@
         <v>72</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K31" t="s">
         <v>401</v>
       </c>
       <c r="L31" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15657,22 +15660,22 @@
         <v>66</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K32" t="s">
         <v>351</v>
       </c>
       <c r="L32" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15689,26 +15692,26 @@
         <v>165</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="K33" t="s">
         <v>401</v>
       </c>
       <c r="L33" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -15722,7 +15725,7 @@
         <v>94</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>135</v>
@@ -15734,19 +15737,19 @@
         <v>92</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="K34" t="s">
         <v>351</v>
       </c>
       <c r="L34" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="135" x14ac:dyDescent="0.25">
@@ -15772,19 +15775,19 @@
         <v>151</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>612</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>547</v>
+        <v>608</v>
+      </c>
+      <c r="I35" s="74" t="s">
+        <v>544</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K35" t="s">
         <v>351</v>
       </c>
       <c r="L35" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15810,19 +15813,19 @@
         <v>151</v>
       </c>
       <c r="H36" s="46" t="s">
-        <v>612</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>547</v>
+        <v>608</v>
+      </c>
+      <c r="I36" s="74" t="s">
+        <v>544</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="K36" t="s">
         <v>351</v>
       </c>
       <c r="L36" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15851,16 +15854,16 @@
         <v>357</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K37" t="s">
         <v>351</v>
       </c>
       <c r="L37" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -15889,16 +15892,16 @@
         <v>392</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="K38" t="s">
         <v>351</v>
       </c>
       <c r="L38" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -15919,22 +15922,22 @@
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H39" s="43" t="s">
         <v>354</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="K39" t="s">
         <v>351</v>
       </c>
       <c r="L39" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -15957,22 +15960,22 @@
         <v>64</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>617</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>546</v>
+        <v>613</v>
+      </c>
+      <c r="I40" s="74" t="s">
+        <v>543</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="K40" t="s">
         <v>351</v>
       </c>
       <c r="L40" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15989,26 +15992,26 @@
         <v>336</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H41" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>547</v>
+      <c r="I41" s="74" t="s">
+        <v>544</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="K41" t="s">
         <v>351</v>
       </c>
       <c r="L41" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -16043,10 +16046,10 @@
         <v>480</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -16128,7 +16131,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>0</v>
@@ -16139,7 +16142,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>0</v>
@@ -16739,10 +16742,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:B70"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="R66" sqref="R66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16763,13 +16766,13 @@
         <v>481</v>
       </c>
       <c r="D1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -16783,7 +16786,7 @@
         <v>5.04</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -16797,7 +16800,7 @@
         <v>4.8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -16811,7 +16814,7 @@
         <v>4.72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -16825,7 +16828,7 @@
         <v>4.79</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -16839,7 +16842,7 @@
         <v>4.84</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -16855,7 +16858,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -16871,7 +16874,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -16891,7 +16894,7 @@
         <v>71.158794562405902</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -16911,7 +16914,7 @@
         <v>70.112622314085897</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -16927,7 +16930,7 @@
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
       <c r="F11" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -16947,7 +16950,7 @@
         <v>66.167510713120095</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -16967,7 +16970,7 @@
         <v>63.814694958317894</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -16983,7 +16986,7 @@
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
       <c r="F14" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -16997,7 +17000,7 @@
         <v>60.699999999999996</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -17011,7 +17014,7 @@
         <v>90</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -17031,7 +17034,7 @@
         <v>51.597672572044409</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -17051,7 +17054,7 @@
         <v>48.833706034554297</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -17067,7 +17070,7 @@
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
       <c r="F19" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17083,7 +17086,7 @@
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
       <c r="F20" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -17099,7 +17102,7 @@
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
       <c r="F21" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -17119,7 +17122,7 @@
         <v>14.5</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -17139,7 +17142,7 @@
         <v>21.1</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -17159,7 +17162,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17175,12 +17178,12 @@
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
       <c r="F25" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B26" s="64">
         <v>43281</v>
@@ -17195,12 +17198,12 @@
         <v>65.605150908988506</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B27" s="64">
         <v>43646</v>
@@ -17215,12 +17218,12 @@
         <v>69.906919042560105</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B28" s="63">
         <v>51317</v>
@@ -17231,12 +17234,12 @@
       <c r="D28" s="59"/>
       <c r="E28" s="59"/>
       <c r="F28" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B29" s="64">
         <v>41090</v>
@@ -17247,12 +17250,12 @@
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
       <c r="F29" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B30" s="64">
         <v>42185</v>
@@ -17263,12 +17266,12 @@
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
       <c r="F30" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B31" s="64">
         <v>43281</v>
@@ -17279,12 +17282,12 @@
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
       <c r="F31" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B32" s="63">
         <v>51317</v>
@@ -17295,7 +17298,7 @@
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
       <c r="F32" s="18" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -17315,7 +17318,7 @@
         <v>53.871574222</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -17335,7 +17338,7 @@
         <v>50.539152862397202</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -17351,7 +17354,7 @@
       <c r="D35" s="62"/>
       <c r="E35" s="62"/>
       <c r="F35" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -17367,7 +17370,7 @@
       <c r="D36" s="60"/>
       <c r="E36" s="60"/>
       <c r="F36" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -17383,7 +17386,7 @@
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
       <c r="F37" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -17399,7 +17402,7 @@
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
       <c r="F38" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -17415,7 +17418,7 @@
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
       <c r="F39" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -17431,7 +17434,7 @@
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
       <c r="F40" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -17447,7 +17450,7 @@
       <c r="D41" s="60"/>
       <c r="E41" s="60"/>
       <c r="F41" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -17463,7 +17466,7 @@
       <c r="D42" s="60"/>
       <c r="E42" s="60"/>
       <c r="F42" s="18" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -17479,7 +17482,7 @@
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
       <c r="F43" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -17495,7 +17498,7 @@
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
       <c r="F44" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -17511,7 +17514,7 @@
       <c r="D45" s="60"/>
       <c r="E45" s="60"/>
       <c r="F45" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -17527,7 +17530,7 @@
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
       <c r="F46" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -17543,7 +17546,7 @@
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
       <c r="F47" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -17559,7 +17562,7 @@
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
       <c r="F48" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -17575,7 +17578,7 @@
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
       <c r="F49" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -17583,15 +17586,15 @@
         <v>453</v>
       </c>
       <c r="B50" s="64">
-        <v>43281</v>
+        <v>42551</v>
       </c>
       <c r="C50" s="68">
-        <v>17.599999999999998</v>
+        <v>18.25</v>
       </c>
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
       <c r="F50" s="18" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -17599,63 +17602,63 @@
         <v>453</v>
       </c>
       <c r="B51" s="64">
-        <v>43646</v>
+        <v>42916</v>
       </c>
       <c r="C51" s="68">
-        <v>16.97</v>
+        <v>19.03</v>
       </c>
       <c r="D51" s="60"/>
       <c r="E51" s="60"/>
       <c r="F51" s="18" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>453</v>
       </c>
-      <c r="B52" s="63">
-        <v>51317</v>
+      <c r="B52" s="64">
+        <v>43281</v>
       </c>
       <c r="C52" s="68">
-        <v>80</v>
-      </c>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="2" t="s">
-        <v>489</v>
+        <v>17.63</v>
+      </c>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="B53" s="63">
-        <v>40764</v>
+        <v>453</v>
+      </c>
+      <c r="B53" s="64">
+        <v>43646</v>
       </c>
       <c r="C53" s="68">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="2" t="s">
-        <v>515</v>
+        <v>16.97</v>
+      </c>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="18" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B54" s="63">
-        <v>42591</v>
+        <v>51317</v>
       </c>
       <c r="C54" s="68">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D54" s="59"/>
       <c r="E54" s="59"/>
-      <c r="F54" s="18" t="s">
-        <v>487</v>
+      <c r="F54" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -17663,311 +17666,311 @@
         <v>454</v>
       </c>
       <c r="B55" s="63">
-        <v>51317</v>
+        <v>40764</v>
       </c>
       <c r="C55" s="68">
-        <v>48.199999999999996</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D55" s="59"/>
       <c r="E55" s="59"/>
       <c r="F55" s="2" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="B56" s="64">
-        <v>43646</v>
-      </c>
-      <c r="C56" s="62">
-        <v>46.9</v>
-      </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
+        <v>454</v>
+      </c>
+      <c r="B56" s="63">
+        <v>42591</v>
+      </c>
+      <c r="C56" s="68">
+        <v>33</v>
+      </c>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
       <c r="F56" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B57" s="63">
         <v>51317</v>
       </c>
-      <c r="C57" s="62">
-        <v>49.3</v>
-      </c>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
+      <c r="C57" s="68">
+        <v>48.199999999999996</v>
+      </c>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
       <c r="F57" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B58" s="64">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C58" s="62">
-        <v>71</v>
-      </c>
-      <c r="D58" s="62">
-        <v>69.282534772719998</v>
-      </c>
-      <c r="E58" s="62">
-        <v>71.891836587279997</v>
-      </c>
+        <v>46.9</v>
+      </c>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
       <c r="F58" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="B59" s="64">
-        <v>43646</v>
+        <v>455</v>
+      </c>
+      <c r="B59" s="63">
+        <v>51317</v>
       </c>
       <c r="C59" s="62">
-        <v>71</v>
-      </c>
-      <c r="D59" s="62">
-        <v>69.310210964059195</v>
-      </c>
-      <c r="E59" s="62">
-        <v>71.990952281489598</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>488</v>
+        <v>49.3</v>
+      </c>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>456</v>
       </c>
-      <c r="B60" s="63">
-        <v>51317</v>
+      <c r="B60" s="64">
+        <v>43281</v>
       </c>
       <c r="C60" s="62">
-        <v>79</v>
-      </c>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="2" t="s">
-        <v>489</v>
+        <v>71</v>
+      </c>
+      <c r="D60" s="62">
+        <v>69.282534772719998</v>
+      </c>
+      <c r="E60" s="62">
+        <v>71.891836587279997</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B61" s="64">
-        <v>43281</v>
-      </c>
-      <c r="C61" s="68">
-        <v>16.7</v>
-      </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
+        <v>43646</v>
+      </c>
+      <c r="C61" s="62">
+        <v>71</v>
+      </c>
+      <c r="D61" s="62">
+        <v>69.310210964059195</v>
+      </c>
+      <c r="E61" s="62">
+        <v>71.990952281489598</v>
+      </c>
       <c r="F61" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>457</v>
-      </c>
-      <c r="B62" s="64">
-        <v>43646</v>
-      </c>
-      <c r="C62" s="68">
-        <v>16.7</v>
-      </c>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="18" t="s">
-        <v>488</v>
+        <v>456</v>
+      </c>
+      <c r="B62" s="63">
+        <v>51317</v>
+      </c>
+      <c r="C62" s="62">
+        <v>79</v>
+      </c>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="B63" s="63">
-        <v>51317</v>
+      <c r="B63" s="64">
+        <v>43281</v>
       </c>
       <c r="C63" s="68">
-        <v>100</v>
+        <v>16.7</v>
       </c>
       <c r="D63" s="61"/>
       <c r="E63" s="61"/>
-      <c r="F63" s="2" t="s">
-        <v>489</v>
+      <c r="F63" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
-        <v>458</v>
+      <c r="A64" s="32" t="s">
+        <v>457</v>
       </c>
       <c r="B64" s="64">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C64" s="68">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
+        <v>16.7</v>
+      </c>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
       <c r="F64" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="57" t="s">
-        <v>458</v>
+      <c r="A65" s="32" t="s">
+        <v>457</v>
       </c>
       <c r="B65" s="63">
         <v>51317</v>
       </c>
       <c r="C65" s="68">
-        <v>90</v>
-      </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
+        <v>100</v>
+      </c>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
       <c r="F65" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="71" t="s">
-        <v>459</v>
-      </c>
-      <c r="B66" s="63">
-        <v>40764</v>
+      <c r="A66" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="B66" s="64">
+        <v>43281</v>
       </c>
       <c r="C66" s="68">
-        <v>21.6</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="D66" s="60"/>
       <c r="E66" s="60"/>
       <c r="F66" s="18" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B67" s="63">
-        <v>42591</v>
+        <v>51317</v>
       </c>
       <c r="C67" s="68">
-        <v>23.6</v>
+        <v>90</v>
       </c>
       <c r="D67" s="60"/>
       <c r="E67" s="60"/>
-      <c r="F67" s="18" t="s">
-        <v>487</v>
+      <c r="F67" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="71" t="s">
         <v>459</v>
       </c>
       <c r="B68" s="63">
-        <v>51317</v>
+        <v>40764</v>
       </c>
       <c r="C68" s="68">
-        <v>50.1</v>
+        <v>21.6</v>
       </c>
       <c r="D68" s="60"/>
       <c r="E68" s="60"/>
-      <c r="F68" s="2" t="s">
-        <v>489</v>
+      <c r="F68" s="18" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="72" t="s">
-        <v>460</v>
+      <c r="A69" s="57" t="s">
+        <v>459</v>
       </c>
       <c r="B69" s="63">
-        <v>40764</v>
+        <v>42591</v>
       </c>
       <c r="C69" s="68">
-        <v>10.4</v>
+        <v>23.6</v>
       </c>
       <c r="D69" s="60"/>
       <c r="E69" s="60"/>
-      <c r="F69" s="2" t="s">
-        <v>515</v>
+      <c r="F69" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="57" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B70" s="63">
-        <v>42591</v>
+        <v>51317</v>
       </c>
       <c r="C70" s="68">
-        <v>11</v>
+        <v>50.1</v>
       </c>
       <c r="D70" s="60"/>
       <c r="E70" s="60"/>
-      <c r="F70" s="18" t="s">
-        <v>487</v>
+      <c r="F70" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="57" t="s">
+      <c r="A71" s="72" t="s">
         <v>460</v>
       </c>
       <c r="B71" s="63">
-        <v>51317</v>
+        <v>40764</v>
       </c>
       <c r="C71" s="68">
-        <v>11.600000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="D71" s="60"/>
       <c r="E71" s="60"/>
       <c r="F71" s="2" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="73" t="s">
-        <v>461</v>
+      <c r="A72" s="57" t="s">
+        <v>460</v>
       </c>
       <c r="B72" s="63">
-        <v>42004</v>
+        <v>42591</v>
       </c>
       <c r="C72" s="68">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D72" s="60"/>
       <c r="E72" s="60"/>
-      <c r="F72" s="2" t="s">
-        <v>515</v>
+      <c r="F72" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="73" t="s">
-        <v>461</v>
+      <c r="A73" s="57" t="s">
+        <v>460</v>
       </c>
       <c r="B73" s="63">
-        <v>42369</v>
+        <v>51317</v>
       </c>
       <c r="C73" s="68">
-        <v>50</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="D73" s="60"/>
       <c r="E73" s="60"/>
       <c r="F73" s="2" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -17975,15 +17978,15 @@
         <v>461</v>
       </c>
       <c r="B74" s="63">
-        <v>42735</v>
+        <v>42004</v>
       </c>
       <c r="C74" s="68">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D74" s="60"/>
       <c r="E74" s="60"/>
       <c r="F74" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -17991,683 +17994,715 @@
         <v>461</v>
       </c>
       <c r="B75" s="63">
-        <v>43100</v>
+        <v>42369</v>
       </c>
       <c r="C75" s="68">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D75" s="60"/>
       <c r="E75" s="60"/>
       <c r="F75" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="57" t="s">
+      <c r="A76" s="73" t="s">
         <v>461</v>
       </c>
       <c r="B76" s="63">
-        <v>43465</v>
-      </c>
-      <c r="C76" s="62">
-        <v>23</v>
-      </c>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="18" t="s">
-        <v>487</v>
+        <v>42735</v>
+      </c>
+      <c r="C76" s="68">
+        <v>52</v>
+      </c>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="57" t="s">
+      <c r="A77" s="73" t="s">
         <v>461</v>
       </c>
       <c r="B77" s="63">
-        <v>51501</v>
-      </c>
-      <c r="C77" s="62">
-        <v>0</v>
-      </c>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
+        <v>43100</v>
+      </c>
+      <c r="C77" s="68">
+        <v>22</v>
+      </c>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
       <c r="F77" s="2" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="57" t="s">
-        <v>462</v>
-      </c>
-      <c r="B78" s="64">
-        <v>43281</v>
-      </c>
-      <c r="C78" s="68">
-        <v>0</v>
-      </c>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
+        <v>461</v>
+      </c>
+      <c r="B78" s="63">
+        <v>43465</v>
+      </c>
+      <c r="C78" s="62">
+        <v>23</v>
+      </c>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
       <c r="F78" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B79" s="63">
-        <v>51317</v>
-      </c>
-      <c r="C79" s="68">
-        <v>100</v>
-      </c>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
+        <v>51501</v>
+      </c>
+      <c r="C79" s="62">
+        <v>0</v>
+      </c>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
       <c r="F79" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="57" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B80" s="64">
         <v>43281</v>
       </c>
       <c r="C80" s="68">
-        <v>0</v>
-      </c>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
+        <v>1</v>
+      </c>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
       <c r="F80" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="57" t="s">
-        <v>463</v>
-      </c>
-      <c r="B81" s="64">
-        <v>43646</v>
+        <v>462</v>
+      </c>
+      <c r="B81" s="63">
+        <v>51317</v>
       </c>
       <c r="C81" s="68">
-        <v>60.699999999999996</v>
-      </c>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="18" t="s">
-        <v>488</v>
+        <v>100</v>
+      </c>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="57" t="s">
         <v>463</v>
       </c>
-      <c r="B82" s="63">
-        <v>51317</v>
+      <c r="B82" s="64">
+        <v>43281</v>
       </c>
       <c r="C82" s="68">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D82" s="61"/>
       <c r="E82" s="61"/>
-      <c r="F82" s="2" t="s">
-        <v>489</v>
+      <c r="F82" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
-        <v>464</v>
+      <c r="A83" s="57" t="s">
+        <v>463</v>
       </c>
       <c r="B83" s="64">
-        <v>43281</v>
-      </c>
-      <c r="C83" s="62">
-        <v>2773</v>
-      </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
+        <v>43646</v>
+      </c>
+      <c r="C83" s="68">
+        <v>60.699999999999996</v>
+      </c>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
       <c r="F83" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="B84" s="64">
-        <v>43646</v>
-      </c>
-      <c r="C84" s="62">
-        <v>1746</v>
-      </c>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="18" t="s">
-        <v>488</v>
+      <c r="A84" s="57" t="s">
+        <v>463</v>
+      </c>
+      <c r="B84" s="63">
+        <v>51317</v>
+      </c>
+      <c r="C84" s="68">
+        <v>100</v>
+      </c>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="B85" s="63">
-        <v>51317</v>
+      <c r="B85" s="64">
+        <v>43281</v>
       </c>
       <c r="C85" s="62">
-        <v>139</v>
+        <v>2773</v>
       </c>
       <c r="D85" s="62"/>
       <c r="E85" s="62"/>
-      <c r="F85" s="2" t="s">
-        <v>489</v>
+      <c r="F85" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B86" s="64">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C86" s="62">
-        <v>1300000</v>
+        <v>1746</v>
       </c>
       <c r="D86" s="62"/>
       <c r="E86" s="62"/>
       <c r="F86" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B87" s="63">
         <v>51317</v>
       </c>
       <c r="C87" s="62">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D87" s="62"/>
       <c r="E87" s="62"/>
       <c r="F87" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B88" s="64">
         <v>43281</v>
       </c>
       <c r="C88" s="62">
-        <v>49917</v>
+        <v>1300000</v>
       </c>
       <c r="D88" s="62"/>
       <c r="E88" s="62"/>
       <c r="F88" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="B89" s="64">
-        <v>43646</v>
+        <v>471</v>
+      </c>
+      <c r="B89" s="63">
+        <v>51317</v>
       </c>
       <c r="C89" s="62">
-        <v>51573</v>
+        <v>0</v>
       </c>
       <c r="D89" s="62"/>
       <c r="E89" s="62"/>
-      <c r="F89" s="18" t="s">
-        <v>488</v>
+      <c r="F89" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="B90" s="63">
-        <v>51317</v>
+      <c r="B90" s="64">
+        <v>43281</v>
       </c>
       <c r="C90" s="62">
-        <v>54909</v>
+        <v>49917</v>
       </c>
       <c r="D90" s="62"/>
       <c r="E90" s="62"/>
-      <c r="F90" s="2" t="s">
-        <v>489</v>
+      <c r="F90" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B91" s="64">
-        <v>42185</v>
+        <v>43646</v>
       </c>
       <c r="C91" s="62">
-        <v>127</v>
+        <v>51573</v>
       </c>
       <c r="D91" s="62"/>
       <c r="E91" s="62"/>
       <c r="F91" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B92" s="63">
         <v>51317</v>
       </c>
       <c r="C92" s="62">
-        <v>57</v>
+        <v>54909</v>
       </c>
       <c r="D92" s="62"/>
       <c r="E92" s="62"/>
       <c r="F92" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B93" s="64">
         <v>42185</v>
       </c>
       <c r="C93" s="62">
-        <v>12000</v>
+        <v>127</v>
       </c>
       <c r="D93" s="62"/>
       <c r="E93" s="62"/>
       <c r="F93" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B94" s="63">
         <v>51317</v>
       </c>
       <c r="C94" s="62">
-        <v>6700</v>
+        <v>57</v>
       </c>
       <c r="D94" s="62"/>
       <c r="E94" s="62"/>
       <c r="F94" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B95" s="64">
-        <v>43281</v>
-      </c>
-      <c r="C95" s="68">
-        <v>17</v>
-      </c>
-      <c r="D95" s="68">
-        <v>16</v>
-      </c>
-      <c r="E95" s="68">
-        <v>18</v>
-      </c>
+        <v>42185</v>
+      </c>
+      <c r="C95" s="62">
+        <v>12000</v>
+      </c>
+      <c r="D95" s="62"/>
+      <c r="E95" s="62"/>
       <c r="F95" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B96" s="63">
         <v>51317</v>
       </c>
-      <c r="C96" s="68">
-        <v>30</v>
-      </c>
-      <c r="D96" s="68"/>
-      <c r="E96" s="68"/>
+      <c r="C96" s="62">
+        <v>6700</v>
+      </c>
+      <c r="D96" s="62"/>
+      <c r="E96" s="62"/>
       <c r="F96" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B97" s="64">
-        <v>42185</v>
+        <v>43281</v>
       </c>
       <c r="C97" s="68">
-        <v>39</v>
-      </c>
-      <c r="D97" s="68"/>
-      <c r="E97" s="68"/>
+        <v>17</v>
+      </c>
+      <c r="D97" s="68">
+        <v>16</v>
+      </c>
+      <c r="E97" s="68">
+        <v>18</v>
+      </c>
       <c r="F97" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B98" s="63">
         <v>51317</v>
       </c>
       <c r="C98" s="68">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D98" s="68"/>
       <c r="E98" s="68"/>
       <c r="F98" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="B99" s="63">
-        <v>51317</v>
+        <v>475</v>
+      </c>
+      <c r="B99" s="64">
+        <v>42185</v>
       </c>
       <c r="C99" s="68">
-        <v>30</v>
-      </c>
-      <c r="D99" s="61"/>
-      <c r="E99" s="61"/>
-      <c r="F99" s="2" t="s">
-        <v>489</v>
+        <v>39</v>
+      </c>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="B100" s="64">
-        <v>43281</v>
+        <v>475</v>
+      </c>
+      <c r="B100" s="63">
+        <v>51317</v>
       </c>
       <c r="C100" s="68">
-        <v>41.67</v>
-      </c>
-      <c r="F100" s="18" t="s">
-        <v>487</v>
+        <v>35</v>
+      </c>
+      <c r="D100" s="68"/>
+      <c r="E100" s="68"/>
+      <c r="F100" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="B101" s="64">
-        <v>43646</v>
+        <v>474</v>
+      </c>
+      <c r="B101" s="63">
+        <v>51317</v>
       </c>
       <c r="C101" s="68">
-        <v>41.11</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>488</v>
+        <v>30</v>
+      </c>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="B102" s="63">
-        <v>51317</v>
+      <c r="B102" s="64">
+        <v>43281</v>
       </c>
       <c r="C102" s="68">
-        <v>90</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>489</v>
+        <v>41.67</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B103" s="64">
         <v>43646</v>
       </c>
       <c r="C103" s="68">
-        <v>50</v>
+        <v>41.11</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B104" s="63">
         <v>51317</v>
       </c>
       <c r="C104" s="68">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B105" s="64">
         <v>43646</v>
       </c>
       <c r="C105" s="68">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="33" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B106" s="63">
         <v>51317</v>
       </c>
       <c r="C106" s="68">
+        <v>75</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="B107" s="64">
+        <v>43646</v>
+      </c>
+      <c r="C107" s="68">
+        <v>80</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="B108" s="63">
+        <v>51317</v>
+      </c>
+      <c r="C108" s="68">
         <v>100</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="34" t="s">
-        <v>468</v>
-      </c>
-      <c r="B107" s="64">
-        <v>43281</v>
-      </c>
-      <c r="C107" s="68">
-        <v>75</v>
-      </c>
-      <c r="F107" s="18" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="34" t="s">
-        <v>468</v>
-      </c>
-      <c r="B108" s="64">
-        <v>43646</v>
-      </c>
-      <c r="C108" s="68">
-        <v>80</v>
-      </c>
-      <c r="F108" s="18" t="s">
-        <v>488</v>
+      <c r="F108" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="B109" s="63">
-        <v>51317</v>
+      <c r="B109" s="64">
+        <v>43281</v>
       </c>
       <c r="C109" s="68">
-        <v>100</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>489</v>
+        <v>75</v>
+      </c>
+      <c r="F109" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B110" s="64">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C110" s="68">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="34" t="s">
-        <v>469</v>
-      </c>
-      <c r="B111" s="64">
-        <v>43646</v>
+        <v>468</v>
+      </c>
+      <c r="B111" s="63">
+        <v>51317</v>
       </c>
       <c r="C111" s="68">
-        <v>5.4</v>
-      </c>
-      <c r="F111" s="18" t="s">
-        <v>488</v>
+        <v>100</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="B112" s="63">
-        <v>51317</v>
+      <c r="B112" s="64">
+        <v>43281</v>
       </c>
       <c r="C112" s="68">
-        <v>100</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>489</v>
+        <v>0</v>
+      </c>
+      <c r="F112" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="34" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B113" s="64">
-        <v>43281</v>
-      </c>
-      <c r="C113" s="62">
-        <v>4.17</v>
+        <v>43646</v>
+      </c>
+      <c r="C113" s="68">
+        <v>5.4</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="B114" s="64">
-        <v>43646</v>
-      </c>
-      <c r="C114" s="62">
-        <v>4.13</v>
-      </c>
-      <c r="F114" s="18" t="s">
-        <v>488</v>
+        <v>469</v>
+      </c>
+      <c r="B114" s="63">
+        <v>51317</v>
+      </c>
+      <c r="C114" s="68">
+        <v>100</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="B115" s="63">
-        <v>51317</v>
+      <c r="B115" s="64">
+        <v>43281</v>
       </c>
       <c r="C115" s="62">
-        <v>4.38</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>489</v>
+        <v>4.17</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="34" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B116" s="64">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C116" s="62">
-        <v>91.1</v>
+        <v>4.13</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="34" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B117" s="63">
         <v>51317</v>
       </c>
-      <c r="C117">
-        <v>95</v>
+      <c r="C117" s="62">
+        <v>4.38</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="34" t="s">
-        <v>478</v>
-      </c>
-      <c r="B118" s="65">
-        <v>40724</v>
-      </c>
-      <c r="C118" s="68">
-        <v>55.000000000000007</v>
+        <v>470</v>
+      </c>
+      <c r="B118" s="64">
+        <v>43281</v>
+      </c>
+      <c r="C118" s="62">
+        <v>91.1</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="34" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B119" s="63">
         <v>51317</v>
       </c>
-      <c r="C119" s="68">
+      <c r="C119">
+        <v>95</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="B120" s="65">
+        <v>40724</v>
+      </c>
+      <c r="C120" s="68">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="B121" s="63">
+        <v>51317</v>
+      </c>
+      <c r="C121" s="68">
         <v>57.8</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>489</v>
+      <c r="F121" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -18682,8 +18717,8 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18701,7 +18736,7 @@
         <v>482</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -18709,10 +18744,10 @@
         <v>441</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -18720,10 +18755,10 @@
         <v>443</v>
       </c>
       <c r="B3" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -18731,10 +18766,10 @@
         <v>442</v>
       </c>
       <c r="B4" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -18742,10 +18777,10 @@
         <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -18753,10 +18788,10 @@
         <v>445</v>
       </c>
       <c r="B6" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -18764,10 +18799,10 @@
         <v>446</v>
       </c>
       <c r="B7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -18775,32 +18810,32 @@
         <v>449</v>
       </c>
       <c r="B8" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C8" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B9" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -18808,10 +18843,10 @@
         <v>447</v>
       </c>
       <c r="B11" t="s">
-        <v>484</v>
+        <v>618</v>
       </c>
       <c r="C11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -18819,10 +18854,10 @@
         <v>448</v>
       </c>
       <c r="B12" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -18830,10 +18865,10 @@
         <v>450</v>
       </c>
       <c r="B13" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -18841,10 +18876,10 @@
         <v>451</v>
       </c>
       <c r="B14" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C14" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -18852,10 +18887,10 @@
         <v>452</v>
       </c>
       <c r="B15" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C15" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -18863,10 +18898,10 @@
         <v>453</v>
       </c>
       <c r="B16" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -18874,10 +18909,10 @@
         <v>454</v>
       </c>
       <c r="B17" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C17" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -18885,10 +18920,10 @@
         <v>455</v>
       </c>
       <c r="B18" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C18" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -18896,10 +18931,10 @@
         <v>456</v>
       </c>
       <c r="B19" t="s">
-        <v>484</v>
+        <v>618</v>
       </c>
       <c r="C19" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -18907,10 +18942,10 @@
         <v>457</v>
       </c>
       <c r="B20" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C20" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -18918,10 +18953,10 @@
         <v>458</v>
       </c>
       <c r="B21" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C21" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -18929,10 +18964,10 @@
         <v>459</v>
       </c>
       <c r="B22" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C22" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -18940,10 +18975,10 @@
         <v>460</v>
       </c>
       <c r="B23" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C23" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -18951,10 +18986,10 @@
         <v>461</v>
       </c>
       <c r="B24" t="s">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="C24" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -18962,10 +18997,10 @@
         <v>462</v>
       </c>
       <c r="B25" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C25" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -18973,10 +19008,10 @@
         <v>463</v>
       </c>
       <c r="B26" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C26" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -18984,10 +19019,10 @@
         <v>464</v>
       </c>
       <c r="B27" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="C27" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -18995,10 +19030,10 @@
         <v>471</v>
       </c>
       <c r="B28" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="C28" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -19006,10 +19041,10 @@
         <v>465</v>
       </c>
       <c r="B29" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="C29" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -19017,10 +19052,10 @@
         <v>472</v>
       </c>
       <c r="B30" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="C30" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -19028,10 +19063,10 @@
         <v>473</v>
       </c>
       <c r="B31" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="C31" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -19039,10 +19074,10 @@
         <v>474</v>
       </c>
       <c r="B32" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C32" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -19050,10 +19085,10 @@
         <v>475</v>
       </c>
       <c r="B33" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="C33" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -19061,10 +19096,10 @@
         <v>466</v>
       </c>
       <c r="B34" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C34" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -19072,10 +19107,10 @@
         <v>467</v>
       </c>
       <c r="B35" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C35" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -19083,10 +19118,10 @@
         <v>476</v>
       </c>
       <c r="B36" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C36" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -19094,10 +19129,10 @@
         <v>468</v>
       </c>
       <c r="B37" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C37" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -19105,10 +19140,10 @@
         <v>469</v>
       </c>
       <c r="B38" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C38" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -19116,10 +19151,10 @@
         <v>477</v>
       </c>
       <c r="B39" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C39" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -19127,10 +19162,10 @@
         <v>470</v>
       </c>
       <c r="B40" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C40" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -19138,10 +19173,10 @@
         <v>478</v>
       </c>
       <c r="B41" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="C41" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F962CEE6-6090-4C1D-96EE-719C5DD38255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82CC9EE-4130-41E9-BF66-281A9D3AEEFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="6" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="2" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="620">
   <si>
     <t>FAIR</t>
   </si>
@@ -2080,6 +2080,9 @@
   </si>
   <si>
     <t>Index score</t>
+  </si>
+  <si>
+    <t>This is a statewide measure of library usage and allows for comapison with other municipalities.</t>
   </si>
 </sst>
 </file>
@@ -14459,8 +14462,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15072,8 +15075,8 @@
       <c r="I16" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>510</v>
+      <c r="J16" s="5" t="s">
+        <v>619</v>
       </c>
       <c r="K16" t="s">
         <v>351</v>
@@ -18717,7 +18720,7 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82CC9EE-4130-41E9-BF66-281A9D3AEEFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69343C5-C79D-462F-9752-A861B7BCC219}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="2" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="624">
   <si>
     <t>FAIR</t>
   </si>
@@ -2083,6 +2083,18 @@
   </si>
   <si>
     <t>This is a statewide measure of library usage and allows for comapison with other municipalities.</t>
+  </si>
+  <si>
+    <t>Influence</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Advocate</t>
   </si>
 </sst>
 </file>
@@ -14460,10 +14472,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14477,7 +14489,7 @@
     <col min="9" max="10" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>480</v>
       </c>
@@ -14512,10 +14524,13 @@
         <v>514</v>
       </c>
       <c r="L1" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="M1" s="25" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>441</v>
       </c>
@@ -14550,10 +14565,13 @@
         <v>401</v>
       </c>
       <c r="L2" t="s">
+        <v>621</v>
+      </c>
+      <c r="M2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>443</v>
       </c>
@@ -14588,10 +14606,13 @@
         <v>351</v>
       </c>
       <c r="L3" t="s">
+        <v>621</v>
+      </c>
+      <c r="M3" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>442</v>
       </c>
@@ -14626,10 +14647,13 @@
         <v>351</v>
       </c>
       <c r="L4" t="s">
+        <v>621</v>
+      </c>
+      <c r="M4" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>444</v>
       </c>
@@ -14664,10 +14688,13 @@
         <v>351</v>
       </c>
       <c r="L5" t="s">
+        <v>622</v>
+      </c>
+      <c r="M5" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>445</v>
       </c>
@@ -14702,10 +14729,13 @@
         <v>351</v>
       </c>
       <c r="L6" t="s">
+        <v>621</v>
+      </c>
+      <c r="M6" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>446</v>
       </c>
@@ -14740,10 +14770,13 @@
         <v>351</v>
       </c>
       <c r="L7" t="s">
+        <v>621</v>
+      </c>
+      <c r="M7" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>449</v>
       </c>
@@ -14778,10 +14811,13 @@
         <v>401</v>
       </c>
       <c r="L8" t="s">
+        <v>621</v>
+      </c>
+      <c r="M8" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>487</v>
       </c>
@@ -14816,10 +14852,13 @@
         <v>351</v>
       </c>
       <c r="L9" t="s">
+        <v>621</v>
+      </c>
+      <c r="M9" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>488</v>
       </c>
@@ -14854,10 +14893,13 @@
         <v>351</v>
       </c>
       <c r="L10" t="s">
+        <v>621</v>
+      </c>
+      <c r="M10" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>447</v>
       </c>
@@ -14892,10 +14934,13 @@
         <v>351</v>
       </c>
       <c r="L11" t="s">
+        <v>622</v>
+      </c>
+      <c r="M11" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>448</v>
       </c>
@@ -14930,10 +14975,13 @@
         <v>401</v>
       </c>
       <c r="L12" t="s">
+        <v>621</v>
+      </c>
+      <c r="M12" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -14968,10 +15016,13 @@
         <v>401</v>
       </c>
       <c r="L13" t="s">
+        <v>621</v>
+      </c>
+      <c r="M13" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>451</v>
       </c>
@@ -15006,10 +15057,13 @@
         <v>351</v>
       </c>
       <c r="L14" t="s">
+        <v>621</v>
+      </c>
+      <c r="M14" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>452</v>
       </c>
@@ -15044,10 +15098,13 @@
         <v>351</v>
       </c>
       <c r="L15" t="s">
+        <v>622</v>
+      </c>
+      <c r="M15" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>453</v>
       </c>
@@ -15082,10 +15139,13 @@
         <v>351</v>
       </c>
       <c r="L16" t="s">
+        <v>622</v>
+      </c>
+      <c r="M16" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>454</v>
       </c>
@@ -15118,10 +15178,13 @@
         <v>351</v>
       </c>
       <c r="L17" t="s">
+        <v>623</v>
+      </c>
+      <c r="M17" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>455</v>
       </c>
@@ -15156,10 +15219,13 @@
         <v>351</v>
       </c>
       <c r="L18" t="s">
+        <v>622</v>
+      </c>
+      <c r="M18" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>456</v>
       </c>
@@ -15194,10 +15260,13 @@
         <v>351</v>
       </c>
       <c r="L19" t="s">
+        <v>622</v>
+      </c>
+      <c r="M19" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>457</v>
       </c>
@@ -15230,10 +15299,13 @@
         <v>351</v>
       </c>
       <c r="L20" t="s">
+        <v>622</v>
+      </c>
+      <c r="M20" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>458</v>
       </c>
@@ -15268,10 +15340,13 @@
         <v>351</v>
       </c>
       <c r="L21" t="s">
+        <v>623</v>
+      </c>
+      <c r="M21" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>459</v>
       </c>
@@ -15304,10 +15379,13 @@
         <v>351</v>
       </c>
       <c r="L22" t="s">
+        <v>621</v>
+      </c>
+      <c r="M22" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>460</v>
       </c>
@@ -15340,10 +15418,13 @@
         <v>351</v>
       </c>
       <c r="L23" t="s">
+        <v>621</v>
+      </c>
+      <c r="M23" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>461</v>
       </c>
@@ -15376,10 +15457,13 @@
         <v>401</v>
       </c>
       <c r="L24" t="s">
+        <v>621</v>
+      </c>
+      <c r="M24" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>462</v>
       </c>
@@ -15412,10 +15496,13 @@
         <v>351</v>
       </c>
       <c r="L25" t="s">
+        <v>621</v>
+      </c>
+      <c r="M25" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>463</v>
       </c>
@@ -15450,10 +15537,13 @@
         <v>351</v>
       </c>
       <c r="L26" t="s">
+        <v>622</v>
+      </c>
+      <c r="M26" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>464</v>
       </c>
@@ -15488,10 +15578,13 @@
         <v>401</v>
       </c>
       <c r="L27" t="s">
+        <v>622</v>
+      </c>
+      <c r="M27" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>471</v>
       </c>
@@ -15526,10 +15619,13 @@
         <v>401</v>
       </c>
       <c r="L28" t="s">
+        <v>622</v>
+      </c>
+      <c r="M28" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>465</v>
       </c>
@@ -15564,10 +15660,13 @@
         <v>351</v>
       </c>
       <c r="L29" t="s">
+        <v>622</v>
+      </c>
+      <c r="M29" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>472</v>
       </c>
@@ -15602,10 +15701,13 @@
         <v>401</v>
       </c>
       <c r="L30" t="s">
+        <v>622</v>
+      </c>
+      <c r="M30" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>473</v>
       </c>
@@ -15640,10 +15742,13 @@
         <v>401</v>
       </c>
       <c r="L31" t="s">
+        <v>622</v>
+      </c>
+      <c r="M31" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>474</v>
       </c>
@@ -15678,10 +15783,13 @@
         <v>351</v>
       </c>
       <c r="L32" t="s">
+        <v>622</v>
+      </c>
+      <c r="M32" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>475</v>
       </c>
@@ -15714,10 +15822,13 @@
         <v>401</v>
       </c>
       <c r="L33" t="s">
+        <v>622</v>
+      </c>
+      <c r="M33" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>466</v>
       </c>
@@ -15752,10 +15863,13 @@
         <v>351</v>
       </c>
       <c r="L34" t="s">
+        <v>621</v>
+      </c>
+      <c r="M34" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>467</v>
       </c>
@@ -15790,10 +15904,13 @@
         <v>351</v>
       </c>
       <c r="L35" t="s">
+        <v>621</v>
+      </c>
+      <c r="M35" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>476</v>
       </c>
@@ -15828,10 +15945,13 @@
         <v>351</v>
       </c>
       <c r="L36" t="s">
+        <v>621</v>
+      </c>
+      <c r="M36" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>468</v>
       </c>
@@ -15866,10 +15986,13 @@
         <v>351</v>
       </c>
       <c r="L37" t="s">
+        <v>622</v>
+      </c>
+      <c r="M37" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>469</v>
       </c>
@@ -15904,10 +16027,13 @@
         <v>351</v>
       </c>
       <c r="L38" t="s">
+        <v>622</v>
+      </c>
+      <c r="M38" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>477</v>
       </c>
@@ -15940,10 +16066,13 @@
         <v>351</v>
       </c>
       <c r="L39" t="s">
+        <v>622</v>
+      </c>
+      <c r="M39" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>470</v>
       </c>
@@ -15978,10 +16107,13 @@
         <v>351</v>
       </c>
       <c r="L40" t="s">
+        <v>622</v>
+      </c>
+      <c r="M40" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>478</v>
       </c>
@@ -16014,12 +16146,15 @@
         <v>351</v>
       </c>
       <c r="L41" t="s">
+        <v>621</v>
+      </c>
+      <c r="M41" t="s">
         <v>564</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H41" xr:uid="{AF0461F5-5522-4400-ADC3-010F7ED92A51}"/>
-  <conditionalFormatting sqref="K2:K41">
+  <conditionalFormatting sqref="K2:L41">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Increase">
       <formula>NOT(ISERROR(SEARCH("Increase",K2)))</formula>
     </cfRule>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69343C5-C79D-462F-9752-A861B7BCC219}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0442C2F-250E-45CA-BD99-92E094E53B08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="2" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="5" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -14474,7 +14474,7 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+    <sheetView topLeftCell="C31" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -16882,8 +16882,8 @@
   </sheetPr>
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="R66" sqref="R66"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18215,7 +18215,7 @@
         <v>43281</v>
       </c>
       <c r="C80" s="68">
-        <v>1</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D80" s="60"/>
       <c r="E80" s="60"/>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543096DF-1D28-4593-A660-BA0F2F955D31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F28C99-DF82-47D2-AA41-D19618356B3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="3" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -1683,8 +1683,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4091,8 +4091,8 @@
   </sheetPr>
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="R64" sqref="R64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4430,8 +4430,12 @@
       <c r="C20" s="34">
         <v>57.699999999999996</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="34">
+        <v>51.5</v>
+      </c>
+      <c r="E20" s="34">
+        <v>63.6</v>
+      </c>
       <c r="F20" s="7" t="s">
         <v>220</v>
       </c>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F28C99-DF82-47D2-AA41-D19618356B3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D6608F-3473-4CB1-ACAA-81FCA2262D8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="3" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_list" sheetId="12" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="data_format" sheetId="15" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$I$121</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicator_list!$A$1:$H$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicator_list!$A$1:$G$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="348">
   <si>
     <t>FAIR</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Housing is appropriate across our city for all stages and circumstances of life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Council Plan </t>
   </si>
   <si>
     <t>6 – A city with opportunities to learn and work</t>
@@ -205,36 +202,12 @@
     <t>We achieve a connected network of high quality open space that is appropriate to the needs of our community</t>
   </si>
   <si>
-    <t>Indicator origin/alignment</t>
-  </si>
-  <si>
-    <t>National Cities Indicator</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LGPRF </t>
-  </si>
-  <si>
-    <t>Council Plan / Health indicator</t>
-  </si>
-  <si>
     <t xml:space="preserve">Council data </t>
   </si>
   <si>
     <t xml:space="preserve">Community Survey </t>
   </si>
   <si>
-    <t>Council Plan / health indicator  and National Cities Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green Action Plan </t>
-  </si>
-  <si>
     <t xml:space="preserve">LGPRF, Sustainability Victoria </t>
   </si>
   <si>
@@ -259,15 +232,9 @@
     <t>Proportion of adults who report high or very high psychological distress</t>
   </si>
   <si>
-    <t>The proportion of adults who meet the physical activity guidelines</t>
-  </si>
-  <si>
     <t>The percentage who did voluntary work through and organisation or group (in the last 12 months)</t>
   </si>
   <si>
-    <t>Percentage of the municipal population that are members of the library and have borrowed a library collection item</t>
-  </si>
-  <si>
     <t>Smoothed unemployment rate (%) - June quarter</t>
   </si>
   <si>
@@ -310,9 +277,6 @@
     <t>Ratio of the top 20 per cent to the bottom 20 per cent of household income (P80/P20)</t>
   </si>
   <si>
-    <t>Active library members</t>
-  </si>
-  <si>
     <t>Diverse and inclusive</t>
   </si>
   <si>
@@ -454,9 +418,6 @@
     <t>Total carbon emissions from the community (tonnes)</t>
   </si>
   <si>
-    <t>VCAMS (31.1a Kindergarten participation rate)</t>
-  </si>
-  <si>
     <t>Increase of 5% on the estimate for metropolitan councils in 2019</t>
   </si>
   <si>
@@ -481,9 +442,6 @@
     <t>The proportion of residents who rate their household's ability to cope with climate related impacts as either 'well' or 'very well'.</t>
   </si>
   <si>
-    <t>How Well are we Adapting (Western Alliance on Greenhouse Action)</t>
-  </si>
-  <si>
     <t>The proportion of households that have made changes either to their homes or lifestyles to become more resilient to climate impacts.</t>
   </si>
   <si>
@@ -583,9 +541,6 @@
     <t>Calculated from spatial data</t>
   </si>
   <si>
-    <t>MV2040</t>
-  </si>
-  <si>
     <t>Across Moonee Valley there is increased participation and value placed in the arts, sport, culture and community-run events</t>
   </si>
   <si>
@@ -835,9 +790,6 @@
     <t>Number of first year children enrolled in kindergarten divided by the number of 3 year old children (70%) and 4 year old children (30%) based on the previous year's estimated resident population</t>
   </si>
   <si>
-    <t>Approximately 17 per cent of Moonee Valley residents are active library members. Council is rolling out a number of programs to increase this figure.</t>
-  </si>
-  <si>
     <t>Around one-third of jobs in Moonee Valley are filled by residents of the municipality.</t>
   </si>
   <si>
@@ -1111,9 +1063,6 @@
     <t>Index score</t>
   </si>
   <si>
-    <t>This is a statewide measure of library usage and allows for comapison with other municipalities.</t>
-  </si>
-  <si>
     <t>Influence</t>
   </si>
   <si>
@@ -1127,6 +1076,30 @@
   </si>
   <si>
     <t>One (Pridham Plaza) of the six activity centres in Moonee Valley has public Wi-Fi.</t>
+  </si>
+  <si>
+    <t>The proportion of adults who meet the physical activity guidelines (Australia’s Physical Activity and Sedentary Behaviour Guidelines for Adults (18-64 years), DoH, 2014)</t>
+  </si>
+  <si>
+    <t>Library usage</t>
+  </si>
+  <si>
+    <t>Visits</t>
+  </si>
+  <si>
+    <t>Total number of branch library visits per resident</t>
+  </si>
+  <si>
+    <t>There were approximately 6.2 library visits per population to library branches in the municipality in 2018-19. This is higher than in 2017-18, but lower than in previous years.</t>
+  </si>
+  <si>
+    <t>Library usage is important as part of a well-educated and thriving community.</t>
+  </si>
+  <si>
+    <t>Visits per resident</t>
+  </si>
+  <si>
+    <t>Public Libraries Victoria (Annual Statistics); Australian Bureau of Statistics (Regional Population Growth - previous year)</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1110,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1168,8 +1141,119 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1260,8 +1344,164 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1269,12 +1509,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.49995422223578601"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1376,10 +1765,54 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Bad 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Calculation 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Check Cell 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Good 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Heading 1 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Heading 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Heading 3 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Heading 4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Input 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Neutral 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Note 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Output 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Title 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Total 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Warning Text 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1681,10 +2114,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="A7:D7"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,15 +2125,14 @@
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="71.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="46" customWidth="1"/>
-    <col min="9" max="10" width="50.140625" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" customWidth="1"/>
+    <col min="7" max="7" width="46" customWidth="1"/>
+    <col min="8" max="9" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -1709,1666 +2141,1560 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>247</v>
+        <v>335</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>243</v>
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2" t="s">
+        <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>336</v>
       </c>
       <c r="L2" t="s">
-        <v>353</v>
-      </c>
-      <c r="M2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>243</v>
+      <c r="G3" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" t="s">
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="L3" t="s">
-        <v>353</v>
-      </c>
-      <c r="M3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>243</v>
+      <c r="G4" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4" t="s">
+        <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="L4" t="s">
-        <v>353</v>
-      </c>
-      <c r="M4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>243</v>
+        <v>160</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J5" t="s">
+        <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="L5" t="s">
-        <v>354</v>
-      </c>
-      <c r="M5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="J6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s">
         <v>336</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="K6" t="s">
-        <v>121</v>
-      </c>
       <c r="L6" t="s">
-        <v>353</v>
-      </c>
-      <c r="M6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>172</v>
+      <c r="G7" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>311</v>
+        <v>295</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="L7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>243</v>
+      <c r="G8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J8" t="s">
+        <v>136</v>
       </c>
       <c r="K8" t="s">
-        <v>150</v>
+        <v>336</v>
       </c>
       <c r="L8" t="s">
-        <v>353</v>
-      </c>
-      <c r="M8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>243</v>
+      <c r="G9" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="L9" t="s">
-        <v>353</v>
-      </c>
-      <c r="M9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>243</v>
+      <c r="G10" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="L10" t="s">
-        <v>353</v>
-      </c>
-      <c r="M10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>133</v>
+        <v>86</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>326</v>
+        <v>310</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="L11" t="s">
-        <v>354</v>
-      </c>
-      <c r="M11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>243</v>
+        <v>133</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>150</v>
+        <v>336</v>
       </c>
       <c r="L12" t="s">
-        <v>353</v>
-      </c>
-      <c r="M12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>134</v>
+        <v>59</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>318</v>
+        <v>302</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>336</v>
       </c>
       <c r="L13" t="s">
-        <v>353</v>
-      </c>
-      <c r="M13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>135</v>
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>331</v>
+        <v>315</v>
+      </c>
+      <c r="J14" t="s">
+        <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="L14" t="s">
-        <v>353</v>
-      </c>
-      <c r="M14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>124</v>
+        <v>243</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>318</v>
+        <v>302</v>
+      </c>
+      <c r="J15" t="s">
+        <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="L15" t="s">
-        <v>354</v>
-      </c>
-      <c r="M15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>84</v>
+        <v>341</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>338</v>
+        <v>343</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
+      </c>
+      <c r="J16" t="s">
+        <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="L16" t="s">
-        <v>354</v>
-      </c>
-      <c r="M16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>348</v>
+        <v>332</v>
+      </c>
+      <c r="J17" t="s">
+        <v>109</v>
       </c>
       <c r="K17" t="s">
-        <v>121</v>
+        <v>338</v>
       </c>
       <c r="L17" t="s">
-        <v>355</v>
-      </c>
-      <c r="M17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>243</v>
+        <v>107</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J18" t="s">
+        <v>109</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="L18" t="s">
-        <v>354</v>
-      </c>
-      <c r="M18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>349</v>
+        <v>333</v>
+      </c>
+      <c r="J19" t="s">
+        <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="L19" t="s">
-        <v>354</v>
-      </c>
-      <c r="M19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>339</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>347</v>
+        <v>331</v>
+      </c>
+      <c r="J20" t="s">
+        <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="L20" t="s">
-        <v>354</v>
-      </c>
-      <c r="M20" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>312</v>
+        <v>60</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J21" t="s">
+        <v>109</v>
       </c>
       <c r="K21" t="s">
-        <v>121</v>
+        <v>338</v>
       </c>
       <c r="L21" t="s">
-        <v>355</v>
-      </c>
-      <c r="M21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>341</v>
+        <v>92</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>309</v>
+        <v>293</v>
+      </c>
+      <c r="J22" t="s">
+        <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="L22" t="s">
-        <v>353</v>
-      </c>
-      <c r="M22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>243</v>
+        <v>135</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" t="s">
+        <v>109</v>
       </c>
       <c r="K23" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="L23" t="s">
-        <v>353</v>
-      </c>
-      <c r="M23" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>120</v>
+        <v>265</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J24" t="s">
+        <v>136</v>
+      </c>
+      <c r="K24" t="s">
+        <v>336</v>
+      </c>
+      <c r="L24" t="s">
         <v>283</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="K24" t="s">
-        <v>150</v>
-      </c>
-      <c r="L24" t="s">
-        <v>353</v>
-      </c>
-      <c r="M24" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>333</v>
+      <c r="G25" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J25" t="s">
+        <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="L25" t="s">
-        <v>353</v>
-      </c>
-      <c r="M25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>243</v>
+      <c r="G26" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" t="s">
+        <v>109</v>
       </c>
       <c r="K26" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="L26" t="s">
-        <v>354</v>
-      </c>
-      <c r="M26" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="19" t="s">
-        <v>341</v>
+      <c r="G27" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>285</v>
+        <v>269</v>
+      </c>
+      <c r="J27" t="s">
+        <v>136</v>
       </c>
       <c r="K27" t="s">
-        <v>150</v>
+        <v>337</v>
       </c>
       <c r="L27" t="s">
-        <v>354</v>
-      </c>
-      <c r="M27" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="19" t="s">
-        <v>341</v>
+      <c r="G28" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>286</v>
+        <v>270</v>
+      </c>
+      <c r="J28" t="s">
+        <v>136</v>
       </c>
       <c r="K28" t="s">
-        <v>150</v>
+        <v>337</v>
       </c>
       <c r="L28" t="s">
-        <v>354</v>
-      </c>
-      <c r="M28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="21" t="s">
-        <v>127</v>
+      <c r="G29" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>287</v>
+        <v>271</v>
+      </c>
+      <c r="J29" t="s">
+        <v>109</v>
       </c>
       <c r="K29" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="L29" t="s">
-        <v>354</v>
-      </c>
-      <c r="M29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>288</v>
+      <c r="J30" t="s">
+        <v>136</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>337</v>
       </c>
       <c r="L30" t="s">
-        <v>354</v>
-      </c>
-      <c r="M30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>344</v>
+        <v>214</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>289</v>
+        <v>273</v>
+      </c>
+      <c r="J31" t="s">
+        <v>136</v>
       </c>
       <c r="K31" t="s">
-        <v>150</v>
+        <v>337</v>
       </c>
       <c r="L31" t="s">
-        <v>354</v>
-      </c>
-      <c r="M31" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>341</v>
+        <v>61</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>290</v>
+        <v>274</v>
+      </c>
+      <c r="J32" t="s">
+        <v>109</v>
       </c>
       <c r="K32" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="L32" t="s">
-        <v>354</v>
-      </c>
-      <c r="M32" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>344</v>
+        <v>255</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>293</v>
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>136</v>
       </c>
       <c r="K33" t="s">
-        <v>150</v>
+        <v>337</v>
       </c>
       <c r="L33" t="s">
-        <v>354</v>
-      </c>
-      <c r="M33" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>341</v>
+        <v>62</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="I34" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="J34" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" t="s">
+        <v>336</v>
+      </c>
+      <c r="L34" t="s">
         <v>279</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K34" t="s">
-        <v>121</v>
-      </c>
-      <c r="L34" t="s">
-        <v>353</v>
-      </c>
-      <c r="M34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="I35" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>315</v>
+        <v>127</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="J35" t="s">
+        <v>109</v>
       </c>
       <c r="K35" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s">
-        <v>353</v>
-      </c>
-      <c r="M35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>291</v>
+        <v>128</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J36" t="s">
+        <v>109</v>
       </c>
       <c r="K36" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s">
-        <v>353</v>
-      </c>
-      <c r="M36" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>243</v>
+        <v>110</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J37" t="s">
+        <v>109</v>
       </c>
       <c r="K37" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s">
-        <v>354</v>
-      </c>
-      <c r="M37" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="22" t="s">
-        <v>145</v>
+      <c r="G38" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>320</v>
+        <v>304</v>
+      </c>
+      <c r="J38" t="s">
+        <v>109</v>
       </c>
       <c r="K38" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s">
-        <v>354</v>
-      </c>
-      <c r="M38" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>124</v>
+        <v>69</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>321</v>
+        <v>305</v>
+      </c>
+      <c r="J39" t="s">
+        <v>109</v>
       </c>
       <c r="K39" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s">
-        <v>354</v>
-      </c>
-      <c r="M39" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>313</v>
+        <v>63</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="J40" t="s">
+        <v>109</v>
       </c>
       <c r="K40" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="L40" t="s">
-        <v>354</v>
-      </c>
-      <c r="M40" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="I41" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>322</v>
+        <v>229</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J41" t="s">
+        <v>109</v>
       </c>
       <c r="K41" t="s">
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="L41" t="s">
-        <v>353</v>
-      </c>
-      <c r="M41" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H41" xr:uid="{AF0461F5-5522-4400-ADC3-010F7ED92A51}"/>
-  <conditionalFormatting sqref="K2:L41">
+  <conditionalFormatting sqref="J2:K41">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Increase">
-      <formula>NOT(ISERROR(SEARCH("Increase",K2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Increase",J2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Decrease">
-      <formula>NOT(ISERROR(SEARCH("Decrease",K2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Decrease",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3390,18 +3716,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -3412,7 +3738,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>0</v>
@@ -3423,7 +3749,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>0</v>
@@ -3434,7 +3760,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>0</v>
@@ -3445,7 +3771,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>0</v>
@@ -3456,7 +3782,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>0</v>
@@ -3467,7 +3793,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>0</v>
@@ -3478,7 +3804,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>0</v>
@@ -3489,7 +3815,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>0</v>
@@ -3500,7 +3826,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>0</v>
@@ -3511,7 +3837,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>0</v>
@@ -3522,7 +3848,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>3</v>
@@ -3533,7 +3859,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>3</v>
@@ -3544,7 +3870,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>3</v>
@@ -3555,7 +3881,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>3</v>
@@ -3566,7 +3892,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>3</v>
@@ -3577,7 +3903,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>3</v>
@@ -3588,7 +3914,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>3</v>
@@ -3599,7 +3925,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>3</v>
@@ -3610,7 +3936,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>4</v>
@@ -3621,7 +3947,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>4</v>
@@ -3632,7 +3958,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>4</v>
@@ -3643,7 +3969,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>4</v>
@@ -3654,7 +3980,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>4</v>
@@ -3665,7 +3991,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>4</v>
@@ -3676,7 +4002,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>5</v>
@@ -3687,7 +4013,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>5</v>
@@ -3698,7 +4024,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>5</v>
@@ -3709,7 +4035,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>5</v>
@@ -3720,7 +4046,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>5</v>
@@ -3731,7 +4057,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>5</v>
@@ -3742,7 +4068,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>5</v>
@@ -3753,7 +4079,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>5</v>
@@ -3764,7 +4090,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>5</v>
@@ -3775,7 +4101,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>5</v>
@@ -3786,7 +4112,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>6</v>
@@ -3797,7 +4123,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>6</v>
@@ -3808,7 +4134,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>6</v>
@@ -3819,7 +4145,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>6</v>
@@ -3830,7 +4156,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>6</v>
@@ -3861,13 +4187,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3930,10 +4256,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3941,10 +4267,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -3952,10 +4278,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3963,10 +4289,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3974,10 +4300,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -3985,10 +4311,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3996,10 +4322,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4007,10 +4333,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4018,10 +4344,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4029,10 +4355,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4040,10 +4366,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4051,10 +4377,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4062,10 +4388,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4073,10 +4399,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4089,10 +4415,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4104,27 +4430,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B2" s="29">
         <v>40724</v>
@@ -4133,12 +4459,12 @@
         <v>5.04</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B3" s="29">
         <v>41090</v>
@@ -4147,12 +4473,12 @@
         <v>4.8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B4" s="29">
         <v>41455</v>
@@ -4161,12 +4487,12 @@
         <v>4.72</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B5" s="29">
         <v>41820</v>
@@ -4175,12 +4501,12 @@
         <v>4.79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B6" s="29">
         <v>42185</v>
@@ -4189,12 +4515,12 @@
         <v>4.84</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B7" s="29">
         <v>42551</v>
@@ -4205,12 +4531,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B8" s="29">
         <v>51317</v>
@@ -4221,12 +4547,12 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B9" s="30">
         <v>43281</v>
@@ -4241,12 +4567,12 @@
         <v>71.158794562405902</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B10" s="30">
         <v>43646</v>
@@ -4261,12 +4587,12 @@
         <v>70.112622314085897</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B11" s="29">
         <v>51317</v>
@@ -4277,12 +4603,12 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B12" s="30">
         <v>43281</v>
@@ -4297,12 +4623,12 @@
         <v>66.167510713120095</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B13" s="30">
         <v>43646</v>
@@ -4317,12 +4643,12 @@
         <v>63.814694958317894</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B14" s="29">
         <v>51317</v>
@@ -4333,12 +4659,12 @@
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B15" s="30">
         <v>43646</v>
@@ -4347,12 +4673,12 @@
         <v>60.699999999999996</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B16" s="29">
         <v>51317</v>
@@ -4361,12 +4687,12 @@
         <v>90</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B17" s="30">
         <v>43281</v>
@@ -4381,12 +4707,12 @@
         <v>51.597672572044409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B18" s="30">
         <v>43646</v>
@@ -4401,12 +4727,12 @@
         <v>48.833706034554297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B19" s="29">
         <v>51317</v>
@@ -4417,12 +4743,12 @@
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B20" s="31">
         <v>42916</v>
@@ -4437,12 +4763,12 @@
         <v>63.6</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B21" s="29">
         <v>51317</v>
@@ -4453,12 +4779,12 @@
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B22" s="31">
         <v>41090</v>
@@ -4473,12 +4799,12 @@
         <v>14.5</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B23" s="31">
         <v>41820</v>
@@ -4493,12 +4819,12 @@
         <v>21.1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B24" s="31">
         <v>42916</v>
@@ -4513,12 +4839,12 @@
         <v>17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B25" s="29">
         <v>51317</v>
@@ -4529,12 +4855,12 @@
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
       <c r="F25" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B26" s="30">
         <v>43281</v>
@@ -4549,12 +4875,12 @@
         <v>65.605150908988506</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B27" s="30">
         <v>43646</v>
@@ -4569,12 +4895,12 @@
         <v>69.906919042560105</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B28" s="29">
         <v>51317</v>
@@ -4585,12 +4911,12 @@
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B29" s="30">
         <v>41090</v>
@@ -4601,12 +4927,12 @@
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B30" s="30">
         <v>42185</v>
@@ -4617,12 +4943,12 @@
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B31" s="30">
         <v>43281</v>
@@ -4633,12 +4959,12 @@
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B32" s="29">
         <v>51317</v>
@@ -4649,12 +4975,14 @@
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="7" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B33" s="30">
         <v>43281</v>
@@ -4669,12 +4997,12 @@
         <v>53.871574222</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B34" s="30">
         <v>43646</v>
@@ -4689,12 +5017,12 @@
         <v>50.539152862397202</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B35" s="29">
         <v>51317</v>
@@ -4705,12 +5033,12 @@
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B36" s="29">
         <v>40764</v>
@@ -4721,12 +5049,12 @@
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B37" s="29">
         <v>42591</v>
@@ -4737,12 +5065,12 @@
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B38" s="29">
         <v>51317</v>
@@ -4753,12 +5081,12 @@
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B39" s="30">
         <v>42551</v>
@@ -4769,12 +5097,12 @@
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B40" s="30">
         <v>42916</v>
@@ -4785,12 +5113,12 @@
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B41" s="30">
         <v>43281</v>
@@ -4801,12 +5129,12 @@
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B42" s="30">
         <v>43646</v>
@@ -4817,12 +5145,12 @@
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B43" s="29">
         <v>51317</v>
@@ -4833,12 +5161,12 @@
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B44" s="29">
         <v>40764</v>
@@ -4849,12 +5177,12 @@
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B45" s="29">
         <v>42591</v>
@@ -4865,12 +5193,12 @@
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
       <c r="F45" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B46" s="29">
         <v>51317</v>
@@ -4881,12 +5209,12 @@
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B47" s="31">
         <v>42551</v>
@@ -4897,12 +5225,12 @@
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
       <c r="F47" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B48" s="31">
         <v>42916</v>
@@ -4913,12 +5241,12 @@
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B49" s="29">
         <v>51317</v>
@@ -4929,1135 +5257,1175 @@
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B50" s="30">
-        <v>42551</v>
-      </c>
-      <c r="C50" s="34">
-        <v>18.25</v>
+        <v>41820</v>
+      </c>
+      <c r="C50" s="40">
+        <v>6.5</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="G50" s="40"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B51" s="30">
-        <v>42916</v>
-      </c>
-      <c r="C51" s="34">
-        <v>19.03</v>
+        <v>42185</v>
+      </c>
+      <c r="C51" s="40">
+        <v>6.48</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="G51" s="40"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B52" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C52" s="34">
-        <v>17.63</v>
+        <v>42551</v>
+      </c>
+      <c r="C52" s="40">
+        <v>6.45</v>
       </c>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
       <c r="F52" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="G52" s="40"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B53" s="30">
-        <v>43646</v>
-      </c>
-      <c r="C53" s="34">
-        <v>16.97</v>
+        <v>42916</v>
+      </c>
+      <c r="C53" s="40">
+        <v>6.5</v>
       </c>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="G53" s="40"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B54" s="29">
+        <v>174</v>
+      </c>
+      <c r="B54" s="30">
+        <v>43281</v>
+      </c>
+      <c r="C54" s="40">
+        <v>6.1</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G54" s="40"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="30">
+        <v>43646</v>
+      </c>
+      <c r="C55" s="40">
+        <v>6.19</v>
+      </c>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G55" s="40"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="29">
         <v>51317</v>
       </c>
-      <c r="C54" s="34">
-        <v>80</v>
-      </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B55" s="29">
-        <v>40764</v>
-      </c>
-      <c r="C55" s="34">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B56" s="29">
-        <v>42591</v>
-      </c>
-      <c r="C56" s="34">
-        <v>33</v>
+      <c r="C56" s="40">
+        <v>6.4</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
-      <c r="F56" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G56" s="40"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B57" s="29">
-        <v>51317</v>
+        <v>40764</v>
       </c>
       <c r="C57" s="34">
-        <v>48.199999999999996</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
       <c r="F57" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B58" s="30">
-        <v>43646</v>
-      </c>
-      <c r="C58" s="28">
-        <v>46.9</v>
-      </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
+        <v>175</v>
+      </c>
+      <c r="B58" s="29">
+        <v>42591</v>
+      </c>
+      <c r="C58" s="34">
+        <v>33</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
       <c r="F58" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B59" s="29">
         <v>51317</v>
       </c>
-      <c r="C59" s="28">
+      <c r="C59" s="34">
+        <v>48.199999999999996</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="30">
+        <v>43646</v>
+      </c>
+      <c r="C60" s="28">
+        <v>46.9</v>
+      </c>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C61" s="28">
         <v>49.3</v>
       </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B60" s="30">
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="30">
         <v>43281</v>
       </c>
-      <c r="C60" s="28">
+      <c r="C62" s="28">
         <v>71</v>
       </c>
-      <c r="D60" s="28">
+      <c r="D62" s="28">
         <v>69.282534772719998</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E62" s="28">
         <v>71.891836587279997</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B61" s="30">
+      <c r="F62" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" s="30">
         <v>43646</v>
       </c>
-      <c r="C61" s="28">
+      <c r="C63" s="28">
         <v>71</v>
       </c>
-      <c r="D61" s="28">
+      <c r="D63" s="28">
         <v>69.310210964059195</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E63" s="28">
         <v>71.990952281489598</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B62" s="29">
+      <c r="F63" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="29">
         <v>51317</v>
       </c>
-      <c r="C62" s="28">
+      <c r="C64" s="28">
         <v>79</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B63" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C63" s="34">
-        <v>0</v>
-      </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B64" s="30">
-        <v>43646</v>
-      </c>
-      <c r="C64" s="34">
-        <v>16.7</v>
-      </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="7" t="s">
-        <v>221</v>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B65" s="29">
-        <v>51317</v>
+        <v>178</v>
+      </c>
+      <c r="B65" s="30">
+        <v>43281</v>
       </c>
       <c r="C65" s="34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
-      <c r="F65" s="1" t="s">
-        <v>222</v>
+      <c r="F65" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
-        <v>194</v>
+      <c r="A66" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="B66" s="30">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C66" s="34">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
+        <v>16.7</v>
+      </c>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
       <c r="F66" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
-        <v>194</v>
+      <c r="A67" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="B67" s="29">
         <v>51317</v>
       </c>
       <c r="C67" s="34">
-        <v>90</v>
-      </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
       <c r="F67" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="B68" s="29">
-        <v>40764</v>
+      <c r="A68" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" s="30">
+        <v>43281</v>
       </c>
       <c r="C68" s="34">
-        <v>21.6</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
       <c r="F68" s="7" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B69" s="29">
-        <v>42591</v>
+        <v>51317</v>
       </c>
       <c r="C69" s="34">
-        <v>23.6</v>
+        <v>90</v>
       </c>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
-      <c r="F69" s="7" t="s">
-        <v>220</v>
+      <c r="F69" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
-        <v>195</v>
+      <c r="A70" s="35" t="s">
+        <v>180</v>
       </c>
       <c r="B70" s="29">
-        <v>51317</v>
+        <v>40764</v>
       </c>
       <c r="C70" s="34">
-        <v>50.1</v>
+        <v>21.6</v>
       </c>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
-      <c r="F70" s="1" t="s">
-        <v>222</v>
+      <c r="F70" s="7" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
-        <v>196</v>
+      <c r="A71" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="B71" s="29">
-        <v>40764</v>
+        <v>42591</v>
       </c>
       <c r="C71" s="34">
-        <v>10.4</v>
+        <v>23.6</v>
       </c>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
-      <c r="F71" s="1" t="s">
-        <v>245</v>
+      <c r="F71" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B72" s="29">
-        <v>42591</v>
+        <v>51317</v>
       </c>
       <c r="C72" s="34">
-        <v>11</v>
+        <v>50.1</v>
       </c>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
-      <c r="F72" s="7" t="s">
-        <v>220</v>
+      <c r="F72" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
-        <v>196</v>
+      <c r="A73" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="B73" s="29">
-        <v>51317</v>
+        <v>40764</v>
       </c>
       <c r="C73" s="34">
-        <v>11.600000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
       <c r="F73" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="37" t="s">
-        <v>197</v>
+      <c r="A74" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="B74" s="29">
-        <v>42004</v>
+        <v>42591</v>
       </c>
       <c r="C74" s="34">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="1" t="s">
-        <v>245</v>
+      <c r="F74" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="37" t="s">
-        <v>197</v>
+      <c r="A75" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="B75" s="29">
-        <v>42369</v>
+        <v>51317</v>
       </c>
       <c r="C75" s="34">
-        <v>50</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
       <c r="F75" s="1" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B76" s="29">
-        <v>42735</v>
+        <v>42004</v>
       </c>
       <c r="C76" s="34">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
       <c r="F76" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B77" s="29">
-        <v>43100</v>
+        <v>42369</v>
       </c>
       <c r="C77" s="34">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
       <c r="F77" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
-        <v>197</v>
+      <c r="A78" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="B78" s="29">
-        <v>43465</v>
-      </c>
-      <c r="C78" s="28">
-        <v>23</v>
-      </c>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="7" t="s">
-        <v>220</v>
+        <v>42735</v>
+      </c>
+      <c r="C78" s="34">
+        <v>52</v>
+      </c>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
-        <v>197</v>
+      <c r="A79" s="37" t="s">
+        <v>182</v>
       </c>
       <c r="B79" s="29">
-        <v>51501</v>
-      </c>
-      <c r="C79" s="28">
-        <v>0</v>
-      </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
+        <v>43100</v>
+      </c>
+      <c r="C79" s="34">
+        <v>22</v>
+      </c>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
       <c r="F79" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="B80" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C80" s="34">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
+        <v>182</v>
+      </c>
+      <c r="B80" s="29">
+        <v>43465</v>
+      </c>
+      <c r="C80" s="28">
+        <v>23</v>
+      </c>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
       <c r="F80" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B81" s="29">
-        <v>51317</v>
-      </c>
-      <c r="C81" s="34">
-        <v>100</v>
-      </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
+        <v>51501</v>
+      </c>
+      <c r="C81" s="28">
+        <v>0</v>
+      </c>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
       <c r="F81" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B82" s="30">
         <v>43281</v>
       </c>
       <c r="C82" s="34">
-        <v>0</v>
-      </c>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
       <c r="F82" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B83" s="30">
-        <v>43646</v>
+        <v>183</v>
+      </c>
+      <c r="B83" s="29">
+        <v>51317</v>
       </c>
       <c r="C83" s="34">
-        <v>60.699999999999996</v>
-      </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="7" t="s">
-        <v>221</v>
+        <v>100</v>
+      </c>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B84" s="29">
-        <v>51317</v>
+        <v>184</v>
+      </c>
+      <c r="B84" s="30">
+        <v>43281</v>
       </c>
       <c r="C84" s="34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
-      <c r="F84" s="1" t="s">
-        <v>222</v>
+      <c r="F84" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
-        <v>200</v>
+      <c r="A85" s="23" t="s">
+        <v>184</v>
       </c>
       <c r="B85" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C85" s="28">
-        <v>2773</v>
-      </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
+        <v>43646</v>
+      </c>
+      <c r="C85" s="34">
+        <v>60.699999999999996</v>
+      </c>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
       <c r="F85" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="B86" s="30">
-        <v>43646</v>
-      </c>
-      <c r="C86" s="28">
-        <v>1746</v>
-      </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="7" t="s">
-        <v>221</v>
+      <c r="A86" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C86" s="34">
+        <v>100</v>
+      </c>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="B87" s="29">
-        <v>51317</v>
+        <v>185</v>
+      </c>
+      <c r="B87" s="30">
+        <v>43281</v>
       </c>
       <c r="C87" s="28">
-        <v>139</v>
+        <v>2773</v>
       </c>
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
-      <c r="F87" s="1" t="s">
-        <v>222</v>
+      <c r="F87" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B88" s="30">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C88" s="28">
-        <v>1300000</v>
+        <v>1746</v>
       </c>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
       <c r="F88" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B89" s="29">
         <v>51317</v>
       </c>
       <c r="C89" s="28">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
       <c r="F89" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B90" s="30">
         <v>43281</v>
       </c>
       <c r="C90" s="28">
-        <v>49917</v>
+        <v>1300000</v>
       </c>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B91" s="30">
-        <v>43646</v>
+        <v>192</v>
+      </c>
+      <c r="B91" s="29">
+        <v>51317</v>
       </c>
       <c r="C91" s="28">
-        <v>51573</v>
+        <v>0</v>
       </c>
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
-      <c r="F91" s="7" t="s">
-        <v>221</v>
+      <c r="F91" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B92" s="29">
-        <v>51317</v>
+        <v>186</v>
+      </c>
+      <c r="B92" s="30">
+        <v>43281</v>
       </c>
       <c r="C92" s="28">
-        <v>54909</v>
+        <v>49917</v>
       </c>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
-      <c r="F92" s="1" t="s">
-        <v>222</v>
+      <c r="F92" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B93" s="30">
-        <v>42185</v>
+        <v>43646</v>
       </c>
       <c r="C93" s="28">
-        <v>127</v>
+        <v>51573</v>
       </c>
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
       <c r="F93" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B94" s="29">
         <v>51317</v>
       </c>
       <c r="C94" s="28">
-        <v>57</v>
+        <v>54909</v>
       </c>
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
       <c r="F94" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B95" s="30">
         <v>42185</v>
       </c>
       <c r="C95" s="28">
-        <v>12000</v>
+        <v>127</v>
       </c>
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
       <c r="F95" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B96" s="29">
         <v>51317</v>
       </c>
       <c r="C96" s="28">
-        <v>6700</v>
+        <v>57</v>
       </c>
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
       <c r="F96" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B97" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C97" s="34">
-        <v>17</v>
-      </c>
-      <c r="D97" s="34">
-        <v>16</v>
-      </c>
-      <c r="E97" s="34">
-        <v>18</v>
-      </c>
+        <v>42185</v>
+      </c>
+      <c r="C97" s="28">
+        <v>12000</v>
+      </c>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
       <c r="F97" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B98" s="29">
         <v>51317</v>
       </c>
-      <c r="C98" s="34">
-        <v>30</v>
-      </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
+      <c r="C98" s="28">
+        <v>6700</v>
+      </c>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
       <c r="F98" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B99" s="30">
-        <v>42185</v>
+        <v>43281</v>
       </c>
       <c r="C99" s="34">
-        <v>39</v>
-      </c>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
+        <v>17</v>
+      </c>
+      <c r="D99" s="34">
+        <v>16</v>
+      </c>
+      <c r="E99" s="34">
+        <v>18</v>
+      </c>
       <c r="F99" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B100" s="29">
         <v>51317</v>
       </c>
       <c r="C100" s="34">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D100" s="34"/>
       <c r="E100" s="34"/>
       <c r="F100" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B101" s="29">
-        <v>51317</v>
+        <v>196</v>
+      </c>
+      <c r="B101" s="30">
+        <v>42185</v>
       </c>
       <c r="C101" s="34">
-        <v>30</v>
-      </c>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="1" t="s">
-        <v>222</v>
+        <v>39</v>
+      </c>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B102" s="30">
-        <v>43281</v>
+        <v>196</v>
+      </c>
+      <c r="B102" s="29">
+        <v>51317</v>
       </c>
       <c r="C102" s="34">
-        <v>41.67</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>220</v>
+        <v>35</v>
+      </c>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B103" s="30">
-        <v>43646</v>
+        <v>195</v>
+      </c>
+      <c r="B103" s="29">
+        <v>51317</v>
       </c>
       <c r="C103" s="34">
-        <v>41.11</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>221</v>
+        <v>30</v>
+      </c>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B104" s="29">
-        <v>51317</v>
+        <v>187</v>
+      </c>
+      <c r="B104" s="30">
+        <v>43281</v>
       </c>
       <c r="C104" s="34">
-        <v>90</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>222</v>
+        <v>41.67</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B105" s="30">
         <v>43646</v>
       </c>
       <c r="C105" s="34">
-        <v>50</v>
+        <v>41.11</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B106" s="29">
         <v>51317</v>
       </c>
       <c r="C106" s="34">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B107" s="30">
         <v>43646</v>
       </c>
       <c r="C107" s="34">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B108" s="29">
         <v>51317</v>
       </c>
       <c r="C108" s="34">
+        <v>75</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B109" s="30">
+        <v>43646</v>
+      </c>
+      <c r="C109" s="34">
+        <v>80</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B110" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C110" s="34">
         <v>100</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B109" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C109" s="34">
-        <v>75</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B110" s="30">
-        <v>43646</v>
-      </c>
-      <c r="C110" s="34">
-        <v>80</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>221</v>
+      <c r="F110" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="B111" s="29">
-        <v>51317</v>
+        <v>189</v>
+      </c>
+      <c r="B111" s="30">
+        <v>43281</v>
       </c>
       <c r="C111" s="34">
-        <v>100</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>222</v>
+        <v>75</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B112" s="30">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C112" s="34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B113" s="30">
-        <v>43646</v>
+        <v>189</v>
+      </c>
+      <c r="B113" s="29">
+        <v>51317</v>
       </c>
       <c r="C113" s="34">
-        <v>5.4</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>221</v>
+        <v>100</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" s="30">
+        <v>43281</v>
+      </c>
+      <c r="C114" s="34">
+        <v>0</v>
+      </c>
+      <c r="F114" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="B114" s="29">
-        <v>51317</v>
-      </c>
-      <c r="C114" s="34">
-        <v>100</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="B115" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C115" s="28">
-        <v>4.17</v>
+        <v>43646</v>
+      </c>
+      <c r="C115" s="34">
+        <v>5.4</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B116" s="30">
-        <v>43646</v>
-      </c>
-      <c r="C116" s="28">
-        <v>4.13</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>221</v>
+        <v>190</v>
+      </c>
+      <c r="B116" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C116" s="34">
+        <v>100</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B117" s="29">
-        <v>51317</v>
+        <v>198</v>
+      </c>
+      <c r="B117" s="30">
+        <v>43281</v>
       </c>
       <c r="C117" s="28">
-        <v>4.38</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>222</v>
+        <v>4.17</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" s="30">
+        <v>43646</v>
+      </c>
+      <c r="C118" s="28">
+        <v>4.13</v>
+      </c>
+      <c r="F118" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="B118" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C118" s="28">
-        <v>91.1</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B119" s="29">
         <v>51317</v>
       </c>
-      <c r="C119">
-        <v>95</v>
+      <c r="C119" s="28">
+        <v>4.38</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B120" s="31">
-        <v>40724</v>
-      </c>
-      <c r="C120" s="34">
-        <v>55.000000000000007</v>
+        <v>191</v>
+      </c>
+      <c r="B120" s="30">
+        <v>43281</v>
+      </c>
+      <c r="C120" s="28">
+        <v>91.1</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B121" s="29">
         <v>51317</v>
       </c>
-      <c r="C121" s="34">
+      <c r="C121">
+        <v>95</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B122" s="31">
+        <v>40724</v>
+      </c>
+      <c r="C122" s="34">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B123" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C123" s="34">
         <v>57.8</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>222</v>
+      <c r="F123" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6069,7 +6437,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6081,453 +6449,453 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>346</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C19" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C24" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C30" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B31" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C31" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C32" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B33" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C37" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C38" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D6608F-3473-4CB1-ACAA-81FCA2262D8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB100D28-CEC5-49B9-BCE9-72B4B8EEE5B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="349">
   <si>
     <t>FAIR</t>
   </si>
@@ -781,9 +781,6 @@
     <t>About 12.5 per cent of adults had high or very high levels of psychological distress.</t>
   </si>
   <si>
-    <t>The proportion of children who are not developmentally vulnerable on one or more domains has been slowly increasing.</t>
-  </si>
-  <si>
     <t>The proportion of households with housing costs that represented 30 per cent or more of household income decrease between 2011 and 2016.</t>
   </si>
   <si>
@@ -961,9 +958,6 @@
     <t>Victorian Child and Adolescent Monitoring System (VCAMS), Indicator 31.1a Kindergarten participation rate</t>
   </si>
   <si>
-    <t>The kindergarten enrolment rate in Moonee Valley is around 92 per cent.</t>
-  </si>
-  <si>
     <t>The unemployment rate is an indicator of the amount of spare capacity in a city's labour market. Being unemployed also has implications for a person's economic, social and emotional wellbeing.</t>
   </si>
   <si>
@@ -1024,9 +1018,6 @@
     <t>Aspirational target for a healthier population</t>
   </si>
   <si>
-    <t>Aspirational target for greater library use and a well-educated population connected with their community</t>
-  </si>
-  <si>
     <t>Aspirational target to provide public internet access in public areas</t>
   </si>
   <si>
@@ -1100,6 +1091,18 @@
   </si>
   <si>
     <t>Public Libraries Victoria (Annual Statistics); Australian Bureau of Statistics (Regional Population Growth - previous year)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The level of vulnerability can have multiple impacts on service delivery. This includes changes to Priority of Access as well as the need for more resources to run existing services. Vulnerability is a measure used at times when applying for grants as a criteria, particularly state / federal government. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proportion of children who are not developmentally vulnerable on one or more domains has been slowly increasing. Increasing vulnerability levels can have multiple impacts on service delivery. Increasing vulnerability results in a change in the Priority of Access, meaning that the community can miss out on kindergarten places. More resources may also be required (for example, additional staff outside of the ratio to ensure appropriate provision of support for all children). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The kindergarten enrolment rate in Moonee Valley is around 92 per cent. While, enrolment is the commonly measured figure, it does not accurately represent the true participation rate. The attendance rate is a better measure of kindergarten participation, but is not currently measured. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrolment can be compared to the total number of places offered across the municipality, and for consideration of future provision. The is the measure used by the Department of Education and Training. Often, families are not aware of the importance of kindergarten or are uncertain of the processes, so don’t engage with the service. This is preventable if we are aware of where in the community children are not attending. Further work is needed to reduce the proportion of those who are not participate.  </t>
   </si>
 </sst>
 </file>
@@ -2116,8 +2119,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,10 +2165,10 @@
         <v>232</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2185,7 +2188,7 @@
         <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>125</v>
@@ -2200,10 +2203,10 @@
         <v>136</v>
       </c>
       <c r="K2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2226,7 +2229,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>235</v>
@@ -2238,10 +2241,10 @@
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2264,7 +2267,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>236</v>
@@ -2276,10 +2279,10 @@
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2302,10 +2305,10 @@
         <v>160</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>228</v>
@@ -2314,10 +2317,10 @@
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2340,22 +2343,22 @@
         <v>49</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>237</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J6" t="s">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -2372,7 +2375,7 @@
         <v>78</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -2384,16 +2387,16 @@
         <v>238</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J7" t="s">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2428,10 +2431,10 @@
         <v>136</v>
       </c>
       <c r="K8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2454,7 +2457,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>239</v>
@@ -2466,13 +2469,13 @@
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>209</v>
       </c>
@@ -2494,20 +2497,20 @@
       <c r="G10" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>228</v>
+      <c r="H10" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>345</v>
       </c>
       <c r="J10" t="s">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2533,19 +2536,19 @@
         <v>120</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J11" t="s">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2565,13 +2568,13 @@
         <v>133</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>228</v>
@@ -2580,10 +2583,10 @@
         <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -2609,19 +2612,19 @@
         <v>121</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J13" t="s">
         <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="180" x14ac:dyDescent="0.25">
@@ -2641,28 +2644,28 @@
         <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>122</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J14" t="s">
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L14" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>173</v>
       </c>
@@ -2676,28 +2679,28 @@
         <v>84</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>112</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="J15" t="s">
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2711,31 +2714,31 @@
         <v>94</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J16" t="s">
         <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2755,25 +2758,25 @@
         <v>124</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>126</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J17" t="s">
         <v>109</v>
       </c>
       <c r="K17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2799,7 +2802,7 @@
         <v>112</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>228</v>
@@ -2808,10 +2811,10 @@
         <v>109</v>
       </c>
       <c r="K18" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2837,19 +2840,19 @@
         <v>120</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J19" t="s">
         <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -2872,22 +2875,22 @@
         <v>48</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J20" t="s">
         <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2907,25 +2910,25 @@
         <v>60</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J21" t="s">
         <v>109</v>
       </c>
       <c r="K21" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2945,25 +2948,25 @@
         <v>92</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J22" t="s">
         <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2983,13 +2986,13 @@
         <v>135</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>112</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>228</v>
@@ -2998,10 +3001,10 @@
         <v>109</v>
       </c>
       <c r="K23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -3018,28 +3021,28 @@
         <v>159</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>108</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J24" t="s">
         <v>136</v>
       </c>
       <c r="K24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3062,22 +3065,22 @@
         <v>11</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J25" t="s">
         <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3100,10 +3103,10 @@
         <v>11</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>228</v>
@@ -3112,10 +3115,10 @@
         <v>109</v>
       </c>
       <c r="K26" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -3138,22 +3141,22 @@
         <v>11</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J27" t="s">
         <v>136</v>
       </c>
       <c r="K27" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3176,22 +3179,22 @@
         <v>11</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J28" t="s">
         <v>136</v>
       </c>
       <c r="K28" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3217,19 +3220,19 @@
         <v>115</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
         <v>109</v>
       </c>
       <c r="K29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3246,28 +3249,28 @@
         <v>67</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
         <v>136</v>
       </c>
       <c r="K30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3290,22 +3293,22 @@
         <v>48</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J31" t="s">
         <v>136</v>
       </c>
       <c r="K31" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3325,25 +3328,25 @@
         <v>61</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J32" t="s">
         <v>109</v>
       </c>
       <c r="K32" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3360,28 +3363,28 @@
         <v>68</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J33" t="s">
         <v>136</v>
       </c>
       <c r="K33" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -3404,22 +3407,22 @@
         <v>50</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J34" t="s">
         <v>109</v>
       </c>
       <c r="K34" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="135" x14ac:dyDescent="0.25">
@@ -3442,22 +3445,22 @@
         <v>65</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J35" t="s">
         <v>109</v>
       </c>
       <c r="K35" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3480,22 +3483,22 @@
         <v>65</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J36" t="s">
         <v>109</v>
       </c>
       <c r="K36" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3521,7 +3524,7 @@
         <v>114</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>228</v>
@@ -3530,10 +3533,10 @@
         <v>109</v>
       </c>
       <c r="K37" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -3559,19 +3562,19 @@
         <v>131</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J38" t="s">
         <v>109</v>
       </c>
       <c r="K38" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3597,19 +3600,19 @@
         <v>112</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J39" t="s">
         <v>109</v>
       </c>
       <c r="K39" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -3632,22 +3635,22 @@
         <v>224</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J40" t="s">
         <v>109</v>
       </c>
       <c r="K40" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3667,25 +3670,25 @@
         <v>229</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>112</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J41" t="s">
         <v>109</v>
       </c>
       <c r="K41" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3698,6 +3701,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4418,7 +4422,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+      <selection activeCell="F56" sqref="C54:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6477,7 +6481,7 @@
         <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6488,7 +6492,7 @@
         <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6510,7 +6514,7 @@
         <v>220</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6532,7 +6536,7 @@
         <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6543,7 +6547,7 @@
         <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6562,10 +6566,10 @@
         <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6617,10 +6621,10 @@
         <v>174</v>
       </c>
       <c r="B16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6639,10 +6643,10 @@
         <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6650,10 +6654,10 @@
         <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6705,10 +6709,10 @@
         <v>182</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6796,7 +6800,7 @@
         <v>220</v>
       </c>
       <c r="C32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB100D28-CEC5-49B9-BCE9-72B4B8EEE5B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9172D207-AC85-4B53-B24E-0939CC0CBDA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="3" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_list" sheetId="12" r:id="rId1"/>
@@ -394,18 +394,9 @@
     <t>Goal (Target)</t>
   </si>
   <si>
-    <t>Increase (5% from baseline to 2040)</t>
-  </si>
-  <si>
-    <t>Decrease (5% from baseline to 2040)</t>
-  </si>
-  <si>
     <t>Desire for all buildings to be disability accessible under the Disability Discrimination Act</t>
   </si>
   <si>
-    <t>Increase (10% from baseline to 2040)</t>
-  </si>
-  <si>
     <t>The proportion of local roads with a speed limit of 40km/h</t>
   </si>
   <si>
@@ -1081,12 +1072,6 @@
     <t>Total number of branch library visits per resident</t>
   </si>
   <si>
-    <t>There were approximately 6.2 library visits per population to library branches in the municipality in 2018-19. This is higher than in 2017-18, but lower than in previous years.</t>
-  </si>
-  <si>
-    <t>Library usage is important as part of a well-educated and thriving community.</t>
-  </si>
-  <si>
     <t>Visits per resident</t>
   </si>
   <si>
@@ -1103,6 +1088,21 @@
   </si>
   <si>
     <t xml:space="preserve">Enrolment can be compared to the total number of places offered across the municipality, and for consideration of future provision. The is the measure used by the Department of Education and Training. Often, families are not aware of the importance of kindergarten or are uncertain of the processes, so don’t engage with the service. This is preventable if we are aware of where in the community children are not attending. Further work is needed to reduce the proportion of those who are not participate.  </t>
+  </si>
+  <si>
+    <t>There were approximately 6.2 library visits per population to library branches in the municipality in 2018-19. This is higher than in 2017-18, but lower than in previous years. It should be noted that physical usage is only one indicator of library use, as digital services and resources can be accessed from everywhere.</t>
+  </si>
+  <si>
+    <t>Public library usage supports and contributes to a well-educated and thriving community by providing free and equal access to information, learning opportunities and related services, as well as actively contributing to social inclusion.</t>
+  </si>
+  <si>
+    <t>Increase of 5% from baseline to 2040</t>
+  </si>
+  <si>
+    <t>Decrease  of 5% from baseline to 2040</t>
+  </si>
+  <si>
+    <t>Increase of 30% from baseline to 2040</t>
   </si>
 </sst>
 </file>
@@ -2119,8 +2119,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,7 +2135,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -2156,24 +2156,24 @@
         <v>71</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -2188,30 +2188,30 @@
         <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>0</v>
@@ -2223,33 +2223,33 @@
         <v>79</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J3" t="s">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>0</v>
@@ -2258,36 +2258,36 @@
         <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J4" t="s">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>0</v>
@@ -2296,36 +2296,36 @@
         <v>93</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J5" t="s">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>80</v>
@@ -2343,27 +2343,27 @@
         <v>49</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J6" t="s">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>0</v>
@@ -2375,33 +2375,33 @@
         <v>78</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J7" t="s">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>0</v>
@@ -2419,27 +2419,27 @@
         <v>9</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>0</v>
@@ -2457,27 +2457,27 @@
         <v>10</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J9" t="s">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>0</v>
@@ -2486,36 +2486,36 @@
         <v>51</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J10" t="s">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>86</v>
@@ -2533,27 +2533,27 @@
         <v>65</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J11" t="s">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>0</v>
@@ -2565,33 +2565,33 @@
         <v>81</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J12" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="J12" t="s">
-        <v>136</v>
-      </c>
       <c r="K12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>3</v>
@@ -2606,30 +2606,30 @@
         <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>3</v>
@@ -2644,30 +2644,30 @@
         <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>314</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J14" t="s">
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>3</v>
@@ -2679,33 +2679,33 @@
         <v>84</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>112</v>
+        <v>346</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J15" t="s">
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>3</v>
@@ -2714,36 +2714,36 @@
         <v>94</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>341</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J16" t="s">
         <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>3</v>
@@ -2752,36 +2752,36 @@
         <v>95</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>126</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J17" t="s">
         <v>109</v>
       </c>
       <c r="K17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>3</v>
@@ -2790,7 +2790,7 @@
         <v>74</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>107</v>
@@ -2799,27 +2799,27 @@
         <v>106</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>112</v>
+        <v>346</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J18" t="s">
         <v>109</v>
       </c>
       <c r="K18" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>3</v>
@@ -2828,36 +2828,36 @@
         <v>74</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J19" t="s">
         <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>3</v>
@@ -2866,36 +2866,36 @@
         <v>96</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="J20" t="s">
         <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>4</v>
@@ -2904,36 +2904,36 @@
         <v>75</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J21" t="s">
         <v>109</v>
       </c>
       <c r="K21" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L21" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>4</v>
@@ -2942,36 +2942,36 @@
         <v>75</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J22" t="s">
         <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L22" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>4</v>
@@ -2980,36 +2980,36 @@
         <v>75</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>112</v>
+        <v>346</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
         <v>109</v>
       </c>
       <c r="K23" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>4</v>
@@ -3018,36 +3018,36 @@
         <v>75</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>108</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>4</v>
@@ -3056,36 +3056,36 @@
         <v>75</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J25" t="s">
         <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L25" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>4</v>
@@ -3094,36 +3094,36 @@
         <v>54</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J26" t="s">
         <v>109</v>
       </c>
       <c r="K26" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L26" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>5</v>
@@ -3132,36 +3132,36 @@
         <v>97</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" t="s">
+        <v>331</v>
+      </c>
+      <c r="L27" t="s">
         <v>275</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="J27" t="s">
-        <v>136</v>
-      </c>
-      <c r="K27" t="s">
-        <v>334</v>
-      </c>
-      <c r="L27" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>5</v>
@@ -3170,36 +3170,36 @@
         <v>97</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>5</v>
@@ -3217,27 +3217,27 @@
         <v>11</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J29" t="s">
         <v>109</v>
       </c>
       <c r="K29" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>5</v>
@@ -3249,33 +3249,33 @@
         <v>67</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>5</v>
@@ -3284,36 +3284,36 @@
         <v>55</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>5</v>
@@ -3328,30 +3328,30 @@
         <v>61</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J32" t="s">
         <v>109</v>
       </c>
       <c r="K32" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L32" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>5</v>
@@ -3363,33 +3363,33 @@
         <v>68</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K33" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L33" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>5</v>
@@ -3398,7 +3398,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>62</v>
@@ -3407,27 +3407,27 @@
         <v>50</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J34" t="s">
         <v>109</v>
       </c>
       <c r="K34" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>5</v>
@@ -3436,36 +3436,36 @@
         <v>98</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J35" t="s">
         <v>109</v>
       </c>
       <c r="K35" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>5</v>
@@ -3474,36 +3474,36 @@
         <v>98</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J36" t="s">
         <v>109</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>6</v>
@@ -3512,7 +3512,7 @@
         <v>99</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>110</v>
@@ -3521,27 +3521,27 @@
         <v>48</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J37" t="s">
         <v>109</v>
       </c>
       <c r="K37" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>6</v>
@@ -3553,33 +3553,33 @@
         <v>102</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J38" t="s">
         <v>109</v>
       </c>
       <c r="K38" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>6</v>
@@ -3594,30 +3594,30 @@
         <v>69</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>112</v>
+        <v>346</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J39" t="s">
         <v>109</v>
       </c>
       <c r="K39" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>6</v>
@@ -3626,36 +3626,36 @@
         <v>85</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J40" t="s">
         <v>109</v>
       </c>
       <c r="K40" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L40" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>6</v>
@@ -3667,28 +3667,28 @@
         <v>101</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>112</v>
+        <v>346</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J41" t="s">
         <v>109</v>
       </c>
       <c r="K41" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3720,18 +3720,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>0</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>0</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>0</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>0</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>0</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>0</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>0</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>0</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>0</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>0</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>3</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>3</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>3</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>3</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>3</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>3</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>3</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>3</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>4</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>4</v>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>4</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>4</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>4</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>4</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>5</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>5</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>5</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>5</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>5</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>5</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>5</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>5</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>5</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>5</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>6</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>6</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>6</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>6</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>6</v>
@@ -4285,7 +4285,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4421,8 +4421,8 @@
   </sheetPr>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F56" sqref="C54:F56"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4434,27 +4434,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" t="s">
         <v>201</v>
-      </c>
-      <c r="B1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" s="29">
         <v>40724</v>
@@ -4463,12 +4463,12 @@
         <v>5.04</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B3" s="29">
         <v>41090</v>
@@ -4477,12 +4477,12 @@
         <v>4.8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B4" s="29">
         <v>41455</v>
@@ -4491,12 +4491,12 @@
         <v>4.72</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B5" s="29">
         <v>41820</v>
@@ -4505,12 +4505,12 @@
         <v>4.79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B6" s="29">
         <v>42185</v>
@@ -4519,12 +4519,12 @@
         <v>4.84</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B7" s="29">
         <v>42551</v>
@@ -4535,12 +4535,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B8" s="29">
         <v>51317</v>
@@ -4551,12 +4551,12 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B9" s="30">
         <v>43281</v>
@@ -4571,12 +4571,12 @@
         <v>71.158794562405902</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B10" s="30">
         <v>43646</v>
@@ -4591,12 +4591,12 @@
         <v>70.112622314085897</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B11" s="29">
         <v>51317</v>
@@ -4607,12 +4607,12 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B12" s="30">
         <v>43281</v>
@@ -4627,12 +4627,12 @@
         <v>66.167510713120095</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B13" s="30">
         <v>43646</v>
@@ -4647,12 +4647,12 @@
         <v>63.814694958317894</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B14" s="29">
         <v>51317</v>
@@ -4663,12 +4663,12 @@
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B15" s="30">
         <v>43646</v>
@@ -4677,12 +4677,12 @@
         <v>60.699999999999996</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B16" s="29">
         <v>51317</v>
@@ -4691,12 +4691,12 @@
         <v>90</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B17" s="30">
         <v>43281</v>
@@ -4711,12 +4711,12 @@
         <v>51.597672572044409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B18" s="30">
         <v>43646</v>
@@ -4731,12 +4731,12 @@
         <v>48.833706034554297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B19" s="29">
         <v>51317</v>
@@ -4747,12 +4747,12 @@
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B20" s="31">
         <v>42916</v>
@@ -4767,12 +4767,12 @@
         <v>63.6</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B21" s="29">
         <v>51317</v>
@@ -4783,12 +4783,12 @@
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B22" s="31">
         <v>41090</v>
@@ -4803,12 +4803,12 @@
         <v>14.5</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B23" s="31">
         <v>41820</v>
@@ -4823,12 +4823,12 @@
         <v>21.1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B24" s="31">
         <v>42916</v>
@@ -4843,12 +4843,12 @@
         <v>17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B25" s="29">
         <v>51317</v>
@@ -4859,12 +4859,12 @@
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
       <c r="F25" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B26" s="30">
         <v>43281</v>
@@ -4879,12 +4879,12 @@
         <v>65.605150908988506</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B27" s="30">
         <v>43646</v>
@@ -4899,12 +4899,12 @@
         <v>69.906919042560105</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B28" s="29">
         <v>51317</v>
@@ -4915,12 +4915,12 @@
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B29" s="30">
         <v>41090</v>
@@ -4931,12 +4931,12 @@
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B30" s="30">
         <v>42185</v>
@@ -4947,12 +4947,12 @@
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B31" s="30">
         <v>43281</v>
@@ -4963,12 +4963,12 @@
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B32" s="29">
         <v>51317</v>
@@ -4979,14 +4979,14 @@
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B33" s="30">
         <v>43281</v>
@@ -5001,12 +5001,12 @@
         <v>53.871574222</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B34" s="30">
         <v>43646</v>
@@ -5021,12 +5021,12 @@
         <v>50.539152862397202</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B35" s="29">
         <v>51317</v>
@@ -5037,12 +5037,12 @@
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B36" s="29">
         <v>40764</v>
@@ -5053,12 +5053,12 @@
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B37" s="29">
         <v>42591</v>
@@ -5069,12 +5069,12 @@
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B38" s="29">
         <v>51317</v>
@@ -5085,12 +5085,12 @@
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B39" s="30">
         <v>42551</v>
@@ -5101,12 +5101,12 @@
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B40" s="30">
         <v>42916</v>
@@ -5117,12 +5117,12 @@
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B41" s="30">
         <v>43281</v>
@@ -5133,12 +5133,12 @@
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B42" s="30">
         <v>43646</v>
@@ -5149,12 +5149,12 @@
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B43" s="29">
         <v>51317</v>
@@ -5165,12 +5165,12 @@
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B44" s="29">
         <v>40764</v>
@@ -5181,12 +5181,12 @@
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B45" s="29">
         <v>42591</v>
@@ -5197,12 +5197,12 @@
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
       <c r="F45" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B46" s="29">
         <v>51317</v>
@@ -5213,12 +5213,12 @@
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B47" s="31">
         <v>42551</v>
@@ -5229,12 +5229,12 @@
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
       <c r="F47" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B48" s="31">
         <v>42916</v>
@@ -5245,12 +5245,12 @@
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B49" s="29">
         <v>51317</v>
@@ -5261,12 +5261,12 @@
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B50" s="30">
         <v>41820</v>
@@ -5277,13 +5277,13 @@
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G50" s="40"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B51" s="30">
         <v>42185</v>
@@ -5294,13 +5294,13 @@
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G51" s="40"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B52" s="30">
         <v>42551</v>
@@ -5311,13 +5311,13 @@
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
       <c r="F52" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G52" s="40"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B53" s="30">
         <v>42916</v>
@@ -5328,13 +5328,13 @@
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G53" s="40"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B54" s="30">
         <v>43281</v>
@@ -5345,13 +5345,13 @@
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
       <c r="F54" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G54" s="40"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B55" s="30">
         <v>43646</v>
@@ -5362,13 +5362,13 @@
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
       <c r="F55" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G55" s="40"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B56" s="29">
         <v>51317</v>
@@ -5379,13 +5379,13 @@
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
       <c r="F56" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G56" s="40"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B57" s="29">
         <v>40764</v>
@@ -5396,12 +5396,12 @@
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
       <c r="F57" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B58" s="29">
         <v>42591</v>
@@ -5412,12 +5412,12 @@
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
       <c r="F58" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B59" s="29">
         <v>51317</v>
@@ -5428,12 +5428,12 @@
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
       <c r="F59" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B60" s="30">
         <v>43646</v>
@@ -5444,12 +5444,12 @@
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
       <c r="F60" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B61" s="29">
         <v>51317</v>
@@ -5460,12 +5460,12 @@
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
       <c r="F61" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B62" s="30">
         <v>43281</v>
@@ -5480,12 +5480,12 @@
         <v>71.891836587279997</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B63" s="30">
         <v>43646</v>
@@ -5500,12 +5500,12 @@
         <v>71.990952281489598</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B64" s="29">
         <v>51317</v>
@@ -5516,12 +5516,12 @@
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
       <c r="F64" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B65" s="30">
         <v>43281</v>
@@ -5532,12 +5532,12 @@
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
       <c r="F65" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B66" s="30">
         <v>43646</v>
@@ -5548,12 +5548,12 @@
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
       <c r="F66" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B67" s="29">
         <v>51317</v>
@@ -5564,12 +5564,12 @@
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
       <c r="F67" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B68" s="30">
         <v>43281</v>
@@ -5580,12 +5580,12 @@
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
       <c r="F68" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B69" s="29">
         <v>51317</v>
@@ -5596,12 +5596,12 @@
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
       <c r="F69" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B70" s="29">
         <v>40764</v>
@@ -5612,12 +5612,12 @@
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
       <c r="F70" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B71" s="29">
         <v>42591</v>
@@ -5628,12 +5628,12 @@
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
       <c r="F71" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B72" s="29">
         <v>51317</v>
@@ -5644,12 +5644,12 @@
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
       <c r="F72" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B73" s="29">
         <v>40764</v>
@@ -5660,12 +5660,12 @@
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
       <c r="F73" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B74" s="29">
         <v>42591</v>
@@ -5676,12 +5676,12 @@
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
       <c r="F74" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B75" s="29">
         <v>51317</v>
@@ -5692,12 +5692,12 @@
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
       <c r="F75" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B76" s="29">
         <v>42004</v>
@@ -5708,12 +5708,12 @@
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
       <c r="F76" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B77" s="29">
         <v>42369</v>
@@ -5724,12 +5724,12 @@
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
       <c r="F77" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B78" s="29">
         <v>42735</v>
@@ -5740,12 +5740,12 @@
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
       <c r="F78" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B79" s="29">
         <v>43100</v>
@@ -5756,12 +5756,12 @@
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
       <c r="F79" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B80" s="29">
         <v>43465</v>
@@ -5772,12 +5772,12 @@
       <c r="D80" s="28"/>
       <c r="E80" s="28"/>
       <c r="F80" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B81" s="29">
         <v>51501</v>
@@ -5788,12 +5788,12 @@
       <c r="D81" s="28"/>
       <c r="E81" s="28"/>
       <c r="F81" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B82" s="30">
         <v>43281</v>
@@ -5804,12 +5804,12 @@
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
       <c r="F82" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B83" s="29">
         <v>51317</v>
@@ -5820,12 +5820,12 @@
       <c r="D83" s="26"/>
       <c r="E83" s="26"/>
       <c r="F83" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B84" s="30">
         <v>43281</v>
@@ -5836,12 +5836,12 @@
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
       <c r="F84" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B85" s="30">
         <v>43646</v>
@@ -5852,12 +5852,12 @@
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
       <c r="F85" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B86" s="29">
         <v>51317</v>
@@ -5868,12 +5868,12 @@
       <c r="D86" s="27"/>
       <c r="E86" s="27"/>
       <c r="F86" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B87" s="30">
         <v>43281</v>
@@ -5884,12 +5884,12 @@
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
       <c r="F87" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B88" s="30">
         <v>43646</v>
@@ -5900,12 +5900,12 @@
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
       <c r="F88" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B89" s="29">
         <v>51317</v>
@@ -5916,12 +5916,12 @@
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
       <c r="F89" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B90" s="30">
         <v>43281</v>
@@ -5932,12 +5932,12 @@
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B91" s="29">
         <v>51317</v>
@@ -5948,12 +5948,12 @@
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
       <c r="F91" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B92" s="30">
         <v>43281</v>
@@ -5964,12 +5964,12 @@
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
       <c r="F92" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B93" s="30">
         <v>43646</v>
@@ -5980,28 +5980,28 @@
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
       <c r="F93" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B94" s="29">
         <v>51317</v>
       </c>
       <c r="C94" s="28">
-        <v>54909</v>
+        <v>64892</v>
       </c>
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
       <c r="F94" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B95" s="30">
         <v>42185</v>
@@ -6012,12 +6012,12 @@
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
       <c r="F95" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B96" s="29">
         <v>51317</v>
@@ -6028,12 +6028,12 @@
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
       <c r="F96" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B97" s="30">
         <v>42185</v>
@@ -6044,12 +6044,12 @@
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
       <c r="F97" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B98" s="29">
         <v>51317</v>
@@ -6060,12 +6060,12 @@
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
       <c r="F98" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B99" s="30">
         <v>43281</v>
@@ -6080,12 +6080,12 @@
         <v>18</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B100" s="29">
         <v>51317</v>
@@ -6096,12 +6096,12 @@
       <c r="D100" s="34"/>
       <c r="E100" s="34"/>
       <c r="F100" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B101" s="30">
         <v>42185</v>
@@ -6112,12 +6112,12 @@
       <c r="D101" s="34"/>
       <c r="E101" s="34"/>
       <c r="F101" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B102" s="29">
         <v>51317</v>
@@ -6128,12 +6128,12 @@
       <c r="D102" s="34"/>
       <c r="E102" s="34"/>
       <c r="F102" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B103" s="29">
         <v>51317</v>
@@ -6144,12 +6144,12 @@
       <c r="D103" s="27"/>
       <c r="E103" s="27"/>
       <c r="F103" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B104" s="30">
         <v>43281</v>
@@ -6158,12 +6158,12 @@
         <v>41.67</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B105" s="30">
         <v>43646</v>
@@ -6172,12 +6172,12 @@
         <v>41.11</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B106" s="29">
         <v>51317</v>
@@ -6186,12 +6186,12 @@
         <v>90</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B107" s="30">
         <v>43646</v>
@@ -6200,12 +6200,12 @@
         <v>50</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B108" s="29">
         <v>51317</v>
@@ -6214,12 +6214,12 @@
         <v>75</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B109" s="30">
         <v>43646</v>
@@ -6228,12 +6228,12 @@
         <v>80</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B110" s="29">
         <v>51317</v>
@@ -6242,12 +6242,12 @@
         <v>100</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B111" s="30">
         <v>43281</v>
@@ -6256,12 +6256,12 @@
         <v>75</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B112" s="30">
         <v>43646</v>
@@ -6270,12 +6270,12 @@
         <v>80</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B113" s="29">
         <v>51317</v>
@@ -6284,12 +6284,12 @@
         <v>100</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B114" s="30">
         <v>43281</v>
@@ -6298,12 +6298,12 @@
         <v>0</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B115" s="30">
         <v>43646</v>
@@ -6312,12 +6312,12 @@
         <v>5.4</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B116" s="29">
         <v>51317</v>
@@ -6326,12 +6326,12 @@
         <v>100</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B117" s="30">
         <v>43281</v>
@@ -6340,12 +6340,12 @@
         <v>4.17</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B118" s="30">
         <v>43646</v>
@@ -6354,12 +6354,12 @@
         <v>4.13</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B119" s="29">
         <v>51317</v>
@@ -6368,12 +6368,12 @@
         <v>4.38</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B120" s="30">
         <v>43281</v>
@@ -6382,12 +6382,12 @@
         <v>91.1</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B121" s="29">
         <v>51317</v>
@@ -6396,12 +6396,12 @@
         <v>95</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B122" s="31">
         <v>40724</v>
@@ -6410,12 +6410,12 @@
         <v>55.000000000000007</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B123" s="29">
         <v>51317</v>
@@ -6424,7 +6424,7 @@
         <v>57.8</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6453,453 +6453,453 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C16" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C18" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9172D207-AC85-4B53-B24E-0939CC0CBDA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F069A8-5FA5-4341-BF4B-851FCC829A8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="3" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_list" sheetId="12" r:id="rId1"/>
@@ -1066,9 +1066,6 @@
     <t>Library usage</t>
   </si>
   <si>
-    <t>Visits</t>
-  </si>
-  <si>
     <t>Total number of branch library visits per resident</t>
   </si>
   <si>
@@ -1103,6 +1100,9 @@
   </si>
   <si>
     <t>Increase of 30% from baseline to 2040</t>
+  </si>
+  <si>
+    <t>Projects per 100,000 population</t>
   </si>
 </sst>
 </file>
@@ -2119,8 +2119,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,10 +2498,10 @@
         <v>127</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J10" t="s">
         <v>109</v>
@@ -2571,7 +2571,7 @@
         <v>308</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>238</v>
@@ -2685,13 +2685,13 @@
         <v>296</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="J15" t="s">
         <v>109</v>
@@ -2717,19 +2717,19 @@
         <v>335</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="J16" t="s">
         <v>109</v>
@@ -2799,7 +2799,7 @@
         <v>106</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>241</v>
@@ -2989,7 +2989,7 @@
         <v>308</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>244</v>
@@ -3217,7 +3217,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>247</v>
@@ -3597,7 +3597,7 @@
         <v>222</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>303</v>
@@ -3673,7 +3673,7 @@
         <v>324</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>256</v>
@@ -4421,7 +4421,7 @@
   </sheetPr>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
@@ -6441,7 +6441,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6621,10 +6621,10 @@
         <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6643,10 +6643,10 @@
         <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C18" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F069A8-5FA5-4341-BF4B-851FCC829A8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D905F8E-CA5F-4720-8BA2-75A8E2A7EA2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -1075,18 +1075,9 @@
     <t>Public Libraries Victoria (Annual Statistics); Australian Bureau of Statistics (Regional Population Growth - previous year)</t>
   </si>
   <si>
-    <t xml:space="preserve">The level of vulnerability can have multiple impacts on service delivery. This includes changes to Priority of Access as well as the need for more resources to run existing services. Vulnerability is a measure used at times when applying for grants as a criteria, particularly state / federal government. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The proportion of children who are not developmentally vulnerable on one or more domains has been slowly increasing. Increasing vulnerability levels can have multiple impacts on service delivery. Increasing vulnerability results in a change in the Priority of Access, meaning that the community can miss out on kindergarten places. More resources may also be required (for example, additional staff outside of the ratio to ensure appropriate provision of support for all children). </t>
-  </si>
-  <si>
     <t xml:space="preserve">The kindergarten enrolment rate in Moonee Valley is around 92 per cent. While, enrolment is the commonly measured figure, it does not accurately represent the true participation rate. The attendance rate is a better measure of kindergarten participation, but is not currently measured. </t>
   </si>
   <si>
-    <t xml:space="preserve">Enrolment can be compared to the total number of places offered across the municipality, and for consideration of future provision. The is the measure used by the Department of Education and Training. Often, families are not aware of the importance of kindergarten or are uncertain of the processes, so don’t engage with the service. This is preventable if we are aware of where in the community children are not attending. Further work is needed to reduce the proportion of those who are not participate.  </t>
-  </si>
-  <si>
     <t>There were approximately 6.2 library visits per population to library branches in the municipality in 2018-19. This is higher than in 2017-18, but lower than in previous years. It should be noted that physical usage is only one indicator of library use, as digital services and resources can be accessed from everywhere.</t>
   </si>
   <si>
@@ -1103,6 +1094,15 @@
   </si>
   <si>
     <t>Projects per 100,000 population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proportion of children who are not developmentally vulnerable on one or more domains has been slowly increasing. Increasing vulnerability levels can have multiple impacts on service delivery. Increasing vulnerability results in a change in the Kindergarten allocation outcomes for the community based on the Priority of Access, meaning that the community can at times miss out on kindergarten places due to children with higher needs being allocated available places. More resources may also be required (for example, additional staff outside of the ratio to ensure appropriate provision of support for all children). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The level of vulnerability can have multiple impacts on service delivery. This includes changes to Kindergarten allocation outcomes for the community Priority of Access as well as the need for more resources to run existing services. Vulnerability is a measure used at times when applying for grants as a criteria, particularly state / federal government. </t>
+  </si>
+  <si>
+    <t>Enrolment can be compared to the total number of places offered across the municipality, and for consideration of future provision. This is the measure used by the Department of Education and Training. Often, families are not aware of the importance of kindergarten or are uncertain of the processes, so don’t engage with the service. This is preventable if we are aware of where in the community children are not attending. Further work is needed to reduce the proportion of those who are not participating.  </t>
   </si>
 </sst>
 </file>
@@ -2119,8 +2119,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2475,7 +2475,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>206</v>
       </c>
@@ -2498,10 +2498,10 @@
         <v>127</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="J10" t="s">
         <v>109</v>
@@ -2571,7 +2571,7 @@
         <v>308</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>238</v>
@@ -2685,13 +2685,13 @@
         <v>296</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="J15" t="s">
         <v>109</v>
@@ -2723,13 +2723,13 @@
         <v>338</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J16" t="s">
         <v>109</v>
@@ -2799,7 +2799,7 @@
         <v>106</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>241</v>
@@ -2989,7 +2989,7 @@
         <v>308</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>244</v>
@@ -3217,7 +3217,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>247</v>
@@ -3597,7 +3597,7 @@
         <v>222</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>303</v>
@@ -3673,7 +3673,7 @@
         <v>324</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>256</v>
@@ -6643,10 +6643,10 @@
         <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D905F8E-CA5F-4720-8BA2-75A8E2A7EA2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFF7AC7-B550-49F7-BB65-2629D104094D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="353">
   <si>
     <t>FAIR</t>
   </si>
@@ -934,9 +934,6 @@
     <t>Obesity is a risk factor for chronic diseases. Adequate physical activity reduces the risk of obesity.  High rates of obesity put added strain on health services. Being overweight or obese can also affect a person's quality of life.</t>
   </si>
   <si>
-    <t>A well-integrated and accessible public transport system has potential to reduce traffic congestion in a city and improve residents' access to jobs and goods and services.</t>
-  </si>
-  <si>
     <t>Access to green space provides amenity as well as opportunities for physical exercise and improved mental health. Green space can also improve air quality and heat management, making a city more liveable.</t>
   </si>
   <si>
@@ -994,9 +991,6 @@
     <t>The rate of volunteering in Moonee Valley increased from between 2011 and 2016, but remains below the rate for Victoria (19.2 per cent). While the number of volunteers increased, the amount of time given by volunteers decreased across all sectors and the rate of volunteering remains lower among disadvantaged communities. The volunteering contribution is dependent on policies at other levels of government, particularly those that prioritise the allocation of time to making monetised contributions above non-monetised contributions.</t>
   </si>
   <si>
-    <t>An action in Moonee Valley’s Transport Safety Strategy, adopted in 2016, is to explore 40km/h zones in residential streets.</t>
-  </si>
-  <si>
     <t>Aspirational target based on the desire to have residents feel part of the community</t>
   </si>
   <si>
@@ -1103,6 +1097,24 @@
   </si>
   <si>
     <t>Enrolment can be compared to the total number of places offered across the municipality, and for consideration of future provision. This is the measure used by the Department of Education and Training. Often, families are not aware of the importance of kindergarten or are uncertain of the processes, so don’t engage with the service. This is preventable if we are aware of where in the community children are not attending. Further work is needed to reduce the proportion of those who are not participating.  </t>
+  </si>
+  <si>
+    <t>The ultimate road safety aim is to achieve the vision of no road deaths or serios injuries – a future where every journey is a safe one. Council shares this vision with relevant road safety partners such as the Transport Accident Commission (TAC).</t>
+  </si>
+  <si>
+    <t>Speed is one of the major factors contributing to accidents on Victoria's roads and research shows small changes in speed can result in a significant reduction in road trauma. Council is therefore investigating reducing the default speed limit (50km/h) to 40km/h in all local roads within the municipality. Lower speed limits (30km/h) are also being investigated for nominated streets within activity centres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The use of innovative transport technology, including parking technology such as the Parking Overstay Detection System (PODS) allows Council to more effectively manage the finite resource that is on-street parking. This is essential in a growing city such as Melbourne where traffic congestion and parking availability issues are a regular occurrence. </t>
+  </si>
+  <si>
+    <t>This is an interim figure only!!!  ----- At present there are numerous local roads with a speed limit of 40km/h, and we have an ongoing CAPEX project, where we implement 40km/h speed limit in further local roads each year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A well-integrated and accessible public transport system has potential to reduce traffic congestion in a city and improve residents' access to jobs and goods and services. Reducing reliance on private vehicle travel also has significant safety, health, social and environmental benefits. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an interim figure only!!!  --- Building new developments within a 400-800m walking distance is generally in line with the Transit Oriented Development (TOD) principles. Increasing density in activity centres, which are generally well serviced by public transport, is outlined in the Plan Melbourne strategy, which Council follows. As such, a significant number of new dwellings is and will continue to be built in activity centres. </t>
   </si>
 </sst>
 </file>
@@ -2119,8 +2131,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2165,7 +2177,7 @@
         <v>229</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>280</v>
@@ -2188,7 +2200,7 @@
         <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>122</v>
@@ -2203,7 +2215,7 @@
         <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L2" t="s">
         <v>283</v>
@@ -2229,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>232</v>
@@ -2241,7 +2253,7 @@
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L3" t="s">
         <v>283</v>
@@ -2267,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>233</v>
@@ -2279,7 +2291,7 @@
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L4" t="s">
         <v>283</v>
@@ -2305,7 +2317,7 @@
         <v>157</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>256</v>
@@ -2317,10 +2329,10 @@
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2343,7 +2355,7 @@
         <v>49</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>234</v>
@@ -2355,7 +2367,7 @@
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L6" t="s">
         <v>283</v>
@@ -2375,7 +2387,7 @@
         <v>78</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -2393,7 +2405,7 @@
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L7" t="s">
         <v>283</v>
@@ -2431,7 +2443,7 @@
         <v>133</v>
       </c>
       <c r="K8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L8" t="s">
         <v>283</v>
@@ -2457,7 +2469,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>236</v>
@@ -2469,7 +2481,7 @@
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L9" t="s">
         <v>283</v>
@@ -2498,16 +2510,16 @@
         <v>127</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J10" t="s">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L10" t="s">
         <v>286</v>
@@ -2536,16 +2548,16 @@
         <v>117</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="J11" t="s">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L11" t="s">
         <v>288</v>
@@ -2568,10 +2580,10 @@
         <v>130</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>238</v>
@@ -2583,7 +2595,7 @@
         <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L12" t="s">
         <v>287</v>
@@ -2615,13 +2627,13 @@
         <v>260</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J13" t="s">
         <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L13" t="s">
         <v>281</v>
@@ -2644,22 +2656,22 @@
         <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>119</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J14" t="s">
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L14" t="s">
         <v>285</v>
@@ -2682,22 +2694,22 @@
         <v>239</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J15" t="s">
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L15" t="s">
         <v>286</v>
@@ -2714,28 +2726,28 @@
         <v>94</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J16" t="s">
         <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L16" t="s">
         <v>284</v>
@@ -2758,7 +2770,7 @@
         <v>121</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>123</v>
@@ -2767,13 +2779,13 @@
         <v>240</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J17" t="s">
         <v>109</v>
       </c>
       <c r="K17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L17" t="s">
         <v>281</v>
@@ -2799,7 +2811,7 @@
         <v>106</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>241</v>
@@ -2811,7 +2823,7 @@
         <v>109</v>
       </c>
       <c r="K18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L18" t="s">
         <v>283</v>
@@ -2843,13 +2855,13 @@
         <v>242</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J19" t="s">
         <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L19" t="s">
         <v>282</v>
@@ -2875,25 +2887,25 @@
         <v>48</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J20" t="s">
         <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L20" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>176</v>
       </c>
@@ -2910,22 +2922,22 @@
         <v>60</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>255</v>
+        <v>352</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>292</v>
+        <v>351</v>
       </c>
       <c r="J21" t="s">
         <v>109</v>
       </c>
       <c r="K21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L21" t="s">
         <v>279</v>
@@ -2948,10 +2960,10 @@
         <v>92</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>243</v>
@@ -2963,13 +2975,13 @@
         <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L22" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -2986,22 +2998,22 @@
         <v>132</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>225</v>
+      <c r="I23" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="J23" t="s">
         <v>109</v>
       </c>
       <c r="K23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L23" t="s">
         <v>279</v>
@@ -3033,19 +3045,19 @@
         <v>263</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J24" t="s">
         <v>133</v>
       </c>
       <c r="K24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L24" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -3065,25 +3077,25 @@
         <v>11</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>255</v>
+        <v>350</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="J25" t="s">
         <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L25" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -3103,19 +3115,19 @@
         <v>11</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>225</v>
+      <c r="I26" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="J26" t="s">
         <v>109</v>
       </c>
       <c r="K26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L26" t="s">
         <v>278</v>
@@ -3141,7 +3153,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>272</v>
@@ -3153,7 +3165,7 @@
         <v>133</v>
       </c>
       <c r="K27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L27" t="s">
         <v>275</v>
@@ -3179,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>246</v>
@@ -3191,7 +3203,7 @@
         <v>133</v>
       </c>
       <c r="K28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L28" t="s">
         <v>275</v>
@@ -3217,7 +3229,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>247</v>
@@ -3229,7 +3241,7 @@
         <v>109</v>
       </c>
       <c r="K29" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L29" t="s">
         <v>275</v>
@@ -3255,7 +3267,7 @@
         <v>48</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>250</v>
@@ -3267,7 +3279,7 @@
         <v>133</v>
       </c>
       <c r="K30" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L30" t="s">
         <v>275</v>
@@ -3293,7 +3305,7 @@
         <v>48</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>248</v>
@@ -3305,7 +3317,7 @@
         <v>133</v>
       </c>
       <c r="K31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L31" t="s">
         <v>275</v>
@@ -3328,10 +3340,10 @@
         <v>61</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>249</v>
@@ -3343,7 +3355,7 @@
         <v>109</v>
       </c>
       <c r="K32" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L32" t="s">
         <v>275</v>
@@ -3369,7 +3381,7 @@
         <v>48</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>253</v>
@@ -3381,7 +3393,7 @@
         <v>133</v>
       </c>
       <c r="K33" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L33" t="s">
         <v>275</v>
@@ -3407,7 +3419,7 @@
         <v>50</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>259</v>
@@ -3419,7 +3431,7 @@
         <v>109</v>
       </c>
       <c r="K34" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L34" t="s">
         <v>275</v>
@@ -3445,19 +3457,19 @@
         <v>65</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H35" s="38" t="s">
         <v>256</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J35" t="s">
         <v>109</v>
       </c>
       <c r="K35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s">
         <v>275</v>
@@ -3483,7 +3495,7 @@
         <v>65</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H36" s="38" t="s">
         <v>256</v>
@@ -3495,7 +3507,7 @@
         <v>109</v>
       </c>
       <c r="K36" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s">
         <v>275</v>
@@ -3533,7 +3545,7 @@
         <v>109</v>
       </c>
       <c r="K37" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L37" t="s">
         <v>277</v>
@@ -3562,16 +3574,16 @@
         <v>128</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J38" t="s">
         <v>109</v>
       </c>
       <c r="K38" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L38" t="s">
         <v>276</v>
@@ -3597,19 +3609,19 @@
         <v>222</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J39" t="s">
         <v>109</v>
       </c>
       <c r="K39" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s">
         <v>276</v>
@@ -3635,19 +3647,19 @@
         <v>221</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H40" s="38" t="s">
         <v>255</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J40" t="s">
         <v>109</v>
       </c>
       <c r="K40" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s">
         <v>276</v>
@@ -3670,22 +3682,22 @@
         <v>226</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>256</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J41" t="s">
         <v>109</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L41" t="s">
         <v>276</v>
@@ -6566,7 +6578,7 @@
         <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C11" t="s">
         <v>258</v>
@@ -6621,10 +6633,10 @@
         <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6643,10 +6655,10 @@
         <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6654,7 +6666,7 @@
         <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C19" t="s">
         <v>258</v>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFF7AC7-B550-49F7-BB65-2629D104094D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498623E3-0717-4447-80AF-9BECECB2E7A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -1042,9 +1042,6 @@
     <t>Influence</t>
   </si>
   <si>
-    <t>Contributor</t>
-  </si>
-  <si>
     <t>Lead</t>
   </si>
   <si>
@@ -1115,6 +1112,9 @@
   </si>
   <si>
     <t xml:space="preserve">This is an interim figure only!!!  --- Building new developments within a 400-800m walking distance is generally in line with the Transit Oriented Development (TOD) principles. Increasing density in activity centres, which are generally well serviced by public transport, is outlined in the Plan Melbourne strategy, which Council follows. As such, a significant number of new dwellings is and will continue to be built in activity centres. </t>
+  </si>
+  <si>
+    <t>Contribute</t>
   </si>
 </sst>
 </file>
@@ -2131,8 +2131,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2215,7 +2215,7 @@
         <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L2" t="s">
         <v>283</v>
@@ -2253,7 +2253,7 @@
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L3" t="s">
         <v>283</v>
@@ -2291,7 +2291,7 @@
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L4" t="s">
         <v>283</v>
@@ -2329,7 +2329,7 @@
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L5" t="s">
         <v>297</v>
@@ -2367,7 +2367,7 @@
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L6" t="s">
         <v>283</v>
@@ -2387,7 +2387,7 @@
         <v>78</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -2405,7 +2405,7 @@
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L7" t="s">
         <v>283</v>
@@ -2443,7 +2443,7 @@
         <v>133</v>
       </c>
       <c r="K8" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L8" t="s">
         <v>283</v>
@@ -2481,7 +2481,7 @@
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L9" t="s">
         <v>283</v>
@@ -2510,16 +2510,16 @@
         <v>127</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>345</v>
       </c>
       <c r="J10" t="s">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L10" t="s">
         <v>286</v>
@@ -2557,7 +2557,7 @@
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L11" t="s">
         <v>288</v>
@@ -2583,7 +2583,7 @@
         <v>307</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>238</v>
@@ -2595,7 +2595,7 @@
         <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L12" t="s">
         <v>287</v>
@@ -2633,7 +2633,7 @@
         <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L13" t="s">
         <v>281</v>
@@ -2671,7 +2671,7 @@
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L14" t="s">
         <v>285</v>
@@ -2697,19 +2697,19 @@
         <v>295</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J15" t="s">
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L15" t="s">
         <v>286</v>
@@ -2726,28 +2726,28 @@
         <v>94</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="J16" t="s">
         <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L16" t="s">
         <v>284</v>
@@ -2785,7 +2785,7 @@
         <v>109</v>
       </c>
       <c r="K17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L17" t="s">
         <v>281</v>
@@ -2811,7 +2811,7 @@
         <v>106</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>241</v>
@@ -2823,7 +2823,7 @@
         <v>109</v>
       </c>
       <c r="K18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L18" t="s">
         <v>283</v>
@@ -2861,7 +2861,7 @@
         <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L19" t="s">
         <v>282</v>
@@ -2890,7 +2890,7 @@
         <v>315</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>323</v>
@@ -2899,7 +2899,7 @@
         <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L20" t="s">
         <v>281</v>
@@ -2928,16 +2928,16 @@
         <v>316</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J21" t="s">
         <v>109</v>
       </c>
       <c r="K21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L21" t="s">
         <v>279</v>
@@ -2975,7 +2975,7 @@
         <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L22" t="s">
         <v>279</v>
@@ -3001,19 +3001,19 @@
         <v>307</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>244</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J23" t="s">
         <v>109</v>
       </c>
       <c r="K23" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L23" t="s">
         <v>279</v>
@@ -3051,7 +3051,7 @@
         <v>133</v>
       </c>
       <c r="K24" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L24" t="s">
         <v>279</v>
@@ -3080,16 +3080,16 @@
         <v>318</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J25" t="s">
         <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L25" t="s">
         <v>279</v>
@@ -3121,13 +3121,13 @@
         <v>245</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J26" t="s">
         <v>109</v>
       </c>
       <c r="K26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L26" t="s">
         <v>278</v>
@@ -3165,7 +3165,7 @@
         <v>133</v>
       </c>
       <c r="K27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L27" t="s">
         <v>275</v>
@@ -3203,7 +3203,7 @@
         <v>133</v>
       </c>
       <c r="K28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L28" t="s">
         <v>275</v>
@@ -3229,7 +3229,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>247</v>
@@ -3241,7 +3241,7 @@
         <v>109</v>
       </c>
       <c r="K29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L29" t="s">
         <v>275</v>
@@ -3279,7 +3279,7 @@
         <v>133</v>
       </c>
       <c r="K30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L30" t="s">
         <v>275</v>
@@ -3317,7 +3317,7 @@
         <v>133</v>
       </c>
       <c r="K31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L31" t="s">
         <v>275</v>
@@ -3355,7 +3355,7 @@
         <v>109</v>
       </c>
       <c r="K32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L32" t="s">
         <v>275</v>
@@ -3393,7 +3393,7 @@
         <v>133</v>
       </c>
       <c r="K33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L33" t="s">
         <v>275</v>
@@ -3431,7 +3431,7 @@
         <v>109</v>
       </c>
       <c r="K34" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L34" t="s">
         <v>275</v>
@@ -3469,7 +3469,7 @@
         <v>109</v>
       </c>
       <c r="K35" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L35" t="s">
         <v>275</v>
@@ -3507,7 +3507,7 @@
         <v>109</v>
       </c>
       <c r="K36" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L36" t="s">
         <v>275</v>
@@ -3545,7 +3545,7 @@
         <v>109</v>
       </c>
       <c r="K37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s">
         <v>277</v>
@@ -3583,7 +3583,7 @@
         <v>109</v>
       </c>
       <c r="K38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L38" t="s">
         <v>276</v>
@@ -3609,7 +3609,7 @@
         <v>222</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>302</v>
@@ -3621,7 +3621,7 @@
         <v>109</v>
       </c>
       <c r="K39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L39" t="s">
         <v>276</v>
@@ -3659,7 +3659,7 @@
         <v>109</v>
       </c>
       <c r="K40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L40" t="s">
         <v>276</v>
@@ -3685,7 +3685,7 @@
         <v>322</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>256</v>
@@ -3697,7 +3697,7 @@
         <v>109</v>
       </c>
       <c r="K41" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s">
         <v>276</v>
@@ -6633,10 +6633,10 @@
         <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6655,10 +6655,10 @@
         <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498623E3-0717-4447-80AF-9BECECB2E7A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C71567-91CE-43EE-820C-5075EE51F82E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="360">
   <si>
     <t>FAIR</t>
   </si>
@@ -928,12 +928,6 @@
     <t>Increasing the use of active and sustainable transport modes reduces congestion, while also improving health outcomes through increased physical activity.</t>
   </si>
   <si>
-    <t>Feeling unsafe in their community can affect peoples health and wellbeing. If people feel unsafe, it can negatively influence their social activities and erode trust within their communities.</t>
-  </si>
-  <si>
-    <t>Obesity is a risk factor for chronic diseases. Adequate physical activity reduces the risk of obesity.  High rates of obesity put added strain on health services. Being overweight or obese can also affect a person's quality of life.</t>
-  </si>
-  <si>
     <t>Access to green space provides amenity as well as opportunities for physical exercise and improved mental health. Green space can also improve air quality and heat management, making a city more liveable.</t>
   </si>
   <si>
@@ -1115,6 +1109,34 @@
   </si>
   <si>
     <t>Contribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Moonee Valley, income inequality is increasing. More equal communities are healthier and happier. “If rising inequality is not properly monitored and addressed, it can lead to various sorts of political, economic, and social
+catastrophes” (World Inequality Report, 2018). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">By 2040, more people will be socially isolated, with adverse health impacts.  Health or mortality impacts from social isolation are in the same order as smoking. Social connection and feeling part of the community is important for healthy, connected and thriving neighbourhoods. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Australia, one in five people have experienced race-based discrimination.  Moonee Valley is diverse with one third of residents speaking a language other than English at home. Communities that value multiculturalism and are socially cohesive are more productive, have a greater sense of belonging, increased civic participation and improved wellbeing for the whole community. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moonee Valley is made up of 13 neighbourhoods. Some of these neighbourhoods have good access to community facilities, while others have poor access. Walkable neighbourhoods where facilities and services are within a walkable network creates safe, socially cohesive and sustainable neighbourhoods. </t>
+  </si>
+  <si>
+    <t>The extent to which feeling safe or unsafe can affect health and wellbeing. If people feel unsafe in their local community, it can adversely influence their social activities and interactions. Safe neighbourhoods help create connected, healthy and thriving communities</t>
+  </si>
+  <si>
+    <t>Physical inactivity in Australia detracts from social and economic prosperity and puts a burden on the healthcare system, reduces economic productivity and lowers life expectancy. Increasing physical activity will help improve mental health and wellbeing, build safer and connected communities.</t>
+  </si>
+  <si>
+    <t>Better health is central to happiness and wellbeing. Self-assessed health status helps to understand how our community perceive their own health in relation to being overweight or obese, high risk drinkers, smokers or having a sedentary lifestyle. Research has also shown that self-assessed health is a predictor of mortality and morbidity (ABS, 2020).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lack of affordable housing is a major contributor to homelessness which is one of the clearest indicators of disadvantage and social exclusion. Affordable housing is a human right and access to safe, secure and appropriate housing will help encourage our community’s ability to participate in life. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor mental health can be associated with reduced physical health and fitness, lower life expectancy and higher morbidity. Positive mental health and wellbeing help to build community resilience and encourage our community to be productive and contribute to our community. </t>
   </si>
 </sst>
 </file>
@@ -2132,7 +2154,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,13 +2199,13 @@
         <v>229</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -2200,7 +2222,7 @@
         <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>122</v>
@@ -2208,20 +2230,20 @@
       <c r="H2" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>225</v>
+      <c r="I2" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="J2" t="s">
         <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -2241,25 +2263,25 @@
         <v>10</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>225</v>
+      <c r="I3" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="J3" t="s">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -2279,25 +2301,25 @@
         <v>10</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>225</v>
+      <c r="I4" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="J4" t="s">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -2317,25 +2339,25 @@
         <v>157</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>225</v>
+      <c r="I5" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="J5" t="s">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -2355,25 +2377,25 @@
         <v>49</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>234</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="J6" t="s">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -2387,7 +2409,7 @@
         <v>78</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -2399,19 +2421,19 @@
         <v>235</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>291</v>
+        <v>356</v>
       </c>
       <c r="J7" t="s">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>167</v>
       </c>
@@ -2436,20 +2458,20 @@
       <c r="H8" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>225</v>
+      <c r="I8" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="J8" t="s">
         <v>133</v>
       </c>
       <c r="K8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>205</v>
       </c>
@@ -2469,19 +2491,19 @@
         <v>10</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>225</v>
+      <c r="I9" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="J9" t="s">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L9" t="s">
         <v>283</v>
@@ -2510,16 +2532,16 @@
         <v>127</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J10" t="s">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L10" t="s">
         <v>286</v>
@@ -2548,22 +2570,22 @@
         <v>117</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J11" t="s">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L11" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -2580,22 +2602,22 @@
         <v>130</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>225</v>
+      <c r="I12" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="J12" t="s">
         <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L12" t="s">
         <v>287</v>
@@ -2627,13 +2649,13 @@
         <v>260</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J13" t="s">
         <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L13" t="s">
         <v>281</v>
@@ -2656,22 +2678,22 @@
         <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>119</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J14" t="s">
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L14" t="s">
         <v>285</v>
@@ -2694,22 +2716,22 @@
         <v>239</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J15" t="s">
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L15" t="s">
         <v>286</v>
@@ -2726,28 +2748,28 @@
         <v>94</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J16" t="s">
         <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L16" t="s">
         <v>284</v>
@@ -2770,7 +2792,7 @@
         <v>121</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>123</v>
@@ -2779,13 +2801,13 @@
         <v>240</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J17" t="s">
         <v>109</v>
       </c>
       <c r="K17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L17" t="s">
         <v>281</v>
@@ -2811,7 +2833,7 @@
         <v>106</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>241</v>
@@ -2823,7 +2845,7 @@
         <v>109</v>
       </c>
       <c r="K18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L18" t="s">
         <v>283</v>
@@ -2855,13 +2877,13 @@
         <v>242</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J19" t="s">
         <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L19" t="s">
         <v>282</v>
@@ -2887,19 +2909,19 @@
         <v>48</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J20" t="s">
         <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L20" t="s">
         <v>281</v>
@@ -2922,22 +2944,22 @@
         <v>60</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J21" t="s">
         <v>109</v>
       </c>
       <c r="K21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L21" t="s">
         <v>279</v>
@@ -2960,10 +2982,10 @@
         <v>92</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>243</v>
@@ -2975,7 +2997,7 @@
         <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L22" t="s">
         <v>279</v>
@@ -2998,22 +3020,22 @@
         <v>132</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>244</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J23" t="s">
         <v>109</v>
       </c>
       <c r="K23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L23" t="s">
         <v>279</v>
@@ -3045,13 +3067,13 @@
         <v>263</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J24" t="s">
         <v>133</v>
       </c>
       <c r="K24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L24" t="s">
         <v>279</v>
@@ -3077,19 +3099,19 @@
         <v>11</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J25" t="s">
         <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L25" t="s">
         <v>279</v>
@@ -3115,19 +3137,19 @@
         <v>11</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>245</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J26" t="s">
         <v>109</v>
       </c>
       <c r="K26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L26" t="s">
         <v>278</v>
@@ -3153,7 +3175,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>272</v>
@@ -3165,7 +3187,7 @@
         <v>133</v>
       </c>
       <c r="K27" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L27" t="s">
         <v>275</v>
@@ -3191,7 +3213,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>246</v>
@@ -3203,7 +3225,7 @@
         <v>133</v>
       </c>
       <c r="K28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L28" t="s">
         <v>275</v>
@@ -3229,7 +3251,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>247</v>
@@ -3241,7 +3263,7 @@
         <v>109</v>
       </c>
       <c r="K29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L29" t="s">
         <v>275</v>
@@ -3267,7 +3289,7 @@
         <v>48</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>250</v>
@@ -3279,7 +3301,7 @@
         <v>133</v>
       </c>
       <c r="K30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L30" t="s">
         <v>275</v>
@@ -3305,7 +3327,7 @@
         <v>48</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>248</v>
@@ -3317,7 +3339,7 @@
         <v>133</v>
       </c>
       <c r="K31" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L31" t="s">
         <v>275</v>
@@ -3340,10 +3362,10 @@
         <v>61</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>249</v>
@@ -3355,7 +3377,7 @@
         <v>109</v>
       </c>
       <c r="K32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L32" t="s">
         <v>275</v>
@@ -3381,7 +3403,7 @@
         <v>48</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>253</v>
@@ -3393,7 +3415,7 @@
         <v>133</v>
       </c>
       <c r="K33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L33" t="s">
         <v>275</v>
@@ -3419,7 +3441,7 @@
         <v>50</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>259</v>
@@ -3431,7 +3453,7 @@
         <v>109</v>
       </c>
       <c r="K34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L34" t="s">
         <v>275</v>
@@ -3457,19 +3479,19 @@
         <v>65</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H35" s="38" t="s">
         <v>256</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
         <v>109</v>
       </c>
       <c r="K35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L35" t="s">
         <v>275</v>
@@ -3495,7 +3517,7 @@
         <v>65</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H36" s="38" t="s">
         <v>256</v>
@@ -3507,7 +3529,7 @@
         <v>109</v>
       </c>
       <c r="K36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L36" t="s">
         <v>275</v>
@@ -3545,7 +3567,7 @@
         <v>109</v>
       </c>
       <c r="K37" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s">
         <v>277</v>
@@ -3574,16 +3596,16 @@
         <v>128</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J38" t="s">
         <v>109</v>
       </c>
       <c r="K38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s">
         <v>276</v>
@@ -3609,19 +3631,19 @@
         <v>222</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J39" t="s">
         <v>109</v>
       </c>
       <c r="K39" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s">
         <v>276</v>
@@ -3647,19 +3669,19 @@
         <v>221</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H40" s="38" t="s">
         <v>255</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J40" t="s">
         <v>109</v>
       </c>
       <c r="K40" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L40" t="s">
         <v>276</v>
@@ -3682,22 +3704,22 @@
         <v>226</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>256</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J41" t="s">
         <v>109</v>
       </c>
       <c r="K41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s">
         <v>276</v>
@@ -6578,7 +6600,7 @@
         <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
         <v>258</v>
@@ -6633,10 +6655,10 @@
         <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6655,10 +6677,10 @@
         <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C18" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6666,7 +6688,7 @@
         <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C19" t="s">
         <v>258</v>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C71567-91CE-43EE-820C-5075EE51F82E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B5114F-4DBB-4493-A221-8D8E19102543}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$123</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicator_list!$A$1:$G$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicator_list!$K$1:$K$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2154,7 +2154,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,7 +3111,7 @@
         <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="L25" t="s">
         <v>279</v>
@@ -3726,6 +3726,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="K1:K41" xr:uid="{990F7F42-49B6-4F56-90C2-1C86AAAAE40F}"/>
   <conditionalFormatting sqref="J2:K41">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Increase">
       <formula>NOT(ISERROR(SEARCH("Increase",J2)))</formula>
@@ -3747,7 +3748,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B5114F-4DBB-4493-A221-8D8E19102543}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C26386-37D9-443D-8258-A6BBC71242F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="data_format" sheetId="15" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicator_list!$K$1:$K$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="361">
   <si>
     <t>FAIR</t>
   </si>
@@ -1105,9 +1105,6 @@
     <t xml:space="preserve">A well-integrated and accessible public transport system has potential to reduce traffic congestion in a city and improve residents' access to jobs and goods and services. Reducing reliance on private vehicle travel also has significant safety, health, social and environmental benefits. </t>
   </si>
   <si>
-    <t xml:space="preserve">This is an interim figure only!!!  --- Building new developments within a 400-800m walking distance is generally in line with the Transit Oriented Development (TOD) principles. Increasing density in activity centres, which are generally well serviced by public transport, is outlined in the Plan Melbourne strategy, which Council follows. As such, a significant number of new dwellings is and will continue to be built in activity centres. </t>
-  </si>
-  <si>
     <t>Contribute</t>
   </si>
   <si>
@@ -1137,6 +1134,12 @@
   </si>
   <si>
     <t xml:space="preserve">Poor mental health can be associated with reduced physical health and fitness, lower life expectancy and higher morbidity. Positive mental health and wellbeing help to build community resilience and encourage our community to be productive and contribute to our community. </t>
+  </si>
+  <si>
+    <t>Aspirational target for the majority of properties to have access to frequent public transport services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building new developments within a 400-800m walking distance is generally in line with the Transit Oriented Development (TOD) principles. Increasing density in activity centres, which are generally well serviced by public transport, is outlined in the Plan Melbourne strategy, which Council follows. As such, a significant number of new dwellings is and will continue to be built in activity centres. </t>
   </si>
 </sst>
 </file>
@@ -2153,8 +2156,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,13 +2234,13 @@
         <v>231</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J2" t="s">
         <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L2" t="s">
         <v>283</v>
@@ -2269,13 +2272,13 @@
         <v>232</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J3" t="s">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L3" t="s">
         <v>283</v>
@@ -2307,13 +2310,13 @@
         <v>233</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J4" t="s">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L4" t="s">
         <v>283</v>
@@ -2345,7 +2348,7 @@
         <v>256</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J5" t="s">
         <v>109</v>
@@ -2383,13 +2386,13 @@
         <v>234</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J6" t="s">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L6" t="s">
         <v>283</v>
@@ -2421,13 +2424,13 @@
         <v>235</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J7" t="s">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L7" t="s">
         <v>283</v>
@@ -2459,13 +2462,13 @@
         <v>237</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J8" t="s">
         <v>133</v>
       </c>
       <c r="K8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L8" t="s">
         <v>283</v>
@@ -2497,13 +2500,13 @@
         <v>236</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J9" t="s">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L9" t="s">
         <v>283</v>
@@ -2541,7 +2544,7 @@
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L10" t="s">
         <v>286</v>
@@ -2611,13 +2614,13 @@
         <v>238</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J12" t="s">
         <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L12" t="s">
         <v>287</v>
@@ -2655,7 +2658,7 @@
         <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L13" t="s">
         <v>281</v>
@@ -2693,7 +2696,7 @@
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L14" t="s">
         <v>285</v>
@@ -2927,7 +2930,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>176</v>
       </c>
@@ -2947,10 +2950,10 @@
         <v>291</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>349</v>
+        <v>359</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>348</v>
@@ -2997,7 +3000,7 @@
         <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L22" t="s">
         <v>279</v>
@@ -3035,7 +3038,7 @@
         <v>109</v>
       </c>
       <c r="K23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L23" t="s">
         <v>279</v>
@@ -3073,7 +3076,7 @@
         <v>133</v>
       </c>
       <c r="K24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L24" t="s">
         <v>279</v>
@@ -3453,7 +3456,7 @@
         <v>109</v>
       </c>
       <c r="K34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L34" t="s">
         <v>275</v>
@@ -3491,7 +3494,7 @@
         <v>109</v>
       </c>
       <c r="K35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L35" t="s">
         <v>275</v>
@@ -3529,7 +3532,7 @@
         <v>109</v>
       </c>
       <c r="K36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L36" t="s">
         <v>275</v>
@@ -3719,7 +3722,7 @@
         <v>109</v>
       </c>
       <c r="K41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s">
         <v>276</v>
@@ -4454,10 +4457,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5607,10 +5610,10 @@
         <v>176</v>
       </c>
       <c r="B68" s="30">
-        <v>43281</v>
+        <v>43444</v>
       </c>
       <c r="C68" s="34">
-        <v>76.099999999999994</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
@@ -5619,51 +5622,51 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B69" s="29">
-        <v>51317</v>
+      <c r="B69" s="30">
+        <v>43780</v>
       </c>
       <c r="C69" s="34">
-        <v>90</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
-      <c r="F69" s="1" t="s">
-        <v>204</v>
+      <c r="F69" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="35" t="s">
-        <v>177</v>
+      <c r="A70" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="B70" s="29">
-        <v>40764</v>
+        <v>51317</v>
       </c>
       <c r="C70" s="34">
-        <v>21.6</v>
+        <v>90</v>
       </c>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
-      <c r="F70" s="7" t="s">
-        <v>227</v>
+      <c r="F70" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="35" t="s">
         <v>177</v>
       </c>
       <c r="B71" s="29">
-        <v>42591</v>
+        <v>40764</v>
       </c>
       <c r="C71" s="34">
-        <v>23.6</v>
+        <v>21.6</v>
       </c>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
       <c r="F71" s="7" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -5671,47 +5674,47 @@
         <v>177</v>
       </c>
       <c r="B72" s="29">
-        <v>51317</v>
+        <v>42591</v>
       </c>
       <c r="C72" s="34">
-        <v>50.1</v>
+        <v>23.6</v>
       </c>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
-      <c r="F72" s="1" t="s">
-        <v>204</v>
+      <c r="F72" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="36" t="s">
-        <v>178</v>
+      <c r="A73" s="23" t="s">
+        <v>177</v>
       </c>
       <c r="B73" s="29">
-        <v>40764</v>
+        <v>51317</v>
       </c>
       <c r="C73" s="34">
-        <v>10.4</v>
+        <v>50.1</v>
       </c>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
       <c r="F73" s="1" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="36" t="s">
         <v>178</v>
       </c>
       <c r="B74" s="29">
-        <v>42591</v>
+        <v>40764</v>
       </c>
       <c r="C74" s="34">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="7" t="s">
-        <v>202</v>
+      <c r="F74" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -5719,31 +5722,31 @@
         <v>178</v>
       </c>
       <c r="B75" s="29">
-        <v>51317</v>
+        <v>42591</v>
       </c>
       <c r="C75" s="34">
-        <v>11.600000000000001</v>
+        <v>11</v>
       </c>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
-      <c r="F75" s="1" t="s">
-        <v>204</v>
+      <c r="F75" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="37" t="s">
-        <v>179</v>
+      <c r="A76" s="23" t="s">
+        <v>178</v>
       </c>
       <c r="B76" s="29">
-        <v>42004</v>
+        <v>51317</v>
       </c>
       <c r="C76" s="34">
-        <v>68</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
       <c r="F76" s="1" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -5751,10 +5754,10 @@
         <v>179</v>
       </c>
       <c r="B77" s="29">
-        <v>42369</v>
+        <v>42004</v>
       </c>
       <c r="C77" s="34">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
@@ -5767,10 +5770,10 @@
         <v>179</v>
       </c>
       <c r="B78" s="29">
-        <v>42735</v>
+        <v>42369</v>
       </c>
       <c r="C78" s="34">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
@@ -5783,10 +5786,10 @@
         <v>179</v>
       </c>
       <c r="B79" s="29">
-        <v>43100</v>
+        <v>42735</v>
       </c>
       <c r="C79" s="34">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
@@ -5795,19 +5798,19 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="37" t="s">
         <v>179</v>
       </c>
       <c r="B80" s="29">
-        <v>43465</v>
-      </c>
-      <c r="C80" s="28">
-        <v>23</v>
-      </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="7" t="s">
-        <v>202</v>
+        <v>43100</v>
+      </c>
+      <c r="C80" s="34">
+        <v>22</v>
+      </c>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -5815,63 +5818,63 @@
         <v>179</v>
       </c>
       <c r="B81" s="29">
-        <v>51501</v>
+        <v>43465</v>
       </c>
       <c r="C81" s="28">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D81" s="28"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="1" t="s">
-        <v>204</v>
+      <c r="F81" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="B82" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C82" s="34">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="7" t="s">
-        <v>202</v>
+        <v>179</v>
+      </c>
+      <c r="B82" s="29">
+        <v>51501</v>
+      </c>
+      <c r="C82" s="28">
+        <v>0</v>
+      </c>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="B83" s="29">
-        <v>51317</v>
+      <c r="B83" s="30">
+        <v>43281</v>
       </c>
       <c r="C83" s="34">
-        <v>100</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D83" s="26"/>
       <c r="E83" s="26"/>
-      <c r="F83" s="1" t="s">
-        <v>204</v>
+      <c r="F83" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B84" s="30">
-        <v>43281</v>
+        <v>180</v>
+      </c>
+      <c r="B84" s="29">
+        <v>51317</v>
       </c>
       <c r="C84" s="34">
-        <v>0</v>
-      </c>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="7" t="s">
-        <v>202</v>
+        <v>100</v>
+      </c>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -5879,47 +5882,47 @@
         <v>181</v>
       </c>
       <c r="B85" s="30">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C85" s="34">
-        <v>60.699999999999996</v>
+        <v>0</v>
       </c>
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
       <c r="F85" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="B86" s="29">
-        <v>51317</v>
+      <c r="B86" s="30">
+        <v>43646</v>
       </c>
       <c r="C86" s="34">
-        <v>100</v>
+        <v>60.699999999999996</v>
       </c>
       <c r="D86" s="27"/>
       <c r="E86" s="27"/>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C87" s="34">
+        <v>100</v>
+      </c>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="1" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B87" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C87" s="28">
-        <v>2773</v>
-      </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -5927,79 +5930,79 @@
         <v>182</v>
       </c>
       <c r="B88" s="30">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C88" s="28">
-        <v>1746</v>
+        <v>2773</v>
       </c>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
       <c r="F88" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B89" s="29">
-        <v>51317</v>
+      <c r="B89" s="30">
+        <v>43646</v>
       </c>
       <c r="C89" s="28">
-        <v>139</v>
+        <v>1746</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
-      <c r="F89" s="1" t="s">
-        <v>204</v>
+      <c r="F89" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B90" s="30">
-        <v>43281</v>
+        <v>182</v>
+      </c>
+      <c r="B90" s="29">
+        <v>51317</v>
       </c>
       <c r="C90" s="28">
-        <v>1300000</v>
+        <v>139</v>
       </c>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
-      <c r="F90" s="7" t="s">
-        <v>202</v>
+      <c r="F90" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B91" s="29">
-        <v>51317</v>
+      <c r="B91" s="30">
+        <v>43281</v>
       </c>
       <c r="C91" s="28">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
-      <c r="F91" s="1" t="s">
-        <v>204</v>
+      <c r="F91" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B92" s="30">
-        <v>43281</v>
+        <v>189</v>
+      </c>
+      <c r="B92" s="29">
+        <v>51317</v>
       </c>
       <c r="C92" s="28">
-        <v>49917</v>
+        <v>0</v>
       </c>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
-      <c r="F92" s="7" t="s">
-        <v>202</v>
+      <c r="F92" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -6007,193 +6010,195 @@
         <v>183</v>
       </c>
       <c r="B93" s="30">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C93" s="28">
-        <v>51573</v>
+        <v>49917</v>
       </c>
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
       <c r="F93" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B94" s="29">
-        <v>51317</v>
+      <c r="B94" s="30">
+        <v>43646</v>
       </c>
       <c r="C94" s="28">
-        <v>64892</v>
+        <v>51573</v>
       </c>
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
-      <c r="F94" s="1" t="s">
-        <v>204</v>
+      <c r="F94" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B95" s="30">
-        <v>42185</v>
+        <v>183</v>
+      </c>
+      <c r="B95" s="29">
+        <v>51317</v>
       </c>
       <c r="C95" s="28">
-        <v>127</v>
+        <v>64892</v>
       </c>
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
-      <c r="F95" s="7" t="s">
-        <v>202</v>
+      <c r="F95" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="29">
-        <v>51317</v>
+      <c r="B96" s="30">
+        <v>42185</v>
       </c>
       <c r="C96" s="28">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
-      <c r="F96" s="1" t="s">
-        <v>204</v>
+      <c r="F96" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" s="30">
-        <v>42185</v>
+        <v>190</v>
+      </c>
+      <c r="B97" s="29">
+        <v>51317</v>
       </c>
       <c r="C97" s="28">
-        <v>12000</v>
+        <v>57</v>
       </c>
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
-      <c r="F97" s="7" t="s">
-        <v>202</v>
+      <c r="F97" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B98" s="29">
-        <v>51317</v>
+      <c r="B98" s="30">
+        <v>42185</v>
       </c>
       <c r="C98" s="28">
-        <v>6700</v>
+        <v>12000</v>
       </c>
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
-      <c r="F98" s="1" t="s">
-        <v>204</v>
+      <c r="F98" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B99" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C99" s="34">
-        <v>17</v>
-      </c>
-      <c r="D99" s="34">
-        <v>16</v>
-      </c>
-      <c r="E99" s="34">
-        <v>18</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
+      </c>
+      <c r="B99" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C99" s="28">
+        <v>6700</v>
+      </c>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B100" s="29">
-        <v>51317</v>
+      <c r="B100" s="30">
+        <v>43281</v>
       </c>
       <c r="C100" s="34">
-        <v>30</v>
-      </c>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="1" t="s">
-        <v>204</v>
+        <v>17</v>
+      </c>
+      <c r="D100" s="34">
+        <v>16</v>
+      </c>
+      <c r="E100" s="34">
+        <v>18</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B101" s="30">
-        <v>42185</v>
+        <v>192</v>
+      </c>
+      <c r="B101" s="29">
+        <v>51317</v>
       </c>
       <c r="C101" s="34">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D101" s="34"/>
       <c r="E101" s="34"/>
-      <c r="F101" s="7" t="s">
-        <v>202</v>
+      <c r="F101" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B102" s="29">
-        <v>51317</v>
+      <c r="B102" s="30">
+        <v>42185</v>
       </c>
       <c r="C102" s="34">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D102" s="34"/>
       <c r="E102" s="34"/>
-      <c r="F102" s="1" t="s">
-        <v>204</v>
+      <c r="F102" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B103" s="29">
         <v>51317</v>
       </c>
       <c r="C103" s="34">
-        <v>30</v>
-      </c>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
       <c r="F103" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B104" s="30">
-        <v>43281</v>
+        <v>192</v>
+      </c>
+      <c r="B104" s="29">
+        <v>51317</v>
       </c>
       <c r="C104" s="34">
-        <v>41.67</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>202</v>
+        <v>30</v>
+      </c>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -6201,97 +6206,97 @@
         <v>184</v>
       </c>
       <c r="B105" s="30">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C105" s="34">
-        <v>41.11</v>
+        <v>41.67</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="B106" s="29">
-        <v>51317</v>
+      <c r="B106" s="30">
+        <v>43646</v>
       </c>
       <c r="C106" s="34">
-        <v>90</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>204</v>
+        <v>41.11</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B107" s="30">
-        <v>43646</v>
+        <v>184</v>
+      </c>
+      <c r="B107" s="29">
+        <v>51317</v>
       </c>
       <c r="C107" s="34">
-        <v>50</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>202</v>
+        <v>90</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="B108" s="29">
-        <v>51317</v>
+      <c r="B108" s="30">
+        <v>43646</v>
       </c>
       <c r="C108" s="34">
-        <v>75</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>204</v>
+        <v>50</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B109" s="30">
-        <v>43646</v>
+        <v>185</v>
+      </c>
+      <c r="B109" s="29">
+        <v>51317</v>
       </c>
       <c r="C109" s="34">
-        <v>80</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>202</v>
+        <v>75</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B110" s="29">
+      <c r="B110" s="30">
+        <v>43646</v>
+      </c>
+      <c r="C110" s="34">
+        <v>80</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B111" s="29">
         <v>51317</v>
       </c>
-      <c r="C110" s="34">
+      <c r="C111" s="34">
         <v>100</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B111" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C111" s="34">
-        <v>75</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -6299,41 +6304,41 @@
         <v>186</v>
       </c>
       <c r="B112" s="30">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C112" s="34">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B113" s="29">
-        <v>51317</v>
+      <c r="B113" s="30">
+        <v>43646</v>
       </c>
       <c r="C113" s="34">
-        <v>100</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>204</v>
+        <v>80</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B114" s="30">
-        <v>43281</v>
+        <v>186</v>
+      </c>
+      <c r="B114" s="29">
+        <v>51317</v>
       </c>
       <c r="C114" s="34">
-        <v>0</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>202</v>
+        <v>100</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -6341,41 +6346,41 @@
         <v>187</v>
       </c>
       <c r="B115" s="30">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C115" s="34">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B116" s="29">
-        <v>51317</v>
+      <c r="B116" s="30">
+        <v>43646</v>
       </c>
       <c r="C116" s="34">
-        <v>100</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>204</v>
+        <v>5.4</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B117" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C117" s="28">
-        <v>4.17</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
+      </c>
+      <c r="B117" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C117" s="34">
+        <v>100</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -6383,82 +6388,96 @@
         <v>195</v>
       </c>
       <c r="B118" s="30">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C118" s="28">
-        <v>4.13</v>
+        <v>4.17</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B119" s="29">
-        <v>51317</v>
+      <c r="B119" s="30">
+        <v>43646</v>
       </c>
       <c r="C119" s="28">
-        <v>4.38</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>204</v>
+        <v>4.13</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B120" s="30">
-        <v>43281</v>
+        <v>195</v>
+      </c>
+      <c r="B120" s="29">
+        <v>51317</v>
       </c>
       <c r="C120" s="28">
-        <v>91.1</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>202</v>
+        <v>4.38</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B121" s="29">
-        <v>51317</v>
-      </c>
-      <c r="C121">
-        <v>95</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>204</v>
+      <c r="B121" s="30">
+        <v>43281</v>
+      </c>
+      <c r="C121" s="28">
+        <v>91.1</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B122" s="31">
-        <v>40724</v>
-      </c>
-      <c r="C122" s="34">
-        <v>55.000000000000007</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
+      </c>
+      <c r="B122" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C122">
+        <v>95</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B123" s="29">
+      <c r="B123" s="31">
+        <v>40724</v>
+      </c>
+      <c r="C123" s="34">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B124" s="29">
         <v>51317</v>
       </c>
-      <c r="C123" s="34">
+      <c r="C124" s="34">
         <v>57.8</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>204</v>
       </c>
     </row>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C26386-37D9-443D-8258-A6BBC71242F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269A4BC0-C009-452D-B78E-553A92571E55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="data_format" sheetId="15" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$126</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicator_list!$K$1:$K$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="362">
   <si>
     <t>FAIR</t>
   </si>
@@ -1140,6 +1140,9 @@
   </si>
   <si>
     <t xml:space="preserve">Building new developments within a 400-800m walking distance is generally in line with the Transit Oriented Development (TOD) principles. Increasing density in activity centres, which are generally well serviced by public transport, is outlined in the Plan Melbourne strategy, which Council follows. As such, a significant number of new dwellings is and will continue to be built in activity centres. </t>
+  </si>
+  <si>
+    <t>It is important to ensure that all members of the community can use our Council facilities.</t>
   </si>
 </sst>
 </file>
@@ -2156,8 +2159,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3563,8 +3566,8 @@
       <c r="H37" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>225</v>
+      <c r="I37" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="J37" t="s">
         <v>109</v>
@@ -4457,10 +4460,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4581,35 +4584,31 @@
         <v>159</v>
       </c>
       <c r="B8" s="29">
-        <v>51317</v>
+        <v>42916</v>
       </c>
       <c r="C8" s="1">
-        <v>4.1100000000000003</v>
+        <v>5.14</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C9" s="20">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="D9" s="20">
-        <v>65.538751133575303</v>
-      </c>
-      <c r="E9" s="20">
-        <v>71.158794562405902</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>202</v>
+        <v>159</v>
+      </c>
+      <c r="B9" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4617,55 +4616,55 @@
         <v>161</v>
       </c>
       <c r="B10" s="30">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C10" s="20">
-        <v>67.2</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="D10" s="20">
-        <v>64.083971006635693</v>
+        <v>65.538751133575303</v>
       </c>
       <c r="E10" s="20">
-        <v>70.112622314085897</v>
+        <v>71.158794562405902</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="29">
-        <v>51317</v>
+      <c r="B11" s="30">
+        <v>43646</v>
       </c>
       <c r="C11" s="20">
-        <v>80</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="1" t="s">
-        <v>204</v>
+        <v>67.2</v>
+      </c>
+      <c r="D11" s="20">
+        <v>64.083971006635693</v>
+      </c>
+      <c r="E11" s="20">
+        <v>70.112622314085897</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C12" s="34">
-        <v>63</v>
-      </c>
-      <c r="D12" s="20">
-        <v>60.304286081761603</v>
-      </c>
-      <c r="E12" s="20">
-        <v>66.167510713120095</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>202</v>
+        <v>161</v>
+      </c>
+      <c r="B12" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C12" s="20">
+        <v>80</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4673,314 +4672,318 @@
         <v>160</v>
       </c>
       <c r="B13" s="30">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C13" s="34">
-        <v>60.699999999999996</v>
+        <v>63</v>
       </c>
       <c r="D13" s="20">
-        <v>57.5564462873403</v>
+        <v>60.304286081761603</v>
       </c>
       <c r="E13" s="20">
-        <v>63.814694958317894</v>
+        <v>66.167510713120095</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="29">
-        <v>51317</v>
+      <c r="B14" s="30">
+        <v>43646</v>
       </c>
       <c r="C14" s="34">
-        <v>90</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="1" t="s">
-        <v>204</v>
+        <v>60.699999999999996</v>
+      </c>
+      <c r="D14" s="20">
+        <v>57.5564462873403</v>
+      </c>
+      <c r="E14" s="20">
+        <v>63.814694958317894</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="30">
-        <v>43646</v>
+        <v>160</v>
+      </c>
+      <c r="B15" s="29">
+        <v>51317</v>
       </c>
       <c r="C15" s="34">
-        <v>60.699999999999996</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>202</v>
+        <v>90</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="30">
+        <v>43646</v>
+      </c>
+      <c r="C16" s="34">
+        <v>60.699999999999996</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="29">
         <v>51317</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C17" s="34">
         <v>90</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C17" s="34">
-        <v>48.5</v>
-      </c>
-      <c r="D17" s="34">
-        <v>45.395837796280397</v>
-      </c>
-      <c r="E17" s="34">
-        <v>51.597672572044409</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>163</v>
       </c>
       <c r="B18" s="30">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C18" s="34">
-        <v>45.6</v>
+        <v>48.5</v>
       </c>
       <c r="D18" s="34">
-        <v>42.354182641082602</v>
+        <v>45.395837796280397</v>
       </c>
       <c r="E18" s="34">
-        <v>48.833706034554297</v>
+        <v>51.597672572044409</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="30">
+        <v>43646</v>
+      </c>
+      <c r="C19" s="34">
+        <v>45.6</v>
+      </c>
+      <c r="D19" s="34">
+        <v>42.354182641082602</v>
+      </c>
+      <c r="E19" s="34">
+        <v>48.833706034554297</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="29">
         <v>51317</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C20" s="34">
         <v>80</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="1" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="31">
-        <v>42916</v>
-      </c>
-      <c r="C20" s="34">
-        <v>57.699999999999996</v>
-      </c>
-      <c r="D20" s="34">
-        <v>51.5</v>
-      </c>
-      <c r="E20" s="34">
-        <v>63.6</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="31">
+        <v>42916</v>
+      </c>
+      <c r="C21" s="34">
+        <v>57.699999999999996</v>
+      </c>
+      <c r="D21" s="34">
+        <v>51.5</v>
+      </c>
+      <c r="E21" s="34">
+        <v>63.6</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="29">
         <v>51317</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C22" s="34">
         <v>60</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="1" t="s">
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="31">
-        <v>41090</v>
-      </c>
-      <c r="C22" s="34">
-        <v>10.1</v>
-      </c>
-      <c r="D22" s="34">
-        <v>6.9</v>
-      </c>
-      <c r="E22" s="34">
-        <v>14.5</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>167</v>
       </c>
       <c r="B23" s="31">
-        <v>41820</v>
+        <v>41090</v>
       </c>
       <c r="C23" s="34">
-        <v>14.3</v>
+        <v>10.1</v>
       </c>
       <c r="D23" s="34">
-        <v>9.4</v>
+        <v>6.9</v>
       </c>
       <c r="E23" s="34">
-        <v>21.1</v>
+        <v>14.5</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>167</v>
       </c>
       <c r="B24" s="31">
-        <v>42916</v>
+        <v>41820</v>
       </c>
       <c r="C24" s="34">
-        <v>12.5</v>
+        <v>14.3</v>
       </c>
       <c r="D24" s="34">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="E24" s="34">
-        <v>17</v>
+        <v>21.1</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="31">
+        <v>42916</v>
+      </c>
+      <c r="C25" s="34">
+        <v>12.5</v>
+      </c>
+      <c r="D25" s="34">
+        <v>9</v>
+      </c>
+      <c r="E25" s="34">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="29">
         <v>51317</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C26" s="34">
         <v>8.9</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="1" t="s">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B26" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C26" s="34">
-        <v>62.8</v>
-      </c>
-      <c r="D26" s="20">
-        <v>59.877990759808299</v>
-      </c>
-      <c r="E26" s="20">
-        <v>65.605150908988506</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>205</v>
       </c>
       <c r="B27" s="30">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C27" s="34">
-        <v>67</v>
+        <v>62.8</v>
       </c>
       <c r="D27" s="20">
-        <v>64.039769861282096</v>
+        <v>59.877990759808299</v>
       </c>
       <c r="E27" s="20">
-        <v>69.906919042560105</v>
+        <v>65.605150908988506</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="30">
+        <v>43646</v>
+      </c>
+      <c r="C28" s="34">
+        <v>67</v>
+      </c>
+      <c r="D28" s="20">
+        <v>64.039769861282096</v>
+      </c>
+      <c r="E28" s="20">
+        <v>69.906919042560105</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="29">
         <v>51317</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C29" s="34">
         <v>80</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B29" s="30">
-        <v>41090</v>
-      </c>
-      <c r="C29" s="34">
-        <v>83.8</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>206</v>
       </c>
       <c r="B30" s="30">
-        <v>42185</v>
+        <v>41090</v>
       </c>
       <c r="C30" s="34">
-        <v>84.1</v>
+        <v>83.8</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -4988,169 +4991,169 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>206</v>
       </c>
       <c r="B31" s="30">
-        <v>43281</v>
+        <v>42185</v>
       </c>
       <c r="C31" s="34">
-        <v>85.1</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84.1</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B32" s="29">
-        <v>51317</v>
-      </c>
-      <c r="C32" s="28">
-        <v>89.9</v>
+      <c r="B32" s="30">
+        <v>43281</v>
+      </c>
+      <c r="C32" s="34">
+        <v>85.1</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C33" s="28">
+        <v>89.9</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C33" s="28">
-        <v>52</v>
-      </c>
-      <c r="D33" s="28">
-        <v>50.302758398000002</v>
-      </c>
-      <c r="E33" s="28">
-        <v>53.871574222</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>165</v>
       </c>
       <c r="B34" s="30">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C34" s="28">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D34" s="28">
-        <v>46.735637591080902</v>
+        <v>50.302758398000002</v>
       </c>
       <c r="E34" s="28">
-        <v>50.539152862397202</v>
+        <v>53.871574222</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="30">
+        <v>43646</v>
+      </c>
+      <c r="C35" s="28">
+        <v>49</v>
+      </c>
+      <c r="D35" s="28">
+        <v>46.735637591080902</v>
+      </c>
+      <c r="E35" s="28">
+        <v>50.539152862397202</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="29">
         <v>51317</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C36" s="28">
         <v>63</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="1" t="s">
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="29">
-        <v>40764</v>
-      </c>
-      <c r="C36" s="34">
-        <v>16.7</v>
-      </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>166</v>
       </c>
       <c r="B37" s="29">
-        <v>42591</v>
+        <v>40764</v>
       </c>
       <c r="C37" s="34">
-        <v>15.9</v>
+        <v>16.7</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>166</v>
       </c>
       <c r="B38" s="29">
-        <v>51317</v>
+        <v>42591</v>
       </c>
       <c r="C38" s="34">
-        <v>15.1</v>
+        <v>15.9</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
-      <c r="F38" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="30">
-        <v>42551</v>
+      <c r="F38" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="29">
+        <v>51317</v>
       </c>
       <c r="C39" s="34">
-        <v>5.0999999999999996</v>
+        <v>15.1</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>168</v>
       </c>
       <c r="B40" s="30">
-        <v>42916</v>
+        <v>42551</v>
       </c>
       <c r="C40" s="34">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
@@ -5158,193 +5161,191 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>168</v>
       </c>
       <c r="B41" s="30">
-        <v>43281</v>
+        <v>42916</v>
       </c>
       <c r="C41" s="34">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
-      <c r="F41" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>168</v>
       </c>
       <c r="B42" s="30">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C42" s="34">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="29">
-        <v>51317</v>
+      <c r="B43" s="30">
+        <v>43646</v>
       </c>
       <c r="C43" s="34">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
-      <c r="F43" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B44" s="29">
-        <v>40764</v>
+        <v>51317</v>
       </c>
       <c r="C44" s="34">
-        <v>15.3</v>
+        <v>2.1</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
-      <c r="F44" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>169</v>
       </c>
       <c r="B45" s="29">
-        <v>42591</v>
+        <v>40764</v>
       </c>
       <c r="C45" s="34">
-        <v>17.8</v>
+        <v>15.3</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
       <c r="F45" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>169</v>
       </c>
       <c r="B46" s="29">
-        <v>51317</v>
+        <v>42591</v>
       </c>
       <c r="C46" s="34">
-        <v>21.5</v>
+        <v>17.8</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
-      <c r="F46" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" s="31">
-        <v>42551</v>
+        <v>169</v>
+      </c>
+      <c r="B47" s="29">
+        <v>51317</v>
       </c>
       <c r="C47" s="34">
-        <v>91.8</v>
+        <v>21.5</v>
       </c>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
       <c r="F47" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>170</v>
       </c>
       <c r="B48" s="31">
-        <v>42916</v>
+        <v>42551</v>
       </c>
       <c r="C48" s="34">
-        <v>91.600000000000009</v>
+        <v>91.8</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
-      <c r="F48" s="7" t="s">
-        <v>202</v>
+      <c r="F48" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="29">
-        <v>51317</v>
+      <c r="B49" s="31">
+        <v>42916</v>
       </c>
       <c r="C49" s="34">
-        <v>96.2</v>
+        <v>91.600000000000009</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
-      <c r="F49" s="1" t="s">
-        <v>204</v>
+      <c r="F49" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B50" s="30">
-        <v>41820</v>
-      </c>
-      <c r="C50" s="40">
-        <v>6.5</v>
+        <v>170</v>
+      </c>
+      <c r="B50" s="31">
+        <v>43281</v>
+      </c>
+      <c r="C50" s="34">
+        <v>95.6</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G50" s="40"/>
+        <v>203</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B51" s="30">
-        <v>42185</v>
-      </c>
-      <c r="C51" s="40">
-        <v>6.48</v>
+        <v>170</v>
+      </c>
+      <c r="B51" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C51" s="34">
+        <v>96.2</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
-      <c r="F51" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G51" s="40"/>
+      <c r="F51" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>171</v>
       </c>
       <c r="B52" s="30">
-        <v>42551</v>
+        <v>41820</v>
       </c>
       <c r="C52" s="40">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
@@ -5358,10 +5359,10 @@
         <v>171</v>
       </c>
       <c r="B53" s="30">
-        <v>42916</v>
+        <v>42185</v>
       </c>
       <c r="C53" s="40">
-        <v>6.5</v>
+        <v>6.48</v>
       </c>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
@@ -5375,15 +5376,15 @@
         <v>171</v>
       </c>
       <c r="B54" s="30">
-        <v>43281</v>
+        <v>42551</v>
       </c>
       <c r="C54" s="40">
-        <v>6.1</v>
+        <v>6.45</v>
       </c>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
       <c r="F54" s="7" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G54" s="40"/>
     </row>
@@ -5392,15 +5393,15 @@
         <v>171</v>
       </c>
       <c r="B55" s="30">
-        <v>43646</v>
+        <v>42916</v>
       </c>
       <c r="C55" s="40">
-        <v>6.19</v>
+        <v>6.5</v>
       </c>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
       <c r="F55" s="7" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="G55" s="40"/>
     </row>
@@ -5408,377 +5409,379 @@
       <c r="A56" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B56" s="29">
-        <v>51317</v>
+      <c r="B56" s="30">
+        <v>43281</v>
       </c>
       <c r="C56" s="40">
-        <v>6.4</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="1" t="s">
-        <v>204</v>
+        <v>6.1</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="G56" s="40"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B57" s="29">
-        <v>40764</v>
-      </c>
-      <c r="C57" s="34">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="1" t="s">
-        <v>227</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B57" s="30">
+        <v>43646</v>
+      </c>
+      <c r="C57" s="40">
+        <v>6.19</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G57" s="40"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B58" s="29">
-        <v>42591</v>
-      </c>
-      <c r="C58" s="34">
-        <v>33</v>
+        <v>51317</v>
+      </c>
+      <c r="C58" s="40">
+        <v>6.4</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
-      <c r="F58" s="7" t="s">
-        <v>202</v>
-      </c>
+      <c r="F58" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G58" s="40"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B59" s="29">
-        <v>51317</v>
+        <v>40764</v>
       </c>
       <c r="C59" s="34">
-        <v>48.199999999999996</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
       <c r="F59" s="1" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B60" s="30">
-        <v>43646</v>
-      </c>
-      <c r="C60" s="28">
-        <v>46.9</v>
-      </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
+        <v>172</v>
+      </c>
+      <c r="B60" s="29">
+        <v>42591</v>
+      </c>
+      <c r="C60" s="34">
+        <v>33</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
       <c r="F60" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B61" s="29">
         <v>51317</v>
       </c>
-      <c r="C61" s="28">
-        <v>49.3</v>
-      </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
+      <c r="C61" s="34">
+        <v>48.199999999999996</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
       <c r="F61" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B62" s="30">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C62" s="28">
-        <v>71</v>
-      </c>
-      <c r="D62" s="28">
-        <v>69.282534772719998</v>
-      </c>
-      <c r="E62" s="28">
-        <v>71.891836587279997</v>
-      </c>
+        <v>46.9</v>
+      </c>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
       <c r="F62" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B63" s="30">
-        <v>43646</v>
+        <v>173</v>
+      </c>
+      <c r="B63" s="29">
+        <v>51317</v>
       </c>
       <c r="C63" s="28">
-        <v>71</v>
-      </c>
-      <c r="D63" s="28">
-        <v>69.310210964059195</v>
-      </c>
-      <c r="E63" s="28">
-        <v>71.990952281489598</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>203</v>
+        <v>49.3</v>
+      </c>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B64" s="29">
-        <v>51317</v>
+      <c r="B64" s="30">
+        <v>43281</v>
       </c>
       <c r="C64" s="28">
-        <v>79</v>
-      </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="1" t="s">
-        <v>204</v>
+        <v>71</v>
+      </c>
+      <c r="D64" s="28">
+        <v>69.282534772719998</v>
+      </c>
+      <c r="E64" s="28">
+        <v>71.891836587279997</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B65" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C65" s="34">
-        <v>0</v>
-      </c>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
+        <v>43646</v>
+      </c>
+      <c r="C65" s="28">
+        <v>71</v>
+      </c>
+      <c r="D65" s="28">
+        <v>69.310210964059195</v>
+      </c>
+      <c r="E65" s="28">
+        <v>71.990952281489598</v>
+      </c>
       <c r="F65" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B66" s="30">
-        <v>43646</v>
-      </c>
-      <c r="C66" s="34">
-        <v>16.7</v>
-      </c>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="7" t="s">
-        <v>203</v>
+        <v>174</v>
+      </c>
+      <c r="B66" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C66" s="28">
+        <v>79</v>
+      </c>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B67" s="29">
-        <v>51317</v>
+      <c r="B67" s="30">
+        <v>43281</v>
       </c>
       <c r="C67" s="34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" s="30">
+        <v>43646</v>
+      </c>
+      <c r="C68" s="34">
+        <v>16.7</v>
+      </c>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C69" s="34">
+        <v>100</v>
+      </c>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="1" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" s="30">
-        <v>43444</v>
-      </c>
-      <c r="C68" s="34">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="B69" s="30">
-        <v>43780</v>
-      </c>
-      <c r="C69" s="34">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="B70" s="29">
-        <v>51317</v>
+      <c r="B70" s="30">
+        <v>43444</v>
       </c>
       <c r="C70" s="34">
-        <v>90</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
-      <c r="F70" s="1" t="s">
-        <v>204</v>
+      <c r="F70" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="B71" s="29">
-        <v>40764</v>
+      <c r="A71" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="30">
+        <v>43780</v>
       </c>
       <c r="C71" s="34">
-        <v>21.6</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
       <c r="F71" s="7" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B72" s="29">
-        <v>42591</v>
+        <v>51317</v>
       </c>
       <c r="C72" s="34">
-        <v>23.6</v>
+        <v>90</v>
       </c>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
-      <c r="F72" s="7" t="s">
-        <v>202</v>
+      <c r="F72" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="35" t="s">
         <v>177</v>
       </c>
       <c r="B73" s="29">
-        <v>51317</v>
+        <v>40764</v>
       </c>
       <c r="C73" s="34">
-        <v>50.1</v>
+        <v>21.6</v>
       </c>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
-      <c r="F73" s="1" t="s">
-        <v>204</v>
+      <c r="F73" s="7" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="36" t="s">
-        <v>178</v>
+      <c r="A74" s="23" t="s">
+        <v>177</v>
       </c>
       <c r="B74" s="29">
-        <v>40764</v>
+        <v>42591</v>
       </c>
       <c r="C74" s="34">
-        <v>10.4</v>
+        <v>23.6</v>
       </c>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="1" t="s">
-        <v>227</v>
+      <c r="F74" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B75" s="29">
-        <v>42591</v>
+        <v>51317</v>
       </c>
       <c r="C75" s="34">
-        <v>11</v>
+        <v>50.1</v>
       </c>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
-      <c r="F75" s="7" t="s">
-        <v>202</v>
+      <c r="F75" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="36" t="s">
         <v>178</v>
       </c>
       <c r="B76" s="29">
-        <v>51317</v>
+        <v>40764</v>
       </c>
       <c r="C76" s="34">
-        <v>11.600000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
       <c r="F76" s="1" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="37" t="s">
-        <v>179</v>
+      <c r="A77" s="23" t="s">
+        <v>178</v>
       </c>
       <c r="B77" s="29">
-        <v>42004</v>
+        <v>42591</v>
       </c>
       <c r="C77" s="34">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
-      <c r="F77" s="1" t="s">
-        <v>227</v>
+      <c r="F77" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="37" t="s">
-        <v>179</v>
+      <c r="A78" s="23" t="s">
+        <v>178</v>
       </c>
       <c r="B78" s="29">
-        <v>42369</v>
+        <v>51317</v>
       </c>
       <c r="C78" s="34">
-        <v>50</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
       <c r="F78" s="1" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -5786,10 +5789,10 @@
         <v>179</v>
       </c>
       <c r="B79" s="29">
-        <v>42735</v>
+        <v>42004</v>
       </c>
       <c r="C79" s="34">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
@@ -5802,10 +5805,10 @@
         <v>179</v>
       </c>
       <c r="B80" s="29">
-        <v>43100</v>
+        <v>42369</v>
       </c>
       <c r="C80" s="34">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
@@ -5814,190 +5817,190 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="37" t="s">
         <v>179</v>
       </c>
       <c r="B81" s="29">
-        <v>43465</v>
-      </c>
-      <c r="C81" s="28">
-        <v>23</v>
-      </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="7" t="s">
-        <v>202</v>
+        <v>42735</v>
+      </c>
+      <c r="C81" s="34">
+        <v>52</v>
+      </c>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="37" t="s">
         <v>179</v>
       </c>
       <c r="B82" s="29">
-        <v>51501</v>
-      </c>
-      <c r="C82" s="28">
-        <v>0</v>
-      </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
+        <v>43100</v>
+      </c>
+      <c r="C82" s="34">
+        <v>22</v>
+      </c>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
       <c r="F82" s="1" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="B83" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C83" s="34">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
+        <v>179</v>
+      </c>
+      <c r="B83" s="29">
+        <v>43465</v>
+      </c>
+      <c r="C83" s="28">
+        <v>23</v>
+      </c>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
       <c r="F83" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B84" s="29">
-        <v>51317</v>
-      </c>
-      <c r="C84" s="34">
-        <v>100</v>
-      </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
+        <v>51501</v>
+      </c>
+      <c r="C84" s="28">
+        <v>0</v>
+      </c>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
       <c r="F84" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B85" s="30">
         <v>43281</v>
       </c>
       <c r="C85" s="34">
-        <v>0</v>
-      </c>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
       <c r="F85" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B86" s="30">
-        <v>43646</v>
+        <v>180</v>
+      </c>
+      <c r="B86" s="29">
+        <v>51317</v>
       </c>
       <c r="C86" s="34">
-        <v>60.699999999999996</v>
-      </c>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="7" t="s">
-        <v>203</v>
+        <v>100</v>
+      </c>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="29">
-        <v>51317</v>
+      <c r="B87" s="30">
+        <v>43281</v>
       </c>
       <c r="C87" s="34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D87" s="27"/>
       <c r="E87" s="27"/>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" s="30">
+        <v>43646</v>
+      </c>
+      <c r="C88" s="34">
+        <v>60.699999999999996</v>
+      </c>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C89" s="34">
+        <v>100</v>
+      </c>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="1" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B88" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C88" s="28">
-        <v>2773</v>
-      </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B89" s="30">
-        <v>43646</v>
-      </c>
-      <c r="C89" s="28">
-        <v>1746</v>
-      </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="29">
-        <v>51317</v>
+      <c r="B90" s="30">
+        <v>43281</v>
       </c>
       <c r="C90" s="28">
-        <v>139</v>
+        <v>2773</v>
       </c>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
-      <c r="F90" s="1" t="s">
-        <v>204</v>
+      <c r="F90" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B91" s="30">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C91" s="28">
-        <v>1300000</v>
+        <v>1746</v>
       </c>
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
       <c r="F91" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B92" s="29">
         <v>51317</v>
       </c>
       <c r="C92" s="28">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
@@ -6007,13 +6010,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B93" s="30">
         <v>43281</v>
       </c>
       <c r="C93" s="28">
-        <v>49917</v>
+        <v>1300000</v>
       </c>
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
@@ -6023,61 +6026,61 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B94" s="30">
-        <v>43646</v>
+        <v>189</v>
+      </c>
+      <c r="B94" s="29">
+        <v>51317</v>
       </c>
       <c r="C94" s="28">
-        <v>51573</v>
+        <v>0</v>
       </c>
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
-      <c r="F94" s="7" t="s">
-        <v>203</v>
+      <c r="F94" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B95" s="29">
-        <v>51317</v>
+      <c r="B95" s="30">
+        <v>43281</v>
       </c>
       <c r="C95" s="28">
-        <v>64892</v>
+        <v>49917</v>
       </c>
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
-      <c r="F95" s="1" t="s">
-        <v>204</v>
+      <c r="F95" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B96" s="30">
-        <v>42185</v>
+        <v>43646</v>
       </c>
       <c r="C96" s="28">
-        <v>127</v>
+        <v>51573</v>
       </c>
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
       <c r="F96" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B97" s="29">
         <v>51317</v>
       </c>
       <c r="C97" s="28">
-        <v>57</v>
+        <v>64892</v>
       </c>
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
@@ -6087,13 +6090,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B98" s="30">
         <v>42185</v>
       </c>
       <c r="C98" s="28">
-        <v>12000</v>
+        <v>127</v>
       </c>
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
@@ -6103,13 +6106,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B99" s="29">
         <v>51317</v>
       </c>
       <c r="C99" s="28">
-        <v>6700</v>
+        <v>57</v>
       </c>
       <c r="D99" s="28"/>
       <c r="E99" s="28"/>
@@ -6119,65 +6122,65 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B100" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C100" s="34">
-        <v>17</v>
-      </c>
-      <c r="D100" s="34">
-        <v>16</v>
-      </c>
-      <c r="E100" s="34">
-        <v>18</v>
-      </c>
+        <v>42185</v>
+      </c>
+      <c r="C100" s="28">
+        <v>12000</v>
+      </c>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
       <c r="F100" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B101" s="29">
         <v>51317</v>
       </c>
-      <c r="C101" s="34">
-        <v>30</v>
-      </c>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
+      <c r="C101" s="28">
+        <v>6700</v>
+      </c>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
       <c r="F101" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B102" s="30">
-        <v>42185</v>
+        <v>43281</v>
       </c>
       <c r="C102" s="34">
-        <v>39</v>
-      </c>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
+        <v>17</v>
+      </c>
+      <c r="D102" s="34">
+        <v>16</v>
+      </c>
+      <c r="E102" s="34">
+        <v>18</v>
+      </c>
       <c r="F102" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B103" s="29">
         <v>51317</v>
       </c>
       <c r="C103" s="34">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D103" s="34"/>
       <c r="E103" s="34"/>
@@ -6187,85 +6190,89 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B104" s="29">
-        <v>51317</v>
+        <v>193</v>
+      </c>
+      <c r="B104" s="30">
+        <v>42185</v>
       </c>
       <c r="C104" s="34">
-        <v>30</v>
-      </c>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="1" t="s">
-        <v>204</v>
+        <v>39</v>
+      </c>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B105" s="30">
-        <v>43281</v>
+        <v>193</v>
+      </c>
+      <c r="B105" s="29">
+        <v>51317</v>
       </c>
       <c r="C105" s="34">
-        <v>41.67</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>202</v>
+        <v>35</v>
+      </c>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B106" s="30">
-        <v>43646</v>
+        <v>192</v>
+      </c>
+      <c r="B106" s="29">
+        <v>51317</v>
       </c>
       <c r="C106" s="34">
-        <v>41.11</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>203</v>
+        <v>30</v>
+      </c>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="B107" s="29">
-        <v>51317</v>
+      <c r="B107" s="30">
+        <v>43281</v>
       </c>
       <c r="C107" s="34">
-        <v>90</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>204</v>
+        <v>41.67</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B108" s="30">
         <v>43646</v>
       </c>
       <c r="C108" s="34">
-        <v>50</v>
+        <v>41.11</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B109" s="29">
         <v>51317</v>
       </c>
       <c r="C109" s="34">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>204</v>
@@ -6273,13 +6280,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B110" s="30">
         <v>43646</v>
       </c>
       <c r="C110" s="34">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>202</v>
@@ -6287,167 +6294,167 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B111" s="29">
         <v>51317</v>
       </c>
       <c r="C111" s="34">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="16" t="s">
-        <v>186</v>
+      <c r="A112" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="B112" s="30">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C112" s="34">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B113" s="30">
-        <v>43646</v>
+      <c r="A113" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B113" s="29">
+        <v>51317</v>
       </c>
       <c r="C113" s="34">
-        <v>80</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>203</v>
+        <v>100</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B114" s="29">
-        <v>51317</v>
+      <c r="B114" s="30">
+        <v>43281</v>
       </c>
       <c r="C114" s="34">
-        <v>100</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>204</v>
+        <v>75</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B115" s="30">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C115" s="34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B116" s="30">
-        <v>43646</v>
+        <v>186</v>
+      </c>
+      <c r="B116" s="29">
+        <v>51317</v>
       </c>
       <c r="C116" s="34">
-        <v>5.4</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>203</v>
+        <v>100</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B117" s="29">
-        <v>51317</v>
+      <c r="B117" s="30">
+        <v>43281</v>
       </c>
       <c r="C117" s="34">
-        <v>100</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>204</v>
+        <v>0</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B118" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C118" s="28">
-        <v>4.17</v>
+        <v>43646</v>
+      </c>
+      <c r="C118" s="34">
+        <v>5.4</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B119" s="30">
-        <v>43646</v>
-      </c>
-      <c r="C119" s="28">
-        <v>4.13</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
+      </c>
+      <c r="B119" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C119" s="34">
+        <v>100</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B120" s="29">
-        <v>51317</v>
+      <c r="B120" s="30">
+        <v>43281</v>
       </c>
       <c r="C120" s="28">
-        <v>4.38</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>204</v>
+        <v>4.17</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B121" s="30">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C121" s="28">
-        <v>91.1</v>
+        <v>4.13</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B122" s="29">
         <v>51317</v>
       </c>
-      <c r="C122">
-        <v>95</v>
+      <c r="C122" s="28">
+        <v>4.38</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>204</v>
@@ -6455,13 +6462,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B123" s="31">
-        <v>40724</v>
-      </c>
-      <c r="C123" s="34">
-        <v>55.000000000000007</v>
+        <v>188</v>
+      </c>
+      <c r="B123" s="30">
+        <v>43281</v>
+      </c>
+      <c r="C123" s="28">
+        <v>91.1</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>202</v>
@@ -6469,15 +6476,43 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B124" s="29">
         <v>51317</v>
       </c>
-      <c r="C124" s="34">
+      <c r="C124">
+        <v>95</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B125" s="31">
+        <v>40724</v>
+      </c>
+      <c r="C125" s="34">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C126" s="34">
         <v>57.8</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>204</v>
       </c>
     </row>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269A4BC0-C009-452D-B78E-553A92571E55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613AC944-D4F2-4EA6-A8C2-FA42949F13D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -298,9 +298,6 @@
     <t>Feeling part of the community</t>
   </si>
   <si>
-    <t>The percentage of residents who either select 'safe' or 'very safe' when walking alone in their local area during the night.</t>
-  </si>
-  <si>
     <t>Housing stress</t>
   </si>
   <si>
@@ -382,9 +379,6 @@
     <t>Total number of community-run projects and events supported through community funding program per financial year per 100,000 population</t>
   </si>
   <si>
-    <t>From Council aim of progress towards zero trauma vision and in line with Victorian Public Health Framework</t>
-  </si>
-  <si>
     <t>Increase</t>
   </si>
   <si>
@@ -394,9 +388,6 @@
     <t>Goal (Target)</t>
   </si>
   <si>
-    <t>Desire for all buildings to be disability accessible under the Disability Discrimination Act</t>
-  </si>
-  <si>
     <t>The proportion of local roads with a speed limit of 40km/h</t>
   </si>
   <si>
@@ -409,45 +400,15 @@
     <t>Total carbon emissions from the community (tonnes)</t>
   </si>
   <si>
-    <t>Increase of 5% on the estimate for metropolitan councils in 2019</t>
-  </si>
-  <si>
-    <t>Lowest metropolitan result in June 2018 SALM (Nillumbik)</t>
-  </si>
-  <si>
-    <t>Highest metropolitan result in 2016 Census (Boroondara)</t>
-  </si>
-  <si>
     <t>Employment self-sufficiency</t>
   </si>
   <si>
     <t>The proportion of jobs in Moonee Valley filled by residents of Moonee Valley</t>
   </si>
   <si>
-    <t>The lowest non-interface, metropolitan council figure from 2015/16 (Greater Dandenong)</t>
-  </si>
-  <si>
-    <t>Highest non-interface metropolitan result in 2016 Census (Frankston)</t>
-  </si>
-  <si>
-    <t>The proportion of residents who rate their household's ability to cope with climate related impacts as either 'well' or 'very well'.</t>
-  </si>
-  <si>
     <t>The proportion of households that have made changes either to their homes or lifestyles to become more resilient to climate impacts.</t>
   </si>
   <si>
-    <t>Proportion of open spaces upgraded since 2018.</t>
-  </si>
-  <si>
-    <t>Lowest metropolitan result in the 2018 AEDC (Bayside)</t>
-  </si>
-  <si>
-    <t>All open spaces to be upgraded by 2040</t>
-  </si>
-  <si>
-    <t>Lowest metropolitan result in the 2017 VPHS (Boroondara)</t>
-  </si>
-  <si>
     <t>Households with housing costs that represent 30 per cent or more of household gross income</t>
   </si>
   <si>
@@ -523,9 +484,6 @@
     <t>Proximity to green space</t>
   </si>
   <si>
-    <t>Highest metropolitan result in 2017 survey (Port Philip)</t>
-  </si>
-  <si>
     <t>Zero trauma vision</t>
   </si>
   <si>
@@ -763,9 +721,6 @@
     <t>Less than half of all Moonee Valley residents feel safe walking alone in thei local area at night.</t>
   </si>
   <si>
-    <t>About 58 per cent of adults did required amount of physical activity as wet out by Australia’s physical activity and sedentary behaviour guidelines, Department of Health, 2014</t>
-  </si>
-  <si>
     <t>About two-thirds of respondents reported either 'very good' or 'excellent' health.</t>
   </si>
   <si>
@@ -820,9 +775,6 @@
     <t>About 39 megalitres of water was used by Council for indoor operations in the year to June 2015.</t>
   </si>
   <si>
-    <t>About 80 per cent of Council's facilities are disability accessible</t>
-  </si>
-  <si>
     <t>This is an interim figure only!!!</t>
   </si>
   <si>
@@ -985,36 +937,9 @@
     <t>The rate of volunteering in Moonee Valley increased from between 2011 and 2016, but remains below the rate for Victoria (19.2 per cent). While the number of volunteers increased, the amount of time given by volunteers decreased across all sectors and the rate of volunteering remains lower among disadvantaged communities. The volunteering contribution is dependent on policies at other levels of government, particularly those that prioritise the allocation of time to making monetised contributions above non-monetised contributions.</t>
   </si>
   <si>
-    <t>Aspirational target based on the desire to have residents feel part of the community</t>
-  </si>
-  <si>
-    <t>Aspirational target based on the desire to have residents valuing other cultures</t>
-  </si>
-  <si>
-    <t>Aspirational target for safer streets</t>
-  </si>
-  <si>
-    <t>Aspirational target for a healthier population</t>
-  </si>
-  <si>
-    <t>Aspirational target to provide public internet access in public areas</t>
-  </si>
-  <si>
-    <t>Aspirational target (TBC on when initial data is calculated)</t>
-  </si>
-  <si>
-    <t>Target set in MV2040</t>
-  </si>
-  <si>
-    <t>Aspirational target based on action in the MV Transport Safety Strategy</t>
-  </si>
-  <si>
     <t>Aspiration for increased use of technology to improve efficiency and reduce transport emissions.</t>
   </si>
   <si>
-    <t>Target set in the 2040 Vision - A water sensitive city document</t>
-  </si>
-  <si>
     <t>Based on the target in the Creating Liveable Cities in Australia document from RMIT.</t>
   </si>
   <si>
@@ -1069,21 +994,9 @@
     <t>Public library usage supports and contributes to a well-educated and thriving community by providing free and equal access to information, learning opportunities and related services, as well as actively contributing to social inclusion.</t>
   </si>
   <si>
-    <t>Increase of 5% from baseline to 2040</t>
-  </si>
-  <si>
-    <t>Decrease  of 5% from baseline to 2040</t>
-  </si>
-  <si>
-    <t>Increase of 30% from baseline to 2040</t>
-  </si>
-  <si>
     <t>Projects per 100,000 population</t>
   </si>
   <si>
-    <t xml:space="preserve">The proportion of children who are not developmentally vulnerable on one or more domains has been slowly increasing. Increasing vulnerability levels can have multiple impacts on service delivery. Increasing vulnerability results in a change in the Kindergarten allocation outcomes for the community based on the Priority of Access, meaning that the community can at times miss out on kindergarten places due to children with higher needs being allocated available places. More resources may also be required (for example, additional staff outside of the ratio to ensure appropriate provision of support for all children). </t>
-  </si>
-  <si>
     <t xml:space="preserve">The level of vulnerability can have multiple impacts on service delivery. This includes changes to Kindergarten allocation outcomes for the community Priority of Access as well as the need for more resources to run existing services. Vulnerability is a measure used at times when applying for grants as a criteria, particularly state / federal government. </t>
   </si>
   <si>
@@ -1108,10 +1021,6 @@
     <t>Contribute</t>
   </si>
   <si>
-    <t xml:space="preserve">In Moonee Valley, income inequality is increasing. More equal communities are healthier and happier. “If rising inequality is not properly monitored and addressed, it can lead to various sorts of political, economic, and social
-catastrophes” (World Inequality Report, 2018). </t>
-  </si>
-  <si>
     <t xml:space="preserve">By 2040, more people will be socially isolated, with adverse health impacts.  Health or mortality impacts from social isolation are in the same order as smoking. Social connection and feeling part of the community is important for healthy, connected and thriving neighbourhoods. </t>
   </si>
   <si>
@@ -1121,9 +1030,6 @@
     <t xml:space="preserve">Moonee Valley is made up of 13 neighbourhoods. Some of these neighbourhoods have good access to community facilities, while others have poor access. Walkable neighbourhoods where facilities and services are within a walkable network creates safe, socially cohesive and sustainable neighbourhoods. </t>
   </si>
   <si>
-    <t>The extent to which feeling safe or unsafe can affect health and wellbeing. If people feel unsafe in their local community, it can adversely influence their social activities and interactions. Safe neighbourhoods help create connected, healthy and thriving communities</t>
-  </si>
-  <si>
     <t>Physical inactivity in Australia detracts from social and economic prosperity and puts a burden on the healthcare system, reduces economic productivity and lowers life expectancy. Increasing physical activity will help improve mental health and wellbeing, build safer and connected communities.</t>
   </si>
   <si>
@@ -1143,6 +1049,99 @@
   </si>
   <si>
     <t>It is important to ensure that all members of the community can use our Council facilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proportion of children who are not developmentally vulnerable on one or more domains has been slowly increasing. Increasing vulnerability levels can have multiple impacts on service delivery. Increasing vulnerability results in a change in the kindergarten allocation outcomes for the community based on the priority of access, meaning that the community can at times miss out on kindergarten places due to children with higher needs being allocated available places. More resources may also be required (for example, additional staff outside of the ratio to ensure appropriate provision of support for all children). </t>
+  </si>
+  <si>
+    <t>About 58 per cent of adults did required amount of physical activity as wet out by Australia’s physical activity and sedentary behaviour guidelines (Department of Health, 2014).</t>
+  </si>
+  <si>
+    <t>About 80 per cent of Council's facilities are disability accessible. This is up from 75 per cent in 2018.</t>
+  </si>
+  <si>
+    <t>The lowest non-interface, metropolitan council figure from 2015/16 (Greater Dandenong).</t>
+  </si>
+  <si>
+    <t>Aspirational target based on the desire to have residents feel part of the community.</t>
+  </si>
+  <si>
+    <t>Aspirational target based on the desire to have residents valuing other cultures.</t>
+  </si>
+  <si>
+    <t>Aspirational target (TBC on when initial data is calculated).</t>
+  </si>
+  <si>
+    <t>Aspirational target for safer streets.</t>
+  </si>
+  <si>
+    <t>Highest metropolitan result in 2017 survey (Port Philip).</t>
+  </si>
+  <si>
+    <t>Lowest metropolitan result in the 2017 VPHS (Boroondara).</t>
+  </si>
+  <si>
+    <t>Aspirational target for a healthier population.</t>
+  </si>
+  <si>
+    <t>Lowest metropolitan result in the 2018 AEDC (Bayside).</t>
+  </si>
+  <si>
+    <t>Increase of 5% on the estimate for metropolitan councils in 2019.</t>
+  </si>
+  <si>
+    <t>Decrease  of 5% from baseline to 2040.</t>
+  </si>
+  <si>
+    <t>Lowest metropolitan result in June 2018 SALM (Nillumbik).</t>
+  </si>
+  <si>
+    <t>Highest metropolitan result in 2016 Census (Boroondara).</t>
+  </si>
+  <si>
+    <t>Increase of 5% from baseline to 2040.</t>
+  </si>
+  <si>
+    <t>Highest non-interface metropolitan result in 2016 Census (Frankston).</t>
+  </si>
+  <si>
+    <t>Aspirational target to provide public internet access in public areas.</t>
+  </si>
+  <si>
+    <t>Target set in MV2040.</t>
+  </si>
+  <si>
+    <t>From the Council aim of progress towards zero trauma vision and in line with Victorian Public Health Framework.</t>
+  </si>
+  <si>
+    <t>Aspirational target based on action in the MV Transport Safety Strategy.</t>
+  </si>
+  <si>
+    <t>Increase of 30% from baseline to 2040.</t>
+  </si>
+  <si>
+    <t>Target set in the 2040 Vision - A water sensitive city document.</t>
+  </si>
+  <si>
+    <t>Desire for all buildings to be disability accessible under the Disability Discrimination Act.</t>
+  </si>
+  <si>
+    <t>All open spaces to be upgraded by 2040.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Moonee Valley, income inequality is increasing. More equal communities are healthier and happier. “If rising inequality is not properly monitored and addressed, it can lead to various sorts of political, economic, and social catastrophes” (World Inequality Report, 2018). </t>
+  </si>
+  <si>
+    <t>The extent to which feeling safe or unsafe can affect health and wellbeing. If people feel unsafe in their local community, it can adversely influence their social activities and interactions. Safe neighbourhoods help create connected, healthy and thriving communities.</t>
+  </si>
+  <si>
+    <t>Proportion of open spaces upgraded since 2018</t>
+  </si>
+  <si>
+    <t>The proportion of residents who rate their household's ability to cope with climate related impacts as either 'well' or 'very well'</t>
+  </si>
+  <si>
+    <t>The percentage of residents who either select 'safe' or 'very safe' when walking alone in their local area during the night</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2159,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,7 +2174,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -2196,24 +2195,24 @@
         <v>71</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -2222,36 +2221,36 @@
         <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>122</v>
+        <v>334</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K2" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>0</v>
@@ -2263,33 +2262,33 @@
         <v>79</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L3" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>0</v>
@@ -2298,74 +2297,74 @@
         <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K4" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L4" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K5" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L5" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>0</v>
@@ -2374,36 +2373,36 @@
         <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L6" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>0</v>
@@ -2415,33 +2414,33 @@
         <v>78</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>155</v>
+        <v>339</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>235</v>
+        <v>332</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K7" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L7" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>0</v>
@@ -2459,27 +2458,27 @@
         <v>9</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>129</v>
+        <v>340</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K8" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L8" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>0</v>
@@ -2488,7 +2487,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>77</v>
@@ -2497,27 +2496,27 @@
         <v>10</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L9" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>0</v>
@@ -2526,74 +2525,74 @@
         <v>51</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>127</v>
+        <v>342</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L10" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="J11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" t="s">
-        <v>326</v>
-      </c>
       <c r="L11" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>0</v>
@@ -2602,226 +2601,226 @@
         <v>53</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L12" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>118</v>
+        <v>345</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L13" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>119</v>
+        <v>346</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K14" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L14" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K15" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L15" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L16" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>123</v>
+        <v>348</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K17" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="L17" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>3</v>
@@ -2830,36 +2829,36 @@
         <v>74</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="J18" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="J18" t="s">
-        <v>109</v>
-      </c>
       <c r="K18" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L18" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>3</v>
@@ -2868,74 +2867,74 @@
         <v>74</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K19" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L19" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K20" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L20" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>4</v>
@@ -2944,36 +2943,36 @@
         <v>75</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="J21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K21" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="L21" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>4</v>
@@ -2982,36 +2981,36 @@
         <v>75</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K22" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L22" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>4</v>
@@ -3020,36 +3019,36 @@
         <v>75</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="J23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K23" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L23" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>4</v>
@@ -3058,36 +3057,36 @@
         <v>75</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>108</v>
+        <v>351</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" t="s">
+        <v>320</v>
+      </c>
+      <c r="L24" t="s">
         <v>263</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="J24" t="s">
-        <v>133</v>
-      </c>
-      <c r="K24" t="s">
-        <v>349</v>
-      </c>
-      <c r="L24" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>4</v>
@@ -3096,36 +3095,36 @@
         <v>75</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H25" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="J25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K25" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L25" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>4</v>
@@ -3134,121 +3133,121 @@
         <v>54</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>346</v>
-      </c>
       <c r="J26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K26" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L26" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="J27" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L27" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="J28" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K28" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L28" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>66</v>
@@ -3257,27 +3256,27 @@
         <v>11</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="J29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L29" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>5</v>
@@ -3289,33 +3288,33 @@
         <v>67</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="J30" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K30" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>5</v>
@@ -3324,74 +3323,74 @@
         <v>55</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K31" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="J32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>5</v>
@@ -3403,33 +3402,33 @@
         <v>68</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="J33" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K33" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>5</v>
@@ -3438,7 +3437,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>62</v>
@@ -3447,288 +3446,288 @@
         <v>50</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="H34" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J34" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34" t="s">
+        <v>320</v>
+      </c>
+      <c r="L34" t="s">
         <v>259</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="J34" t="s">
-        <v>109</v>
-      </c>
-      <c r="K34" t="s">
-        <v>349</v>
-      </c>
-      <c r="L34" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>124</v>
+        <v>360</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="J35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K35" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="J36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K36" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>112</v>
+        <v>355</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>254</v>
+        <v>333</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="J37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K37" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>126</v>
+        <v>359</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>128</v>
+        <v>356</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="J38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="J39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K39" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L39" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="J40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="J41" t="s">
+        <v>107</v>
+      </c>
+      <c r="K41" t="s">
         <v>320</v>
       </c>
-      <c r="G41" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="J41" t="s">
-        <v>109</v>
-      </c>
-      <c r="K41" t="s">
-        <v>349</v>
-      </c>
       <c r="L41" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3761,18 +3760,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -3783,7 +3782,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>0</v>
@@ -3794,7 +3793,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>0</v>
@@ -3805,7 +3804,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>0</v>
@@ -3816,7 +3815,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>0</v>
@@ -3827,7 +3826,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>0</v>
@@ -3838,7 +3837,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>0</v>
@@ -3849,7 +3848,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>0</v>
@@ -3860,7 +3859,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>0</v>
@@ -3871,7 +3870,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>0</v>
@@ -3882,7 +3881,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>0</v>
@@ -3893,7 +3892,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>3</v>
@@ -3904,7 +3903,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>3</v>
@@ -3915,7 +3914,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>3</v>
@@ -3926,7 +3925,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>3</v>
@@ -3937,7 +3936,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>3</v>
@@ -3948,7 +3947,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>3</v>
@@ -3959,7 +3958,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>3</v>
@@ -3970,7 +3969,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>3</v>
@@ -3981,7 +3980,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>4</v>
@@ -3992,7 +3991,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>4</v>
@@ -4003,7 +4002,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>4</v>
@@ -4014,7 +4013,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>4</v>
@@ -4025,7 +4024,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>4</v>
@@ -4036,7 +4035,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>4</v>
@@ -4047,7 +4046,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>5</v>
@@ -4058,7 +4057,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>5</v>
@@ -4069,7 +4068,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>5</v>
@@ -4080,7 +4079,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>5</v>
@@ -4091,7 +4090,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>5</v>
@@ -4102,7 +4101,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>5</v>
@@ -4113,7 +4112,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>5</v>
@@ -4124,7 +4123,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>5</v>
@@ -4135,7 +4134,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>5</v>
@@ -4146,7 +4145,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>5</v>
@@ -4157,7 +4156,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>6</v>
@@ -4168,7 +4167,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>6</v>
@@ -4179,7 +4178,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>6</v>
@@ -4190,7 +4189,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>6</v>
@@ -4201,7 +4200,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>6</v>
@@ -4238,7 +4237,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4326,7 +4325,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4433,10 +4432,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4475,27 +4474,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B2" s="29">
         <v>40724</v>
@@ -4504,12 +4503,12 @@
         <v>5.04</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B3" s="29">
         <v>41090</v>
@@ -4518,12 +4517,12 @@
         <v>4.8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B4" s="29">
         <v>41455</v>
@@ -4532,12 +4531,12 @@
         <v>4.72</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B5" s="29">
         <v>41820</v>
@@ -4546,12 +4545,12 @@
         <v>4.79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B6" s="29">
         <v>42185</v>
@@ -4560,12 +4559,12 @@
         <v>4.84</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B7" s="29">
         <v>42551</v>
@@ -4576,12 +4575,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B8" s="29">
         <v>42916</v>
@@ -4592,12 +4591,12 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B9" s="29">
         <v>51317</v>
@@ -4608,12 +4607,12 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B10" s="30">
         <v>43281</v>
@@ -4628,12 +4627,12 @@
         <v>71.158794562405902</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B11" s="30">
         <v>43646</v>
@@ -4648,12 +4647,12 @@
         <v>70.112622314085897</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B12" s="29">
         <v>51317</v>
@@ -4664,12 +4663,12 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B13" s="30">
         <v>43281</v>
@@ -4684,12 +4683,12 @@
         <v>66.167510713120095</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B14" s="30">
         <v>43646</v>
@@ -4704,12 +4703,12 @@
         <v>63.814694958317894</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B15" s="29">
         <v>51317</v>
@@ -4720,12 +4719,12 @@
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B16" s="30">
         <v>43646</v>
@@ -4734,12 +4733,12 @@
         <v>60.699999999999996</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B17" s="29">
         <v>51317</v>
@@ -4748,12 +4747,12 @@
         <v>90</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B18" s="30">
         <v>43281</v>
@@ -4768,12 +4767,12 @@
         <v>51.597672572044409</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B19" s="30">
         <v>43646</v>
@@ -4788,12 +4787,12 @@
         <v>48.833706034554297</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B20" s="29">
         <v>51317</v>
@@ -4804,12 +4803,12 @@
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B21" s="31">
         <v>42916</v>
@@ -4824,12 +4823,12 @@
         <v>63.6</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B22" s="29">
         <v>51317</v>
@@ -4840,12 +4839,12 @@
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B23" s="31">
         <v>41090</v>
@@ -4860,12 +4859,12 @@
         <v>14.5</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B24" s="31">
         <v>41820</v>
@@ -4880,12 +4879,12 @@
         <v>21.1</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B25" s="31">
         <v>42916</v>
@@ -4900,12 +4899,12 @@
         <v>17</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B26" s="29">
         <v>51317</v>
@@ -4916,12 +4915,12 @@
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
       <c r="F26" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B27" s="30">
         <v>43281</v>
@@ -4936,12 +4935,12 @@
         <v>65.605150908988506</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B28" s="30">
         <v>43646</v>
@@ -4956,12 +4955,12 @@
         <v>69.906919042560105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B29" s="29">
         <v>51317</v>
@@ -4972,12 +4971,12 @@
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B30" s="30">
         <v>41090</v>
@@ -4988,12 +4987,12 @@
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B31" s="30">
         <v>42185</v>
@@ -5004,12 +5003,12 @@
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B32" s="30">
         <v>43281</v>
@@ -5020,12 +5019,12 @@
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B33" s="29">
         <v>51317</v>
@@ -5036,14 +5035,14 @@
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
       <c r="F33" s="7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B34" s="30">
         <v>43281</v>
@@ -5058,12 +5057,12 @@
         <v>53.871574222</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B35" s="30">
         <v>43646</v>
@@ -5078,12 +5077,12 @@
         <v>50.539152862397202</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B36" s="29">
         <v>51317</v>
@@ -5094,12 +5093,12 @@
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B37" s="29">
         <v>40764</v>
@@ -5110,12 +5109,12 @@
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B38" s="29">
         <v>42591</v>
@@ -5126,12 +5125,12 @@
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B39" s="29">
         <v>51317</v>
@@ -5142,12 +5141,12 @@
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B40" s="30">
         <v>42551</v>
@@ -5158,12 +5157,12 @@
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B41" s="30">
         <v>42916</v>
@@ -5174,12 +5173,12 @@
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B42" s="30">
         <v>43281</v>
@@ -5190,12 +5189,12 @@
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B43" s="30">
         <v>43646</v>
@@ -5206,12 +5205,12 @@
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B44" s="29">
         <v>51317</v>
@@ -5222,12 +5221,12 @@
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B45" s="29">
         <v>40764</v>
@@ -5238,12 +5237,12 @@
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
       <c r="F45" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B46" s="29">
         <v>42591</v>
@@ -5254,12 +5253,12 @@
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B47" s="29">
         <v>51317</v>
@@ -5270,12 +5269,12 @@
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
       <c r="F47" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B48" s="31">
         <v>42551</v>
@@ -5286,12 +5285,12 @@
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B49" s="31">
         <v>42916</v>
@@ -5302,12 +5301,12 @@
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B50" s="31">
         <v>43281</v>
@@ -5318,12 +5317,12 @@
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B51" s="29">
         <v>51317</v>
@@ -5334,12 +5333,12 @@
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B52" s="30">
         <v>41820</v>
@@ -5350,13 +5349,13 @@
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
       <c r="F52" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G52" s="40"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B53" s="30">
         <v>42185</v>
@@ -5367,13 +5366,13 @@
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G53" s="40"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B54" s="30">
         <v>42551</v>
@@ -5384,13 +5383,13 @@
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
       <c r="F54" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G54" s="40"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B55" s="30">
         <v>42916</v>
@@ -5401,13 +5400,13 @@
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
       <c r="F55" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G55" s="40"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B56" s="30">
         <v>43281</v>
@@ -5418,13 +5417,13 @@
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
       <c r="F56" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G56" s="40"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B57" s="30">
         <v>43646</v>
@@ -5435,13 +5434,13 @@
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
       <c r="F57" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G57" s="40"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B58" s="29">
         <v>51317</v>
@@ -5452,13 +5451,13 @@
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
       <c r="F58" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="G58" s="40"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B59" s="29">
         <v>40764</v>
@@ -5469,12 +5468,12 @@
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
       <c r="F59" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B60" s="29">
         <v>42591</v>
@@ -5485,12 +5484,12 @@
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
       <c r="F60" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B61" s="29">
         <v>51317</v>
@@ -5501,12 +5500,12 @@
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B62" s="30">
         <v>43646</v>
@@ -5517,12 +5516,12 @@
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
       <c r="F62" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B63" s="29">
         <v>51317</v>
@@ -5533,12 +5532,12 @@
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
       <c r="F63" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B64" s="30">
         <v>43281</v>
@@ -5553,12 +5552,12 @@
         <v>71.891836587279997</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B65" s="30">
         <v>43646</v>
@@ -5573,12 +5572,12 @@
         <v>71.990952281489598</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B66" s="29">
         <v>51317</v>
@@ -5589,12 +5588,12 @@
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
       <c r="F66" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B67" s="30">
         <v>43281</v>
@@ -5605,12 +5604,12 @@
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
       <c r="F67" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B68" s="30">
         <v>43646</v>
@@ -5621,12 +5620,12 @@
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
       <c r="F68" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B69" s="29">
         <v>51317</v>
@@ -5637,12 +5636,12 @@
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
       <c r="F69" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B70" s="30">
         <v>43444</v>
@@ -5653,12 +5652,12 @@
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
       <c r="F70" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="37" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B71" s="30">
         <v>43780</v>
@@ -5669,12 +5668,12 @@
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
       <c r="F71" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B72" s="29">
         <v>51317</v>
@@ -5685,12 +5684,12 @@
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
       <c r="F72" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="35" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B73" s="29">
         <v>40764</v>
@@ -5701,12 +5700,12 @@
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
       <c r="F73" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B74" s="29">
         <v>42591</v>
@@ -5717,12 +5716,12 @@
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
       <c r="F74" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B75" s="29">
         <v>51317</v>
@@ -5733,12 +5732,12 @@
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
       <c r="F75" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B76" s="29">
         <v>40764</v>
@@ -5749,12 +5748,12 @@
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
       <c r="F76" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B77" s="29">
         <v>42591</v>
@@ -5765,12 +5764,12 @@
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
       <c r="F77" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B78" s="29">
         <v>51317</v>
@@ -5781,12 +5780,12 @@
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
       <c r="F78" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B79" s="29">
         <v>42004</v>
@@ -5797,12 +5796,12 @@
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
       <c r="F79" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B80" s="29">
         <v>42369</v>
@@ -5813,12 +5812,12 @@
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
       <c r="F80" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B81" s="29">
         <v>42735</v>
@@ -5829,12 +5828,12 @@
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
       <c r="F81" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B82" s="29">
         <v>43100</v>
@@ -5845,12 +5844,12 @@
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
       <c r="F82" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B83" s="29">
         <v>43465</v>
@@ -5861,12 +5860,12 @@
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
       <c r="F83" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B84" s="29">
         <v>51501</v>
@@ -5877,12 +5876,12 @@
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
       <c r="F84" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B85" s="30">
         <v>43281</v>
@@ -5893,12 +5892,12 @@
       <c r="D85" s="26"/>
       <c r="E85" s="26"/>
       <c r="F85" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B86" s="29">
         <v>51317</v>
@@ -5909,12 +5908,12 @@
       <c r="D86" s="26"/>
       <c r="E86" s="26"/>
       <c r="F86" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B87" s="30">
         <v>43281</v>
@@ -5925,12 +5924,12 @@
       <c r="D87" s="27"/>
       <c r="E87" s="27"/>
       <c r="F87" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B88" s="30">
         <v>43646</v>
@@ -5941,12 +5940,12 @@
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
       <c r="F88" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B89" s="29">
         <v>51317</v>
@@ -5957,12 +5956,12 @@
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
       <c r="F89" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B90" s="30">
         <v>43281</v>
@@ -5973,12 +5972,12 @@
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
       <c r="F90" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B91" s="30">
         <v>43646</v>
@@ -5989,12 +5988,12 @@
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
       <c r="F91" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B92" s="29">
         <v>51317</v>
@@ -6005,12 +6004,12 @@
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
       <c r="F92" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B93" s="30">
         <v>43281</v>
@@ -6021,12 +6020,12 @@
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
       <c r="F93" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B94" s="29">
         <v>51317</v>
@@ -6037,12 +6036,12 @@
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
       <c r="F94" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B95" s="30">
         <v>43281</v>
@@ -6053,12 +6052,12 @@
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
       <c r="F95" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B96" s="30">
         <v>43646</v>
@@ -6069,12 +6068,12 @@
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
       <c r="F96" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B97" s="29">
         <v>51317</v>
@@ -6085,12 +6084,12 @@
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
       <c r="F97" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B98" s="30">
         <v>42185</v>
@@ -6101,12 +6100,12 @@
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
       <c r="F98" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B99" s="29">
         <v>51317</v>
@@ -6117,12 +6116,12 @@
       <c r="D99" s="28"/>
       <c r="E99" s="28"/>
       <c r="F99" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B100" s="30">
         <v>42185</v>
@@ -6133,12 +6132,12 @@
       <c r="D100" s="28"/>
       <c r="E100" s="28"/>
       <c r="F100" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B101" s="29">
         <v>51317</v>
@@ -6149,12 +6148,12 @@
       <c r="D101" s="28"/>
       <c r="E101" s="28"/>
       <c r="F101" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B102" s="30">
         <v>43281</v>
@@ -6169,12 +6168,12 @@
         <v>18</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B103" s="29">
         <v>51317</v>
@@ -6185,12 +6184,12 @@
       <c r="D103" s="34"/>
       <c r="E103" s="34"/>
       <c r="F103" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B104" s="30">
         <v>42185</v>
@@ -6201,12 +6200,12 @@
       <c r="D104" s="34"/>
       <c r="E104" s="34"/>
       <c r="F104" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B105" s="29">
         <v>51317</v>
@@ -6217,12 +6216,12 @@
       <c r="D105" s="34"/>
       <c r="E105" s="34"/>
       <c r="F105" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B106" s="29">
         <v>51317</v>
@@ -6233,12 +6232,12 @@
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
       <c r="F106" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B107" s="30">
         <v>43281</v>
@@ -6247,12 +6246,12 @@
         <v>41.67</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B108" s="30">
         <v>43646</v>
@@ -6261,12 +6260,12 @@
         <v>41.11</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B109" s="29">
         <v>51317</v>
@@ -6275,12 +6274,12 @@
         <v>90</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B110" s="30">
         <v>43646</v>
@@ -6289,12 +6288,12 @@
         <v>50</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B111" s="29">
         <v>51317</v>
@@ -6303,12 +6302,12 @@
         <v>75</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B112" s="30">
         <v>43646</v>
@@ -6317,12 +6316,12 @@
         <v>80</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B113" s="29">
         <v>51317</v>
@@ -6331,12 +6330,12 @@
         <v>100</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B114" s="30">
         <v>43281</v>
@@ -6345,12 +6344,12 @@
         <v>75</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B115" s="30">
         <v>43646</v>
@@ -6359,12 +6358,12 @@
         <v>80</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B116" s="29">
         <v>51317</v>
@@ -6373,12 +6372,12 @@
         <v>100</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B117" s="30">
         <v>43281</v>
@@ -6387,12 +6386,12 @@
         <v>0</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B118" s="30">
         <v>43646</v>
@@ -6401,12 +6400,12 @@
         <v>5.4</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B119" s="29">
         <v>51317</v>
@@ -6415,12 +6414,12 @@
         <v>100</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B120" s="30">
         <v>43281</v>
@@ -6429,12 +6428,12 @@
         <v>4.17</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B121" s="30">
         <v>43646</v>
@@ -6443,12 +6442,12 @@
         <v>4.13</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B122" s="29">
         <v>51317</v>
@@ -6457,12 +6456,12 @@
         <v>4.38</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B123" s="30">
         <v>43281</v>
@@ -6471,12 +6470,12 @@
         <v>91.1</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B124" s="29">
         <v>51317</v>
@@ -6485,12 +6484,12 @@
         <v>95</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B125" s="31">
         <v>40724</v>
@@ -6499,12 +6498,12 @@
         <v>55.000000000000007</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B126" s="29">
         <v>51317</v>
@@ -6513,7 +6512,7 @@
         <v>57.8</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -6542,453 +6541,453 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="C16" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="C18" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C24" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C28" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C30" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C32" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C38" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C41" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613AC944-D4F2-4EA6-A8C2-FA42949F13D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0AF67B-EEDA-48BA-A8AF-C069BA918018}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <sheet name="data_format" sheetId="15" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicator_list!$K$1:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicator_list!$K$1:$K$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="355">
   <si>
     <t>FAIR</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Housing</t>
   </si>
   <si>
-    <t>Transport technology</t>
-  </si>
-  <si>
     <t xml:space="preserve">Water sensitive </t>
   </si>
   <si>
@@ -343,805 +340,787 @@
     <t>Thriving economy</t>
   </si>
   <si>
+    <t>Low carbon</t>
+  </si>
+  <si>
+    <t>Climate adapted</t>
+  </si>
+  <si>
+    <t>Quality design</t>
+  </si>
+  <si>
+    <t>Engaged</t>
+  </si>
+  <si>
+    <t>Visits to green space</t>
+  </si>
+  <si>
+    <t>Upgraded open space</t>
+  </si>
+  <si>
+    <t>Open space provision</t>
+  </si>
+  <si>
+    <t>19 – A city with vibrant and safe public spaces</t>
+  </si>
+  <si>
+    <t>Our city is regarded a beautiful place with a diversity of spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Council data, Annual Report, Smarty Grants  </t>
+  </si>
+  <si>
+    <t>Total number of community-run projects and events supported through community funding program per financial year per 100,000 population</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Proportion of Council facilities that are disability accessible</t>
+  </si>
+  <si>
+    <t>Goal (Target)</t>
+  </si>
+  <si>
+    <t>The proportion of local roads with a speed limit of 40km/h</t>
+  </si>
+  <si>
+    <t>Net carbon emissions from Council’s operations (tonnes)</t>
+  </si>
+  <si>
+    <t>Total carbon emissions from the community (tonnes)</t>
+  </si>
+  <si>
+    <t>Employment self-sufficiency</t>
+  </si>
+  <si>
+    <t>The proportion of jobs in Moonee Valley filled by residents of Moonee Valley</t>
+  </si>
+  <si>
+    <t>The proportion of households that have made changes either to their homes or lifestyles to become more resilient to climate impacts.</t>
+  </si>
+  <si>
+    <t>Households with housing costs that represent 30 per cent or more of household gross income</t>
+  </si>
+  <si>
+    <t>Index score - satisfaction with recreation facilities</t>
+  </si>
+  <si>
+    <t>Proportion of those who work in Moonee Valley who travel to work by public or active transport (MTW06P)</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proportion of children who are NOT developmentally vulnerable on one or more domain with their social, emotional, physical and communication development </t>
+  </si>
+  <si>
+    <t>Value multiculturalism</t>
+  </si>
+  <si>
+    <t>Walkable access to facilities</t>
+  </si>
+  <si>
+    <t>Safe walking at night</t>
+  </si>
+  <si>
+    <t>Children on-track</t>
+  </si>
+  <si>
+    <t>Council decision-making</t>
+  </si>
+  <si>
+    <t>Grant funded community-led events</t>
+  </si>
+  <si>
+    <t>Recreation facilities</t>
+  </si>
+  <si>
+    <t>Proximity to frequent public transport</t>
+  </si>
+  <si>
+    <t>Sustainable transport to work</t>
+  </si>
+  <si>
+    <t>Safe road speeds</t>
+  </si>
+  <si>
+    <t>Council carbon emissions</t>
+  </si>
+  <si>
+    <t>Community carbon emissions</t>
+  </si>
+  <si>
+    <t>Stormwater into local waterways</t>
+  </si>
+  <si>
+    <t>Extreme weather event preparedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustainable behaviour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disability accessible facilities </t>
+  </si>
+  <si>
+    <t>Proximity to green space</t>
+  </si>
+  <si>
+    <t>Zero trauma vision</t>
+  </si>
+  <si>
+    <t>Calculated from spatial data</t>
+  </si>
+  <si>
+    <t>Across Moonee Valley there is increased participation and value placed in the arts, sport, culture and community-run events</t>
+  </si>
+  <si>
+    <t>F011</t>
+  </si>
+  <si>
+    <t>F013</t>
+  </si>
+  <si>
+    <t>F012</t>
+  </si>
+  <si>
+    <t>F021</t>
+  </si>
+  <si>
+    <t>F031</t>
+  </si>
+  <si>
+    <t>F032</t>
+  </si>
+  <si>
+    <t>F041</t>
+  </si>
+  <si>
+    <t>F051</t>
+  </si>
+  <si>
+    <t>F033</t>
+  </si>
+  <si>
+    <t>T061</t>
+  </si>
+  <si>
+    <t>T062</t>
+  </si>
+  <si>
+    <t>T063</t>
+  </si>
+  <si>
+    <t>T064</t>
+  </si>
+  <si>
+    <t>T071</t>
+  </si>
+  <si>
+    <t>T081</t>
+  </si>
+  <si>
+    <t>T082</t>
+  </si>
+  <si>
+    <t>C101</t>
+  </si>
+  <si>
+    <t>C102</t>
+  </si>
+  <si>
+    <t>C103</t>
+  </si>
+  <si>
+    <t>C111</t>
+  </si>
+  <si>
+    <t>C112</t>
+  </si>
+  <si>
+    <t>G131</t>
+  </si>
+  <si>
+    <t>G141</t>
+  </si>
+  <si>
+    <t>G151</t>
+  </si>
+  <si>
+    <t>G161</t>
+  </si>
+  <si>
+    <t>B181</t>
+  </si>
+  <si>
+    <t>B191</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>G132</t>
+  </si>
+  <si>
+    <t>G142</t>
+  </si>
+  <si>
+    <t>G143</t>
+  </si>
+  <si>
+    <t>G144</t>
+  </si>
+  <si>
+    <t>G145</t>
+  </si>
+  <si>
+    <t>G162</t>
+  </si>
+  <si>
+    <t>B201</t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>value_format</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>F034</t>
+  </si>
+  <si>
+    <t>F035</t>
+  </si>
+  <si>
+    <t>Sustainable travel to jobs in Moonee Valley</t>
+  </si>
+  <si>
+    <t>value_unit</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>Total volume of stormwater discharged in to local water ways (megalitres)</t>
+  </si>
+  <si>
+    <t>The percentage of respondents who agree (six or higher out of ten)</t>
+  </si>
+  <si>
+    <t>The percentage of respondents who agree (six or higher out of ten) with the statement "I value living in Moonee Valley because of its multiculturalism"</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>sd#</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Tonnes</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Megalitres</t>
+  </si>
+  <si>
+    <t>Calculated from Council data</t>
+  </si>
+  <si>
+    <t>Calculated from Council and ABS data</t>
+  </si>
+  <si>
+    <t>Commentary</t>
+  </si>
+  <si>
+    <t>Kerbside waste collected and diverted from landfill</t>
+  </si>
+  <si>
+    <t>Why is this important? Add some information here.</t>
+  </si>
+  <si>
+    <t>The percentage of people who have visited local green space weekly or more often</t>
+  </si>
+  <si>
+    <t>prior</t>
+  </si>
+  <si>
+    <t>Department of Employment, Skills, Small and Family Business – Small Area Labour Market (SALM) data</t>
+  </si>
+  <si>
+    <t>Desired</t>
+  </si>
+  <si>
+    <t>Proportion of properties with good accessibility to community facilities based on walkable network distance (methodology to be defined)</t>
+  </si>
+  <si>
+    <t>The ratio of income distribution between the top 20 per cent of households (P80) and the bottom 20 per cent (P20) decreased to 4.72 in 2013, but has risen since.</t>
+  </si>
+  <si>
+    <t>In 2019, around 67 per cent of residents felt agreed that they felt part of the community.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2019, around 60 per cent of residents  valued living in Moonee Valley because of its multiculturalism. </t>
+  </si>
+  <si>
+    <t>Less than half of all Moonee Valley residents feel safe walking alone in thei local area at night.</t>
+  </si>
+  <si>
+    <t>About two-thirds of respondents reported either 'very good' or 'excellent' health.</t>
+  </si>
+  <si>
+    <t>About 12.5 per cent of adults had high or very high levels of psychological distress.</t>
+  </si>
+  <si>
+    <t>The proportion of households with housing costs that represented 30 per cent or more of household income decrease between 2011 and 2016.</t>
+  </si>
+  <si>
+    <t>Number of first year children enrolled in kindergarten divided by the number of 3 year old children (70%) and 4 year old children (30%) based on the previous year's estimated resident population</t>
+  </si>
+  <si>
+    <t>Around one-third of jobs in Moonee Valley are filled by residents of the municipality.</t>
+  </si>
+  <si>
+    <t>There were approximately 47 community run projects supported by grants per 100,000 population in the 2018/19 financial year.</t>
+  </si>
+  <si>
+    <t>The satisfaction with recreation facilities remained steady between 2018 and 2019.</t>
+  </si>
+  <si>
+    <t>About 23 per cent of Moonee Valley residents travel to work by either public transport, cycling or walking. This is an increase from the 2011 figure.</t>
+  </si>
+  <si>
+    <t>About 11 per cent of workers travel to jobs in Moonee Valley using public transport, by walking or cycling. This is slightly higher than in 2011.</t>
+  </si>
+  <si>
+    <t>Carbon emissions from the community were at 1.3 million tonnes in the year to June 2018.</t>
+  </si>
+  <si>
+    <t>The number of street trees within Moonee Valley is increasing.</t>
+  </si>
+  <si>
+    <t>About 12,000 megalitres of stormwater were discharged in to local waterways in the year to June 2015.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagery from 2018 shows that about 17 per cent of the municipality is covered by tree canopy. </t>
+  </si>
+  <si>
+    <t>There were about 127 megalitres of potable water used outdoors in the municipality in the year to June 2015.</t>
+  </si>
+  <si>
+    <t>Indoor potable water use by Council in megalitres</t>
+  </si>
+  <si>
+    <t>Outdoor potable water use by Council in mega litres</t>
+  </si>
+  <si>
+    <t>About 39 megalitres of water was used by Council for indoor operations in the year to June 2015.</t>
+  </si>
+  <si>
+    <t>This is an interim figure only!!!</t>
+  </si>
+  <si>
+    <t>Data to be added. This is just test data!!!</t>
+  </si>
+  <si>
+    <t>Percentage (with 95% CI)</t>
+  </si>
+  <si>
+    <t>Index score (with 95% CI)</t>
+  </si>
+  <si>
+    <t>Approximately 41 per cent of kerbside waste is collected diverted from landfill (in to the recyclable and green organics streams).</t>
+  </si>
+  <si>
+    <t>The unemployment rate in Moonee Valley has decreased since June 2017. There are pockets of higher unemployment in Flemington and Ascot Vale. The unemployment rate is heavily dependent on policies at other levels of government and also macroeconomic conditions.</t>
+  </si>
+  <si>
+    <t>Number of fatalities and serious injuries on roads within Moonee Valley in the calendar year</t>
+  </si>
+  <si>
+    <t>VicRoads CrashStats (Persons by injury level and year)</t>
+  </si>
+  <si>
+    <t>In 2018, there were four fatalities and 19 serious injuries in roads within Moonee Valley.</t>
+  </si>
+  <si>
+    <t>Deaths and serious injuries (combined)</t>
+  </si>
+  <si>
+    <t>To mitigate the effects of climate change, demonstrate leadership to the community in providing positive contribution to reducing emissions as part of a larger, worldwide effort to make progress to reduce global carbon emissions and reducing costs associated with energy consumption.</t>
+  </si>
+  <si>
+    <t>Important to understand our community emissions and where they are generated in order to support reductions within the community to help mitigate the effects of climate change.</t>
+  </si>
+  <si>
+    <t>To help mitigate the effects of climate change and urban heat by increasing vegetation in the street to cool the city, and to adapt to increasing heat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Important to understand where water is being used to target areas to reduce potable water consumption and reuse strormwater where possible. </t>
+  </si>
+  <si>
+    <t>To understand opportunities to reuse the stormwater where possible to create a water sensitive city and to treat stormwater prior to discharge to local waterways.</t>
+  </si>
+  <si>
+    <t>To help mitigate the effects of climate change and urban heat by increasing tree canopy cover to help cool the city.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To encourage the community to adapt and live more sustainably in order to reduce impacts on the environment. </t>
+  </si>
+  <si>
+    <t>Net carbon emissions from Council's operations have been decreasing since 2007.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Important to understand where water is being used to target areas to reduce potable water consumption to use water more sustainably. </t>
+  </si>
+  <si>
+    <t>Reducing waste, increasing reuse, recycling and other forms of resource recovery will reduce waste sent to landfill. If products are not reused or recycled and sent to landfill, then new material has to come from our environment to create new products. This uses energy, water and other natural resources. Greenhouse gases, which contribute to climate change, are created by the production and transport of materials as well as through rotting organic material in landfill. There is also less and less space available for landfill sites.</t>
+  </si>
+  <si>
+    <t>Sustainability</t>
+  </si>
+  <si>
+    <t>Urban Design</t>
+  </si>
+  <si>
+    <t>Facilities Management</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Who_Rationale</t>
+  </si>
+  <si>
+    <t>Economic Development</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>Social Planning and Wellbeing</t>
+  </si>
+  <si>
+    <t>Libraries</t>
+  </si>
+  <si>
+    <t>Community Development</t>
+  </si>
+  <si>
+    <t>Family and Childrens Services</t>
+  </si>
+  <si>
+    <t>Strategic Planning</t>
+  </si>
+  <si>
+    <t>Corporate Planning</t>
+  </si>
+  <si>
+    <t>Increasing the use of active and sustainable transport modes reduces congestion, while also improving health outcomes through increased physical activity.</t>
+  </si>
+  <si>
+    <t>Access to green space provides amenity as well as opportunities for physical exercise and improved mental health. Green space can also improve air quality and heat management, making a city more liveable.</t>
+  </si>
+  <si>
+    <t>Calculated from the Public Transport Victoria (PTV) General Transit Feed Specification (GTFS) dataset and Council data</t>
+  </si>
+  <si>
+    <t>Seeking to understand how vulnerable the general population is in an extreme weather event or power outage, and what response they would have to enable better planning of emergency management approaches. The better prepared or resilient the community is, the less they will have to rely on Council services and the less likely they will be to rely on emergency refuges / community centres to seek relief.</t>
+  </si>
+  <si>
+    <t>Victorian Child and Adolescent Monitoring System (VCAMS), Indicator 31.1a Kindergarten participation rate</t>
+  </si>
+  <si>
+    <t>The unemployment rate is an indicator of the amount of spare capacity in a city's labour market. Being unemployed also has implications for a person's economic, social and emotional wellbeing.</t>
+  </si>
+  <si>
+    <t>Community Infrastructure</t>
+  </si>
+  <si>
+    <t>To ensure that our open spaces meet the needs of the community through the implementation of Master Plans, upgrades and renewals. Council is effectively managing Open Space Contributions as per Amendment C98.</t>
+  </si>
+  <si>
+    <t>Council aims to meet best practice provision of open space using World Health Organisation and State Government targets.</t>
+  </si>
+  <si>
+    <t>It is important to ensure that we are providing a diversity of open space which caters for all the community.</t>
+  </si>
+  <si>
+    <t>Since June 2018, 12 out of 220 open spaces and one streetscape have been upgraded. These include: Woodlands Park Stage 1 and 2; Rosehill Park Stage 1; Playspace Upgrades x 4; Cross Keys (new pathways); Union Road Stage 3; Green Spine Lighting installation; and Playspace upgrades x 4.</t>
+  </si>
+  <si>
+    <t>Open space provision is at about 4.1 hectares per 1,000 population. Our provision of 41 sqm per person is greater than the State Government's standard of 26 sqm per person.</t>
+  </si>
+  <si>
+    <t>Moonee Valley’s 2018/19 result of 49 is lower than both the state (55.88) and similar council (64.56) averages. It is also a decrease in comparison to Moonee Valley's 2017/18 result (52).</t>
+  </si>
+  <si>
+    <t>Councils should act wisely for the community. A higher level of community satisfaction suggests an improvement in council decision making.</t>
+  </si>
+  <si>
+    <t>Moonee Valley’s Transport Safety Strategy adopted the Safe System approach in 2016. This approach will prioritise safe people, safe speeds, safe vehicles and safe roads and will assist us to achieve our goal of zero fatalities and serious injuries within Moonee Valley.</t>
+  </si>
+  <si>
+    <t>Australian Bureau of Statistics (6524.0.55.002 - Estimates of Personal Income for Small Areas)</t>
+  </si>
+  <si>
+    <t>Australian Bureau of Statistics (Census of Population and Housing)</t>
+  </si>
+  <si>
+    <t>Calculated from aerial photographs (NIR) and elevation (LiDAR) data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefits of volunteering include: increased health and wellbeing; pathways to employment; service delivery; and increased community resilience. The nature and extent of volunteering is changing in Moonee Valley and across the state of Victoria. Unless action is taken to protect and enhance volunteering, there is a risk that the benefits of volunteering will be lost. All levels of government are dependent on volunteering to enable service delivery across sectors including health, education, sporting, social, aged-care and environment where government leverages organisations with voluntary workforces. </t>
+  </si>
+  <si>
+    <t>The rate of volunteering in Moonee Valley increased from between 2011 and 2016, but remains below the rate for Victoria (19.2 per cent). While the number of volunteers increased, the amount of time given by volunteers decreased across all sectors and the rate of volunteering remains lower among disadvantaged communities. The volunteering contribution is dependent on policies at other levels of government, particularly those that prioritise the allocation of time to making monetised contributions above non-monetised contributions.</t>
+  </si>
+  <si>
+    <t>Based on the target in the Creating Liveable Cities in Australia document from RMIT.</t>
+  </si>
+  <si>
+    <t>Community Survey (baseline data from the 2011 VicHealth Indicators Survey)</t>
+  </si>
+  <si>
+    <t>More people working in the municipality means we are boosting our local economy. Working closer to home also holds a range of environmental, social and health benefits.  </t>
+  </si>
+  <si>
+    <t>Council wants to understand whether its leisure, sport and recreation facilities are meeting your needs in regards to accessibility, quality, and the provision of support to live a healthy lifestyle.</t>
+  </si>
+  <si>
+    <t>Index score</t>
+  </si>
+  <si>
+    <t>Influence</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Advocate</t>
+  </si>
+  <si>
+    <t>The proportion of adults who meet the physical activity guidelines (Australia’s Physical Activity and Sedentary Behaviour Guidelines for Adults (18-64 years), DoH, 2014)</t>
+  </si>
+  <si>
+    <t>Library usage</t>
+  </si>
+  <si>
+    <t>Total number of branch library visits per resident</t>
+  </si>
+  <si>
+    <t>Visits per resident</t>
+  </si>
+  <si>
+    <t>Public Libraries Victoria (Annual Statistics); Australian Bureau of Statistics (Regional Population Growth - previous year)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The kindergarten enrolment rate in Moonee Valley is around 92 per cent. While, enrolment is the commonly measured figure, it does not accurately represent the true participation rate. The attendance rate is a better measure of kindergarten participation, but is not currently measured. </t>
+  </si>
+  <si>
+    <t>There were approximately 6.2 library visits per population to library branches in the municipality in 2018-19. This is higher than in 2017-18, but lower than in previous years. It should be noted that physical usage is only one indicator of library use, as digital services and resources can be accessed from everywhere.</t>
+  </si>
+  <si>
+    <t>Public library usage supports and contributes to a well-educated and thriving community by providing free and equal access to information, learning opportunities and related services, as well as actively contributing to social inclusion.</t>
+  </si>
+  <si>
+    <t>Projects per 100,000 population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The level of vulnerability can have multiple impacts on service delivery. This includes changes to Kindergarten allocation outcomes for the community Priority of Access as well as the need for more resources to run existing services. Vulnerability is a measure used at times when applying for grants as a criteria, particularly state / federal government. </t>
+  </si>
+  <si>
+    <t>Enrolment can be compared to the total number of places offered across the municipality, and for consideration of future provision. This is the measure used by the Department of Education and Training. Often, families are not aware of the importance of kindergarten or are uncertain of the processes, so don’t engage with the service. This is preventable if we are aware of where in the community children are not attending. Further work is needed to reduce the proportion of those who are not participating.  </t>
+  </si>
+  <si>
+    <t>The ultimate road safety aim is to achieve the vision of no road deaths or serios injuries – a future where every journey is a safe one. Council shares this vision with relevant road safety partners such as the Transport Accident Commission (TAC).</t>
+  </si>
+  <si>
+    <t>Speed is one of the major factors contributing to accidents on Victoria's roads and research shows small changes in speed can result in a significant reduction in road trauma. Council is therefore investigating reducing the default speed limit (50km/h) to 40km/h in all local roads within the municipality. Lower speed limits (30km/h) are also being investigated for nominated streets within activity centres.</t>
+  </si>
+  <si>
+    <t>This is an interim figure only!!!  ----- At present there are numerous local roads with a speed limit of 40km/h, and we have an ongoing CAPEX project, where we implement 40km/h speed limit in further local roads each year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A well-integrated and accessible public transport system has potential to reduce traffic congestion in a city and improve residents' access to jobs and goods and services. Reducing reliance on private vehicle travel also has significant safety, health, social and environmental benefits. </t>
+  </si>
+  <si>
+    <t>Contribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By 2040, more people will be socially isolated, with adverse health impacts.  Health or mortality impacts from social isolation are in the same order as smoking. Social connection and feeling part of the community is important for healthy, connected and thriving neighbourhoods. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Australia, one in five people have experienced race-based discrimination.  Moonee Valley is diverse with one third of residents speaking a language other than English at home. Communities that value multiculturalism and are socially cohesive are more productive, have a greater sense of belonging, increased civic participation and improved wellbeing for the whole community. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moonee Valley is made up of 13 neighbourhoods. Some of these neighbourhoods have good access to community facilities, while others have poor access. Walkable neighbourhoods where facilities and services are within a walkable network creates safe, socially cohesive and sustainable neighbourhoods. </t>
+  </si>
+  <si>
+    <t>Physical inactivity in Australia detracts from social and economic prosperity and puts a burden on the healthcare system, reduces economic productivity and lowers life expectancy. Increasing physical activity will help improve mental health and wellbeing, build safer and connected communities.</t>
+  </si>
+  <si>
+    <t>Better health is central to happiness and wellbeing. Self-assessed health status helps to understand how our community perceive their own health in relation to being overweight or obese, high risk drinkers, smokers or having a sedentary lifestyle. Research has also shown that self-assessed health is a predictor of mortality and morbidity (ABS, 2020).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lack of affordable housing is a major contributor to homelessness which is one of the clearest indicators of disadvantage and social exclusion. Affordable housing is a human right and access to safe, secure and appropriate housing will help encourage our community’s ability to participate in life. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor mental health can be associated with reduced physical health and fitness, lower life expectancy and higher morbidity. Positive mental health and wellbeing help to build community resilience and encourage our community to be productive and contribute to our community. </t>
+  </si>
+  <si>
+    <t>Aspirational target for the majority of properties to have access to frequent public transport services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building new developments within a 400-800m walking distance is generally in line with the Transit Oriented Development (TOD) principles. Increasing density in activity centres, which are generally well serviced by public transport, is outlined in the Plan Melbourne strategy, which Council follows. As such, a significant number of new dwellings is and will continue to be built in activity centres. </t>
+  </si>
+  <si>
+    <t>It is important to ensure that all members of the community can use our Council facilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The proportion of children who are not developmentally vulnerable on one or more domains has been slowly increasing. Increasing vulnerability levels can have multiple impacts on service delivery. Increasing vulnerability results in a change in the kindergarten allocation outcomes for the community based on the priority of access, meaning that the community can at times miss out on kindergarten places due to children with higher needs being allocated available places. More resources may also be required (for example, additional staff outside of the ratio to ensure appropriate provision of support for all children). </t>
+  </si>
+  <si>
+    <t>About 58 per cent of adults did required amount of physical activity as wet out by Australia’s physical activity and sedentary behaviour guidelines (Department of Health, 2014).</t>
+  </si>
+  <si>
+    <t>About 80 per cent of Council's facilities are disability accessible. This is up from 75 per cent in 2018.</t>
+  </si>
+  <si>
+    <t>The lowest non-interface, metropolitan council figure from 2015/16 (Greater Dandenong).</t>
+  </si>
+  <si>
+    <t>Aspirational target based on the desire to have residents feel part of the community.</t>
+  </si>
+  <si>
+    <t>Aspirational target based on the desire to have residents valuing other cultures.</t>
+  </si>
+  <si>
+    <t>Aspirational target (TBC on when initial data is calculated).</t>
+  </si>
+  <si>
+    <t>Aspirational target for safer streets.</t>
+  </si>
+  <si>
+    <t>Highest metropolitan result in 2017 survey (Port Philip).</t>
+  </si>
+  <si>
+    <t>Lowest metropolitan result in the 2017 VPHS (Boroondara).</t>
+  </si>
+  <si>
+    <t>Aspirational target for a healthier population.</t>
+  </si>
+  <si>
+    <t>Lowest metropolitan result in the 2018 AEDC (Bayside).</t>
+  </si>
+  <si>
+    <t>Increase of 5% on the estimate for metropolitan councils in 2019.</t>
+  </si>
+  <si>
+    <t>Decrease  of 5% from baseline to 2040.</t>
+  </si>
+  <si>
+    <t>Lowest metropolitan result in June 2018 SALM (Nillumbik).</t>
+  </si>
+  <si>
+    <t>Highest metropolitan result in 2016 Census (Boroondara).</t>
+  </si>
+  <si>
+    <t>Increase of 5% from baseline to 2040.</t>
+  </si>
+  <si>
+    <t>Highest non-interface metropolitan result in 2016 Census (Frankston).</t>
+  </si>
+  <si>
+    <t>Target set in MV2040.</t>
+  </si>
+  <si>
+    <t>From the Council aim of progress towards zero trauma vision and in line with Victorian Public Health Framework.</t>
+  </si>
+  <si>
+    <t>Aspirational target based on action in the MV Transport Safety Strategy.</t>
+  </si>
+  <si>
+    <t>Increase of 30% from baseline to 2040.</t>
+  </si>
+  <si>
+    <t>Target set in the 2040 Vision - A water sensitive city document.</t>
+  </si>
+  <si>
+    <t>Desire for all buildings to be disability accessible under the Disability Discrimination Act.</t>
+  </si>
+  <si>
+    <t>All open spaces to be upgraded by 2040.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Moonee Valley, income inequality is increasing. More equal communities are healthier and happier. “If rising inequality is not properly monitored and addressed, it can lead to various sorts of political, economic, and social catastrophes” (World Inequality Report, 2018). </t>
+  </si>
+  <si>
+    <t>The extent to which feeling safe or unsafe can affect health and wellbeing. If people feel unsafe in their local community, it can adversely influence their social activities and interactions. Safe neighbourhoods help create connected, healthy and thriving communities.</t>
+  </si>
+  <si>
+    <t>Proportion of open spaces upgraded since 2018</t>
+  </si>
+  <si>
+    <t>The proportion of residents who rate their household's ability to cope with climate related impacts as either 'well' or 'very well'</t>
+  </si>
+  <si>
+    <t>The percentage of residents who either select 'safe' or 'very safe' when walking alone in their local area during the night</t>
+  </si>
+  <si>
+    <t>T091</t>
+  </si>
+  <si>
     <t>Technology ready</t>
   </si>
   <si>
-    <t>Low carbon</t>
-  </si>
-  <si>
-    <t>Climate adapted</t>
-  </si>
-  <si>
-    <t>Quality design</t>
-  </si>
-  <si>
-    <t>Engaged</t>
-  </si>
-  <si>
-    <t>Visits to green space</t>
-  </si>
-  <si>
-    <t>Upgraded open space</t>
-  </si>
-  <si>
-    <t>Open space provision</t>
-  </si>
-  <si>
-    <t>19 – A city with vibrant and safe public spaces</t>
-  </si>
-  <si>
-    <t>Our city is regarded a beautiful place with a diversity of spaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Council data, Annual Report, Smarty Grants  </t>
-  </si>
-  <si>
-    <t>Total number of community-run projects and events supported through community funding program per financial year per 100,000 population</t>
-  </si>
-  <si>
-    <t>Increase</t>
-  </si>
-  <si>
-    <t>Proportion of Council facilities that are disability accessible</t>
-  </si>
-  <si>
-    <t>Goal (Target)</t>
-  </si>
-  <si>
-    <t>The proportion of local roads with a speed limit of 40km/h</t>
-  </si>
-  <si>
-    <t>Proportion of parking spots in activity centres with smart parking sensors installed</t>
-  </si>
-  <si>
-    <t>Net carbon emissions from Council’s operations (tonnes)</t>
-  </si>
-  <si>
-    <t>Total carbon emissions from the community (tonnes)</t>
-  </si>
-  <si>
-    <t>Employment self-sufficiency</t>
-  </si>
-  <si>
-    <t>The proportion of jobs in Moonee Valley filled by residents of Moonee Valley</t>
-  </si>
-  <si>
-    <t>The proportion of households that have made changes either to their homes or lifestyles to become more resilient to climate impacts.</t>
-  </si>
-  <si>
-    <t>Households with housing costs that represent 30 per cent or more of household gross income</t>
-  </si>
-  <si>
-    <t>Index score - satisfaction with recreation facilities</t>
-  </si>
-  <si>
-    <t>Proportion of those who work in Moonee Valley who travel to work by public or active transport (MTW06P)</t>
-  </si>
-  <si>
-    <t>Decrease</t>
-  </si>
-  <si>
-    <t>Proportion of activity centres with public Wi-Fi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The proportion of children who are NOT developmentally vulnerable on one or more domain with their social, emotional, physical and communication development </t>
-  </si>
-  <si>
-    <t>Value multiculturalism</t>
-  </si>
-  <si>
-    <t>Walkable access to facilities</t>
-  </si>
-  <si>
-    <t>Safe walking at night</t>
-  </si>
-  <si>
-    <t>Children on-track</t>
-  </si>
-  <si>
-    <t>Council decision-making</t>
-  </si>
-  <si>
-    <t>Grant funded community-led events</t>
-  </si>
-  <si>
-    <t>Recreation facilities</t>
-  </si>
-  <si>
-    <t>Public Wi-Fi</t>
-  </si>
-  <si>
-    <t>Proximity to frequent public transport</t>
-  </si>
-  <si>
-    <t>Sustainable transport to work</t>
-  </si>
-  <si>
-    <t>Safe road speeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parking technology </t>
-  </si>
-  <si>
-    <t>Council carbon emissions</t>
-  </si>
-  <si>
-    <t>Community carbon emissions</t>
-  </si>
-  <si>
-    <t>Stormwater into local waterways</t>
-  </si>
-  <si>
-    <t>Extreme weather event preparedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sustainable behaviour </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disability accessible facilities </t>
-  </si>
-  <si>
-    <t>Proximity to green space</t>
-  </si>
-  <si>
-    <t>Zero trauma vision</t>
-  </si>
-  <si>
-    <t>Calculated from spatial data</t>
-  </si>
-  <si>
-    <t>Across Moonee Valley there is increased participation and value placed in the arts, sport, culture and community-run events</t>
-  </si>
-  <si>
-    <t>F011</t>
-  </si>
-  <si>
-    <t>F013</t>
-  </si>
-  <si>
-    <t>F012</t>
-  </si>
-  <si>
-    <t>F021</t>
-  </si>
-  <si>
-    <t>F031</t>
-  </si>
-  <si>
-    <t>F032</t>
-  </si>
-  <si>
-    <t>F041</t>
-  </si>
-  <si>
-    <t>F051</t>
-  </si>
-  <si>
-    <t>F033</t>
-  </si>
-  <si>
-    <t>T061</t>
-  </si>
-  <si>
-    <t>T062</t>
-  </si>
-  <si>
-    <t>T063</t>
-  </si>
-  <si>
-    <t>T064</t>
-  </si>
-  <si>
-    <t>T071</t>
-  </si>
-  <si>
-    <t>T081</t>
-  </si>
-  <si>
-    <t>T082</t>
-  </si>
-  <si>
-    <t>T091</t>
-  </si>
-  <si>
-    <t>C101</t>
-  </si>
-  <si>
-    <t>C102</t>
-  </si>
-  <si>
-    <t>C103</t>
-  </si>
-  <si>
-    <t>C111</t>
-  </si>
-  <si>
-    <t>C112</t>
-  </si>
-  <si>
-    <t>C121</t>
-  </si>
-  <si>
-    <t>G131</t>
-  </si>
-  <si>
-    <t>G141</t>
-  </si>
-  <si>
-    <t>G151</t>
-  </si>
-  <si>
-    <t>G161</t>
-  </si>
-  <si>
-    <t>B181</t>
-  </si>
-  <si>
-    <t>B191</t>
-  </si>
-  <si>
-    <t>B202</t>
-  </si>
-  <si>
-    <t>G132</t>
-  </si>
-  <si>
-    <t>G142</t>
-  </si>
-  <si>
-    <t>G143</t>
-  </si>
-  <si>
-    <t>G144</t>
-  </si>
-  <si>
-    <t>G145</t>
-  </si>
-  <si>
-    <t>G162</t>
-  </si>
-  <si>
-    <t>B201</t>
-  </si>
-  <si>
-    <t>B203</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>value_format</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>baseline</t>
-  </si>
-  <si>
-    <t>progress</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>F034</t>
-  </si>
-  <si>
-    <t>F035</t>
-  </si>
-  <si>
-    <t>Sustainable travel to jobs in Moonee Valley</t>
-  </si>
-  <si>
-    <t>value_unit</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>upper</t>
-  </si>
-  <si>
-    <t>Total volume of stormwater discharged in to local water ways (megalitres)</t>
-  </si>
-  <si>
-    <t>The percentage of respondents who agree (six or higher out of ten)</t>
-  </si>
-  <si>
-    <t>The percentage of respondents who agree (six or higher out of ten) with the statement "I value living in Moonee Valley because of its multiculturalism"</t>
-  </si>
-  <si>
-    <t>theme</t>
-  </si>
-  <si>
-    <t>sd#</t>
-  </si>
-  <si>
-    <t>Ratio</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>Tonnes</t>
-  </si>
-  <si>
-    <t>Trees</t>
-  </si>
-  <si>
-    <t>Megalitres</t>
-  </si>
-  <si>
-    <t>Calculated from Council data</t>
-  </si>
-  <si>
-    <t>Calculated from Council and ABS data</t>
-  </si>
-  <si>
-    <t>Commentary</t>
-  </si>
-  <si>
-    <t>Kerbside waste collected and diverted from landfill</t>
-  </si>
-  <si>
-    <t>Why is this important? Add some information here.</t>
-  </si>
-  <si>
-    <t>The percentage of people who have visited local green space weekly or more often</t>
-  </si>
-  <si>
-    <t>prior</t>
-  </si>
-  <si>
-    <t>Department of Employment, Skills, Small and Family Business – Small Area Labour Market (SALM) data</t>
-  </si>
-  <si>
-    <t>Desired</t>
-  </si>
-  <si>
-    <t>Proportion of properties with good accessibility to community facilities based on walkable network distance (methodology to be defined)</t>
-  </si>
-  <si>
-    <t>The ratio of income distribution between the top 20 per cent of households (P80) and the bottom 20 per cent (P20) decreased to 4.72 in 2013, but has risen since.</t>
-  </si>
-  <si>
-    <t>In 2019, around 67 per cent of residents felt agreed that they felt part of the community.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2019, around 60 per cent of residents  valued living in Moonee Valley because of its multiculturalism. </t>
-  </si>
-  <si>
-    <t>Less than half of all Moonee Valley residents feel safe walking alone in thei local area at night.</t>
-  </si>
-  <si>
-    <t>About two-thirds of respondents reported either 'very good' or 'excellent' health.</t>
-  </si>
-  <si>
-    <t>About 12.5 per cent of adults had high or very high levels of psychological distress.</t>
-  </si>
-  <si>
-    <t>The proportion of households with housing costs that represented 30 per cent or more of household income decrease between 2011 and 2016.</t>
-  </si>
-  <si>
-    <t>Number of first year children enrolled in kindergarten divided by the number of 3 year old children (70%) and 4 year old children (30%) based on the previous year's estimated resident population</t>
-  </si>
-  <si>
-    <t>Around one-third of jobs in Moonee Valley are filled by residents of the municipality.</t>
-  </si>
-  <si>
-    <t>There were approximately 47 community run projects supported by grants per 100,000 population in the 2018/19 financial year.</t>
-  </si>
-  <si>
-    <t>The satisfaction with recreation facilities remained steady between 2018 and 2019.</t>
-  </si>
-  <si>
-    <t>About 23 per cent of Moonee Valley residents travel to work by either public transport, cycling or walking. This is an increase from the 2011 figure.</t>
-  </si>
-  <si>
-    <t>About 11 per cent of workers travel to jobs in Moonee Valley using public transport, by walking or cycling. This is slightly higher than in 2011.</t>
-  </si>
-  <si>
-    <t>There are 1,500 parking sensors installed in parking spaces in activity centres within Moonee Valley.</t>
-  </si>
-  <si>
-    <t>Carbon emissions from the community were at 1.3 million tonnes in the year to June 2018.</t>
-  </si>
-  <si>
-    <t>The number of street trees within Moonee Valley is increasing.</t>
-  </si>
-  <si>
-    <t>About 12,000 megalitres of stormwater were discharged in to local waterways in the year to June 2015.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagery from 2018 shows that about 17 per cent of the municipality is covered by tree canopy. </t>
-  </si>
-  <si>
-    <t>There were about 127 megalitres of potable water used outdoors in the municipality in the year to June 2015.</t>
-  </si>
-  <si>
-    <t>Indoor potable water use by Council in megalitres</t>
-  </si>
-  <si>
-    <t>Outdoor potable water use by Council in mega litres</t>
-  </si>
-  <si>
-    <t>About 39 megalitres of water was used by Council for indoor operations in the year to June 2015.</t>
-  </si>
-  <si>
-    <t>This is an interim figure only!!!</t>
-  </si>
-  <si>
-    <t>Data to be added. This is just test data!!!</t>
-  </si>
-  <si>
-    <t>Percentage (with 95% CI)</t>
-  </si>
-  <si>
-    <t>Index score (with 95% CI)</t>
-  </si>
-  <si>
-    <t>Approximately 41 per cent of kerbside waste is collected diverted from landfill (in to the recyclable and green organics streams).</t>
-  </si>
-  <si>
-    <t>The unemployment rate in Moonee Valley has decreased since June 2017. There are pockets of higher unemployment in Flemington and Ascot Vale. The unemployment rate is heavily dependent on policies at other levels of government and also macroeconomic conditions.</t>
-  </si>
-  <si>
-    <t>Number of fatalities and serious injuries on roads within Moonee Valley in the calendar year</t>
-  </si>
-  <si>
-    <t>VicRoads CrashStats (Persons by injury level and year)</t>
-  </si>
-  <si>
-    <t>In 2018, there were four fatalities and 19 serious injuries in roads within Moonee Valley.</t>
-  </si>
-  <si>
-    <t>Deaths and serious injuries (combined)</t>
-  </si>
-  <si>
-    <t>To mitigate the effects of climate change, demonstrate leadership to the community in providing positive contribution to reducing emissions as part of a larger, worldwide effort to make progress to reduce global carbon emissions and reducing costs associated with energy consumption.</t>
-  </si>
-  <si>
-    <t>Important to understand our community emissions and where they are generated in order to support reductions within the community to help mitigate the effects of climate change.</t>
-  </si>
-  <si>
-    <t>To help mitigate the effects of climate change and urban heat by increasing vegetation in the street to cool the city, and to adapt to increasing heat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Important to understand where water is being used to target areas to reduce potable water consumption and reuse strormwater where possible. </t>
-  </si>
-  <si>
-    <t>To understand opportunities to reuse the stormwater where possible to create a water sensitive city and to treat stormwater prior to discharge to local waterways.</t>
-  </si>
-  <si>
-    <t>To help mitigate the effects of climate change and urban heat by increasing tree canopy cover to help cool the city.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To encourage the community to adapt and live more sustainably in order to reduce impacts on the environment. </t>
-  </si>
-  <si>
-    <t>Net carbon emissions from Council's operations have been decreasing since 2007.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Important to understand where water is being used to target areas to reduce potable water consumption to use water more sustainably. </t>
-  </si>
-  <si>
-    <t>Reducing waste, increasing reuse, recycling and other forms of resource recovery will reduce waste sent to landfill. If products are not reused or recycled and sent to landfill, then new material has to come from our environment to create new products. This uses energy, water and other natural resources. Greenhouse gases, which contribute to climate change, are created by the production and transport of materials as well as through rotting organic material in landfill. There is also less and less space available for landfill sites.</t>
-  </si>
-  <si>
-    <t>Sustainability</t>
-  </si>
-  <si>
-    <t>Urban Design</t>
-  </si>
-  <si>
-    <t>Facilities Management</t>
-  </si>
-  <si>
-    <t>Parking</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Who_Rationale</t>
-  </si>
-  <si>
-    <t>Economic Development</t>
-  </si>
-  <si>
-    <t>Leisure</t>
-  </si>
-  <si>
-    <t>Social Planning and Wellbeing</t>
-  </si>
-  <si>
-    <t>Libraries</t>
-  </si>
-  <si>
-    <t>Community Development</t>
-  </si>
-  <si>
-    <t>Family and Childrens Services</t>
-  </si>
-  <si>
-    <t>Strategic Planning</t>
-  </si>
-  <si>
-    <t>Corporate Planning</t>
-  </si>
-  <si>
-    <t>Increasing the use of active and sustainable transport modes reduces congestion, while also improving health outcomes through increased physical activity.</t>
-  </si>
-  <si>
-    <t>Access to green space provides amenity as well as opportunities for physical exercise and improved mental health. Green space can also improve air quality and heat management, making a city more liveable.</t>
-  </si>
-  <si>
-    <t>Calculated from the Public Transport Victoria (PTV) General Transit Feed Specification (GTFS) dataset and Council data</t>
-  </si>
-  <si>
-    <t>Seeking to understand how vulnerable the general population is in an extreme weather event or power outage, and what response they would have to enable better planning of emergency management approaches. The better prepared or resilient the community is, the less they will have to rely on Council services and the less likely they will be to rely on emergency refuges / community centres to seek relief.</t>
-  </si>
-  <si>
-    <t>Victorian Child and Adolescent Monitoring System (VCAMS), Indicator 31.1a Kindergarten participation rate</t>
-  </si>
-  <si>
-    <t>The unemployment rate is an indicator of the amount of spare capacity in a city's labour market. Being unemployed also has implications for a person's economic, social and emotional wellbeing.</t>
-  </si>
-  <si>
-    <t>Community Infrastructure</t>
-  </si>
-  <si>
-    <t>To ensure that our open spaces meet the needs of the community through the implementation of Master Plans, upgrades and renewals. Council is effectively managing Open Space Contributions as per Amendment C98.</t>
-  </si>
-  <si>
-    <t>Council aims to meet best practice provision of open space using World Health Organisation and State Government targets.</t>
-  </si>
-  <si>
-    <t>It is important to ensure that we are providing a diversity of open space which caters for all the community.</t>
-  </si>
-  <si>
-    <t>Since June 2018, 12 out of 220 open spaces and one streetscape have been upgraded. These include: Woodlands Park Stage 1 and 2; Rosehill Park Stage 1; Playspace Upgrades x 4; Cross Keys (new pathways); Union Road Stage 3; Green Spine Lighting installation; and Playspace upgrades x 4.</t>
-  </si>
-  <si>
-    <t>Open space provision is at about 4.1 hectares per 1,000 population. Our provision of 41 sqm per person is greater than the State Government's standard of 26 sqm per person.</t>
-  </si>
-  <si>
-    <t>Moonee Valley’s 2018/19 result of 49 is lower than both the state (55.88) and similar council (64.56) averages. It is also a decrease in comparison to Moonee Valley's 2017/18 result (52).</t>
-  </si>
-  <si>
-    <t>Councils should act wisely for the community. A higher level of community satisfaction suggests an improvement in council decision making.</t>
-  </si>
-  <si>
-    <t>Moonee Valley’s Transport Safety Strategy adopted the Safe System approach in 2016. This approach will prioritise safe people, safe speeds, safe vehicles and safe roads and will assist us to achieve our goal of zero fatalities and serious injuries within Moonee Valley.</t>
-  </si>
-  <si>
-    <t>Australian Bureau of Statistics (6524.0.55.002 - Estimates of Personal Income for Small Areas)</t>
-  </si>
-  <si>
-    <t>Australian Bureau of Statistics (Census of Population and Housing)</t>
-  </si>
-  <si>
-    <t>Calculated from aerial photographs (NIR) and elevation (LiDAR) data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benefits of volunteering include: increased health and wellbeing; pathways to employment; service delivery; and increased community resilience. The nature and extent of volunteering is changing in Moonee Valley and across the state of Victoria. Unless action is taken to protect and enhance volunteering, there is a risk that the benefits of volunteering will be lost. All levels of government are dependent on volunteering to enable service delivery across sectors including health, education, sporting, social, aged-care and environment where government leverages organisations with voluntary workforces. </t>
-  </si>
-  <si>
-    <t>The rate of volunteering in Moonee Valley increased from between 2011 and 2016, but remains below the rate for Victoria (19.2 per cent). While the number of volunteers increased, the amount of time given by volunteers decreased across all sectors and the rate of volunteering remains lower among disadvantaged communities. The volunteering contribution is dependent on policies at other levels of government, particularly those that prioritise the allocation of time to making monetised contributions above non-monetised contributions.</t>
-  </si>
-  <si>
-    <t>Aspiration for increased use of technology to improve efficiency and reduce transport emissions.</t>
-  </si>
-  <si>
-    <t>Based on the target in the Creating Liveable Cities in Australia document from RMIT.</t>
-  </si>
-  <si>
-    <t>Community Survey (baseline data from the 2011 VicHealth Indicators Survey)</t>
-  </si>
-  <si>
-    <t>Ensuring our activity centres are equipped with public wi-fi helps us achieve our objectives to become a ‘smart city’. It allows us to provide more amenities for our residents and visitors, and attract further investment to continue to position our activity centres as economic and community anchors.</t>
-  </si>
-  <si>
-    <t>More people working in the municipality means we are boosting our local economy. Working closer to home also holds a range of environmental, social and health benefits.  </t>
-  </si>
-  <si>
-    <t>Council wants to understand whether its leisure, sport and recreation facilities are meeting your needs in regards to accessibility, quality, and the provision of support to live a healthy lifestyle.</t>
-  </si>
-  <si>
-    <t>Index score</t>
-  </si>
-  <si>
-    <t>Influence</t>
-  </si>
-  <si>
-    <t>Lead</t>
-  </si>
-  <si>
-    <t>Advocate</t>
-  </si>
-  <si>
-    <t>One (Pridham Plaza) of the six activity centres in Moonee Valley has public Wi-Fi.</t>
-  </si>
-  <si>
-    <t>The proportion of adults who meet the physical activity guidelines (Australia’s Physical Activity and Sedentary Behaviour Guidelines for Adults (18-64 years), DoH, 2014)</t>
-  </si>
-  <si>
-    <t>Library usage</t>
-  </si>
-  <si>
-    <t>Total number of branch library visits per resident</t>
-  </si>
-  <si>
-    <t>Visits per resident</t>
-  </si>
-  <si>
-    <t>Public Libraries Victoria (Annual Statistics); Australian Bureau of Statistics (Regional Population Growth - previous year)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The kindergarten enrolment rate in Moonee Valley is around 92 per cent. While, enrolment is the commonly measured figure, it does not accurately represent the true participation rate. The attendance rate is a better measure of kindergarten participation, but is not currently measured. </t>
-  </si>
-  <si>
-    <t>There were approximately 6.2 library visits per population to library branches in the municipality in 2018-19. This is higher than in 2017-18, but lower than in previous years. It should be noted that physical usage is only one indicator of library use, as digital services and resources can be accessed from everywhere.</t>
-  </si>
-  <si>
-    <t>Public library usage supports and contributes to a well-educated and thriving community by providing free and equal access to information, learning opportunities and related services, as well as actively contributing to social inclusion.</t>
-  </si>
-  <si>
-    <t>Projects per 100,000 population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The level of vulnerability can have multiple impacts on service delivery. This includes changes to Kindergarten allocation outcomes for the community Priority of Access as well as the need for more resources to run existing services. Vulnerability is a measure used at times when applying for grants as a criteria, particularly state / federal government. </t>
-  </si>
-  <si>
-    <t>Enrolment can be compared to the total number of places offered across the municipality, and for consideration of future provision. This is the measure used by the Department of Education and Training. Often, families are not aware of the importance of kindergarten or are uncertain of the processes, so don’t engage with the service. This is preventable if we are aware of where in the community children are not attending. Further work is needed to reduce the proportion of those who are not participating.  </t>
-  </si>
-  <si>
-    <t>The ultimate road safety aim is to achieve the vision of no road deaths or serios injuries – a future where every journey is a safe one. Council shares this vision with relevant road safety partners such as the Transport Accident Commission (TAC).</t>
-  </si>
-  <si>
-    <t>Speed is one of the major factors contributing to accidents on Victoria's roads and research shows small changes in speed can result in a significant reduction in road trauma. Council is therefore investigating reducing the default speed limit (50km/h) to 40km/h in all local roads within the municipality. Lower speed limits (30km/h) are also being investigated for nominated streets within activity centres.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The use of innovative transport technology, including parking technology such as the Parking Overstay Detection System (PODS) allows Council to more effectively manage the finite resource that is on-street parking. This is essential in a growing city such as Melbourne where traffic congestion and parking availability issues are a regular occurrence. </t>
-  </si>
-  <si>
-    <t>This is an interim figure only!!!  ----- At present there are numerous local roads with a speed limit of 40km/h, and we have an ongoing CAPEX project, where we implement 40km/h speed limit in further local roads each year.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A well-integrated and accessible public transport system has potential to reduce traffic congestion in a city and improve residents' access to jobs and goods and services. Reducing reliance on private vehicle travel also has significant safety, health, social and environmental benefits. </t>
-  </si>
-  <si>
-    <t>Contribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By 2040, more people will be socially isolated, with adverse health impacts.  Health or mortality impacts from social isolation are in the same order as smoking. Social connection and feeling part of the community is important for healthy, connected and thriving neighbourhoods. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Australia, one in five people have experienced race-based discrimination.  Moonee Valley is diverse with one third of residents speaking a language other than English at home. Communities that value multiculturalism and are socially cohesive are more productive, have a greater sense of belonging, increased civic participation and improved wellbeing for the whole community. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moonee Valley is made up of 13 neighbourhoods. Some of these neighbourhoods have good access to community facilities, while others have poor access. Walkable neighbourhoods where facilities and services are within a walkable network creates safe, socially cohesive and sustainable neighbourhoods. </t>
-  </si>
-  <si>
-    <t>Physical inactivity in Australia detracts from social and economic prosperity and puts a burden on the healthcare system, reduces economic productivity and lowers life expectancy. Increasing physical activity will help improve mental health and wellbeing, build safer and connected communities.</t>
-  </si>
-  <si>
-    <t>Better health is central to happiness and wellbeing. Self-assessed health status helps to understand how our community perceive their own health in relation to being overweight or obese, high risk drinkers, smokers or having a sedentary lifestyle. Research has also shown that self-assessed health is a predictor of mortality and morbidity (ABS, 2020).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lack of affordable housing is a major contributor to homelessness which is one of the clearest indicators of disadvantage and social exclusion. Affordable housing is a human right and access to safe, secure and appropriate housing will help encourage our community’s ability to participate in life. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poor mental health can be associated with reduced physical health and fitness, lower life expectancy and higher morbidity. Positive mental health and wellbeing help to build community resilience and encourage our community to be productive and contribute to our community. </t>
-  </si>
-  <si>
-    <t>Aspirational target for the majority of properties to have access to frequent public transport services.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building new developments within a 400-800m walking distance is generally in line with the Transit Oriented Development (TOD) principles. Increasing density in activity centres, which are generally well serviced by public transport, is outlined in the Plan Melbourne strategy, which Council follows. As such, a significant number of new dwellings is and will continue to be built in activity centres. </t>
-  </si>
-  <si>
-    <t>It is important to ensure that all members of the community can use our Council facilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The proportion of children who are not developmentally vulnerable on one or more domains has been slowly increasing. Increasing vulnerability levels can have multiple impacts on service delivery. Increasing vulnerability results in a change in the kindergarten allocation outcomes for the community based on the priority of access, meaning that the community can at times miss out on kindergarten places due to children with higher needs being allocated available places. More resources may also be required (for example, additional staff outside of the ratio to ensure appropriate provision of support for all children). </t>
-  </si>
-  <si>
-    <t>About 58 per cent of adults did required amount of physical activity as wet out by Australia’s physical activity and sedentary behaviour guidelines (Department of Health, 2014).</t>
-  </si>
-  <si>
-    <t>About 80 per cent of Council's facilities are disability accessible. This is up from 75 per cent in 2018.</t>
-  </si>
-  <si>
-    <t>The lowest non-interface, metropolitan council figure from 2015/16 (Greater Dandenong).</t>
-  </si>
-  <si>
-    <t>Aspirational target based on the desire to have residents feel part of the community.</t>
-  </si>
-  <si>
-    <t>Aspirational target based on the desire to have residents valuing other cultures.</t>
-  </si>
-  <si>
-    <t>Aspirational target (TBC on when initial data is calculated).</t>
-  </si>
-  <si>
-    <t>Aspirational target for safer streets.</t>
-  </si>
-  <si>
-    <t>Highest metropolitan result in 2017 survey (Port Philip).</t>
-  </si>
-  <si>
-    <t>Lowest metropolitan result in the 2017 VPHS (Boroondara).</t>
-  </si>
-  <si>
-    <t>Aspirational target for a healthier population.</t>
-  </si>
-  <si>
-    <t>Lowest metropolitan result in the 2018 AEDC (Bayside).</t>
-  </si>
-  <si>
-    <t>Increase of 5% on the estimate for metropolitan councils in 2019.</t>
-  </si>
-  <si>
-    <t>Decrease  of 5% from baseline to 2040.</t>
-  </si>
-  <si>
-    <t>Lowest metropolitan result in June 2018 SALM (Nillumbik).</t>
-  </si>
-  <si>
-    <t>Highest metropolitan result in 2016 Census (Boroondara).</t>
-  </si>
-  <si>
-    <t>Increase of 5% from baseline to 2040.</t>
-  </si>
-  <si>
-    <t>Highest non-interface metropolitan result in 2016 Census (Frankston).</t>
-  </si>
-  <si>
-    <t>Aspirational target to provide public internet access in public areas.</t>
-  </si>
-  <si>
-    <t>Target set in MV2040.</t>
-  </si>
-  <si>
-    <t>From the Council aim of progress towards zero trauma vision and in line with Victorian Public Health Framework.</t>
-  </si>
-  <si>
-    <t>Aspirational target based on action in the MV Transport Safety Strategy.</t>
-  </si>
-  <si>
-    <t>Increase of 30% from baseline to 2040.</t>
-  </si>
-  <si>
-    <t>Target set in the 2040 Vision - A water sensitive city document.</t>
-  </si>
-  <si>
-    <t>Desire for all buildings to be disability accessible under the Disability Discrimination Act.</t>
-  </si>
-  <si>
-    <t>All open spaces to be upgraded by 2040.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Moonee Valley, income inequality is increasing. More equal communities are healthier and happier. “If rising inequality is not properly monitored and addressed, it can lead to various sorts of political, economic, and social catastrophes” (World Inequality Report, 2018). </t>
-  </si>
-  <si>
-    <t>The extent to which feeling safe or unsafe can affect health and wellbeing. If people feel unsafe in their local community, it can adversely influence their social activities and interactions. Safe neighbourhoods help create connected, healthy and thriving communities.</t>
-  </si>
-  <si>
-    <t>Proportion of open spaces upgraded since 2018</t>
-  </si>
-  <si>
-    <t>The proportion of residents who rate their household's ability to cope with climate related impacts as either 'well' or 'very well'</t>
-  </si>
-  <si>
-    <t>The percentage of residents who either select 'safe' or 'very safe' when walking alone in their local area during the night</t>
+    <t>Enabling Digital Improvement Services</t>
+  </si>
+  <si>
+    <t>Aspiration to increase the services offered digitally and improve customer experience</t>
+  </si>
+  <si>
+    <t>Community continue to have an increased expectation in local government and the enabling of additional services digitally will increase accessibilty and improved better customer experience through the digital transformation program.</t>
+  </si>
+  <si>
+    <t>Proportion of Council services and transactions offered to community that can be completed digitally</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>This is an interim figure only!!!  ----- Council already offer different services which enabled customers to transact online. This measure is to improve the experience and enabled more services.</t>
   </si>
 </sst>
 </file>
@@ -2156,10 +2135,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,7 +2154,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -2183,188 +2163,188 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L4" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L5" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>0</v>
@@ -2373,36 +2353,36 @@
         <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="J6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L6" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>0</v>
@@ -2411,36 +2391,36 @@
         <v>51</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>0</v>
@@ -2449,36 +2429,36 @@
         <v>51</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K8" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L8" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>0</v>
@@ -2487,36 +2467,36 @@
         <v>51</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L9" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>0</v>
@@ -2525,74 +2505,74 @@
         <v>51</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L10" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>0</v>
@@ -2601,984 +2581,984 @@
         <v>53</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="J12" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="J12" t="s">
-        <v>120</v>
-      </c>
       <c r="K12" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L13" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L14" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="J15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L15" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L16" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="J17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="L17" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J18" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="J18" t="s">
-        <v>107</v>
-      </c>
       <c r="K18" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L18" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="J19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K19" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>347</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>348</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>48</v>
+        <v>349</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L20" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="J21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="L21" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="J22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K22" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L22" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="J23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K23" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L23" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K24" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L24" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="J25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K25" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>4</v>
+        <v>160</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>293</v>
+      <c r="G26" s="19" t="s">
+        <v>335</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="J26" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K26" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="J27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K27" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>96</v>
+      <c r="C28" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="19" t="s">
-        <v>350</v>
+      <c r="G28" s="21" t="s">
+        <v>338</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" t="s">
+        <v>289</v>
+      </c>
+      <c r="L28" t="s">
         <v>250</v>
-      </c>
-      <c r="J28" t="s">
-        <v>120</v>
-      </c>
-      <c r="K28" t="s">
-        <v>301</v>
-      </c>
-      <c r="L28" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>90</v>
+      <c r="C29" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>353</v>
+        <v>228</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>339</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J29" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K29" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K30" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>55</v>
+      <c r="C31" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="J31" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K31" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>90</v>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>290</v>
+        <v>227</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J32" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="J33" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>62</v>
+        <v>345</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>243</v>
+        <v>64</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>231</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="J34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K34" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>360</v>
+        <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="J35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>5</v>
+        <v>164</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>240</v>
+        <v>106</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="J36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K36" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>355</v>
+        <v>344</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="J37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K37" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>173</v>
       </c>
@@ -3586,75 +3566,75 @@
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>356</v>
+        <v>68</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>333</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="J38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K38" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>284</v>
+        <v>199</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>230</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="J39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K39" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="L39" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -3662,77 +3642,39 @@
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>294</v>
+        <v>83</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>333</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K40" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L40" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="J41" t="s">
-        <v>107</v>
-      </c>
-      <c r="K41" t="s">
-        <v>320</v>
-      </c>
-      <c r="L41" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K1:K41" xr:uid="{990F7F42-49B6-4F56-90C2-1C86AAAAE40F}"/>
-  <conditionalFormatting sqref="J2:K41">
+  <autoFilter ref="K1:K40" xr:uid="{990F7F42-49B6-4F56-90C2-1C86AAAAE40F}"/>
+  <conditionalFormatting sqref="J2:K40">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Increase">
       <formula>NOT(ISERROR(SEARCH("Increase",J2)))</formula>
     </cfRule>
@@ -3750,28 +3692,28 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -3782,7 +3724,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>0</v>
@@ -3793,7 +3735,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>0</v>
@@ -3804,7 +3746,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>0</v>
@@ -3815,7 +3757,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>0</v>
@@ -3826,7 +3768,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>0</v>
@@ -3837,7 +3779,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>0</v>
@@ -3848,7 +3790,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>0</v>
@@ -3859,7 +3801,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>0</v>
@@ -3870,7 +3812,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>0</v>
@@ -3881,7 +3823,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>0</v>
@@ -3892,7 +3834,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>3</v>
@@ -3903,7 +3845,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>3</v>
@@ -3914,7 +3856,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>3</v>
@@ -3925,7 +3867,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>3</v>
@@ -3936,7 +3878,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>3</v>
@@ -3947,7 +3889,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>3</v>
@@ -3958,7 +3900,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>3</v>
@@ -3969,7 +3911,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>161</v>
+        <v>347</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>3</v>
@@ -3980,7 +3922,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>4</v>
@@ -3991,7 +3933,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>4</v>
@@ -4002,7 +3944,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>4</v>
@@ -4013,7 +3955,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>4</v>
@@ -4024,7 +3966,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>4</v>
@@ -4034,19 +3976,19 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="32">
-        <v>12</v>
+      <c r="A26" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>5</v>
@@ -4057,18 +3999,18 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="15">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>5</v>
@@ -4079,7 +4021,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>5</v>
@@ -4090,7 +4032,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>5</v>
@@ -4101,7 +4043,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>5</v>
@@ -4112,29 +4054,29 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="15">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>5</v>
@@ -4144,25 +4086,25 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="15">
-        <v>16</v>
+      <c r="A36" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="16">
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="16">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4173,12 +4115,12 @@
         <v>6</v>
       </c>
       <c r="C38" s="16">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>6</v>
@@ -4195,17 +4137,6 @@
         <v>6</v>
       </c>
       <c r="C40" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="16">
         <v>20</v>
       </c>
     </row>
@@ -4221,7 +4152,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4231,13 +4162,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4325,7 +4256,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4432,10 +4363,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4459,10 +4390,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4474,27 +4405,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B2" s="29">
         <v>40724</v>
@@ -4503,12 +4434,12 @@
         <v>5.04</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B3" s="29">
         <v>41090</v>
@@ -4517,12 +4448,12 @@
         <v>4.8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B4" s="29">
         <v>41455</v>
@@ -4531,12 +4462,12 @@
         <v>4.72</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B5" s="29">
         <v>41820</v>
@@ -4545,12 +4476,12 @@
         <v>4.79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B6" s="29">
         <v>42185</v>
@@ -4559,12 +4490,12 @@
         <v>4.84</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B7" s="29">
         <v>42551</v>
@@ -4575,12 +4506,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B8" s="29">
         <v>42916</v>
@@ -4591,12 +4522,12 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B9" s="29">
         <v>51317</v>
@@ -4607,12 +4538,12 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B10" s="30">
         <v>43281</v>
@@ -4627,12 +4558,12 @@
         <v>71.158794562405902</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B11" s="30">
         <v>43646</v>
@@ -4647,12 +4578,12 @@
         <v>70.112622314085897</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B12" s="29">
         <v>51317</v>
@@ -4663,12 +4594,12 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B13" s="30">
         <v>43281</v>
@@ -4683,12 +4614,12 @@
         <v>66.167510713120095</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B14" s="30">
         <v>43646</v>
@@ -4703,12 +4634,12 @@
         <v>63.814694958317894</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B15" s="29">
         <v>51317</v>
@@ -4719,12 +4650,12 @@
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B16" s="30">
         <v>43646</v>
@@ -4733,12 +4664,12 @@
         <v>60.699999999999996</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B17" s="29">
         <v>51317</v>
@@ -4747,12 +4678,12 @@
         <v>90</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B18" s="30">
         <v>43281</v>
@@ -4767,12 +4698,12 @@
         <v>51.597672572044409</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B19" s="30">
         <v>43646</v>
@@ -4787,12 +4718,12 @@
         <v>48.833706034554297</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B20" s="29">
         <v>51317</v>
@@ -4803,12 +4734,12 @@
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B21" s="31">
         <v>42916</v>
@@ -4823,12 +4754,12 @@
         <v>63.6</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B22" s="29">
         <v>51317</v>
@@ -4839,12 +4770,12 @@
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B23" s="31">
         <v>41090</v>
@@ -4859,12 +4790,12 @@
         <v>14.5</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B24" s="31">
         <v>41820</v>
@@ -4879,12 +4810,12 @@
         <v>21.1</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B25" s="31">
         <v>42916</v>
@@ -4899,12 +4830,12 @@
         <v>17</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B26" s="29">
         <v>51317</v>
@@ -4915,12 +4846,12 @@
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
       <c r="F26" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B27" s="30">
         <v>43281</v>
@@ -4935,12 +4866,12 @@
         <v>65.605150908988506</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B28" s="30">
         <v>43646</v>
@@ -4955,12 +4886,12 @@
         <v>69.906919042560105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B29" s="29">
         <v>51317</v>
@@ -4971,12 +4902,12 @@
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B30" s="30">
         <v>41090</v>
@@ -4987,12 +4918,12 @@
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B31" s="30">
         <v>42185</v>
@@ -5003,12 +4934,12 @@
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B32" s="30">
         <v>43281</v>
@@ -5019,12 +4950,12 @@
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B33" s="29">
         <v>51317</v>
@@ -5035,14 +4966,14 @@
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
       <c r="F33" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B34" s="30">
         <v>43281</v>
@@ -5057,12 +4988,12 @@
         <v>53.871574222</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B35" s="30">
         <v>43646</v>
@@ -5077,12 +5008,12 @@
         <v>50.539152862397202</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B36" s="29">
         <v>51317</v>
@@ -5093,12 +5024,12 @@
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B37" s="29">
         <v>40764</v>
@@ -5109,12 +5040,12 @@
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B38" s="29">
         <v>42591</v>
@@ -5125,12 +5056,12 @@
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B39" s="29">
         <v>51317</v>
@@ -5141,12 +5072,12 @@
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B40" s="30">
         <v>42551</v>
@@ -5157,12 +5088,12 @@
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B41" s="30">
         <v>42916</v>
@@ -5173,12 +5104,12 @@
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B42" s="30">
         <v>43281</v>
@@ -5189,12 +5120,12 @@
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B43" s="30">
         <v>43646</v>
@@ -5205,12 +5136,12 @@
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B44" s="29">
         <v>51317</v>
@@ -5221,12 +5152,12 @@
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B45" s="29">
         <v>40764</v>
@@ -5237,12 +5168,12 @@
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
       <c r="F45" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B46" s="29">
         <v>42591</v>
@@ -5253,12 +5184,12 @@
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B47" s="29">
         <v>51317</v>
@@ -5269,12 +5200,12 @@
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
       <c r="F47" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B48" s="31">
         <v>42551</v>
@@ -5285,12 +5216,12 @@
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B49" s="31">
         <v>42916</v>
@@ -5301,12 +5232,12 @@
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B50" s="31">
         <v>43281</v>
@@ -5317,12 +5248,12 @@
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B51" s="29">
         <v>51317</v>
@@ -5333,12 +5264,12 @@
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B52" s="30">
         <v>41820</v>
@@ -5349,13 +5280,13 @@
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
       <c r="F52" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G52" s="40"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B53" s="30">
         <v>42185</v>
@@ -5366,13 +5297,13 @@
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G53" s="40"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B54" s="30">
         <v>42551</v>
@@ -5383,13 +5314,13 @@
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
       <c r="F54" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G54" s="40"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B55" s="30">
         <v>42916</v>
@@ -5400,13 +5331,13 @@
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
       <c r="F55" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G55" s="40"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B56" s="30">
         <v>43281</v>
@@ -5417,13 +5348,13 @@
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
       <c r="F56" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G56" s="40"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B57" s="30">
         <v>43646</v>
@@ -5434,13 +5365,13 @@
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
       <c r="F57" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G57" s="40"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B58" s="29">
         <v>51317</v>
@@ -5451,13 +5382,13 @@
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
       <c r="F58" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G58" s="40"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B59" s="29">
         <v>40764</v>
@@ -5468,12 +5399,12 @@
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
       <c r="F59" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B60" s="29">
         <v>42591</v>
@@ -5484,12 +5415,12 @@
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
       <c r="F60" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B61" s="29">
         <v>51317</v>
@@ -5500,12 +5431,12 @@
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B62" s="30">
         <v>43646</v>
@@ -5516,12 +5447,12 @@
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
       <c r="F62" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B63" s="29">
         <v>51317</v>
@@ -5532,12 +5463,12 @@
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
       <c r="F63" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B64" s="30">
         <v>43281</v>
@@ -5552,12 +5483,12 @@
         <v>71.891836587279997</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B65" s="30">
         <v>43646</v>
@@ -5572,12 +5503,12 @@
         <v>71.990952281489598</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B66" s="29">
         <v>51317</v>
@@ -5588,471 +5519,471 @@
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
       <c r="F66" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>161</v>
+        <v>347</v>
       </c>
       <c r="B67" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C67" s="34">
-        <v>0</v>
-      </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
+        <v>43646</v>
+      </c>
+      <c r="C67" s="28">
+        <v>20</v>
+      </c>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
       <c r="F67" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B68" s="30">
-        <v>43646</v>
-      </c>
-      <c r="C68" s="34">
-        <v>16.7</v>
-      </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="7" t="s">
-        <v>189</v>
+        <v>347</v>
+      </c>
+      <c r="B68" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C68" s="28">
+        <v>100</v>
+      </c>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B69" s="29">
-        <v>51317</v>
+      <c r="A69" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="30">
+        <v>43444</v>
       </c>
       <c r="C69" s="34">
-        <v>100</v>
-      </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="1" t="s">
-        <v>190</v>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
-        <v>162</v>
+      <c r="A70" s="37" t="s">
+        <v>155</v>
       </c>
       <c r="B70" s="30">
-        <v>43444</v>
+        <v>43780</v>
       </c>
       <c r="C70" s="34">
-        <v>68.400000000000006</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
       <c r="F70" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B71" s="30">
-        <v>43780</v>
+      <c r="A71" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="29">
+        <v>51317</v>
       </c>
       <c r="C71" s="34">
-        <v>68.099999999999994</v>
+        <v>90</v>
       </c>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
-      <c r="F71" s="7" t="s">
-        <v>189</v>
+      <c r="F71" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
-        <v>162</v>
+      <c r="A72" s="35" t="s">
+        <v>156</v>
       </c>
       <c r="B72" s="29">
-        <v>51317</v>
+        <v>40764</v>
       </c>
       <c r="C72" s="34">
-        <v>90</v>
+        <v>21.6</v>
       </c>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
-      <c r="F72" s="1" t="s">
-        <v>190</v>
+      <c r="F72" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
-        <v>163</v>
+      <c r="A73" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="B73" s="29">
-        <v>40764</v>
+        <v>42591</v>
       </c>
       <c r="C73" s="34">
-        <v>21.6</v>
+        <v>23.6</v>
       </c>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
       <c r="F73" s="7" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B74" s="29">
-        <v>42591</v>
+        <v>51317</v>
       </c>
       <c r="C74" s="34">
-        <v>23.6</v>
+        <v>50.1</v>
       </c>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="7" t="s">
-        <v>188</v>
+      <c r="F74" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
-        <v>163</v>
+      <c r="A75" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B75" s="29">
-        <v>51317</v>
+        <v>40764</v>
       </c>
       <c r="C75" s="34">
-        <v>50.1</v>
+        <v>10.4</v>
       </c>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
       <c r="F75" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="36" t="s">
-        <v>164</v>
+      <c r="A76" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="B76" s="29">
-        <v>40764</v>
+        <v>42591</v>
       </c>
       <c r="C76" s="34">
-        <v>10.4</v>
+        <v>11</v>
       </c>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
-      <c r="F76" s="1" t="s">
-        <v>213</v>
+      <c r="F76" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B77" s="29">
-        <v>42591</v>
+        <v>51317</v>
       </c>
       <c r="C77" s="34">
-        <v>11</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
-      <c r="F77" s="7" t="s">
-        <v>188</v>
+      <c r="F77" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
-        <v>164</v>
+      <c r="A78" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="B78" s="29">
-        <v>51317</v>
+        <v>42004</v>
       </c>
       <c r="C78" s="34">
-        <v>11.600000000000001</v>
+        <v>68</v>
       </c>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
       <c r="F78" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B79" s="29">
-        <v>42004</v>
+        <v>42369</v>
       </c>
       <c r="C79" s="34">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
       <c r="F79" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B80" s="29">
-        <v>42369</v>
+        <v>42735</v>
       </c>
       <c r="C80" s="34">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
       <c r="F80" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B81" s="29">
-        <v>42735</v>
+        <v>43100</v>
       </c>
       <c r="C81" s="34">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
       <c r="F81" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="37" t="s">
-        <v>165</v>
+      <c r="A82" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="B82" s="29">
-        <v>43100</v>
-      </c>
-      <c r="C82" s="34">
-        <v>22</v>
-      </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="1" t="s">
-        <v>213</v>
+        <v>43465</v>
+      </c>
+      <c r="C82" s="28">
+        <v>23</v>
+      </c>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B83" s="29">
-        <v>43465</v>
+        <v>51501</v>
       </c>
       <c r="C83" s="28">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="7" t="s">
-        <v>188</v>
+      <c r="F83" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="29">
-        <v>51501</v>
-      </c>
-      <c r="C84" s="28">
-        <v>0</v>
-      </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="1" t="s">
-        <v>190</v>
+        <v>159</v>
+      </c>
+      <c r="B84" s="30">
+        <v>43281</v>
+      </c>
+      <c r="C84" s="34">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" s="30">
-        <v>43281</v>
+        <v>159</v>
+      </c>
+      <c r="B85" s="29">
+        <v>51317</v>
       </c>
       <c r="C85" s="34">
-        <v>19.399999999999999</v>
+        <v>100</v>
       </c>
       <c r="D85" s="26"/>
       <c r="E85" s="26"/>
-      <c r="F85" s="7" t="s">
-        <v>188</v>
+      <c r="F85" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B86" s="29">
+      <c r="A86" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B86" s="30">
+        <v>43281</v>
+      </c>
+      <c r="C86" s="28">
+        <v>2773</v>
+      </c>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" s="30">
+        <v>43646</v>
+      </c>
+      <c r="C87" s="28">
+        <v>1746</v>
+      </c>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="29">
         <v>51317</v>
       </c>
-      <c r="C86" s="34">
-        <v>100</v>
-      </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
+      <c r="C88" s="28">
+        <v>139</v>
+      </c>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B87" s="30">
+      <c r="B89" s="30">
         <v>43281</v>
       </c>
-      <c r="C87" s="34">
-        <v>0</v>
-      </c>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B88" s="30">
-        <v>43646</v>
-      </c>
-      <c r="C88" s="34">
-        <v>60.699999999999996</v>
-      </c>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B89" s="29">
-        <v>51317</v>
-      </c>
-      <c r="C89" s="34">
-        <v>100</v>
-      </c>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="1" t="s">
-        <v>190</v>
+      <c r="C89" s="28">
+        <v>1300000</v>
+      </c>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B90" s="30">
-        <v>43281</v>
+        <v>167</v>
+      </c>
+      <c r="B90" s="29">
+        <v>51317</v>
       </c>
       <c r="C90" s="28">
-        <v>2773</v>
+        <v>0</v>
       </c>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
-      <c r="F90" s="7" t="s">
-        <v>188</v>
+      <c r="F90" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B91" s="30">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C91" s="28">
-        <v>1746</v>
+        <v>49917</v>
       </c>
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
       <c r="F91" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B92" s="29">
-        <v>51317</v>
+        <v>161</v>
+      </c>
+      <c r="B92" s="30">
+        <v>43646</v>
       </c>
       <c r="C92" s="28">
-        <v>139</v>
+        <v>51573</v>
       </c>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
-      <c r="F92" s="1" t="s">
-        <v>190</v>
+      <c r="F92" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B93" s="30">
-        <v>43281</v>
+        <v>161</v>
+      </c>
+      <c r="B93" s="29">
+        <v>51317</v>
       </c>
       <c r="C93" s="28">
-        <v>1300000</v>
+        <v>64892</v>
       </c>
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
-      <c r="F93" s="7" t="s">
-        <v>188</v>
+      <c r="F93" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B94" s="29">
-        <v>51317</v>
+        <v>168</v>
+      </c>
+      <c r="B94" s="30">
+        <v>42185</v>
       </c>
       <c r="C94" s="28">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
-      <c r="F94" s="1" t="s">
-        <v>190</v>
+      <c r="F94" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B95" s="30">
-        <v>43281</v>
+        <v>168</v>
+      </c>
+      <c r="B95" s="29">
+        <v>51317</v>
       </c>
       <c r="C95" s="28">
-        <v>49917</v>
+        <v>57</v>
       </c>
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
-      <c r="F95" s="7" t="s">
-        <v>188</v>
+      <c r="F95" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -6060,15 +5991,15 @@
         <v>169</v>
       </c>
       <c r="B96" s="30">
-        <v>43646</v>
+        <v>42185</v>
       </c>
       <c r="C96" s="28">
-        <v>51573</v>
+        <v>12000</v>
       </c>
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
       <c r="F96" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -6079,300 +6010,292 @@
         <v>51317</v>
       </c>
       <c r="C97" s="28">
-        <v>64892</v>
+        <v>6700</v>
       </c>
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
       <c r="F97" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B98" s="30">
-        <v>42185</v>
-      </c>
-      <c r="C98" s="28">
-        <v>127</v>
-      </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
+        <v>43281</v>
+      </c>
+      <c r="C98" s="34">
+        <v>17</v>
+      </c>
+      <c r="D98" s="34">
+        <v>16</v>
+      </c>
+      <c r="E98" s="34">
+        <v>18</v>
+      </c>
       <c r="F98" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B99" s="29">
         <v>51317</v>
       </c>
-      <c r="C99" s="28">
-        <v>57</v>
-      </c>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
+      <c r="C99" s="34">
+        <v>30</v>
+      </c>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
       <c r="F99" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B100" s="30">
         <v>42185</v>
       </c>
-      <c r="C100" s="28">
-        <v>12000</v>
-      </c>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
+      <c r="C100" s="34">
+        <v>39</v>
+      </c>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
       <c r="F100" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B101" s="29">
         <v>51317</v>
       </c>
-      <c r="C101" s="28">
-        <v>6700</v>
-      </c>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
+      <c r="C101" s="34">
+        <v>35</v>
+      </c>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
       <c r="F101" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B102" s="30">
-        <v>43281</v>
+        <v>170</v>
+      </c>
+      <c r="B102" s="29">
+        <v>51317</v>
       </c>
       <c r="C102" s="34">
-        <v>17</v>
-      </c>
-      <c r="D102" s="34">
-        <v>16</v>
-      </c>
-      <c r="E102" s="34">
-        <v>18</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>188</v>
+        <v>30</v>
+      </c>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B103" s="29">
-        <v>51317</v>
+        <v>162</v>
+      </c>
+      <c r="B103" s="30">
+        <v>43281</v>
       </c>
       <c r="C103" s="34">
-        <v>30</v>
-      </c>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="1" t="s">
-        <v>190</v>
+        <v>41.67</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B104" s="30">
-        <v>42185</v>
+        <v>43646</v>
       </c>
       <c r="C104" s="34">
-        <v>39</v>
-      </c>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
+        <v>41.11</v>
+      </c>
       <c r="F104" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B105" s="29">
         <v>51317</v>
       </c>
       <c r="C105" s="34">
-        <v>35</v>
-      </c>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
+        <v>90</v>
+      </c>
       <c r="F105" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B106" s="29">
-        <v>51317</v>
+        <v>163</v>
+      </c>
+      <c r="B106" s="30">
+        <v>43646</v>
       </c>
       <c r="C106" s="34">
-        <v>30</v>
-      </c>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="1" t="s">
-        <v>190</v>
+        <v>50</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B107" s="30">
-        <v>43281</v>
+        <v>163</v>
+      </c>
+      <c r="B107" s="29">
+        <v>51317</v>
       </c>
       <c r="C107" s="34">
-        <v>41.67</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>188</v>
+        <v>75</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B108" s="30">
         <v>43646</v>
       </c>
       <c r="C108" s="34">
-        <v>41.11</v>
+        <v>80</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B109" s="29">
         <v>51317</v>
       </c>
       <c r="C109" s="34">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
-        <v>171</v>
+      <c r="A110" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="B110" s="30">
+        <v>43281</v>
+      </c>
+      <c r="C110" s="34">
+        <v>75</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B111" s="30">
         <v>43646</v>
       </c>
-      <c r="C110" s="34">
-        <v>50</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B111" s="29">
+      <c r="C111" s="34">
+        <v>80</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" s="29">
         <v>51317</v>
       </c>
-      <c r="C111" s="34">
-        <v>75</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="15" t="s">
+      <c r="C112" s="34">
+        <v>100</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B113" s="30">
+        <v>43281</v>
+      </c>
+      <c r="C113" s="34">
+        <v>0</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="B112" s="30">
-        <v>43646</v>
-      </c>
-      <c r="C112" s="34">
-        <v>80</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="B113" s="29">
-        <v>51317</v>
-      </c>
-      <c r="C113" s="34">
-        <v>100</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B114" s="30">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C114" s="34">
-        <v>75</v>
+        <v>5.4</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B115" s="30">
-        <v>43646</v>
+        <v>165</v>
+      </c>
+      <c r="B115" s="29">
+        <v>51317</v>
       </c>
       <c r="C115" s="34">
-        <v>80</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>189</v>
+        <v>100</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B116" s="29">
-        <v>51317</v>
-      </c>
-      <c r="C116" s="34">
-        <v>100</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
+      </c>
+      <c r="B116" s="30">
+        <v>43281</v>
+      </c>
+      <c r="C116" s="28">
+        <v>4.17</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -6380,139 +6303,83 @@
         <v>173</v>
       </c>
       <c r="B117" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C117" s="34">
-        <v>0</v>
+        <v>43646</v>
+      </c>
+      <c r="C117" s="28">
+        <v>4.13</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B118" s="30">
-        <v>43646</v>
-      </c>
-      <c r="C118" s="34">
-        <v>5.4</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>189</v>
+      <c r="B118" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C118" s="28">
+        <v>4.38</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B119" s="29">
-        <v>51317</v>
-      </c>
-      <c r="C119" s="34">
-        <v>100</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
+      </c>
+      <c r="B119" s="30">
+        <v>43281</v>
+      </c>
+      <c r="C119" s="28">
+        <v>91.1</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B120" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C120" s="28">
-        <v>4.17</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
+      </c>
+      <c r="B120" s="29">
+        <v>51317</v>
+      </c>
+      <c r="C120">
+        <v>95</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B121" s="30">
-        <v>43646</v>
-      </c>
-      <c r="C121" s="28">
-        <v>4.13</v>
+        <v>174</v>
+      </c>
+      <c r="B121" s="31">
+        <v>40724</v>
+      </c>
+      <c r="C121" s="34">
+        <v>55.000000000000007</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B122" s="29">
         <v>51317</v>
       </c>
-      <c r="C122" s="28">
-        <v>4.38</v>
+      <c r="C122" s="34">
+        <v>57.8</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B123" s="30">
-        <v>43281</v>
-      </c>
-      <c r="C123" s="28">
-        <v>91.1</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B124" s="29">
-        <v>51317</v>
-      </c>
-      <c r="C124">
-        <v>95</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="B125" s="31">
-        <v>40724</v>
-      </c>
-      <c r="C125" s="34">
-        <v>55.000000000000007</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B126" s="29">
-        <v>51317</v>
-      </c>
-      <c r="C126" s="34">
-        <v>57.8</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -6526,10 +6393,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6541,409 +6408,409 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>186</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C18" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C19" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>161</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>167</v>
+      <c r="A26" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C31" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C32" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C33" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>180</v>
+      <c r="A36" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6951,21 +6818,21 @@
         <v>173</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6973,21 +6840,10 @@
         <v>174</v>
       </c>
       <c r="B40" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0AF67B-EEDA-48BA-A8AF-C069BA918018}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3376A5-8376-4A01-9202-B1C04C5DEACF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -667,9 +667,6 @@
     <t>Kerbside waste collected and diverted from landfill</t>
   </si>
   <si>
-    <t>Why is this important? Add some information here.</t>
-  </si>
-  <si>
     <t>The percentage of people who have visited local green space weekly or more often</t>
   </si>
   <si>
@@ -970,9 +967,6 @@
     <t>Speed is one of the major factors contributing to accidents on Victoria's roads and research shows small changes in speed can result in a significant reduction in road trauma. Council is therefore investigating reducing the default speed limit (50km/h) to 40km/h in all local roads within the municipality. Lower speed limits (30km/h) are also being investigated for nominated streets within activity centres.</t>
   </si>
   <si>
-    <t>This is an interim figure only!!!  ----- At present there are numerous local roads with a speed limit of 40km/h, and we have an ongoing CAPEX project, where we implement 40km/h speed limit in further local roads each year.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A well-integrated and accessible public transport system has potential to reduce traffic congestion in a city and improve residents' access to jobs and goods and services. Reducing reliance on private vehicle travel also has significant safety, health, social and environmental benefits. </t>
   </si>
   <si>
@@ -1121,6 +1115,12 @@
   </si>
   <si>
     <t>This is an interim figure only!!!  ----- Council already offer different services which enabled customers to transact online. This measure is to improve the experience and enabled more services.</t>
+  </si>
+  <si>
+    <t>This is an interim figure only!!! ----- At present there are numerous local roads with a speed limit of 40km/h, and we have an ongoing CAPEX project, where we implement 40km/h speed limit in further local roads each year.</t>
+  </si>
+  <si>
+    <t>Community-led development gives “enhanced power and capacity of communities to take charge of their own development” (https://communityleddev.org/2018/03/05/community-led-development-and-its-rationale/). It takes away the paternalistic problem-based service offerings and allows for an asset based model of development driven by the community. The community funding program provides an important role in creating and providing the funding to foster and develop these opportunities.</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1684,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1699,9 +1699,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2139,7 +2136,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,48 +2150,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>254</v>
+      <c r="J1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2207,32 +2204,32 @@
         <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>320</v>
+        <v>277</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>318</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J2" t="s">
         <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2247,30 +2244,30 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>321</v>
+      <c r="G3" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J3" t="s">
         <v>105</v>
       </c>
       <c r="K3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2285,30 +2282,30 @@
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>322</v>
+      <c r="G4" s="21" t="s">
+        <v>320</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J4" t="s">
         <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2317,36 +2314,36 @@
       <c r="D5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>208</v>
+      <c r="E5" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>231</v>
+      <c r="G5" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>230</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J5" t="s">
         <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2356,35 +2353,35 @@
         <v>121</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>324</v>
+      <c r="G6" s="21" t="s">
+        <v>322</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J6" t="s">
         <v>105</v>
       </c>
       <c r="K6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2394,35 +2391,35 @@
         <v>77</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>325</v>
+      <c r="G7" s="21" t="s">
+        <v>323</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J7" t="s">
         <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2437,30 +2434,30 @@
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>326</v>
+      <c r="G8" s="21" t="s">
+        <v>324</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J8" t="s">
         <v>117</v>
       </c>
       <c r="K8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2475,30 +2472,30 @@
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>327</v>
+      <c r="G9" s="21" t="s">
+        <v>325</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J9" t="s">
         <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2513,30 +2510,30 @@
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>300</v>
+      <c r="G10" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="J10" t="s">
         <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2551,30 +2548,30 @@
       <c r="F11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>329</v>
+      <c r="G11" s="21" t="s">
+        <v>327</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="J11" t="s">
         <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2587,32 +2584,32 @@
         <v>114</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>330</v>
+        <v>278</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>328</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J12" t="s">
         <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2625,32 +2622,32 @@
         <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>331</v>
+        <v>205</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>329</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J13" t="s">
         <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2663,32 +2660,32 @@
         <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>332</v>
+        <v>278</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>330</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J14" t="s">
         <v>105</v>
       </c>
       <c r="K14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2698,73 +2695,73 @@
         <v>82</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>333</v>
+        <v>266</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>331</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J15" t="s">
         <v>105</v>
       </c>
       <c r="K15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>333</v>
+        <v>294</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>331</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="J16" t="s">
         <v>105</v>
       </c>
       <c r="K16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2777,32 +2774,32 @@
         <v>112</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>334</v>
+        <v>278</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>332</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J17" t="s">
         <v>105</v>
       </c>
       <c r="K17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2817,30 +2814,30 @@
       <c r="F18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>333</v>
+      <c r="G18" s="20" t="s">
+        <v>331</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>203</v>
+        <v>217</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="J18" t="s">
         <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2855,68 +2852,68 @@
       <c r="F19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>329</v>
+      <c r="G19" s="21" t="s">
+        <v>327</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J19" t="s">
         <v>105</v>
       </c>
       <c r="K19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>350</v>
+      <c r="G20" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J20" t="s">
         <v>105</v>
       </c>
       <c r="K20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2929,32 +2926,32 @@
         <v>59</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>314</v>
+        <v>264</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>312</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J21" t="s">
         <v>105</v>
       </c>
       <c r="K21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2967,32 +2964,32 @@
         <v>90</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>335</v>
+        <v>278</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>333</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J22" t="s">
         <v>105</v>
       </c>
       <c r="K22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>157</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3005,32 +3002,32 @@
         <v>116</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>333</v>
+        <v>278</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>331</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J23" t="s">
         <v>105</v>
       </c>
       <c r="K23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3040,35 +3037,35 @@
         <v>136</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="I24" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J24" t="s">
         <v>117</v>
       </c>
       <c r="K24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3083,30 +3080,30 @@
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>304</v>
+      <c r="G25" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>353</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J25" t="s">
         <v>105</v>
       </c>
       <c r="K25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3121,30 +3118,30 @@
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="19" t="s">
-        <v>335</v>
+      <c r="G26" s="18" t="s">
+        <v>333</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
         <v>117</v>
       </c>
       <c r="K26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3159,33 +3156,33 @@
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="19" t="s">
-        <v>335</v>
+      <c r="G27" s="18" t="s">
+        <v>333</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
         <v>117</v>
       </c>
       <c r="K27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>89</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -3197,30 +3194,30 @@
       <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>338</v>
+      <c r="G28" s="20" t="s">
+        <v>336</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J28" t="s">
         <v>105</v>
       </c>
       <c r="K28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3230,35 +3227,35 @@
         <v>66</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>339</v>
+      <c r="G29" s="18" t="s">
+        <v>337</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J29" t="s">
         <v>117</v>
       </c>
       <c r="K29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3273,33 +3270,33 @@
       <c r="F30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>339</v>
+      <c r="G30" s="18" t="s">
+        <v>337</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J30" t="s">
         <v>117</v>
       </c>
       <c r="K30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>89</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -3309,32 +3306,32 @@
         <v>60</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>335</v>
+        <v>279</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>333</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J31" t="s">
         <v>105</v>
       </c>
       <c r="K31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3344,35 +3341,35 @@
         <v>67</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="19" t="s">
-        <v>339</v>
+      <c r="G32" s="18" t="s">
+        <v>337</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J32" t="s">
         <v>117</v>
       </c>
       <c r="K32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3387,30 +3384,30 @@
       <c r="F33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="19" t="s">
-        <v>335</v>
+      <c r="G33" s="18" t="s">
+        <v>333</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J33" t="s">
         <v>105</v>
       </c>
       <c r="K33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3420,35 +3417,35 @@
         <v>132</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>231</v>
+      <c r="G34" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>230</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J34" t="s">
         <v>105</v>
       </c>
       <c r="K34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3463,30 +3460,30 @@
       <c r="F35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>231</v>
+      <c r="G35" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>230</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J35" t="s">
         <v>105</v>
       </c>
       <c r="K35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3501,30 +3498,30 @@
       <c r="F36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="19" t="s">
-        <v>340</v>
+      <c r="G36" s="18" t="s">
+        <v>338</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J36" t="s">
         <v>105</v>
       </c>
       <c r="K36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3534,35 +3531,35 @@
         <v>99</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F37" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="22" t="s">
-        <v>341</v>
+      <c r="G37" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J37" t="s">
         <v>105</v>
       </c>
       <c r="K37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>173</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3577,30 +3574,30 @@
       <c r="F38" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G38" s="21" t="s">
-        <v>333</v>
+      <c r="G38" s="20" t="s">
+        <v>331</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J38" t="s">
         <v>105</v>
       </c>
       <c r="K38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>166</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3615,30 +3612,30 @@
       <c r="F39" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G39" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>230</v>
+      <c r="G39" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>229</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J39" t="s">
         <v>105</v>
       </c>
       <c r="K39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -3647,29 +3644,29 @@
       <c r="D40" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>204</v>
+      <c r="E40" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>231</v>
+        <v>283</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>230</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J40" t="s">
         <v>105</v>
       </c>
       <c r="K40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3701,442 +3698,442 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="31">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="31">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="31">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="31">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="14">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="14">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="15">
         <v>20</v>
       </c>
     </row>
@@ -4161,18 +4158,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4183,7 +4180,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4194,7 +4191,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4205,7 +4202,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4216,7 +4213,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4227,7 +4224,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4238,7 +4235,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4249,7 +4246,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4260,7 +4257,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4271,7 +4268,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4282,7 +4279,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4293,7 +4290,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4304,7 +4301,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4315,7 +4312,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -4326,7 +4323,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4337,7 +4334,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -4348,7 +4345,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -4359,7 +4356,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -4370,7 +4367,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4404,7 +4401,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>176</v>
       </c>
       <c r="B1" t="s">
@@ -4424,80 +4421,80 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="28">
         <v>40724</v>
       </c>
       <c r="C2" s="1">
         <v>5.04</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <v>41090</v>
       </c>
       <c r="C3" s="1">
         <v>4.8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>41455</v>
       </c>
       <c r="C4" s="1">
         <v>4.72</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>41820</v>
       </c>
       <c r="C5" s="1">
         <v>4.79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="28">
         <v>42185</v>
       </c>
       <c r="C6" s="1">
         <v>4.84</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <v>42551</v>
       </c>
       <c r="C7" s="1">
@@ -4510,10 +4507,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="28">
         <v>42916</v>
       </c>
       <c r="C8" s="1">
@@ -4526,10 +4523,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>51317</v>
       </c>
       <c r="C9" s="1">
@@ -4542,139 +4539,139 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <v>43281</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>68.400000000000006</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>65.538751133575303</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>71.158794562405902</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <v>43646</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>67.2</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>64.083971006635693</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>70.112622314085897</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <v>51317</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>80</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>43281</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="33">
         <v>63</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>60.304286081761603</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>66.167510713120095</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>43646</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <v>60.699999999999996</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>57.5564462873403</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>63.814694958317894</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <v>51317</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="33">
         <v>90</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>43646</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="33">
         <v>60.699999999999996</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="28">
         <v>51317</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="33">
         <v>90</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -4682,1462 +4679,1462 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>43281</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="33">
         <v>48.5</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="33">
         <v>45.395837796280397</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="33">
         <v>51.597672572044409</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="29">
         <v>43646</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="33">
         <v>45.6</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="33">
         <v>42.354182641082602</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="33">
         <v>48.833706034554297</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="28">
         <v>51317</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="33">
         <v>80</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="30">
         <v>42916</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="33">
         <v>57.699999999999996</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="33">
         <v>51.5</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="33">
         <v>63.6</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="28">
         <v>51317</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="33">
         <v>60</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="30">
         <v>41090</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="33">
         <v>10.1</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="33">
         <v>6.9</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <v>14.5</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>205</v>
+      <c r="F23" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="30">
         <v>41820</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="33">
         <v>14.3</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="33">
         <v>9.4</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="33">
         <v>21.1</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>205</v>
+      <c r="F24" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="30">
         <v>42916</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="33">
         <v>12.5</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="33">
         <v>9</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="33">
         <v>17</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <v>51317</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="33">
         <v>8.9</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="29">
         <v>43281</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="33">
         <v>62.8</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <v>59.877990759808299</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <v>65.605150908988506</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="29">
         <v>43646</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="33">
         <v>67</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="19">
         <v>64.039769861282096</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>69.906919042560105</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="28">
         <v>51317</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="33">
         <v>80</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="29">
         <v>41090</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="33">
         <v>83.8</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="29">
         <v>42185</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="33">
         <v>84.1</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="29">
         <v>43281</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="33">
         <v>85.1</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="7" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <v>51317</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="27">
         <v>89.9</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="7" t="s">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="29">
         <v>43281</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="27">
         <v>52</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="27">
         <v>50.302758398000002</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="27">
         <v>53.871574222</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="29">
         <v>43646</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="27">
         <v>49</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="27">
         <v>46.735637591080902</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="27">
         <v>50.539152862397202</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="28">
         <v>51317</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="27">
         <v>63</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="28">
         <v>40764</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="33">
         <v>16.7</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="7" t="s">
-        <v>205</v>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B38" s="28">
         <v>42591</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="33">
         <v>15.9</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="7" t="s">
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="28">
         <v>51317</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="33">
         <v>15.1</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="29">
         <v>42551</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="33">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="29">
         <v>42916</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="33">
         <v>5.2</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
       <c r="F41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="29">
         <v>43281</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="33">
         <v>4.8</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="7" t="s">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B43" s="30">
+      <c r="B43" s="29">
         <v>43646</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43" s="33">
         <v>4.7</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="7" t="s">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B44" s="28">
         <v>51317</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="33">
         <v>2.1</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
       <c r="F44" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="29">
+      <c r="B45" s="28">
         <v>40764</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="33">
         <v>15.3</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="7" t="s">
-        <v>205</v>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="28">
         <v>42591</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="33">
         <v>17.8</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="7" t="s">
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="29">
+      <c r="B47" s="28">
         <v>51317</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="33">
         <v>21.5</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B48" s="31">
+      <c r="B48" s="30">
         <v>42551</v>
       </c>
-      <c r="C48" s="34">
+      <c r="C48" s="33">
         <v>91.8</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="30">
         <v>42916</v>
       </c>
-      <c r="C49" s="34">
+      <c r="C49" s="33">
         <v>91.600000000000009</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="7" t="s">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="31">
+      <c r="B50" s="30">
         <v>43281</v>
       </c>
-      <c r="C50" s="34">
+      <c r="C50" s="33">
         <v>95.6</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="7" t="s">
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="29">
+      <c r="B51" s="28">
         <v>51317</v>
       </c>
-      <c r="C51" s="34">
+      <c r="C51" s="33">
         <v>96.2</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="30">
+      <c r="B52" s="29">
         <v>41820</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="39">
         <v>6.5</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G52" s="40"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G52" s="39"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B53" s="30">
+      <c r="B53" s="29">
         <v>42185</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="39">
         <v>6.48</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G53" s="40"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="39"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="30">
+      <c r="B54" s="29">
         <v>42551</v>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="39">
         <v>6.45</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G54" s="40"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G54" s="39"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="29">
         <v>42916</v>
       </c>
-      <c r="C55" s="40">
+      <c r="C55" s="39">
         <v>6.5</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G55" s="40"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G55" s="39"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="30">
+      <c r="B56" s="29">
         <v>43281</v>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="39">
         <v>6.1</v>
       </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="7" t="s">
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G56" s="40"/>
+      <c r="G56" s="39"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="29">
         <v>43646</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C57" s="39">
         <v>6.19</v>
       </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="7" t="s">
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G57" s="40"/>
+      <c r="G57" s="39"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="29">
+      <c r="B58" s="28">
         <v>51317</v>
       </c>
-      <c r="C58" s="40">
+      <c r="C58" s="39">
         <v>6.4</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
       <c r="F58" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G58" s="40"/>
+      <c r="G58" s="39"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="29">
+      <c r="B59" s="28">
         <v>40764</v>
       </c>
-      <c r="C59" s="34">
+      <c r="C59" s="33">
         <v>33.799999999999997</v>
       </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
       <c r="F59" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B60" s="29">
+      <c r="B60" s="28">
         <v>42591</v>
       </c>
-      <c r="C60" s="34">
+      <c r="C60" s="33">
         <v>33</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="7" t="s">
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="29">
+      <c r="B61" s="28">
         <v>51317</v>
       </c>
-      <c r="C61" s="34">
+      <c r="C61" s="33">
         <v>48.199999999999996</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
       <c r="F61" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="30">
+      <c r="B62" s="29">
         <v>43646</v>
       </c>
-      <c r="C62" s="28">
+      <c r="C62" s="27">
         <v>46.9</v>
       </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="7" t="s">
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B63" s="29">
+      <c r="B63" s="28">
         <v>51317</v>
       </c>
-      <c r="C63" s="28">
+      <c r="C63" s="27">
         <v>49.3</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B64" s="30">
+      <c r="B64" s="29">
         <v>43281</v>
       </c>
-      <c r="C64" s="28">
+      <c r="C64" s="27">
         <v>71</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D64" s="27">
         <v>69.282534772719998</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="27">
         <v>71.891836587279997</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B65" s="30">
+      <c r="B65" s="29">
         <v>43646</v>
       </c>
-      <c r="C65" s="28">
+      <c r="C65" s="27">
         <v>71</v>
       </c>
-      <c r="D65" s="28">
+      <c r="D65" s="27">
         <v>69.310210964059195</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="27">
         <v>71.990952281489598</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="29">
+      <c r="B66" s="28">
         <v>51317</v>
       </c>
-      <c r="C66" s="28">
+      <c r="C66" s="27">
         <v>79</v>
       </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
       <c r="F66" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="B67" s="30">
+      <c r="A67" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B67" s="29">
         <v>43646</v>
       </c>
-      <c r="C67" s="28">
+      <c r="C67" s="27">
         <v>20</v>
       </c>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="7" t="s">
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="B68" s="29">
+      <c r="A68" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B68" s="28">
         <v>51317</v>
       </c>
-      <c r="C68" s="28">
+      <c r="C68" s="27">
         <v>100</v>
       </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
       <c r="F68" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="30">
+      <c r="B69" s="29">
         <v>43444</v>
       </c>
-      <c r="C69" s="34">
+      <c r="C69" s="33">
         <v>68.400000000000006</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="7" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="B70" s="30">
+      <c r="B70" s="29">
         <v>43780</v>
       </c>
-      <c r="C70" s="34">
+      <c r="C70" s="33">
         <v>68.099999999999994</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="7" t="s">
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B71" s="29">
+      <c r="B71" s="28">
         <v>51317</v>
       </c>
-      <c r="C71" s="34">
+      <c r="C71" s="33">
         <v>90</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
       <c r="F71" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B72" s="29">
+      <c r="B72" s="28">
         <v>40764</v>
       </c>
-      <c r="C72" s="34">
+      <c r="C72" s="33">
         <v>21.6</v>
       </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="7" t="s">
-        <v>205</v>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B73" s="29">
+      <c r="B73" s="28">
         <v>42591</v>
       </c>
-      <c r="C73" s="34">
+      <c r="C73" s="33">
         <v>23.6</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="7" t="s">
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B74" s="29">
+      <c r="B74" s="28">
         <v>51317</v>
       </c>
-      <c r="C74" s="34">
+      <c r="C74" s="33">
         <v>50.1</v>
       </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
       <c r="F74" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="36" t="s">
+      <c r="A75" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="29">
+      <c r="B75" s="28">
         <v>40764</v>
       </c>
-      <c r="C75" s="34">
+      <c r="C75" s="33">
         <v>10.4</v>
       </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
       <c r="F75" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B76" s="29">
+      <c r="B76" s="28">
         <v>42591</v>
       </c>
-      <c r="C76" s="34">
+      <c r="C76" s="33">
         <v>11</v>
       </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="7" t="s">
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B77" s="29">
+      <c r="B77" s="28">
         <v>51317</v>
       </c>
-      <c r="C77" s="34">
+      <c r="C77" s="33">
         <v>11.600000000000001</v>
       </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
       <c r="F77" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="29">
+      <c r="B78" s="28">
         <v>42004</v>
       </c>
-      <c r="C78" s="34">
+      <c r="C78" s="33">
         <v>68</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
       <c r="F78" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="29">
+      <c r="B79" s="28">
         <v>42369</v>
       </c>
-      <c r="C79" s="34">
+      <c r="C79" s="33">
         <v>50</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
       <c r="F79" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="29">
+      <c r="B80" s="28">
         <v>42735</v>
       </c>
-      <c r="C80" s="34">
+      <c r="C80" s="33">
         <v>52</v>
       </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
       <c r="F80" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B81" s="29">
+      <c r="B81" s="28">
         <v>43100</v>
       </c>
-      <c r="C81" s="34">
+      <c r="C81" s="33">
         <v>22</v>
       </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
       <c r="F81" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B82" s="29">
+      <c r="B82" s="28">
         <v>43465</v>
       </c>
-      <c r="C82" s="28">
+      <c r="C82" s="27">
         <v>23</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="7" t="s">
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B83" s="29">
+      <c r="B83" s="28">
         <v>51501</v>
       </c>
-      <c r="C83" s="28">
+      <c r="C83" s="27">
         <v>0</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
       <c r="F83" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B84" s="30">
+      <c r="B84" s="29">
         <v>43281</v>
       </c>
-      <c r="C84" s="34">
+      <c r="C84" s="33">
         <v>19.399999999999999</v>
       </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="7" t="s">
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B85" s="29">
+      <c r="B85" s="28">
         <v>51317</v>
       </c>
-      <c r="C85" s="34">
+      <c r="C85" s="33">
         <v>100</v>
       </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
       <c r="F85" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B86" s="30">
+      <c r="B86" s="29">
         <v>43281</v>
       </c>
-      <c r="C86" s="28">
+      <c r="C86" s="27">
         <v>2773</v>
       </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="7" t="s">
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B87" s="30">
+      <c r="B87" s="29">
         <v>43646</v>
       </c>
-      <c r="C87" s="28">
+      <c r="C87" s="27">
         <v>1746</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="7" t="s">
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B88" s="29">
+      <c r="B88" s="28">
         <v>51317</v>
       </c>
-      <c r="C88" s="28">
+      <c r="C88" s="27">
         <v>139</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
       <c r="F88" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B89" s="30">
+      <c r="B89" s="29">
         <v>43281</v>
       </c>
-      <c r="C89" s="28">
+      <c r="C89" s="27">
         <v>1300000</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="7" t="s">
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B90" s="29">
+      <c r="B90" s="28">
         <v>51317</v>
       </c>
-      <c r="C90" s="28">
+      <c r="C90" s="27">
         <v>0</v>
       </c>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
       <c r="F90" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B91" s="30">
+      <c r="B91" s="29">
         <v>43281</v>
       </c>
-      <c r="C91" s="28">
+      <c r="C91" s="27">
         <v>49917</v>
       </c>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="7" t="s">
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B92" s="30">
+      <c r="B92" s="29">
         <v>43646</v>
       </c>
-      <c r="C92" s="28">
+      <c r="C92" s="27">
         <v>51573</v>
       </c>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="7" t="s">
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B93" s="29">
+      <c r="B93" s="28">
         <v>51317</v>
       </c>
-      <c r="C93" s="28">
+      <c r="C93" s="27">
         <v>64892</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
       <c r="F93" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B94" s="30">
+      <c r="B94" s="29">
         <v>42185</v>
       </c>
-      <c r="C94" s="28">
+      <c r="C94" s="27">
         <v>127</v>
       </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="7" t="s">
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B95" s="29">
+      <c r="B95" s="28">
         <v>51317</v>
       </c>
-      <c r="C95" s="28">
+      <c r="C95" s="27">
         <v>57</v>
       </c>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
       <c r="F95" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B96" s="30">
+      <c r="B96" s="29">
         <v>42185</v>
       </c>
-      <c r="C96" s="28">
+      <c r="C96" s="27">
         <v>12000</v>
       </c>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="7" t="s">
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B97" s="29">
+      <c r="B97" s="28">
         <v>51317</v>
       </c>
-      <c r="C97" s="28">
+      <c r="C97" s="27">
         <v>6700</v>
       </c>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
       <c r="F97" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B98" s="30">
+      <c r="B98" s="29">
         <v>43281</v>
       </c>
-      <c r="C98" s="34">
+      <c r="C98" s="33">
         <v>17</v>
       </c>
-      <c r="D98" s="34">
+      <c r="D98" s="33">
         <v>16</v>
       </c>
-      <c r="E98" s="34">
+      <c r="E98" s="33">
         <v>18</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B99" s="29">
+      <c r="B99" s="28">
         <v>51317</v>
       </c>
-      <c r="C99" s="34">
+      <c r="C99" s="33">
         <v>30</v>
       </c>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
       <c r="F99" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B100" s="30">
+      <c r="B100" s="29">
         <v>42185</v>
       </c>
-      <c r="C100" s="34">
+      <c r="C100" s="33">
         <v>39</v>
       </c>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="7" t="s">
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B101" s="29">
+      <c r="B101" s="28">
         <v>51317</v>
       </c>
-      <c r="C101" s="34">
+      <c r="C101" s="33">
         <v>35</v>
       </c>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
       <c r="F101" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B102" s="29">
+      <c r="B102" s="28">
         <v>51317</v>
       </c>
-      <c r="C102" s="34">
+      <c r="C102" s="33">
         <v>30</v>
       </c>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
       <c r="F102" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B103" s="30">
+      <c r="B103" s="29">
         <v>43281</v>
       </c>
-      <c r="C103" s="34">
+      <c r="C103" s="33">
         <v>41.67</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B104" s="30">
+      <c r="B104" s="29">
         <v>43646</v>
       </c>
-      <c r="C104" s="34">
+      <c r="C104" s="33">
         <v>41.11</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B105" s="29">
+      <c r="B105" s="28">
         <v>51317</v>
       </c>
-      <c r="C105" s="34">
+      <c r="C105" s="33">
         <v>90</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -6145,27 +6142,27 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="30">
+      <c r="B106" s="29">
         <v>43646</v>
       </c>
-      <c r="C106" s="34">
+      <c r="C106" s="33">
         <v>50</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B107" s="29">
+      <c r="B107" s="28">
         <v>51317</v>
       </c>
-      <c r="C107" s="34">
+      <c r="C107" s="33">
         <v>75</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -6173,27 +6170,27 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B108" s="30">
+      <c r="B108" s="29">
         <v>43646</v>
       </c>
-      <c r="C108" s="34">
+      <c r="C108" s="33">
         <v>80</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B109" s="29">
+      <c r="B109" s="28">
         <v>51317</v>
       </c>
-      <c r="C109" s="34">
+      <c r="C109" s="33">
         <v>100</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -6201,41 +6198,41 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B110" s="30">
+      <c r="B110" s="29">
         <v>43281</v>
       </c>
-      <c r="C110" s="34">
+      <c r="C110" s="33">
         <v>75</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B111" s="30">
+      <c r="B111" s="29">
         <v>43646</v>
       </c>
-      <c r="C111" s="34">
+      <c r="C111" s="33">
         <v>80</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B112" s="29">
+      <c r="B112" s="28">
         <v>51317</v>
       </c>
-      <c r="C112" s="34">
+      <c r="C112" s="33">
         <v>100</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -6243,41 +6240,41 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B113" s="30">
+      <c r="B113" s="29">
         <v>43281</v>
       </c>
-      <c r="C113" s="34">
+      <c r="C113" s="33">
         <v>0</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B114" s="30">
+      <c r="B114" s="29">
         <v>43646</v>
       </c>
-      <c r="C114" s="34">
+      <c r="C114" s="33">
         <v>5.4</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B115" s="29">
+      <c r="B115" s="28">
         <v>51317</v>
       </c>
-      <c r="C115" s="34">
+      <c r="C115" s="33">
         <v>100</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -6285,41 +6282,41 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B116" s="30">
+      <c r="B116" s="29">
         <v>43281</v>
       </c>
-      <c r="C116" s="28">
+      <c r="C116" s="27">
         <v>4.17</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B117" s="30">
+      <c r="B117" s="29">
         <v>43646</v>
       </c>
-      <c r="C117" s="28">
+      <c r="C117" s="27">
         <v>4.13</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B118" s="29">
+      <c r="B118" s="28">
         <v>51317</v>
       </c>
-      <c r="C118" s="28">
+      <c r="C118" s="27">
         <v>4.38</v>
       </c>
       <c r="F118" s="1" t="s">
@@ -6327,24 +6324,24 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B119" s="30">
+      <c r="B119" s="29">
         <v>43281</v>
       </c>
-      <c r="C119" s="28">
+      <c r="C119" s="27">
         <v>91.1</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B120" s="29">
+      <c r="B120" s="28">
         <v>51317</v>
       </c>
       <c r="C120">
@@ -6355,27 +6352,27 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="16" t="s">
+      <c r="A121" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B121" s="31">
+      <c r="B121" s="30">
         <v>40724</v>
       </c>
-      <c r="C121" s="34">
+      <c r="C121" s="33">
         <v>55.000000000000007</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="F121" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B122" s="29">
+      <c r="B122" s="28">
         <v>51317</v>
       </c>
-      <c r="C122" s="34">
+      <c r="C122" s="33">
         <v>57.8</v>
       </c>
       <c r="F122" s="1" t="s">
@@ -6407,18 +6404,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>139</v>
       </c>
       <c r="B2" t="s">
@@ -6429,29 +6426,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>142</v>
       </c>
       <c r="B5" t="s">
@@ -6462,18 +6459,18 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>143</v>
       </c>
       <c r="B6" t="s">
         <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>144</v>
       </c>
       <c r="B7" t="s">
@@ -6484,29 +6481,29 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>183</v>
       </c>
       <c r="B9" t="s">
         <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>184</v>
       </c>
       <c r="B10" t="s">
@@ -6517,18 +6514,18 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>146</v>
       </c>
       <c r="B12" t="s">
@@ -6539,7 +6536,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>148</v>
       </c>
       <c r="B13" t="s">
@@ -6550,7 +6547,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>149</v>
       </c>
       <c r="B14" t="s">
@@ -6561,7 +6558,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>150</v>
       </c>
       <c r="B15" t="s">
@@ -6572,18 +6569,18 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>152</v>
       </c>
       <c r="B17" t="s">
@@ -6594,30 +6591,30 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>347</v>
+      <c r="A20" s="13" t="s">
+        <v>345</v>
       </c>
       <c r="B20" t="s">
         <v>195</v>
@@ -6627,7 +6624,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>155</v>
       </c>
       <c r="B21" t="s">
@@ -6638,7 +6635,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>156</v>
       </c>
       <c r="B22" t="s">
@@ -6649,7 +6646,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>157</v>
       </c>
       <c r="B23" t="s">
@@ -6660,18 +6657,18 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>159</v>
       </c>
       <c r="B25" t="s">
@@ -6682,7 +6679,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B26" t="s">
@@ -6693,7 +6690,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B27" t="s">
@@ -6704,7 +6701,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B28" t="s">
@@ -6715,7 +6712,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>168</v>
       </c>
       <c r="B29" t="s">
@@ -6726,7 +6723,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>169</v>
       </c>
       <c r="B30" t="s">
@@ -6737,18 +6734,18 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>170</v>
       </c>
       <c r="B31" t="s">
         <v>195</v>
       </c>
       <c r="C31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>171</v>
       </c>
       <c r="B32" t="s">
@@ -6759,7 +6756,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B33" t="s">
@@ -6770,7 +6767,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>163</v>
       </c>
       <c r="B34" t="s">
@@ -6781,7 +6778,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B35" t="s">
@@ -6792,7 +6789,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>164</v>
       </c>
       <c r="B36" t="s">
@@ -6803,7 +6800,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>165</v>
       </c>
       <c r="B37" t="s">
@@ -6814,7 +6811,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>173</v>
       </c>
       <c r="B38" t="s">
@@ -6825,7 +6822,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>166</v>
       </c>
       <c r="B39" t="s">
@@ -6836,7 +6833,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>174</v>
       </c>
       <c r="B40" t="s">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3376A5-8376-4A01-9202-B1C04C5DEACF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F247EB27-7F8D-4456-B5F7-66C8F91D2B35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="3" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_list" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="data_format" sheetId="15" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicator_list!$K$1:$K$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="355">
   <si>
     <t>FAIR</t>
   </si>
@@ -709,9 +709,6 @@
     <t>Around one-third of jobs in Moonee Valley are filled by residents of the municipality.</t>
   </si>
   <si>
-    <t>There were approximately 47 community run projects supported by grants per 100,000 population in the 2018/19 financial year.</t>
-  </si>
-  <si>
     <t>The satisfaction with recreation facilities remained steady between 2018 and 2019.</t>
   </si>
   <si>
@@ -1121,6 +1118,9 @@
   </si>
   <si>
     <t>Community-led development gives “enhanced power and capacity of communities to take charge of their own development” (https://communityleddev.org/2018/03/05/community-led-development-and-its-rationale/). It takes away the paternalistic problem-based service offerings and allows for an asset based model of development driven by the community. The community funding program provides an important role in creating and providing the funding to foster and develop these opportunities.</t>
+  </si>
+  <si>
+    <t>There were approximately 48 community run projects supported by grants per 100,000 population in the 2018/19 financial year.</t>
   </si>
 </sst>
 </file>
@@ -2134,9 +2134,9 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,10 +2181,10 @@
         <v>206</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -2204,25 +2204,25 @@
         <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>208</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J2" t="s">
         <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -2245,22 +2245,22 @@
         <v>10</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>209</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J3" t="s">
         <v>105</v>
       </c>
       <c r="K3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -2283,22 +2283,22 @@
         <v>10</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J4" t="s">
         <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -2321,22 +2321,22 @@
         <v>137</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J5" t="s">
         <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -2353,28 +2353,28 @@
         <v>121</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>211</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J6" t="s">
         <v>105</v>
       </c>
       <c r="K6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -2391,28 +2391,28 @@
         <v>77</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J7" t="s">
         <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -2435,22 +2435,22 @@
         <v>9</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>213</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J8" t="s">
         <v>117</v>
       </c>
       <c r="K8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -2473,22 +2473,22 @@
         <v>10</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>212</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J9" t="s">
         <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -2511,22 +2511,22 @@
         <v>12</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J10" t="s">
         <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2549,22 +2549,22 @@
         <v>64</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="J11" t="s">
         <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -2584,25 +2584,25 @@
         <v>114</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>214</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J12" t="s">
         <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -2625,22 +2625,22 @@
         <v>205</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J13" t="s">
         <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="180" x14ac:dyDescent="0.25">
@@ -2660,25 +2660,25 @@
         <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J14" t="s">
         <v>105</v>
       </c>
       <c r="K14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="150" x14ac:dyDescent="0.25">
@@ -2698,25 +2698,25 @@
         <v>215</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J15" t="s">
         <v>105</v>
       </c>
       <c r="K15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -2730,31 +2730,31 @@
         <v>92</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="J16" t="s">
         <v>105</v>
       </c>
       <c r="K16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2774,25 +2774,25 @@
         <v>112</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>216</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J17" t="s">
         <v>105</v>
       </c>
       <c r="K17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -2815,22 +2815,22 @@
         <v>103</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J18" t="s">
         <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2853,60 +2853,60 @@
         <v>64</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J19" t="s">
         <v>105</v>
       </c>
       <c r="K19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="J20" t="s">
         <v>105</v>
       </c>
       <c r="K20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -2926,25 +2926,25 @@
         <v>59</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G21" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>313</v>
-      </c>
       <c r="I21" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J21" t="s">
         <v>105</v>
       </c>
       <c r="K21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2964,25 +2964,25 @@
         <v>90</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J22" t="s">
         <v>105</v>
       </c>
       <c r="K22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -3002,25 +3002,25 @@
         <v>116</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J23" t="s">
         <v>105</v>
       </c>
       <c r="K23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -3037,28 +3037,28 @@
         <v>136</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="I24" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J24" t="s">
         <v>117</v>
       </c>
       <c r="K24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -3081,22 +3081,22 @@
         <v>11</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J25" t="s">
         <v>105</v>
       </c>
       <c r="K25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -3119,22 +3119,22 @@
         <v>11</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J26" t="s">
         <v>117</v>
       </c>
       <c r="K26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3157,22 +3157,22 @@
         <v>11</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J27" t="s">
         <v>117</v>
       </c>
       <c r="K27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3195,22 +3195,22 @@
         <v>11</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
         <v>105</v>
       </c>
       <c r="K28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3227,28 +3227,28 @@
         <v>66</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J29" t="s">
         <v>117</v>
       </c>
       <c r="K29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3271,22 +3271,22 @@
         <v>48</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J30" t="s">
         <v>117</v>
       </c>
       <c r="K30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3306,25 +3306,25 @@
         <v>60</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J31" t="s">
         <v>105</v>
       </c>
       <c r="K31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3341,28 +3341,28 @@
         <v>67</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J32" t="s">
         <v>117</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="165" x14ac:dyDescent="0.25">
@@ -3385,22 +3385,22 @@
         <v>50</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J33" t="s">
         <v>105</v>
       </c>
       <c r="K33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="135" x14ac:dyDescent="0.25">
@@ -3417,28 +3417,28 @@
         <v>132</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J34" t="s">
         <v>105</v>
       </c>
       <c r="K34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3461,22 +3461,22 @@
         <v>64</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J35" t="s">
         <v>105</v>
       </c>
       <c r="K35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3499,22 +3499,22 @@
         <v>48</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J36" t="s">
         <v>105</v>
       </c>
       <c r="K36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -3531,28 +3531,28 @@
         <v>99</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J37" t="s">
         <v>105</v>
       </c>
       <c r="K37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3575,22 +3575,22 @@
         <v>200</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J38" t="s">
         <v>105</v>
       </c>
       <c r="K38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -3613,22 +3613,22 @@
         <v>199</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J39" t="s">
         <v>105</v>
       </c>
       <c r="K39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3648,25 +3648,25 @@
         <v>203</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J40" t="s">
         <v>105</v>
       </c>
       <c r="K40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>3</v>
@@ -4387,10 +4387,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5436,114 +5436,115 @@
         <v>153</v>
       </c>
       <c r="B62" s="29">
-        <v>43646</v>
-      </c>
-      <c r="C62" s="27">
-        <v>46.9</v>
-      </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
+        <v>42916</v>
+      </c>
+      <c r="C62" s="33">
+        <v>39.1</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
       <c r="F62" s="6" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B63" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C63" s="27">
-        <v>49.3</v>
-      </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="1" t="s">
-        <v>182</v>
+      <c r="B63" s="29">
+        <v>43281</v>
+      </c>
+      <c r="C63" s="33">
+        <v>59.8</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B64" s="29">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C64" s="27">
-        <v>71</v>
-      </c>
-      <c r="D64" s="27">
-        <v>69.282534772719998</v>
-      </c>
-      <c r="E64" s="27">
-        <v>71.891836587279997</v>
-      </c>
+        <v>47.7</v>
+      </c>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B65" s="29">
-        <v>43646</v>
+        <v>153</v>
+      </c>
+      <c r="B65" s="28">
+        <v>51317</v>
       </c>
       <c r="C65" s="27">
-        <v>71</v>
-      </c>
-      <c r="D65" s="27">
-        <v>69.310210964059195</v>
-      </c>
-      <c r="E65" s="27">
-        <v>71.990952281489598</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>181</v>
+        <f>C63*1.05</f>
+        <v>62.79</v>
+      </c>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="28">
-        <v>51317</v>
+      <c r="B66" s="29">
+        <v>43281</v>
       </c>
       <c r="C66" s="27">
-        <v>79</v>
-      </c>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="1" t="s">
-        <v>182</v>
+        <v>71</v>
+      </c>
+      <c r="D66" s="27">
+        <v>69.282534772719998</v>
+      </c>
+      <c r="E66" s="27">
+        <v>71.891836587279997</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>345</v>
+        <v>154</v>
       </c>
       <c r="B67" s="29">
         <v>43646</v>
       </c>
       <c r="C67" s="27">
-        <v>20</v>
-      </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="D67" s="27">
+        <v>69.310210964059195</v>
+      </c>
+      <c r="E67" s="27">
+        <v>71.990952281489598</v>
+      </c>
       <c r="F67" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>345</v>
+        <v>154</v>
       </c>
       <c r="B68" s="28">
         <v>51317</v>
       </c>
       <c r="C68" s="27">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
@@ -5552,179 +5553,179 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
-        <v>155</v>
+      <c r="A69" s="13" t="s">
+        <v>344</v>
       </c>
       <c r="B69" s="29">
-        <v>43444</v>
-      </c>
-      <c r="C69" s="33">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
+        <v>43646</v>
+      </c>
+      <c r="C69" s="27">
+        <v>20</v>
+      </c>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
       <c r="F69" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="B70" s="29">
-        <v>43780</v>
-      </c>
-      <c r="C70" s="33">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="6" t="s">
-        <v>181</v>
+      <c r="A70" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B70" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C70" s="27">
+        <v>100</v>
+      </c>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B71" s="28">
-        <v>51317</v>
+      <c r="B71" s="29">
+        <v>43444</v>
       </c>
       <c r="C71" s="33">
-        <v>90</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
-      <c r="F71" s="1" t="s">
-        <v>182</v>
+      <c r="F71" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B72" s="28">
-        <v>40764</v>
+      <c r="A72" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" s="29">
+        <v>43780</v>
       </c>
       <c r="C72" s="33">
-        <v>21.6</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="6" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B73" s="28">
-        <v>42591</v>
+        <v>51317</v>
       </c>
       <c r="C73" s="33">
-        <v>23.6</v>
+        <v>90</v>
       </c>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
-      <c r="F73" s="6" t="s">
-        <v>180</v>
+      <c r="F73" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="34" t="s">
         <v>156</v>
       </c>
       <c r="B74" s="28">
-        <v>51317</v>
+        <v>40764</v>
       </c>
       <c r="C74" s="33">
-        <v>50.1</v>
+        <v>21.6</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
-      <c r="F74" s="1" t="s">
-        <v>182</v>
+      <c r="F74" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
-        <v>157</v>
+      <c r="A75" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="B75" s="28">
-        <v>40764</v>
+        <v>42591</v>
       </c>
       <c r="C75" s="33">
-        <v>10.4</v>
+        <v>23.6</v>
       </c>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
-      <c r="F75" s="1" t="s">
-        <v>204</v>
+      <c r="F75" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B76" s="28">
-        <v>42591</v>
+        <v>51317</v>
       </c>
       <c r="C76" s="33">
-        <v>11</v>
+        <v>50.1</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
-      <c r="F76" s="6" t="s">
-        <v>180</v>
+      <c r="F76" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="35" t="s">
         <v>157</v>
       </c>
       <c r="B77" s="28">
-        <v>51317</v>
+        <v>40764</v>
       </c>
       <c r="C77" s="33">
-        <v>11.600000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
       <c r="F77" s="1" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
-        <v>158</v>
+      <c r="A78" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="B78" s="28">
-        <v>42004</v>
+        <v>42591</v>
       </c>
       <c r="C78" s="33">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
-      <c r="F78" s="1" t="s">
-        <v>204</v>
+      <c r="F78" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="36" t="s">
-        <v>158</v>
+      <c r="A79" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="B79" s="28">
-        <v>42369</v>
+        <v>51317</v>
       </c>
       <c r="C79" s="33">
-        <v>50</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
       <c r="F79" s="1" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -5732,10 +5733,10 @@
         <v>158</v>
       </c>
       <c r="B80" s="28">
-        <v>42735</v>
+        <v>42004</v>
       </c>
       <c r="C80" s="33">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D80" s="25"/>
       <c r="E80" s="25"/>
@@ -5748,10 +5749,10 @@
         <v>158</v>
       </c>
       <c r="B81" s="28">
-        <v>43100</v>
+        <v>42369</v>
       </c>
       <c r="C81" s="33">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
@@ -5760,142 +5761,142 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="36" t="s">
         <v>158</v>
       </c>
       <c r="B82" s="28">
-        <v>43465</v>
-      </c>
-      <c r="C82" s="27">
-        <v>23</v>
-      </c>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="6" t="s">
-        <v>180</v>
+        <v>42735</v>
+      </c>
+      <c r="C82" s="33">
+        <v>52</v>
+      </c>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="36" t="s">
         <v>158</v>
       </c>
       <c r="B83" s="28">
-        <v>51501</v>
-      </c>
-      <c r="C83" s="27">
-        <v>0</v>
-      </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
+        <v>43100</v>
+      </c>
+      <c r="C83" s="33">
+        <v>22</v>
+      </c>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
       <c r="F83" s="1" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B84" s="29">
-        <v>43281</v>
-      </c>
-      <c r="C84" s="33">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
+        <v>158</v>
+      </c>
+      <c r="B84" s="28">
+        <v>43465</v>
+      </c>
+      <c r="C84" s="27">
+        <v>23</v>
+      </c>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
       <c r="F84" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B85" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C85" s="33">
-        <v>100</v>
-      </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
+        <v>51501</v>
+      </c>
+      <c r="C85" s="27">
+        <v>0</v>
+      </c>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
       <c r="F85" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>160</v>
+      <c r="A86" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="B86" s="29">
         <v>43281</v>
       </c>
-      <c r="C86" s="27">
-        <v>2773</v>
-      </c>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
+      <c r="C86" s="33">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
       <c r="F86" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B87" s="29">
-        <v>43646</v>
-      </c>
-      <c r="C87" s="27">
-        <v>1746</v>
-      </c>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="6" t="s">
-        <v>181</v>
+      <c r="A87" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C87" s="33">
+        <v>100</v>
+      </c>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B88" s="28">
-        <v>51317</v>
+      <c r="B88" s="29">
+        <v>43281</v>
       </c>
       <c r="C88" s="27">
-        <v>139</v>
+        <v>2773</v>
       </c>
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
-      <c r="F88" s="1" t="s">
-        <v>182</v>
+      <c r="F88" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B89" s="29">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C89" s="27">
-        <v>1300000</v>
+        <v>1746</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
       <c r="F89" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B90" s="28">
         <v>51317</v>
       </c>
       <c r="C90" s="27">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
@@ -5905,13 +5906,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B91" s="29">
         <v>43281</v>
       </c>
       <c r="C91" s="27">
-        <v>49917</v>
+        <v>1300000</v>
       </c>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
@@ -5921,61 +5922,61 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B92" s="29">
-        <v>43646</v>
+        <v>167</v>
+      </c>
+      <c r="B92" s="28">
+        <v>51317</v>
       </c>
       <c r="C92" s="27">
-        <v>51573</v>
+        <v>0</v>
       </c>
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
-      <c r="F92" s="6" t="s">
-        <v>181</v>
+      <c r="F92" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B93" s="28">
-        <v>51317</v>
+      <c r="B93" s="29">
+        <v>43281</v>
       </c>
       <c r="C93" s="27">
-        <v>64892</v>
+        <v>49917</v>
       </c>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
-      <c r="F93" s="1" t="s">
-        <v>182</v>
+      <c r="F93" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B94" s="29">
-        <v>42185</v>
+        <v>43646</v>
       </c>
       <c r="C94" s="27">
-        <v>127</v>
+        <v>51573</v>
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
       <c r="F94" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B95" s="28">
         <v>51317</v>
       </c>
       <c r="C95" s="27">
-        <v>57</v>
+        <v>64892</v>
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
@@ -5985,13 +5986,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B96" s="29">
         <v>42185</v>
       </c>
       <c r="C96" s="27">
-        <v>12000</v>
+        <v>127</v>
       </c>
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
@@ -6001,13 +6002,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B97" s="28">
         <v>51317</v>
       </c>
       <c r="C97" s="27">
-        <v>6700</v>
+        <v>57</v>
       </c>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
@@ -6017,65 +6018,65 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B98" s="29">
-        <v>43281</v>
-      </c>
-      <c r="C98" s="33">
-        <v>17</v>
-      </c>
-      <c r="D98" s="33">
-        <v>16</v>
-      </c>
-      <c r="E98" s="33">
-        <v>18</v>
-      </c>
+        <v>42185</v>
+      </c>
+      <c r="C98" s="27">
+        <v>12000</v>
+      </c>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
       <c r="F98" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B99" s="28">
         <v>51317</v>
       </c>
-      <c r="C99" s="33">
-        <v>30</v>
-      </c>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
+      <c r="C99" s="27">
+        <v>6700</v>
+      </c>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
       <c r="F99" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B100" s="29">
-        <v>42185</v>
+        <v>43281</v>
       </c>
       <c r="C100" s="33">
-        <v>39</v>
-      </c>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
+        <v>17</v>
+      </c>
+      <c r="D100" s="33">
+        <v>16</v>
+      </c>
+      <c r="E100" s="33">
+        <v>18</v>
+      </c>
       <c r="F100" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B101" s="28">
         <v>51317</v>
       </c>
       <c r="C101" s="33">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="33"/>
@@ -6085,85 +6086,89 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B102" s="28">
-        <v>51317</v>
+        <v>171</v>
+      </c>
+      <c r="B102" s="29">
+        <v>42185</v>
       </c>
       <c r="C102" s="33">
-        <v>30</v>
-      </c>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="1" t="s">
-        <v>182</v>
+        <v>39</v>
+      </c>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B103" s="29">
-        <v>43281</v>
+        <v>171</v>
+      </c>
+      <c r="B103" s="28">
+        <v>51317</v>
       </c>
       <c r="C103" s="33">
-        <v>41.67</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>180</v>
+        <v>35</v>
+      </c>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B104" s="29">
-        <v>43646</v>
+        <v>170</v>
+      </c>
+      <c r="B104" s="28">
+        <v>51317</v>
       </c>
       <c r="C104" s="33">
-        <v>41.11</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>181</v>
+        <v>30</v>
+      </c>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B105" s="28">
-        <v>51317</v>
+      <c r="B105" s="29">
+        <v>43281</v>
       </c>
       <c r="C105" s="33">
-        <v>90</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>182</v>
+        <v>41.67</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B106" s="29">
         <v>43646</v>
       </c>
       <c r="C106" s="33">
-        <v>50</v>
+        <v>41.11</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B107" s="28">
         <v>51317</v>
       </c>
       <c r="C107" s="33">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>182</v>
@@ -6171,13 +6176,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B108" s="29">
         <v>43646</v>
       </c>
       <c r="C108" s="33">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>180</v>
@@ -6185,167 +6190,167 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B109" s="28">
         <v>51317</v>
       </c>
       <c r="C109" s="33">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
-        <v>164</v>
+      <c r="A110" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="B110" s="29">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C110" s="33">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B111" s="29">
-        <v>43646</v>
+      <c r="A111" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" s="28">
+        <v>51317</v>
       </c>
       <c r="C111" s="33">
-        <v>80</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>181</v>
+        <v>100</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B112" s="28">
-        <v>51317</v>
+      <c r="B112" s="29">
+        <v>43281</v>
       </c>
       <c r="C112" s="33">
-        <v>100</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>182</v>
+        <v>75</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B113" s="29">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C113" s="33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B114" s="29">
-        <v>43646</v>
+        <v>164</v>
+      </c>
+      <c r="B114" s="28">
+        <v>51317</v>
       </c>
       <c r="C114" s="33">
-        <v>5.4</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>181</v>
+        <v>100</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B115" s="28">
-        <v>51317</v>
+      <c r="B115" s="29">
+        <v>43281</v>
       </c>
       <c r="C115" s="33">
-        <v>100</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>182</v>
+        <v>0</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B116" s="29">
-        <v>43281</v>
-      </c>
-      <c r="C116" s="27">
-        <v>4.17</v>
+        <v>43646</v>
+      </c>
+      <c r="C116" s="33">
+        <v>5.4</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B117" s="29">
-        <v>43646</v>
-      </c>
-      <c r="C117" s="27">
-        <v>4.13</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>181</v>
+        <v>165</v>
+      </c>
+      <c r="B117" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C117" s="33">
+        <v>100</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B118" s="28">
-        <v>51317</v>
+      <c r="B118" s="29">
+        <v>43281</v>
       </c>
       <c r="C118" s="27">
-        <v>4.38</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>182</v>
+        <v>4.17</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B119" s="29">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C119" s="27">
-        <v>91.1</v>
+        <v>4.13</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B120" s="28">
         <v>51317</v>
       </c>
-      <c r="C120">
-        <v>95</v>
+      <c r="C120" s="27">
+        <v>4.38</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>182</v>
@@ -6353,13 +6358,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B121" s="30">
-        <v>40724</v>
-      </c>
-      <c r="C121" s="33">
-        <v>55.000000000000007</v>
+        <v>166</v>
+      </c>
+      <c r="B121" s="29">
+        <v>43281</v>
+      </c>
+      <c r="C121" s="27">
+        <v>91.1</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>180</v>
@@ -6367,15 +6372,43 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B122" s="28">
         <v>51317</v>
       </c>
-      <c r="C122" s="33">
+      <c r="C122">
+        <v>95</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B123" s="30">
+        <v>40724</v>
+      </c>
+      <c r="C123" s="33">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B124" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C124" s="33">
         <v>57.8</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6433,7 +6466,7 @@
         <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6444,7 +6477,7 @@
         <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6466,7 +6499,7 @@
         <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6488,7 +6521,7 @@
         <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6499,7 +6532,7 @@
         <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6518,10 +6551,10 @@
         <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6573,10 +6606,10 @@
         <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6595,10 +6628,10 @@
         <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6606,15 +6639,15 @@
         <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B20" t="s">
         <v>195</v>
@@ -6661,10 +6694,10 @@
         <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6741,7 +6774,7 @@
         <v>195</v>
       </c>
       <c r="C31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F247EB27-7F8D-4456-B5F7-66C8F91D2B35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0105D31-8BCD-4F28-B7F0-4D338CA2B5D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="3" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -4390,7 +4390,7 @@
   <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5460,7 +5460,7 @@
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
       <c r="F63" s="6" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -5476,7 +5476,7 @@
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
       <c r="F64" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -5487,8 +5487,7 @@
         <v>51317</v>
       </c>
       <c r="C65" s="27">
-        <f>C63*1.05</f>
-        <v>62.79</v>
+        <v>50</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0105D31-8BCD-4F28-B7F0-4D338CA2B5D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9777504-F3A5-4D40-AB8C-633F2984AE10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="3" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_list" sheetId="12" r:id="rId1"/>
@@ -1024,9 +1024,6 @@
     <t>Aspirational target for safer streets.</t>
   </si>
   <si>
-    <t>Highest metropolitan result in 2017 survey (Port Philip).</t>
-  </si>
-  <si>
     <t>Lowest metropolitan result in the 2017 VPHS (Boroondara).</t>
   </si>
   <si>
@@ -1121,6 +1118,9 @@
   </si>
   <si>
     <t>There were approximately 48 community run projects supported by grants per 100,000 population in the 2018/19 financial year.</t>
+  </si>
+  <si>
+    <t>Highest metropolitan result in 2017 survey (Port Phillip).</t>
   </si>
 </sst>
 </file>
@@ -2134,9 +2134,9 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,7 +2213,7 @@
         <v>208</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J2" t="s">
         <v>117</v>
@@ -2353,7 +2353,7 @@
         <v>121</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>49</v>
@@ -2365,7 +2365,7 @@
         <v>211</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J6" t="s">
         <v>105</v>
@@ -2397,7 +2397,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>315</v>
@@ -2435,7 +2435,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>213</v>
@@ -2473,7 +2473,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>212</v>
@@ -2511,7 +2511,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>314</v>
@@ -2549,7 +2549,7 @@
         <v>64</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>273</v>
@@ -2587,7 +2587,7 @@
         <v>277</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>214</v>
@@ -2625,7 +2625,7 @@
         <v>205</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>233</v>
@@ -2663,7 +2663,7 @@
         <v>277</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>280</v>
@@ -2701,7 +2701,7 @@
         <v>265</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>294</v>
@@ -2739,7 +2739,7 @@
         <v>293</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>295</v>
@@ -2777,7 +2777,7 @@
         <v>277</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>216</v>
@@ -2815,13 +2815,13 @@
         <v>103</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J18" t="s">
         <v>105</v>
@@ -2853,7 +2853,7 @@
         <v>64</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>217</v>
@@ -2873,31 +2873,31 @@
     </row>
     <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>346</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="J20" t="s">
         <v>105</v>
@@ -2906,7 +2906,7 @@
         <v>287</v>
       </c>
       <c r="L20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -2967,7 +2967,7 @@
         <v>277</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>218</v>
@@ -3005,7 +3005,7 @@
         <v>277</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>219</v>
@@ -3043,7 +3043,7 @@
         <v>235</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>236</v>
@@ -3081,10 +3081,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>301</v>
@@ -3119,7 +3119,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>245</v>
@@ -3157,7 +3157,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>220</v>
@@ -3195,7 +3195,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>221</v>
@@ -3233,7 +3233,7 @@
         <v>48</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>224</v>
@@ -3271,7 +3271,7 @@
         <v>48</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>222</v>
@@ -3309,7 +3309,7 @@
         <v>278</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>223</v>
@@ -3347,7 +3347,7 @@
         <v>48</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>227</v>
@@ -3385,7 +3385,7 @@
         <v>50</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>232</v>
@@ -3417,7 +3417,7 @@
         <v>132</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>64</v>
@@ -3499,7 +3499,7 @@
         <v>48</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>316</v>
@@ -3531,13 +3531,13 @@
         <v>99</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>271</v>
@@ -3575,7 +3575,7 @@
         <v>200</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>272</v>
@@ -3651,7 +3651,7 @@
         <v>282</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H40" s="37" t="s">
         <v>229</v>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>3</v>
@@ -4389,7 +4389,7 @@
   </sheetPr>
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B69" s="29">
         <v>43646</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B70" s="28">
         <v>51317</v>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B20" t="s">
         <v>195</v>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9777504-F3A5-4D40-AB8C-633F2984AE10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3240F9A0-9696-4E9E-B6FE-3190092A071C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <sheet name="data_format" sheetId="15" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$124</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicator_list!$K$1:$K$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicator_list!$K$1:$K$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="347">
   <si>
     <t>FAIR</t>
   </si>
@@ -1085,30 +1085,6 @@
   </si>
   <si>
     <t>The percentage of residents who either select 'safe' or 'very safe' when walking alone in their local area during the night</t>
-  </si>
-  <si>
-    <t>T091</t>
-  </si>
-  <si>
-    <t>Technology ready</t>
-  </si>
-  <si>
-    <t>Enabling Digital Improvement Services</t>
-  </si>
-  <si>
-    <t>Aspiration to increase the services offered digitally and improve customer experience</t>
-  </si>
-  <si>
-    <t>Community continue to have an increased expectation in local government and the enabling of additional services digitally will increase accessibilty and improved better customer experience through the digital transformation program.</t>
-  </si>
-  <si>
-    <t>Proportion of Council services and transactions offered to community that can be completed digitally</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>This is an interim figure only!!!  ----- Council already offer different services which enabled customers to transact online. This measure is to improve the experience and enabled more services.</t>
   </si>
   <si>
     <t>This is an interim figure only!!! ----- At present there are numerous local roads with a speed limit of 40km/h, and we have an ongoing CAPEX project, where we implement 40km/h speed limit in further local roads each year.</t>
@@ -2132,11 +2108,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>315</v>
@@ -2818,10 +2794,10 @@
         <v>329</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J18" t="s">
         <v>105</v>
@@ -2871,47 +2847,47 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>343</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>3</v>
+        <v>155</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>344</v>
+        <v>74</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>345</v>
+        <v>126</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="J20" t="s">
         <v>105</v>
       </c>
       <c r="K20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L20" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>4</v>
@@ -2920,36 +2896,36 @@
         <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>311</v>
+        <v>90</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>331</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="J21" t="s">
         <v>105</v>
       </c>
       <c r="K21" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="L21" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>4</v>
@@ -2958,22 +2934,22 @@
         <v>74</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>331</v>
+      <c r="G22" s="20" t="s">
+        <v>329</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="J22" t="s">
         <v>105</v>
@@ -2987,7 +2963,7 @@
     </row>
     <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>4</v>
@@ -2996,25 +2972,25 @@
         <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>329</v>
+        <v>235</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>332</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="K23" t="s">
         <v>303</v>
@@ -3023,9 +2999,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>4</v>
@@ -3034,74 +3010,74 @@
         <v>74</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>236</v>
+        <v>11</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>343</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="L24" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>4</v>
+        <v>160</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>351</v>
+      <c r="G25" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="K25" t="s">
         <v>287</v>
       </c>
       <c r="L25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>5</v>
@@ -3110,10 +3086,10 @@
         <v>94</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -3122,10 +3098,10 @@
         <v>331</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
         <v>117</v>
@@ -3137,36 +3113,36 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>94</v>
+      <c r="C27" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>331</v>
+      <c r="G27" s="20" t="s">
+        <v>334</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K27" t="s">
         <v>287</v>
@@ -3177,34 +3153,34 @@
     </row>
     <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>89</v>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>334</v>
+        <v>226</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>335</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="K28" t="s">
         <v>287</v>
@@ -3213,9 +3189,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>5</v>
@@ -3224,10 +3200,10 @@
         <v>54</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>48</v>
@@ -3236,10 +3212,10 @@
         <v>335</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J29" t="s">
         <v>117</v>
@@ -3251,36 +3227,36 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>54</v>
+      <c r="C30" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J30" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K30" t="s">
         <v>287</v>
@@ -3291,34 +3267,34 @@
     </row>
     <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>89</v>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>278</v>
+        <v>225</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="K31" t="s">
         <v>287</v>
@@ -3327,71 +3303,71 @@
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>232</v>
+        <v>64</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>229</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="J33" t="s">
         <v>105</v>
@@ -3403,9 +3379,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>5</v>
@@ -3414,10 +3390,10 @@
         <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>341</v>
+        <v>113</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>64</v>
@@ -3429,7 +3405,7 @@
         <v>229</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="J34" t="s">
         <v>105</v>
@@ -3441,71 +3417,71 @@
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>172</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>5</v>
+        <v>164</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>229</v>
+        <v>106</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="J35" t="s">
         <v>105</v>
       </c>
       <c r="K35" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>336</v>
+        <v>340</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>337</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="J36" t="s">
         <v>105</v>
@@ -3514,12 +3490,12 @@
         <v>287</v>
       </c>
       <c r="L36" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>6</v>
@@ -3528,22 +3504,22 @@
         <v>83</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>337</v>
+        <v>68</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>329</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J37" t="s">
         <v>105</v>
@@ -3555,9 +3531,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>6</v>
@@ -3566,22 +3542,22 @@
         <v>83</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>272</v>
+        <v>199</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J38" t="s">
         <v>105</v>
@@ -3593,9 +3569,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>6</v>
@@ -3603,75 +3579,37 @@
       <c r="C39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>281</v>
+      <c r="D39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>329</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="J39" t="s">
         <v>105</v>
       </c>
       <c r="K39" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>174</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="J40" t="s">
-        <v>105</v>
-      </c>
-      <c r="K40" t="s">
-        <v>303</v>
-      </c>
-      <c r="L40" t="s">
-        <v>249</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="K1:K40" xr:uid="{990F7F42-49B6-4F56-90C2-1C86AAAAE40F}"/>
-  <conditionalFormatting sqref="J2:K40">
+  <autoFilter ref="K1:K39" xr:uid="{990F7F42-49B6-4F56-90C2-1C86AAAAE40F}"/>
+  <conditionalFormatting sqref="J2:K39">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Increase">
       <formula>NOT(ISERROR(SEARCH("Increase",J2)))</formula>
     </cfRule>
@@ -3689,10 +3627,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3907,19 +3845,19 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="13">
-        <v>9</v>
+      <c r="A20" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="31">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>4</v>
@@ -3930,7 +3868,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>4</v>
@@ -3941,18 +3879,18 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="31">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>4</v>
@@ -3962,19 +3900,19 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="31">
-        <v>11</v>
+      <c r="A25" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="14">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>5</v>
@@ -3985,18 +3923,18 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>5</v>
@@ -4007,7 +3945,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>5</v>
@@ -4018,7 +3956,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>5</v>
@@ -4029,7 +3967,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>5</v>
@@ -4040,29 +3978,29 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="14">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>5</v>
@@ -4072,41 +4010,41 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="14">
-        <v>16</v>
+      <c r="A35" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="15">
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="15">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="15">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>6</v>
@@ -4117,23 +4055,12 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="15">
         <v>20</v>
       </c>
     </row>
@@ -4387,10 +4314,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+      <selection activeCell="A70" sqref="A69:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5552,179 +5479,179 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>343</v>
+      <c r="A69" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="B69" s="29">
-        <v>43646</v>
-      </c>
-      <c r="C69" s="27">
-        <v>20</v>
-      </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
+        <v>43444</v>
+      </c>
+      <c r="C69" s="33">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
       <c r="F69" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="B70" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C70" s="27">
-        <v>100</v>
-      </c>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="1" t="s">
-        <v>182</v>
+      <c r="A70" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="29">
+        <v>43780</v>
+      </c>
+      <c r="C70" s="33">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B71" s="29">
-        <v>43444</v>
+      <c r="B71" s="28">
+        <v>51317</v>
       </c>
       <c r="C71" s="33">
-        <v>68.400000000000006</v>
+        <v>90</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
-      <c r="F71" s="6" t="s">
-        <v>180</v>
+      <c r="F71" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="B72" s="29">
-        <v>43780</v>
+      <c r="A72" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="28">
+        <v>40764</v>
       </c>
       <c r="C72" s="33">
-        <v>68.099999999999994</v>
+        <v>21.6</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
       <c r="F72" s="6" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B73" s="28">
-        <v>51317</v>
+        <v>42591</v>
       </c>
       <c r="C73" s="33">
-        <v>90</v>
+        <v>23.6</v>
       </c>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
-      <c r="F73" s="1" t="s">
-        <v>182</v>
+      <c r="F73" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="22" t="s">
         <v>156</v>
       </c>
       <c r="B74" s="28">
-        <v>40764</v>
+        <v>51317</v>
       </c>
       <c r="C74" s="33">
-        <v>21.6</v>
+        <v>50.1</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
-      <c r="F74" s="6" t="s">
-        <v>204</v>
+      <c r="F74" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
-        <v>156</v>
+      <c r="A75" s="35" t="s">
+        <v>157</v>
       </c>
       <c r="B75" s="28">
-        <v>42591</v>
+        <v>40764</v>
       </c>
       <c r="C75" s="33">
-        <v>23.6</v>
+        <v>10.4</v>
       </c>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
-      <c r="F75" s="6" t="s">
-        <v>180</v>
+      <c r="F75" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B76" s="28">
-        <v>51317</v>
+        <v>42591</v>
       </c>
       <c r="C76" s="33">
-        <v>50.1</v>
+        <v>11</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
-      <c r="F76" s="1" t="s">
-        <v>182</v>
+      <c r="F76" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="35" t="s">
+      <c r="A77" s="22" t="s">
         <v>157</v>
       </c>
       <c r="B77" s="28">
-        <v>40764</v>
+        <v>51317</v>
       </c>
       <c r="C77" s="33">
-        <v>10.4</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
       <c r="F77" s="1" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
-        <v>157</v>
+      <c r="A78" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="B78" s="28">
-        <v>42591</v>
+        <v>42004</v>
       </c>
       <c r="C78" s="33">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
-      <c r="F78" s="6" t="s">
-        <v>180</v>
+      <c r="F78" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
-        <v>157</v>
+      <c r="A79" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="B79" s="28">
-        <v>51317</v>
+        <v>42369</v>
       </c>
       <c r="C79" s="33">
-        <v>11.600000000000001</v>
+        <v>50</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
       <c r="F79" s="1" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -5732,10 +5659,10 @@
         <v>158</v>
       </c>
       <c r="B80" s="28">
-        <v>42004</v>
+        <v>42735</v>
       </c>
       <c r="C80" s="33">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D80" s="25"/>
       <c r="E80" s="25"/>
@@ -5748,10 +5675,10 @@
         <v>158</v>
       </c>
       <c r="B81" s="28">
-        <v>42369</v>
+        <v>43100</v>
       </c>
       <c r="C81" s="33">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
@@ -5760,142 +5687,142 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="36" t="s">
+      <c r="A82" s="22" t="s">
         <v>158</v>
       </c>
       <c r="B82" s="28">
-        <v>42735</v>
-      </c>
-      <c r="C82" s="33">
-        <v>52</v>
-      </c>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="1" t="s">
-        <v>204</v>
+        <v>43465</v>
+      </c>
+      <c r="C82" s="27">
+        <v>23</v>
+      </c>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="36" t="s">
+      <c r="A83" s="22" t="s">
         <v>158</v>
       </c>
       <c r="B83" s="28">
-        <v>43100</v>
-      </c>
-      <c r="C83" s="33">
-        <v>22</v>
-      </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
+        <v>51501</v>
+      </c>
+      <c r="C83" s="27">
+        <v>0</v>
+      </c>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
       <c r="F83" s="1" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B84" s="28">
-        <v>43465</v>
-      </c>
-      <c r="C84" s="27">
-        <v>23</v>
-      </c>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
+        <v>159</v>
+      </c>
+      <c r="B84" s="29">
+        <v>43281</v>
+      </c>
+      <c r="C84" s="33">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
       <c r="F84" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B85" s="28">
-        <v>51501</v>
-      </c>
-      <c r="C85" s="27">
-        <v>0</v>
-      </c>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
+        <v>51317</v>
+      </c>
+      <c r="C85" s="33">
+        <v>100</v>
+      </c>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
       <c r="F85" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
-        <v>159</v>
+      <c r="A86" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="B86" s="29">
         <v>43281</v>
       </c>
-      <c r="C86" s="33">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
+      <c r="C86" s="27">
+        <v>2773</v>
+      </c>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
       <c r="F86" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B87" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C87" s="33">
-        <v>100</v>
-      </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="1" t="s">
-        <v>182</v>
+      <c r="A87" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" s="29">
+        <v>43646</v>
+      </c>
+      <c r="C87" s="27">
+        <v>1746</v>
+      </c>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="B88" s="29">
-        <v>43281</v>
+      <c r="B88" s="28">
+        <v>51317</v>
       </c>
       <c r="C88" s="27">
-        <v>2773</v>
+        <v>139</v>
       </c>
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
-      <c r="F88" s="6" t="s">
-        <v>180</v>
+      <c r="F88" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B89" s="29">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C89" s="27">
-        <v>1746</v>
+        <v>1300000</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
       <c r="F89" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B90" s="28">
         <v>51317</v>
       </c>
       <c r="C90" s="27">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
@@ -5905,13 +5832,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B91" s="29">
         <v>43281</v>
       </c>
       <c r="C91" s="27">
-        <v>1300000</v>
+        <v>49917</v>
       </c>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
@@ -5921,61 +5848,61 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B92" s="28">
-        <v>51317</v>
+        <v>161</v>
+      </c>
+      <c r="B92" s="29">
+        <v>43646</v>
       </c>
       <c r="C92" s="27">
-        <v>0</v>
+        <v>51573</v>
       </c>
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
-      <c r="F92" s="1" t="s">
-        <v>182</v>
+      <c r="F92" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B93" s="29">
-        <v>43281</v>
+      <c r="B93" s="28">
+        <v>51317</v>
       </c>
       <c r="C93" s="27">
-        <v>49917</v>
+        <v>64892</v>
       </c>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
-      <c r="F93" s="6" t="s">
-        <v>180</v>
+      <c r="F93" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B94" s="29">
-        <v>43646</v>
+        <v>42185</v>
       </c>
       <c r="C94" s="27">
-        <v>51573</v>
+        <v>127</v>
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
       <c r="F94" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B95" s="28">
         <v>51317</v>
       </c>
       <c r="C95" s="27">
-        <v>64892</v>
+        <v>57</v>
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
@@ -5985,13 +5912,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B96" s="29">
         <v>42185</v>
       </c>
       <c r="C96" s="27">
-        <v>127</v>
+        <v>12000</v>
       </c>
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
@@ -6001,13 +5928,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B97" s="28">
         <v>51317</v>
       </c>
       <c r="C97" s="27">
-        <v>57</v>
+        <v>6700</v>
       </c>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
@@ -6017,65 +5944,65 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B98" s="29">
-        <v>42185</v>
-      </c>
-      <c r="C98" s="27">
-        <v>12000</v>
-      </c>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
+        <v>43281</v>
+      </c>
+      <c r="C98" s="33">
+        <v>17</v>
+      </c>
+      <c r="D98" s="33">
+        <v>16</v>
+      </c>
+      <c r="E98" s="33">
+        <v>18</v>
+      </c>
       <c r="F98" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B99" s="28">
         <v>51317</v>
       </c>
-      <c r="C99" s="27">
-        <v>6700</v>
-      </c>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
+      <c r="C99" s="33">
+        <v>30</v>
+      </c>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
       <c r="F99" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B100" s="29">
-        <v>43281</v>
+        <v>42185</v>
       </c>
       <c r="C100" s="33">
-        <v>17</v>
-      </c>
-      <c r="D100" s="33">
-        <v>16</v>
-      </c>
-      <c r="E100" s="33">
-        <v>18</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
       <c r="F100" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B101" s="28">
         <v>51317</v>
       </c>
       <c r="C101" s="33">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="33"/>
@@ -6085,89 +6012,85 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B102" s="29">
-        <v>42185</v>
+        <v>170</v>
+      </c>
+      <c r="B102" s="28">
+        <v>51317</v>
       </c>
       <c r="C102" s="33">
-        <v>39</v>
-      </c>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="6" t="s">
-        <v>180</v>
+        <v>30</v>
+      </c>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B103" s="28">
-        <v>51317</v>
+        <v>162</v>
+      </c>
+      <c r="B103" s="29">
+        <v>43281</v>
       </c>
       <c r="C103" s="33">
-        <v>35</v>
-      </c>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="1" t="s">
-        <v>182</v>
+        <v>41.67</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B104" s="28">
-        <v>51317</v>
+        <v>162</v>
+      </c>
+      <c r="B104" s="29">
+        <v>43646</v>
       </c>
       <c r="C104" s="33">
-        <v>30</v>
-      </c>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="1" t="s">
-        <v>182</v>
+        <v>41.11</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B105" s="29">
-        <v>43281</v>
+      <c r="B105" s="28">
+        <v>51317</v>
       </c>
       <c r="C105" s="33">
-        <v>41.67</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>180</v>
+        <v>90</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B106" s="29">
         <v>43646</v>
       </c>
       <c r="C106" s="33">
-        <v>41.11</v>
+        <v>50</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B107" s="28">
         <v>51317</v>
       </c>
       <c r="C107" s="33">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>182</v>
@@ -6175,13 +6098,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B108" s="29">
         <v>43646</v>
       </c>
       <c r="C108" s="33">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>180</v>
@@ -6189,167 +6112,167 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B109" s="28">
         <v>51317</v>
       </c>
       <c r="C109" s="33">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
-        <v>172</v>
+      <c r="A110" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="B110" s="29">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C110" s="33">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B111" s="28">
-        <v>51317</v>
+      <c r="A111" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B111" s="29">
+        <v>43646</v>
       </c>
       <c r="C111" s="33">
-        <v>100</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>182</v>
+        <v>80</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B112" s="29">
-        <v>43281</v>
+      <c r="B112" s="28">
+        <v>51317</v>
       </c>
       <c r="C112" s="33">
-        <v>75</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>180</v>
+        <v>100</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B113" s="29">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C113" s="33">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B114" s="28">
-        <v>51317</v>
+        <v>165</v>
+      </c>
+      <c r="B114" s="29">
+        <v>43646</v>
       </c>
       <c r="C114" s="33">
-        <v>100</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>182</v>
+        <v>5.4</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B115" s="29">
-        <v>43281</v>
+      <c r="B115" s="28">
+        <v>51317</v>
       </c>
       <c r="C115" s="33">
-        <v>0</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>180</v>
+        <v>100</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B116" s="29">
-        <v>43646</v>
-      </c>
-      <c r="C116" s="33">
-        <v>5.4</v>
+        <v>43281</v>
+      </c>
+      <c r="C116" s="27">
+        <v>4.17</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B117" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C117" s="33">
-        <v>100</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="B117" s="29">
+        <v>43646</v>
+      </c>
+      <c r="C117" s="27">
+        <v>4.13</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B118" s="29">
-        <v>43281</v>
+      <c r="B118" s="28">
+        <v>51317</v>
       </c>
       <c r="C118" s="27">
-        <v>4.17</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>180</v>
+        <v>4.38</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B119" s="29">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C119" s="27">
-        <v>4.13</v>
+        <v>91.1</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B120" s="28">
         <v>51317</v>
       </c>
-      <c r="C120" s="27">
-        <v>4.38</v>
+      <c r="C120">
+        <v>95</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>182</v>
@@ -6357,13 +6280,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B121" s="29">
-        <v>43281</v>
-      </c>
-      <c r="C121" s="27">
-        <v>91.1</v>
+        <v>174</v>
+      </c>
+      <c r="B121" s="30">
+        <v>40724</v>
+      </c>
+      <c r="C121" s="33">
+        <v>55.000000000000007</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>180</v>
@@ -6371,43 +6294,15 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B122" s="28">
         <v>51317</v>
       </c>
-      <c r="C122">
-        <v>95</v>
+      <c r="C122" s="33">
+        <v>57.8</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B123" s="30">
-        <v>40724</v>
-      </c>
-      <c r="C123" s="33">
-        <v>55.000000000000007</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B124" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C124" s="33">
-        <v>57.8</v>
-      </c>
-      <c r="F124" s="1" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6422,10 +6317,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6645,8 +6540,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>343</v>
+      <c r="A20" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="B20" t="s">
         <v>195</v>
@@ -6657,7 +6552,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
         <v>195</v>
@@ -6668,7 +6563,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
         <v>195</v>
@@ -6679,40 +6574,40 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="C23" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="C24" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>159</v>
+      <c r="A25" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
         <v>196</v>
@@ -6723,29 +6618,29 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s">
         <v>198</v>
@@ -6756,40 +6651,40 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B31" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B33" t="s">
         <v>195</v>
@@ -6800,7 +6695,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s">
         <v>195</v>
@@ -6810,8 +6705,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>172</v>
+      <c r="A35" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="B35" t="s">
         <v>195</v>
@@ -6822,7 +6717,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
         <v>195</v>
@@ -6833,45 +6728,34 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
         <v>195</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B40" t="s">
-        <v>195</v>
-      </c>
-      <c r="C40" t="s">
         <v>195</v>
       </c>
     </row>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3240F9A0-9696-4E9E-B6FE-3190092A071C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD208C4-65D6-4643-A140-EDF5B884BF7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="3" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_list" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="data_format" sheetId="15" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicator_list!$K$1:$K$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="346">
   <si>
     <t>FAIR</t>
   </si>
@@ -902,9 +902,6 @@
   </si>
   <si>
     <t>Based on the target in the Creating Liveable Cities in Australia document from RMIT.</t>
-  </si>
-  <si>
-    <t>Community Survey (baseline data from the 2011 VicHealth Indicators Survey)</t>
   </si>
   <si>
     <t>More people working in the municipality means we are boosting our local economy. Working closer to home also holds a range of environmental, social and health benefits.  </t>
@@ -2110,9 +2107,9 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,7 +2154,7 @@
         <v>206</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>252</v>
@@ -2183,19 +2180,19 @@
         <v>276</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>208</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J2" t="s">
         <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L2" t="s">
         <v>255</v>
@@ -2221,19 +2218,19 @@
         <v>10</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>209</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J3" t="s">
         <v>105</v>
       </c>
       <c r="K3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L3" t="s">
         <v>255</v>
@@ -2259,19 +2256,19 @@
         <v>10</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" t="s">
         <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L4" t="s">
         <v>255</v>
@@ -2297,19 +2294,19 @@
         <v>137</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>229</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5" t="s">
         <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L5" t="s">
         <v>267</v>
@@ -2329,25 +2326,25 @@
         <v>121</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>211</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J6" t="s">
         <v>105</v>
       </c>
       <c r="K6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L6" t="s">
         <v>255</v>
@@ -2367,25 +2364,25 @@
         <v>77</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J7" t="s">
         <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L7" t="s">
         <v>255</v>
@@ -2411,19 +2408,19 @@
         <v>9</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>213</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J8" t="s">
         <v>117</v>
       </c>
       <c r="K8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L8" t="s">
         <v>255</v>
@@ -2449,19 +2446,19 @@
         <v>10</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>212</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J9" t="s">
         <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L9" t="s">
         <v>255</v>
@@ -2487,19 +2484,19 @@
         <v>12</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J10" t="s">
         <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L10" t="s">
         <v>258</v>
@@ -2525,7 +2522,7 @@
         <v>64</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>273</v>
@@ -2537,7 +2534,7 @@
         <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L11" t="s">
         <v>260</v>
@@ -2563,19 +2560,19 @@
         <v>277</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>214</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J12" t="s">
         <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L12" t="s">
         <v>259</v>
@@ -2601,7 +2598,7 @@
         <v>205</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>233</v>
@@ -2613,7 +2610,7 @@
         <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L13" t="s">
         <v>253</v>
@@ -2639,7 +2636,7 @@
         <v>277</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>280</v>
@@ -2651,7 +2648,7 @@
         <v>105</v>
       </c>
       <c r="K14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L14" t="s">
         <v>257</v>
@@ -2677,19 +2674,19 @@
         <v>265</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J15" t="s">
         <v>105</v>
       </c>
       <c r="K15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L15" t="s">
         <v>258</v>
@@ -2706,28 +2703,28 @@
         <v>92</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="J16" t="s">
         <v>105</v>
       </c>
       <c r="K16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L16" t="s">
         <v>256</v>
@@ -2753,19 +2750,19 @@
         <v>277</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>216</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J17" t="s">
         <v>105</v>
       </c>
       <c r="K17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L17" t="s">
         <v>253</v>
@@ -2791,19 +2788,19 @@
         <v>103</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J18" t="s">
         <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L18" t="s">
         <v>255</v>
@@ -2829,19 +2826,19 @@
         <v>64</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>217</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J19" t="s">
         <v>105</v>
       </c>
       <c r="K19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L19" t="s">
         <v>254</v>
@@ -2867,19 +2864,19 @@
         <v>263</v>
       </c>
       <c r="G20" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>312</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J20" t="s">
         <v>105</v>
       </c>
       <c r="K20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L20" t="s">
         <v>251</v>
@@ -2905,7 +2902,7 @@
         <v>277</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>218</v>
@@ -2917,7 +2914,7 @@
         <v>105</v>
       </c>
       <c r="K21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L21" t="s">
         <v>251</v>
@@ -2943,19 +2940,19 @@
         <v>277</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>219</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J22" t="s">
         <v>105</v>
       </c>
       <c r="K22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L22" t="s">
         <v>251</v>
@@ -2981,7 +2978,7 @@
         <v>235</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>236</v>
@@ -2993,7 +2990,7 @@
         <v>117</v>
       </c>
       <c r="K23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L23" t="s">
         <v>251</v>
@@ -3019,19 +3016,19 @@
         <v>11</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J24" t="s">
         <v>105</v>
       </c>
       <c r="K24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L24" t="s">
         <v>251</v>
@@ -3057,7 +3054,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>245</v>
@@ -3069,7 +3066,7 @@
         <v>117</v>
       </c>
       <c r="K25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L25" t="s">
         <v>248</v>
@@ -3095,7 +3092,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>220</v>
@@ -3107,7 +3104,7 @@
         <v>117</v>
       </c>
       <c r="K26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L26" t="s">
         <v>248</v>
@@ -3133,7 +3130,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>221</v>
@@ -3145,7 +3142,7 @@
         <v>105</v>
       </c>
       <c r="K27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s">
         <v>248</v>
@@ -3171,7 +3168,7 @@
         <v>48</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>224</v>
@@ -3183,7 +3180,7 @@
         <v>117</v>
       </c>
       <c r="K28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s">
         <v>248</v>
@@ -3209,7 +3206,7 @@
         <v>48</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>222</v>
@@ -3221,7 +3218,7 @@
         <v>117</v>
       </c>
       <c r="K29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s">
         <v>248</v>
@@ -3247,7 +3244,7 @@
         <v>278</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>223</v>
@@ -3259,7 +3256,7 @@
         <v>105</v>
       </c>
       <c r="K30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s">
         <v>248</v>
@@ -3285,7 +3282,7 @@
         <v>48</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>227</v>
@@ -3297,7 +3294,7 @@
         <v>117</v>
       </c>
       <c r="K31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s">
         <v>248</v>
@@ -3323,7 +3320,7 @@
         <v>50</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>232</v>
@@ -3335,7 +3332,7 @@
         <v>105</v>
       </c>
       <c r="K32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s">
         <v>248</v>
@@ -3355,13 +3352,13 @@
         <v>132</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>229</v>
@@ -3373,7 +3370,7 @@
         <v>105</v>
       </c>
       <c r="K33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s">
         <v>248</v>
@@ -3399,7 +3396,7 @@
         <v>64</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H34" s="37" t="s">
         <v>229</v>
@@ -3411,7 +3408,7 @@
         <v>105</v>
       </c>
       <c r="K34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s">
         <v>248</v>
@@ -3437,19 +3434,19 @@
         <v>48</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J35" t="s">
         <v>105</v>
       </c>
       <c r="K35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s">
         <v>250</v>
@@ -3469,13 +3466,13 @@
         <v>99</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>271</v>
@@ -3487,7 +3484,7 @@
         <v>105</v>
       </c>
       <c r="K36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s">
         <v>249</v>
@@ -3513,7 +3510,7 @@
         <v>200</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>272</v>
@@ -3525,7 +3522,7 @@
         <v>105</v>
       </c>
       <c r="K37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s">
         <v>249</v>
@@ -3563,7 +3560,7 @@
         <v>105</v>
       </c>
       <c r="K38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L38" t="s">
         <v>249</v>
@@ -3586,10 +3583,10 @@
         <v>203</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>282</v>
+        <v>64</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H39" s="37" t="s">
         <v>229</v>
@@ -3601,7 +3598,7 @@
         <v>105</v>
       </c>
       <c r="K39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s">
         <v>249</v>
@@ -4076,7 +4073,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4314,10 +4311,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A70" sqref="A69:XFD70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4509,36 +4506,36 @@
       <c r="A12" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C12" s="19">
-        <v>80</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="1" t="s">
-        <v>182</v>
+      <c r="B12" s="29">
+        <v>44012</v>
+      </c>
+      <c r="C12" s="33">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="D12" s="19">
+        <v>68.5</v>
+      </c>
+      <c r="E12" s="19">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="29">
-        <v>43281</v>
-      </c>
-      <c r="C13" s="33">
-        <v>63</v>
-      </c>
-      <c r="D13" s="19">
-        <v>60.304286081761603</v>
-      </c>
-      <c r="E13" s="19">
-        <v>66.167510713120095</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>180</v>
+        <v>141</v>
+      </c>
+      <c r="B13" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C13" s="19">
+        <v>80</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4546,54 +4543,64 @@
         <v>140</v>
       </c>
       <c r="B14" s="29">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C14" s="33">
-        <v>60.699999999999996</v>
+        <v>63</v>
       </c>
       <c r="D14" s="19">
-        <v>57.5564462873403</v>
+        <v>60.304286081761603</v>
       </c>
       <c r="E14" s="19">
-        <v>63.814694958317894</v>
+        <v>66.167510713120095</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="28">
-        <v>51317</v>
+      <c r="B15" s="29">
+        <v>43646</v>
       </c>
       <c r="C15" s="33">
-        <v>90</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="1" t="s">
-        <v>182</v>
+        <v>60.699999999999996</v>
+      </c>
+      <c r="D15" s="19">
+        <v>57.5564462873403</v>
+      </c>
+      <c r="E15" s="19">
+        <v>63.814694958317894</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" s="29">
-        <v>43646</v>
+        <v>44012</v>
       </c>
       <c r="C16" s="33">
-        <v>60.699999999999996</v>
+        <v>62</v>
+      </c>
+      <c r="D16" s="19">
+        <v>59</v>
+      </c>
+      <c r="E16" s="19">
+        <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17" s="28">
         <v>51317</v>
@@ -4601,25 +4608,21 @@
       <c r="C17" s="33">
         <v>90</v>
       </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="29">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C18" s="33">
-        <v>48.5</v>
-      </c>
-      <c r="D18" s="33">
-        <v>45.395837796280397</v>
-      </c>
-      <c r="E18" s="33">
-        <v>51.597672572044409</v>
+        <v>60.699999999999996</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>180</v>
@@ -4627,451 +4630,465 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="29">
-        <v>43646</v>
+        <v>142</v>
+      </c>
+      <c r="B19" s="28">
+        <v>51317</v>
       </c>
       <c r="C19" s="33">
-        <v>45.6</v>
-      </c>
-      <c r="D19" s="33">
-        <v>42.354182641082602</v>
-      </c>
-      <c r="E19" s="33">
-        <v>48.833706034554297</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>181</v>
+        <v>90</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="28">
-        <v>51317</v>
+      <c r="B20" s="29">
+        <v>43281</v>
       </c>
       <c r="C20" s="33">
-        <v>80</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="1" t="s">
-        <v>182</v>
+        <v>48.5</v>
+      </c>
+      <c r="D20" s="33">
+        <v>45.395837796280397</v>
+      </c>
+      <c r="E20" s="33">
+        <v>51.597672572044409</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="30">
-        <v>42916</v>
+        <v>143</v>
+      </c>
+      <c r="B21" s="29">
+        <v>43646</v>
       </c>
       <c r="C21" s="33">
-        <v>57.699999999999996</v>
+        <v>45.6</v>
       </c>
       <c r="D21" s="33">
-        <v>51.5</v>
+        <v>42.354182641082602</v>
       </c>
       <c r="E21" s="33">
-        <v>63.6</v>
+        <v>48.833706034554297</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="28">
-        <v>51317</v>
+        <v>143</v>
+      </c>
+      <c r="B22" s="29">
+        <v>44012</v>
       </c>
       <c r="C22" s="33">
-        <v>60</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="1" t="s">
-        <v>182</v>
+        <v>44.9</v>
+      </c>
+      <c r="D22" s="33">
+        <v>41.7</v>
+      </c>
+      <c r="E22" s="33">
+        <v>48.1</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="30">
-        <v>41090</v>
+        <v>143</v>
+      </c>
+      <c r="B23" s="28">
+        <v>51317</v>
       </c>
       <c r="C23" s="33">
-        <v>10.1</v>
-      </c>
-      <c r="D23" s="33">
-        <v>6.9</v>
-      </c>
-      <c r="E23" s="33">
-        <v>14.5</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>204</v>
+        <v>80</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B24" s="30">
-        <v>41820</v>
+        <v>42916</v>
       </c>
       <c r="C24" s="33">
-        <v>14.3</v>
+        <v>57.699999999999996</v>
       </c>
       <c r="D24" s="33">
-        <v>9.4</v>
+        <v>51.5</v>
       </c>
       <c r="E24" s="33">
-        <v>21.1</v>
+        <v>63.6</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="30">
-        <v>42916</v>
+        <v>144</v>
+      </c>
+      <c r="B25" s="28">
+        <v>51317</v>
       </c>
       <c r="C25" s="33">
-        <v>12.5</v>
-      </c>
-      <c r="D25" s="33">
-        <v>9</v>
-      </c>
-      <c r="E25" s="33">
-        <v>17</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>180</v>
+        <v>60</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="28">
-        <v>51317</v>
+      <c r="B26" s="30">
+        <v>41090</v>
       </c>
       <c r="C26" s="33">
-        <v>8.9</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="1" t="s">
-        <v>182</v>
+        <v>10.1</v>
+      </c>
+      <c r="D26" s="33">
+        <v>6.9</v>
+      </c>
+      <c r="E26" s="33">
+        <v>14.5</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B27" s="29">
-        <v>43281</v>
+        <v>147</v>
+      </c>
+      <c r="B27" s="30">
+        <v>41820</v>
       </c>
       <c r="C27" s="33">
-        <v>62.8</v>
-      </c>
-      <c r="D27" s="19">
-        <v>59.877990759808299</v>
-      </c>
-      <c r="E27" s="19">
-        <v>65.605150908988506</v>
+        <v>14.3</v>
+      </c>
+      <c r="D27" s="33">
+        <v>9.4</v>
+      </c>
+      <c r="E27" s="33">
+        <v>21.1</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B28" s="29">
-        <v>43646</v>
+        <v>147</v>
+      </c>
+      <c r="B28" s="30">
+        <v>42916</v>
       </c>
       <c r="C28" s="33">
-        <v>67</v>
-      </c>
-      <c r="D28" s="19">
-        <v>64.039769861282096</v>
-      </c>
-      <c r="E28" s="19">
-        <v>69.906919042560105</v>
+        <v>12.5</v>
+      </c>
+      <c r="D28" s="33">
+        <v>9</v>
+      </c>
+      <c r="E28" s="33">
+        <v>17</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="B29" s="28">
         <v>51317</v>
       </c>
       <c r="C29" s="33">
-        <v>80</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+        <v>8.9</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" s="29">
-        <v>41090</v>
+        <v>43281</v>
       </c>
       <c r="C30" s="33">
-        <v>83.8</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="1" t="s">
-        <v>204</v>
+        <v>62.8</v>
+      </c>
+      <c r="D30" s="19">
+        <v>59.877990759808299</v>
+      </c>
+      <c r="E30" s="19">
+        <v>65.605150908988506</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" s="29">
-        <v>42185</v>
+        <v>43646</v>
       </c>
       <c r="C31" s="33">
-        <v>84.1</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="1" t="s">
-        <v>204</v>
+        <v>67</v>
+      </c>
+      <c r="D31" s="19">
+        <v>64.039769861282096</v>
+      </c>
+      <c r="E31" s="19">
+        <v>69.906919042560105</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B32" s="29">
-        <v>43281</v>
+        <v>44012</v>
       </c>
       <c r="C32" s="33">
-        <v>85.1</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+        <v>66.099999999999994</v>
+      </c>
+      <c r="D32" s="19">
+        <v>63.1</v>
+      </c>
+      <c r="E32" s="19">
+        <v>68.900000000000006</v>
+      </c>
       <c r="F32" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B33" s="28">
         <v>51317</v>
       </c>
-      <c r="C33" s="27">
-        <v>89.9</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="6" t="s">
+      <c r="C33" s="33">
+        <v>80</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="B34" s="29">
-        <v>43281</v>
-      </c>
-      <c r="C34" s="27">
-        <v>52</v>
-      </c>
-      <c r="D34" s="27">
-        <v>50.302758398000002</v>
-      </c>
-      <c r="E34" s="27">
-        <v>53.871574222</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>180</v>
+        <v>41090</v>
+      </c>
+      <c r="C34" s="33">
+        <v>83.8</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="B35" s="29">
-        <v>43646</v>
-      </c>
-      <c r="C35" s="27">
-        <v>49</v>
-      </c>
-      <c r="D35" s="27">
-        <v>46.735637591080902</v>
-      </c>
-      <c r="E35" s="27">
-        <v>50.539152862397202</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>181</v>
+        <v>42185</v>
+      </c>
+      <c r="C35" s="33">
+        <v>84.1</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C36" s="27">
-        <v>63</v>
-      </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="B36" s="29">
+        <v>43281</v>
+      </c>
+      <c r="C36" s="33">
+        <v>85.1</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="B37" s="28">
-        <v>40764</v>
-      </c>
-      <c r="C37" s="33">
-        <v>16.7</v>
+        <v>51317</v>
+      </c>
+      <c r="C37" s="27">
+        <v>89.9</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" s="28">
-        <v>42591</v>
-      </c>
-      <c r="C38" s="33">
-        <v>15.9</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+        <v>145</v>
+      </c>
+      <c r="B38" s="29">
+        <v>43281</v>
+      </c>
+      <c r="C38" s="27">
+        <v>52</v>
+      </c>
+      <c r="D38" s="27">
+        <v>50.302758398000002</v>
+      </c>
+      <c r="E38" s="27">
+        <v>53.871574222</v>
+      </c>
       <c r="F38" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="29">
+        <v>43646</v>
+      </c>
+      <c r="C39" s="27">
+        <v>49</v>
+      </c>
+      <c r="D39" s="27">
+        <v>46.735637591080902</v>
+      </c>
+      <c r="E39" s="27">
+        <v>50.539152862397202</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="29">
+        <v>44012</v>
+      </c>
+      <c r="C40" s="27">
+        <v>51</v>
+      </c>
+      <c r="D40" s="27">
+        <v>49</v>
+      </c>
+      <c r="E40" s="27">
+        <v>52.6</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C41" s="27">
+        <v>63</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C39" s="33">
-        <v>15.1</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="29">
-        <v>42551</v>
-      </c>
-      <c r="C40" s="33">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" s="29">
-        <v>42916</v>
-      </c>
-      <c r="C41" s="33">
-        <v>5.2</v>
-      </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B42" s="29">
-        <v>43281</v>
+      <c r="B42" s="28">
+        <v>40764</v>
       </c>
       <c r="C42" s="33">
-        <v>4.8</v>
+        <v>16.7</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
       <c r="F42" s="6" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="29">
-        <v>43646</v>
+      <c r="A43" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="28">
+        <v>42591</v>
       </c>
       <c r="C43" s="33">
-        <v>4.7</v>
+        <v>15.9</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
       <c r="F43" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>148</v>
+      <c r="A44" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="B44" s="28">
         <v>51317</v>
       </c>
       <c r="C44" s="33">
-        <v>2.1</v>
+        <v>15.1</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -5081,215 +5098,210 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="28">
-        <v>40764</v>
+        <v>148</v>
+      </c>
+      <c r="B45" s="29">
+        <v>42551</v>
       </c>
       <c r="C45" s="33">
-        <v>15.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" s="28">
-        <v>42591</v>
+        <v>148</v>
+      </c>
+      <c r="B46" s="29">
+        <v>42916</v>
       </c>
       <c r="C46" s="33">
-        <v>17.8</v>
+        <v>5.2</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
-      <c r="F46" s="6" t="s">
-        <v>180</v>
+      <c r="F46" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" s="28">
-        <v>51317</v>
+        <v>148</v>
+      </c>
+      <c r="B47" s="29">
+        <v>43281</v>
       </c>
       <c r="C47" s="33">
-        <v>21.5</v>
+        <v>4.8</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
-      <c r="F47" s="1" t="s">
-        <v>182</v>
+      <c r="F47" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="30">
-        <v>42551</v>
+        <v>148</v>
+      </c>
+      <c r="B48" s="29">
+        <v>43646</v>
       </c>
       <c r="C48" s="33">
-        <v>91.8</v>
+        <v>4.7</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
-      <c r="F48" s="1" t="s">
-        <v>204</v>
+      <c r="F48" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="30">
-        <v>42916</v>
+        <v>148</v>
+      </c>
+      <c r="B49" s="28">
+        <v>51317</v>
       </c>
       <c r="C49" s="33">
-        <v>91.600000000000009</v>
+        <v>2.1</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
-      <c r="F49" s="6" t="s">
-        <v>180</v>
+      <c r="F49" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="30">
-        <v>43281</v>
+        <v>149</v>
+      </c>
+      <c r="B50" s="28">
+        <v>40764</v>
       </c>
       <c r="C50" s="33">
-        <v>95.6</v>
+        <v>15.3</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
       <c r="F50" s="6" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B51" s="28">
-        <v>51317</v>
+        <v>42591</v>
       </c>
       <c r="C51" s="33">
-        <v>96.2</v>
+        <v>17.8</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
-      <c r="F51" s="1" t="s">
-        <v>182</v>
+      <c r="F51" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" s="29">
-        <v>41820</v>
-      </c>
-      <c r="C52" s="39">
-        <v>6.5</v>
+        <v>149</v>
+      </c>
+      <c r="B52" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C52" s="33">
+        <v>21.5</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
-      <c r="F52" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G52" s="39"/>
+      <c r="F52" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B53" s="29">
-        <v>42185</v>
-      </c>
-      <c r="C53" s="39">
-        <v>6.48</v>
+        <v>150</v>
+      </c>
+      <c r="B53" s="30">
+        <v>42551</v>
+      </c>
+      <c r="C53" s="33">
+        <v>91.8</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G53" s="39"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="29">
-        <v>42551</v>
-      </c>
-      <c r="C54" s="39">
-        <v>6.45</v>
+        <v>150</v>
+      </c>
+      <c r="B54" s="30">
+        <v>42916</v>
+      </c>
+      <c r="C54" s="33">
+        <v>91.600000000000009</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G54" s="39"/>
+        <v>180</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" s="29">
-        <v>42916</v>
-      </c>
-      <c r="C55" s="39">
-        <v>6.5</v>
+        <v>150</v>
+      </c>
+      <c r="B55" s="30">
+        <v>43281</v>
+      </c>
+      <c r="C55" s="33">
+        <v>95.6</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G55" s="39"/>
+        <v>181</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B56" s="29">
-        <v>43281</v>
-      </c>
-      <c r="C56" s="39">
-        <v>6.1</v>
+        <v>150</v>
+      </c>
+      <c r="B56" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C56" s="33">
+        <v>96.2</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
-      <c r="F56" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G56" s="39"/>
+      <c r="F56" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B57" s="29">
-        <v>43646</v>
+        <v>41820</v>
       </c>
       <c r="C57" s="39">
-        <v>6.19</v>
+        <v>6.5</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
       <c r="F57" s="6" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="G57" s="39"/>
     </row>
@@ -5297,324 +5309,333 @@
       <c r="A58" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="28">
-        <v>51317</v>
+      <c r="B58" s="29">
+        <v>42185</v>
       </c>
       <c r="C58" s="39">
-        <v>6.4</v>
-      </c>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="1" t="s">
-        <v>182</v>
+        <v>6.48</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="G58" s="39"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59" s="28">
-        <v>40764</v>
-      </c>
-      <c r="C59" s="33">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="29">
+        <v>42551</v>
+      </c>
+      <c r="C59" s="39">
+        <v>6.45</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="6" t="s">
         <v>204</v>
       </c>
+      <c r="G59" s="39"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B60" s="28">
-        <v>42591</v>
-      </c>
-      <c r="C60" s="33">
-        <v>33</v>
-      </c>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
+        <v>151</v>
+      </c>
+      <c r="B60" s="29">
+        <v>42916</v>
+      </c>
+      <c r="C60" s="39">
+        <v>6.5</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
       <c r="F60" s="6" t="s">
-        <v>180</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G60" s="39"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C61" s="33">
-        <v>48.199999999999996</v>
-      </c>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B61" s="29">
+        <v>43281</v>
+      </c>
+      <c r="C61" s="39">
+        <v>6.1</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G61" s="39"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B62" s="29">
-        <v>42916</v>
-      </c>
-      <c r="C62" s="33">
-        <v>39.1</v>
-      </c>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
+        <v>43646</v>
+      </c>
+      <c r="C62" s="39">
+        <v>6.19</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
       <c r="F62" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G62" s="39"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" s="29">
-        <v>43281</v>
-      </c>
-      <c r="C63" s="33">
-        <v>59.8</v>
+        <v>151</v>
+      </c>
+      <c r="B63" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C63" s="39">
+        <v>6.4</v>
       </c>
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
-      <c r="F63" s="6" t="s">
-        <v>204</v>
-      </c>
+      <c r="F63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G63" s="39"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B64" s="29">
-        <v>43646</v>
-      </c>
-      <c r="C64" s="27">
-        <v>47.7</v>
-      </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="6" t="s">
-        <v>180</v>
+        <v>152</v>
+      </c>
+      <c r="B64" s="28">
+        <v>40764</v>
+      </c>
+      <c r="C64" s="33">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B65" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C65" s="27">
-        <v>50</v>
-      </c>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="1" t="s">
-        <v>182</v>
+        <v>42591</v>
+      </c>
+      <c r="C65" s="33">
+        <v>33</v>
+      </c>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B66" s="29">
-        <v>43281</v>
-      </c>
-      <c r="C66" s="27">
-        <v>71</v>
-      </c>
-      <c r="D66" s="27">
-        <v>69.282534772719998</v>
-      </c>
-      <c r="E66" s="27">
-        <v>71.891836587279997</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>180</v>
+        <v>152</v>
+      </c>
+      <c r="B66" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C66" s="33">
+        <v>48.199999999999996</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B67" s="29">
-        <v>43646</v>
-      </c>
-      <c r="C67" s="27">
-        <v>71</v>
-      </c>
-      <c r="D67" s="27">
-        <v>69.310210964059195</v>
-      </c>
-      <c r="E67" s="27">
-        <v>71.990952281489598</v>
-      </c>
+        <v>42916</v>
+      </c>
+      <c r="C67" s="33">
+        <v>39.1</v>
+      </c>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
       <c r="F67" s="6" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B68" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C68" s="27">
-        <v>79</v>
-      </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="1" t="s">
-        <v>182</v>
+        <v>153</v>
+      </c>
+      <c r="B68" s="29">
+        <v>43281</v>
+      </c>
+      <c r="C68" s="33">
+        <v>59.8</v>
+      </c>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
-        <v>155</v>
+      <c r="A69" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="B69" s="29">
-        <v>43444</v>
-      </c>
-      <c r="C69" s="33">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
+        <v>43646</v>
+      </c>
+      <c r="C69" s="27">
+        <v>47.7</v>
+      </c>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
       <c r="F69" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="B70" s="29">
-        <v>43780</v>
-      </c>
-      <c r="C70" s="33">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="6" t="s">
+      <c r="A70" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C70" s="27">
+        <v>50</v>
+      </c>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" s="29">
+        <v>43281</v>
+      </c>
+      <c r="C71" s="27">
+        <v>71</v>
+      </c>
+      <c r="D71" s="27">
+        <v>69.282534772719998</v>
+      </c>
+      <c r="E71" s="27">
+        <v>71.891836587279997</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="29">
+        <v>43646</v>
+      </c>
+      <c r="C72" s="27">
+        <v>71</v>
+      </c>
+      <c r="D72" s="27">
+        <v>69.310210964059195</v>
+      </c>
+      <c r="E72" s="27">
+        <v>71.990952281489598</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="B71" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C71" s="33">
-        <v>90</v>
-      </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B72" s="28">
-        <v>40764</v>
-      </c>
-      <c r="C72" s="33">
-        <v>21.6</v>
-      </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B73" s="28">
-        <v>42591</v>
-      </c>
-      <c r="C73" s="33">
-        <v>23.6</v>
-      </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
+      <c r="A73" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="29">
+        <v>44012</v>
+      </c>
+      <c r="C73" s="27">
+        <v>70</v>
+      </c>
+      <c r="D73" s="27">
+        <v>68.8</v>
+      </c>
+      <c r="E73" s="27">
+        <v>71.66</v>
+      </c>
       <c r="F73" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
-        <v>156</v>
+      <c r="A74" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="B74" s="28">
         <v>51317</v>
       </c>
-      <c r="C74" s="33">
-        <v>50.1</v>
-      </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
+      <c r="C74" s="27">
+        <v>79</v>
+      </c>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
       <c r="F74" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B75" s="28">
-        <v>40764</v>
+      <c r="A75" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="29">
+        <v>43444</v>
       </c>
       <c r="C75" s="33">
-        <v>10.4</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
-      <c r="F75" s="1" t="s">
-        <v>204</v>
+      <c r="F75" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B76" s="28">
-        <v>42591</v>
+      <c r="A76" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="29">
+        <v>43780</v>
       </c>
       <c r="C76" s="33">
-        <v>11</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
       <c r="F76" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B77" s="28">
         <v>51317</v>
       </c>
       <c r="C77" s="33">
-        <v>11.600000000000001</v>
+        <v>90</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
@@ -5623,62 +5644,62 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
-        <v>158</v>
+      <c r="A78" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="B78" s="28">
-        <v>42004</v>
+        <v>40764</v>
       </c>
       <c r="C78" s="33">
-        <v>68</v>
+        <v>21.6</v>
       </c>
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="36" t="s">
-        <v>158</v>
+      <c r="A79" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="B79" s="28">
-        <v>42369</v>
+        <v>42591</v>
       </c>
       <c r="C79" s="33">
-        <v>50</v>
+        <v>23.6</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
-      <c r="F79" s="1" t="s">
-        <v>204</v>
+      <c r="F79" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="36" t="s">
-        <v>158</v>
+      <c r="A80" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="B80" s="28">
-        <v>42735</v>
+        <v>51317</v>
       </c>
       <c r="C80" s="33">
-        <v>52</v>
+        <v>50.1</v>
       </c>
       <c r="D80" s="25"/>
       <c r="E80" s="25"/>
       <c r="F80" s="1" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="36" t="s">
-        <v>158</v>
+      <c r="A81" s="35" t="s">
+        <v>157</v>
       </c>
       <c r="B81" s="28">
-        <v>43100</v>
+        <v>40764</v>
       </c>
       <c r="C81" s="33">
-        <v>22</v>
+        <v>10.4</v>
       </c>
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
@@ -5688,521 +5709,545 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B82" s="28">
-        <v>43465</v>
-      </c>
-      <c r="C82" s="27">
-        <v>23</v>
-      </c>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
+        <v>42591</v>
+      </c>
+      <c r="C82" s="33">
+        <v>11</v>
+      </c>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
       <c r="F82" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B83" s="28">
-        <v>51501</v>
-      </c>
-      <c r="C83" s="27">
-        <v>0</v>
-      </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
+        <v>51317</v>
+      </c>
+      <c r="C83" s="33">
+        <v>11.600000000000001</v>
+      </c>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
       <c r="F83" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B84" s="29">
-        <v>43281</v>
+      <c r="A84" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" s="28">
+        <v>42004</v>
       </c>
       <c r="C84" s="33">
-        <v>19.399999999999999</v>
+        <v>68</v>
       </c>
       <c r="D84" s="25"/>
       <c r="E84" s="25"/>
-      <c r="F84" s="6" t="s">
-        <v>180</v>
+      <c r="F84" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
-        <v>159</v>
+      <c r="A85" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="B85" s="28">
-        <v>51317</v>
+        <v>42369</v>
       </c>
       <c r="C85" s="33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
       <c r="F85" s="1" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B86" s="29">
-        <v>43281</v>
-      </c>
-      <c r="C86" s="27">
-        <v>2773</v>
-      </c>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="6" t="s">
-        <v>180</v>
+      <c r="A86" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" s="28">
+        <v>42735</v>
+      </c>
+      <c r="C86" s="33">
+        <v>52</v>
+      </c>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B87" s="29">
-        <v>43646</v>
-      </c>
-      <c r="C87" s="27">
-        <v>1746</v>
-      </c>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="6" t="s">
-        <v>181</v>
+      <c r="A87" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="28">
+        <v>43100</v>
+      </c>
+      <c r="C87" s="33">
+        <v>22</v>
+      </c>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
-        <v>160</v>
+      <c r="A88" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="B88" s="28">
-        <v>51317</v>
+        <v>43465</v>
       </c>
       <c r="C88" s="27">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
-      <c r="F88" s="1" t="s">
-        <v>182</v>
+      <c r="F88" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B89" s="29">
-        <v>43281</v>
+      <c r="A89" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="28">
+        <v>51501</v>
       </c>
       <c r="C89" s="27">
-        <v>1300000</v>
+        <v>0</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" s="29">
+        <v>43831</v>
+      </c>
+      <c r="C90" s="33">
+        <v>12.9</v>
+      </c>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B90" s="28">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" s="28">
         <v>51317</v>
       </c>
-      <c r="C90" s="27">
-        <v>0</v>
-      </c>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="1" t="s">
+      <c r="C91" s="33">
+        <v>100</v>
+      </c>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="1" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B91" s="29">
-        <v>43281</v>
-      </c>
-      <c r="C91" s="27">
-        <v>49917</v>
-      </c>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B92" s="29">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C92" s="27">
-        <v>51573</v>
+        <v>2773</v>
       </c>
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
       <c r="F92" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B93" s="28">
-        <v>51317</v>
+        <v>160</v>
+      </c>
+      <c r="B93" s="29">
+        <v>43646</v>
       </c>
       <c r="C93" s="27">
-        <v>64892</v>
+        <v>1746</v>
       </c>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
-      <c r="F93" s="1" t="s">
-        <v>182</v>
+      <c r="F93" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B94" s="29">
-        <v>42185</v>
+        <v>160</v>
+      </c>
+      <c r="B94" s="28">
+        <v>51317</v>
       </c>
       <c r="C94" s="27">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
-      <c r="F94" s="6" t="s">
-        <v>180</v>
+      <c r="F94" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B95" s="28">
-        <v>51317</v>
+        <v>167</v>
+      </c>
+      <c r="B95" s="29">
+        <v>43281</v>
       </c>
       <c r="C95" s="27">
-        <v>57</v>
+        <v>1300000</v>
       </c>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
-      <c r="F95" s="1" t="s">
-        <v>182</v>
+      <c r="F95" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B96" s="29">
-        <v>42185</v>
+        <v>167</v>
+      </c>
+      <c r="B96" s="28">
+        <v>51317</v>
       </c>
       <c r="C96" s="27">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
-      <c r="F96" s="6" t="s">
-        <v>180</v>
+      <c r="F96" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B97" s="28">
-        <v>51317</v>
+        <v>161</v>
+      </c>
+      <c r="B97" s="29">
+        <v>43281</v>
       </c>
       <c r="C97" s="27">
-        <v>6700</v>
+        <v>49917</v>
       </c>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
-      <c r="F97" s="1" t="s">
-        <v>182</v>
+      <c r="F97" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B98" s="29">
-        <v>43281</v>
-      </c>
-      <c r="C98" s="33">
-        <v>17</v>
-      </c>
-      <c r="D98" s="33">
-        <v>16</v>
-      </c>
-      <c r="E98" s="33">
-        <v>18</v>
-      </c>
+        <v>43646</v>
+      </c>
+      <c r="C98" s="27">
+        <v>51573</v>
+      </c>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
       <c r="F98" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B99" s="28">
         <v>51317</v>
       </c>
-      <c r="C99" s="33">
-        <v>30</v>
-      </c>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
+      <c r="C99" s="27">
+        <v>64892</v>
+      </c>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
       <c r="F99" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B100" s="29">
         <v>42185</v>
       </c>
-      <c r="C100" s="33">
-        <v>39</v>
-      </c>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
+      <c r="C100" s="27">
+        <v>127</v>
+      </c>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
       <c r="F100" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B101" s="28">
         <v>51317</v>
       </c>
-      <c r="C101" s="33">
-        <v>35</v>
-      </c>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
+      <c r="C101" s="27">
+        <v>57</v>
+      </c>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
       <c r="F101" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B102" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C102" s="33">
-        <v>30</v>
-      </c>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
+      </c>
+      <c r="B102" s="29">
+        <v>42185</v>
+      </c>
+      <c r="C102" s="27">
+        <v>12000</v>
+      </c>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B103" s="29">
-        <v>43281</v>
-      </c>
-      <c r="C103" s="33">
-        <v>41.67</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>180</v>
+        <v>169</v>
+      </c>
+      <c r="B103" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C103" s="27">
+        <v>6700</v>
+      </c>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B104" s="29">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C104" s="33">
-        <v>41.11</v>
+        <v>17</v>
+      </c>
+      <c r="D104" s="33">
+        <v>16</v>
+      </c>
+      <c r="E104" s="33">
+        <v>18</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B105" s="28">
         <v>51317</v>
       </c>
       <c r="C105" s="33">
-        <v>90</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
       <c r="F105" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B106" s="29">
-        <v>43646</v>
+        <v>42185</v>
       </c>
       <c r="C106" s="33">
-        <v>50</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
       <c r="F106" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B107" s="28">
         <v>51317</v>
       </c>
       <c r="C107" s="33">
-        <v>75</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
       <c r="F107" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B108" s="29">
-        <v>43646</v>
+        <v>170</v>
+      </c>
+      <c r="B108" s="28">
+        <v>51317</v>
       </c>
       <c r="C108" s="33">
-        <v>80</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>180</v>
+        <v>30</v>
+      </c>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B109" s="29">
+        <v>43281</v>
+      </c>
+      <c r="C109" s="33">
+        <v>41.67</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B110" s="29">
+        <v>43646</v>
+      </c>
+      <c r="C110" s="33">
+        <v>41.11</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B111" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C111" s="33">
+        <v>90</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B112" s="29">
+        <v>44012</v>
+      </c>
+      <c r="C112" s="33">
+        <v>45.9</v>
+      </c>
+      <c r="D112">
+        <v>42.47</v>
+      </c>
+      <c r="E112">
+        <v>49.42</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C113" s="33">
+        <v>60</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B109" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C109" s="33">
-        <v>100</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B110" s="29">
-        <v>43281</v>
-      </c>
-      <c r="C110" s="33">
-        <v>75</v>
-      </c>
-      <c r="F110" s="6" t="s">
+      <c r="B114" s="29">
+        <v>44012</v>
+      </c>
+      <c r="C114" s="33">
+        <v>53</v>
+      </c>
+      <c r="D114">
+        <v>49.72</v>
+      </c>
+      <c r="E114">
+        <v>56.35</v>
+      </c>
+      <c r="F114" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B111" s="29">
-        <v>43646</v>
-      </c>
-      <c r="C111" s="33">
-        <v>80</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B112" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C112" s="33">
-        <v>100</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B113" s="29">
-        <v>43281</v>
-      </c>
-      <c r="C113" s="33">
-        <v>0</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B114" s="29">
-        <v>43646</v>
-      </c>
-      <c r="C114" s="33">
-        <v>5.4</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="15" t="s">
-        <v>165</v>
+      <c r="A115" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="B115" s="28">
         <v>51317</v>
       </c>
       <c r="C115" s="33">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>182</v>
@@ -6210,13 +6255,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B116" s="29">
         <v>43281</v>
       </c>
-      <c r="C116" s="27">
-        <v>4.17</v>
+      <c r="C116" s="33">
+        <v>75</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>180</v>
@@ -6224,13 +6269,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B117" s="29">
         <v>43646</v>
       </c>
-      <c r="C117" s="27">
-        <v>4.13</v>
+      <c r="C117" s="33">
+        <v>80</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>181</v>
@@ -6238,13 +6283,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B118" s="28">
         <v>51317</v>
       </c>
-      <c r="C118" s="27">
-        <v>4.38</v>
+      <c r="C118" s="33">
+        <v>100</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>182</v>
@@ -6252,13 +6297,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B119" s="29">
         <v>43281</v>
       </c>
-      <c r="C119" s="27">
-        <v>91.1</v>
+      <c r="C119" s="33">
+        <v>0</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>180</v>
@@ -6266,43 +6311,133 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B120" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C120">
-        <v>95</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>182</v>
+        <v>165</v>
+      </c>
+      <c r="B120" s="29">
+        <v>43646</v>
+      </c>
+      <c r="C120" s="33">
+        <v>5.4</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B121" s="30">
-        <v>40724</v>
+        <v>165</v>
+      </c>
+      <c r="B121" s="28">
+        <v>51317</v>
       </c>
       <c r="C121" s="33">
-        <v>55.000000000000007</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>180</v>
+        <v>100</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B122" s="29">
+        <v>43281</v>
+      </c>
+      <c r="C122" s="27">
+        <v>4.17</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123" s="29">
+        <v>43646</v>
+      </c>
+      <c r="C123" s="27">
+        <v>4.13</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B124" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C124" s="27">
+        <v>4.38</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B125" s="29">
+        <v>43281</v>
+      </c>
+      <c r="C125" s="27">
+        <v>91.1</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B126" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C126">
+        <v>95</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B122" s="28">
+      <c r="B127" s="30">
+        <v>40724</v>
+      </c>
+      <c r="C127" s="33">
+        <v>64</v>
+      </c>
+      <c r="D127">
+        <v>60.9</v>
+      </c>
+      <c r="E127">
+        <v>67</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B128" s="28">
         <v>51317</v>
       </c>
-      <c r="C122" s="33">
-        <v>57.8</v>
-      </c>
-      <c r="F122" s="1" t="s">
+      <c r="C128" s="33">
+        <v>70</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6445,7 +6580,7 @@
         <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" t="s">
         <v>231</v>
@@ -6500,10 +6635,10 @@
         <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6522,10 +6657,10 @@
         <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6533,7 +6668,7 @@
         <v>154</v>
       </c>
       <c r="B19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C19" t="s">
         <v>231</v>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD208C4-65D6-4643-A140-EDF5B884BF7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC43AE6-2B99-406F-B4DA-6CB7CD04B85A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="3" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_list" sheetId="12" r:id="rId1"/>
@@ -382,9 +382,6 @@
     <t>Goal (Target)</t>
   </si>
   <si>
-    <t>The proportion of local roads with a speed limit of 40km/h</t>
-  </si>
-  <si>
     <t>Net carbon emissions from Council’s operations (tonnes)</t>
   </si>
   <si>
@@ -1084,9 +1081,6 @@
     <t>The percentage of residents who either select 'safe' or 'very safe' when walking alone in their local area during the night</t>
   </si>
   <si>
-    <t>This is an interim figure only!!! ----- At present there are numerous local roads with a speed limit of 40km/h, and we have an ongoing CAPEX project, where we implement 40km/h speed limit in further local roads each year.</t>
-  </si>
-  <si>
     <t>Community-led development gives “enhanced power and capacity of communities to take charge of their own development” (https://communityleddev.org/2018/03/05/community-led-development-and-its-rationale/). It takes away the paternalistic problem-based service offerings and allows for an asset based model of development driven by the community. The community funding program provides an important role in creating and providing the funding to foster and develop these opportunities.</t>
   </si>
   <si>
@@ -1094,6 +1088,12 @@
   </si>
   <si>
     <t>Highest metropolitan result in 2017 survey (Port Phillip).</t>
+  </si>
+  <si>
+    <t>The proportion of local roads (by length) with a speed limit of 40km/h</t>
+  </si>
+  <si>
+    <t>At the start of 2020, about 13 per cent of local roads in Moonee Valley had a speed limit of 40km/h</t>
   </si>
 </sst>
 </file>
@@ -2107,9 +2107,9 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,7 +2124,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -2145,24 +2145,24 @@
         <v>70</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>0</v>
@@ -2177,30 +2177,30 @@
         <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>0</v>
@@ -2212,33 +2212,33 @@
         <v>78</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J3" t="s">
         <v>105</v>
       </c>
       <c r="K3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>0</v>
@@ -2247,36 +2247,36 @@
         <v>72</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J4" t="s">
         <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>0</v>
@@ -2285,36 +2285,36 @@
         <v>91</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J5" t="s">
         <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>0</v>
@@ -2323,36 +2323,36 @@
         <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J6" t="s">
         <v>105</v>
       </c>
       <c r="K6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>0</v>
@@ -2364,33 +2364,33 @@
         <v>77</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J7" t="s">
         <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>0</v>
@@ -2408,27 +2408,27 @@
         <v>9</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>0</v>
@@ -2446,27 +2446,27 @@
         <v>10</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J9" t="s">
         <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>0</v>
@@ -2475,36 +2475,36 @@
         <v>51</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J10" t="s">
         <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>97</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>84</v>
@@ -2522,27 +2522,27 @@
         <v>64</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="J11" t="s">
         <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>0</v>
@@ -2554,33 +2554,33 @@
         <v>79</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>3</v>
@@ -2595,30 +2595,30 @@
         <v>58</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>3</v>
@@ -2633,30 +2633,30 @@
         <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J14" t="s">
         <v>105</v>
       </c>
       <c r="K14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>3</v>
@@ -2668,33 +2668,33 @@
         <v>82</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J15" t="s">
         <v>105</v>
       </c>
       <c r="K15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>3</v>
@@ -2703,36 +2703,36 @@
         <v>92</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="J16" t="s">
         <v>105</v>
       </c>
       <c r="K16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>3</v>
@@ -2741,36 +2741,36 @@
         <v>93</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J17" t="s">
         <v>105</v>
       </c>
       <c r="K17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>3</v>
@@ -2779,7 +2779,7 @@
         <v>73</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>104</v>
@@ -2788,27 +2788,27 @@
         <v>103</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J18" t="s">
         <v>105</v>
       </c>
       <c r="K18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>3</v>
@@ -2817,36 +2817,36 @@
         <v>73</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J19" t="s">
         <v>105</v>
       </c>
       <c r="K19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>4</v>
@@ -2855,36 +2855,36 @@
         <v>74</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G20" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J20" t="s">
         <v>105</v>
       </c>
       <c r="K20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>4</v>
@@ -2893,36 +2893,36 @@
         <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>90</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J21" t="s">
         <v>105</v>
       </c>
       <c r="K21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>4</v>
@@ -2931,36 +2931,36 @@
         <v>74</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J22" t="s">
         <v>105</v>
       </c>
       <c r="K22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>4</v>
@@ -2969,36 +2969,36 @@
         <v>74</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="I23" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>4</v>
@@ -3007,36 +3007,36 @@
         <v>74</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>108</v>
+        <v>344</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="H24" s="37" t="s">
-        <v>342</v>
+        <v>331</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J24" t="s">
         <v>105</v>
       </c>
       <c r="K24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>5</v>
@@ -3045,36 +3045,36 @@
         <v>94</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>5</v>
@@ -3083,36 +3083,36 @@
         <v>94</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>5</v>
@@ -3130,27 +3130,27 @@
         <v>11</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J27" t="s">
         <v>105</v>
       </c>
       <c r="K27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>5</v>
@@ -3162,33 +3162,33 @@
         <v>66</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>5</v>
@@ -3197,36 +3197,36 @@
         <v>54</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>5</v>
@@ -3241,30 +3241,30 @@
         <v>60</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J30" t="s">
         <v>105</v>
       </c>
       <c r="K30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>5</v>
@@ -3276,33 +3276,33 @@
         <v>67</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>5</v>
@@ -3311,7 +3311,7 @@
         <v>52</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>61</v>
@@ -3320,27 +3320,27 @@
         <v>50</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J32" t="s">
         <v>105</v>
       </c>
       <c r="K32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>5</v>
@@ -3349,36 +3349,36 @@
         <v>95</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H33" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J33" t="s">
         <v>105</v>
       </c>
       <c r="K33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>5</v>
@@ -3387,36 +3387,36 @@
         <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J34" t="s">
         <v>105</v>
       </c>
       <c r="K34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>6</v>
@@ -3425,7 +3425,7 @@
         <v>96</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>106</v>
@@ -3434,27 +3434,27 @@
         <v>48</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J35" t="s">
         <v>105</v>
       </c>
       <c r="K35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>6</v>
@@ -3466,33 +3466,33 @@
         <v>99</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J36" t="s">
         <v>105</v>
       </c>
       <c r="K36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>6</v>
@@ -3507,30 +3507,30 @@
         <v>68</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J37" t="s">
         <v>105</v>
       </c>
       <c r="K37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>6</v>
@@ -3539,36 +3539,36 @@
         <v>83</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J38" t="s">
         <v>105</v>
       </c>
       <c r="K38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>6</v>
@@ -3580,28 +3580,28 @@
         <v>98</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J39" t="s">
         <v>105</v>
       </c>
       <c r="K39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3634,18 +3634,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>0</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>0</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>0</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>0</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>0</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>0</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>0</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>0</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>0</v>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>0</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>0</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>3</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>3</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>3</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>3</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>3</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>3</v>
@@ -3832,7 +3832,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>3</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>4</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>4</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>4</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>4</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>4</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>5</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>5</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>5</v>
@@ -3931,7 +3931,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>5</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>5</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>5</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>5</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>5</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>5</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>5</v>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>6</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>6</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>6</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>6</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>6</v>
@@ -4177,7 +4177,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4313,7 +4313,7 @@
   </sheetPr>
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
@@ -4326,27 +4326,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
         <v>176</v>
       </c>
-      <c r="B1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
       <c r="D1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
         <v>187</v>
       </c>
-      <c r="E1" t="s">
-        <v>188</v>
-      </c>
       <c r="F1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="28">
         <v>40724</v>
@@ -4355,12 +4355,12 @@
         <v>5.04</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="28">
         <v>41090</v>
@@ -4369,12 +4369,12 @@
         <v>4.8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="28">
         <v>41455</v>
@@ -4383,12 +4383,12 @@
         <v>4.72</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="28">
         <v>41820</v>
@@ -4397,12 +4397,12 @@
         <v>4.79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="28">
         <v>42185</v>
@@ -4411,12 +4411,12 @@
         <v>4.84</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="28">
         <v>42551</v>
@@ -4427,12 +4427,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="28">
         <v>42916</v>
@@ -4443,12 +4443,12 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="28">
         <v>51317</v>
@@ -4459,12 +4459,12 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="29">
         <v>43281</v>
@@ -4479,12 +4479,12 @@
         <v>71.158794562405902</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="29">
         <v>43646</v>
@@ -4499,12 +4499,12 @@
         <v>70.112622314085897</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="29">
         <v>44012</v>
@@ -4519,12 +4519,12 @@
         <v>74.099999999999994</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="28">
         <v>51317</v>
@@ -4535,12 +4535,12 @@
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="29">
         <v>43281</v>
@@ -4555,12 +4555,12 @@
         <v>66.167510713120095</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="29">
         <v>43646</v>
@@ -4575,12 +4575,12 @@
         <v>63.814694958317894</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="29">
         <v>44012</v>
@@ -4595,12 +4595,12 @@
         <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="28">
         <v>51317</v>
@@ -4611,12 +4611,12 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="29">
         <v>43646</v>
@@ -4625,12 +4625,12 @@
         <v>60.699999999999996</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="28">
         <v>51317</v>
@@ -4639,12 +4639,12 @@
         <v>90</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="29">
         <v>43281</v>
@@ -4659,12 +4659,12 @@
         <v>51.597672572044409</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="29">
         <v>43646</v>
@@ -4679,12 +4679,12 @@
         <v>48.833706034554297</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="29">
         <v>44012</v>
@@ -4699,12 +4699,12 @@
         <v>48.1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="28">
         <v>51317</v>
@@ -4715,12 +4715,12 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="30">
         <v>42916</v>
@@ -4735,12 +4735,12 @@
         <v>63.6</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" s="28">
         <v>51317</v>
@@ -4751,12 +4751,12 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" s="30">
         <v>41090</v>
@@ -4771,12 +4771,12 @@
         <v>14.5</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27" s="30">
         <v>41820</v>
@@ -4791,12 +4791,12 @@
         <v>21.1</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" s="30">
         <v>42916</v>
@@ -4811,12 +4811,12 @@
         <v>17</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29" s="28">
         <v>51317</v>
@@ -4827,12 +4827,12 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B30" s="29">
         <v>43281</v>
@@ -4847,12 +4847,12 @@
         <v>65.605150908988506</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B31" s="29">
         <v>43646</v>
@@ -4867,12 +4867,12 @@
         <v>69.906919042560105</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B32" s="29">
         <v>44012</v>
@@ -4887,12 +4887,12 @@
         <v>68.900000000000006</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B33" s="28">
         <v>51317</v>
@@ -4903,12 +4903,12 @@
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
       <c r="F33" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B34" s="29">
         <v>41090</v>
@@ -4919,12 +4919,12 @@
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
       <c r="F34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B35" s="29">
         <v>42185</v>
@@ -4935,12 +4935,12 @@
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36" s="29">
         <v>43281</v>
@@ -4951,12 +4951,12 @@
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
       <c r="F36" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B37" s="28">
         <v>51317</v>
@@ -4967,14 +4967,14 @@
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
       <c r="F37" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B38" s="29">
         <v>43281</v>
@@ -4989,12 +4989,12 @@
         <v>53.871574222</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B39" s="29">
         <v>43646</v>
@@ -5009,12 +5009,12 @@
         <v>50.539152862397202</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B40" s="29">
         <v>44012</v>
@@ -5029,12 +5029,12 @@
         <v>52.6</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B41" s="28">
         <v>51317</v>
@@ -5045,12 +5045,12 @@
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
       <c r="F41" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B42" s="28">
         <v>40764</v>
@@ -5061,12 +5061,12 @@
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
       <c r="F42" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B43" s="28">
         <v>42591</v>
@@ -5077,12 +5077,12 @@
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
       <c r="F43" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44" s="28">
         <v>51317</v>
@@ -5093,12 +5093,12 @@
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
       <c r="F44" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" s="29">
         <v>42551</v>
@@ -5109,12 +5109,12 @@
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
       <c r="F45" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B46" s="29">
         <v>42916</v>
@@ -5125,12 +5125,12 @@
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
       <c r="F46" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47" s="29">
         <v>43281</v>
@@ -5141,12 +5141,12 @@
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" s="29">
         <v>43646</v>
@@ -5157,12 +5157,12 @@
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
       <c r="F48" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B49" s="28">
         <v>51317</v>
@@ -5173,12 +5173,12 @@
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
       <c r="F49" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B50" s="28">
         <v>40764</v>
@@ -5189,12 +5189,12 @@
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
       <c r="F50" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B51" s="28">
         <v>42591</v>
@@ -5205,12 +5205,12 @@
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
       <c r="F51" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B52" s="28">
         <v>51317</v>
@@ -5221,12 +5221,12 @@
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
       <c r="F52" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B53" s="30">
         <v>42551</v>
@@ -5237,12 +5237,12 @@
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
       <c r="F53" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B54" s="30">
         <v>42916</v>
@@ -5253,12 +5253,12 @@
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B55" s="30">
         <v>43281</v>
@@ -5269,12 +5269,12 @@
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B56" s="28">
         <v>51317</v>
@@ -5285,12 +5285,12 @@
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
       <c r="F56" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B57" s="29">
         <v>41820</v>
@@ -5301,13 +5301,13 @@
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
       <c r="F57" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G57" s="39"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B58" s="29">
         <v>42185</v>
@@ -5318,13 +5318,13 @@
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
       <c r="F58" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G58" s="39"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B59" s="29">
         <v>42551</v>
@@ -5335,13 +5335,13 @@
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
       <c r="F59" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G59" s="39"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60" s="29">
         <v>42916</v>
@@ -5352,13 +5352,13 @@
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
       <c r="F60" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G60" s="39"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B61" s="29">
         <v>43281</v>
@@ -5369,13 +5369,13 @@
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G61" s="39"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B62" s="29">
         <v>43646</v>
@@ -5386,13 +5386,13 @@
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
       <c r="F62" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G62" s="39"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B63" s="28">
         <v>51317</v>
@@ -5403,13 +5403,13 @@
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
       <c r="F63" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G63" s="39"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B64" s="28">
         <v>40764</v>
@@ -5420,12 +5420,12 @@
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
       <c r="F64" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65" s="28">
         <v>42591</v>
@@ -5436,12 +5436,12 @@
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
       <c r="F65" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" s="28">
         <v>51317</v>
@@ -5452,12 +5452,12 @@
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
       <c r="F66" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B67" s="29">
         <v>42916</v>
@@ -5468,12 +5468,12 @@
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
       <c r="F67" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B68" s="29">
         <v>43281</v>
@@ -5484,12 +5484,12 @@
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
       <c r="F68" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B69" s="29">
         <v>43646</v>
@@ -5500,12 +5500,12 @@
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
       <c r="F69" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B70" s="28">
         <v>51317</v>
@@ -5516,12 +5516,12 @@
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
       <c r="F70" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B71" s="29">
         <v>43281</v>
@@ -5536,12 +5536,12 @@
         <v>71.891836587279997</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B72" s="29">
         <v>43646</v>
@@ -5556,12 +5556,12 @@
         <v>71.990952281489598</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B73" s="29">
         <v>44012</v>
@@ -5576,12 +5576,12 @@
         <v>71.66</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B74" s="28">
         <v>51317</v>
@@ -5592,12 +5592,12 @@
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B75" s="29">
         <v>43444</v>
@@ -5608,12 +5608,12 @@
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
       <c r="F75" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B76" s="29">
         <v>43780</v>
@@ -5624,12 +5624,12 @@
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
       <c r="F76" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B77" s="28">
         <v>51317</v>
@@ -5640,12 +5640,12 @@
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
       <c r="F77" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B78" s="28">
         <v>40764</v>
@@ -5656,12 +5656,12 @@
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
       <c r="F78" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B79" s="28">
         <v>42591</v>
@@ -5672,12 +5672,12 @@
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
       <c r="F79" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B80" s="28">
         <v>51317</v>
@@ -5688,12 +5688,12 @@
       <c r="D80" s="25"/>
       <c r="E80" s="25"/>
       <c r="F80" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B81" s="28">
         <v>40764</v>
@@ -5704,12 +5704,12 @@
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
       <c r="F81" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B82" s="28">
         <v>42591</v>
@@ -5720,12 +5720,12 @@
       <c r="D82" s="25"/>
       <c r="E82" s="25"/>
       <c r="F82" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B83" s="28">
         <v>51317</v>
@@ -5736,12 +5736,12 @@
       <c r="D83" s="25"/>
       <c r="E83" s="25"/>
       <c r="F83" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B84" s="28">
         <v>42004</v>
@@ -5752,12 +5752,12 @@
       <c r="D84" s="25"/>
       <c r="E84" s="25"/>
       <c r="F84" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B85" s="28">
         <v>42369</v>
@@ -5768,12 +5768,12 @@
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
       <c r="F85" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B86" s="28">
         <v>42735</v>
@@ -5784,12 +5784,12 @@
       <c r="D86" s="25"/>
       <c r="E86" s="25"/>
       <c r="F86" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B87" s="28">
         <v>43100</v>
@@ -5800,12 +5800,12 @@
       <c r="D87" s="25"/>
       <c r="E87" s="25"/>
       <c r="F87" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B88" s="28">
         <v>43465</v>
@@ -5816,12 +5816,12 @@
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
       <c r="F88" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B89" s="28">
         <v>51501</v>
@@ -5832,12 +5832,12 @@
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
       <c r="F89" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B90" s="29">
         <v>43831</v>
@@ -5848,12 +5848,12 @@
       <c r="D90" s="25"/>
       <c r="E90" s="25"/>
       <c r="F90" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B91" s="28">
         <v>51317</v>
@@ -5864,12 +5864,12 @@
       <c r="D91" s="25"/>
       <c r="E91" s="25"/>
       <c r="F91" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B92" s="29">
         <v>43281</v>
@@ -5880,12 +5880,12 @@
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
       <c r="F92" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B93" s="29">
         <v>43646</v>
@@ -5896,12 +5896,12 @@
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
       <c r="F93" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B94" s="28">
         <v>51317</v>
@@ -5912,12 +5912,12 @@
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
       <c r="F94" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B95" s="29">
         <v>43281</v>
@@ -5928,12 +5928,12 @@
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
       <c r="F95" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B96" s="28">
         <v>51317</v>
@@ -5944,12 +5944,12 @@
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
       <c r="F96" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B97" s="29">
         <v>43281</v>
@@ -5960,12 +5960,12 @@
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
       <c r="F97" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B98" s="29">
         <v>43646</v>
@@ -5976,12 +5976,12 @@
       <c r="D98" s="27"/>
       <c r="E98" s="27"/>
       <c r="F98" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B99" s="28">
         <v>51317</v>
@@ -5992,12 +5992,12 @@
       <c r="D99" s="27"/>
       <c r="E99" s="27"/>
       <c r="F99" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B100" s="29">
         <v>42185</v>
@@ -6008,12 +6008,12 @@
       <c r="D100" s="27"/>
       <c r="E100" s="27"/>
       <c r="F100" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B101" s="28">
         <v>51317</v>
@@ -6024,12 +6024,12 @@
       <c r="D101" s="27"/>
       <c r="E101" s="27"/>
       <c r="F101" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B102" s="29">
         <v>42185</v>
@@ -6040,12 +6040,12 @@
       <c r="D102" s="27"/>
       <c r="E102" s="27"/>
       <c r="F102" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B103" s="28">
         <v>51317</v>
@@ -6056,12 +6056,12 @@
       <c r="D103" s="27"/>
       <c r="E103" s="27"/>
       <c r="F103" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B104" s="29">
         <v>43281</v>
@@ -6076,12 +6076,12 @@
         <v>18</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B105" s="28">
         <v>51317</v>
@@ -6092,12 +6092,12 @@
       <c r="D105" s="33"/>
       <c r="E105" s="33"/>
       <c r="F105" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B106" s="29">
         <v>42185</v>
@@ -6108,12 +6108,12 @@
       <c r="D106" s="33"/>
       <c r="E106" s="33"/>
       <c r="F106" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B107" s="28">
         <v>51317</v>
@@ -6124,12 +6124,12 @@
       <c r="D107" s="33"/>
       <c r="E107" s="33"/>
       <c r="F107" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B108" s="28">
         <v>51317</v>
@@ -6140,12 +6140,12 @@
       <c r="D108" s="26"/>
       <c r="E108" s="26"/>
       <c r="F108" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B109" s="29">
         <v>43281</v>
@@ -6154,12 +6154,12 @@
         <v>41.67</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B110" s="29">
         <v>43646</v>
@@ -6168,12 +6168,12 @@
         <v>41.11</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B111" s="28">
         <v>51317</v>
@@ -6182,12 +6182,12 @@
         <v>90</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B112" s="29">
         <v>44012</v>
@@ -6202,12 +6202,12 @@
         <v>49.42</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B113" s="28">
         <v>51317</v>
@@ -6216,12 +6216,12 @@
         <v>60</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B114" s="29">
         <v>44012</v>
@@ -6236,12 +6236,12 @@
         <v>56.35</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B115" s="28">
         <v>51317</v>
@@ -6250,12 +6250,12 @@
         <v>60</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B116" s="29">
         <v>43281</v>
@@ -6264,12 +6264,12 @@
         <v>75</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B117" s="29">
         <v>43646</v>
@@ -6278,12 +6278,12 @@
         <v>80</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B118" s="28">
         <v>51317</v>
@@ -6292,12 +6292,12 @@
         <v>100</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B119" s="29">
         <v>43281</v>
@@ -6306,12 +6306,12 @@
         <v>0</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B120" s="29">
         <v>43646</v>
@@ -6320,12 +6320,12 @@
         <v>5.4</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B121" s="28">
         <v>51317</v>
@@ -6334,12 +6334,12 @@
         <v>100</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B122" s="29">
         <v>43281</v>
@@ -6348,12 +6348,12 @@
         <v>4.17</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B123" s="29">
         <v>43646</v>
@@ -6362,12 +6362,12 @@
         <v>4.13</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B124" s="28">
         <v>51317</v>
@@ -6376,12 +6376,12 @@
         <v>4.38</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B125" s="29">
         <v>43281</v>
@@ -6390,12 +6390,12 @@
         <v>91.1</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126" s="28">
         <v>51317</v>
@@ -6404,12 +6404,12 @@
         <v>95</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B127" s="30">
         <v>40724</v>
@@ -6424,12 +6424,12 @@
         <v>67</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B128" s="28">
         <v>51317</v>
@@ -6438,7 +6438,7 @@
         <v>70</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6467,431 +6467,431 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC43AE6-2B99-406F-B4DA-6CB7CD04B85A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A377C34C-E29A-449A-980F-189EB1B76FFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$128</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicator_list!$K$1:$K$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicator_list!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="348">
   <si>
     <t>FAIR</t>
   </si>
@@ -1094,6 +1094,12 @@
   </si>
   <si>
     <t>At the start of 2020, about 13 per cent of local roads in Moonee Valley had a speed limit of 40km/h</t>
+  </si>
+  <si>
+    <t>Aspirational target based on a desire for  households to be resilient to climate impacts.</t>
+  </si>
+  <si>
+    <t>Aspirational target based on a desire for households being able to cope with climate impacts.</t>
   </si>
 </sst>
 </file>
@@ -2108,8 +2114,8 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3358,7 +3364,7 @@
         <v>64</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>228</v>
@@ -3396,7 +3402,7 @@
         <v>64</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="H34" s="37" t="s">
         <v>228</v>
@@ -3605,7 +3611,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K1:K39" xr:uid="{990F7F42-49B6-4F56-90C2-1C86AAAAE40F}"/>
+  <autoFilter ref="A1:L39" xr:uid="{0A037D11-708E-49BD-B09E-1F34CF859F52}"/>
   <conditionalFormatting sqref="J2:K39">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Increase">
       <formula>NOT(ISERROR(SEARCH("Increase",J2)))</formula>
@@ -4313,8 +4319,8 @@
   </sheetPr>
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4510,13 +4516,13 @@
         <v>44012</v>
       </c>
       <c r="C12" s="33">
-        <v>71.400000000000006</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="D12" s="19">
-        <v>68.5</v>
+        <v>68.03</v>
       </c>
       <c r="E12" s="19">
-        <v>74.099999999999994</v>
+        <v>73.619</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>180</v>
@@ -4586,13 +4592,13 @@
         <v>44012</v>
       </c>
       <c r="C16" s="33">
-        <v>62</v>
+        <v>62.1</v>
       </c>
       <c r="D16" s="19">
-        <v>59</v>
+        <v>59.036999999999999</v>
       </c>
       <c r="E16" s="19">
-        <v>65</v>
+        <v>65.063000000000002</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>180</v>
@@ -4693,10 +4699,10 @@
         <v>44.9</v>
       </c>
       <c r="D22" s="33">
-        <v>41.7</v>
+        <v>47.776000000000003</v>
       </c>
       <c r="E22" s="33">
-        <v>48.1</v>
+        <v>48.155999999999999</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>180</v>
@@ -5023,10 +5029,10 @@
         <v>51</v>
       </c>
       <c r="D40" s="27">
-        <v>49</v>
+        <v>48.96</v>
       </c>
       <c r="E40" s="27">
-        <v>52.6</v>
+        <v>52.51</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>180</v>
@@ -5570,10 +5576,10 @@
         <v>70</v>
       </c>
       <c r="D73" s="27">
-        <v>68.8</v>
+        <v>68.775999999999996</v>
       </c>
       <c r="E73" s="27">
-        <v>71.66</v>
+        <v>71.628</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>180</v>
@@ -6193,13 +6199,13 @@
         <v>44012</v>
       </c>
       <c r="C112" s="33">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="D112">
-        <v>42.47</v>
+        <v>42.686</v>
       </c>
       <c r="E112">
-        <v>49.42</v>
+        <v>49.436</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>179</v>
@@ -6227,13 +6233,13 @@
         <v>44012</v>
       </c>
       <c r="C114" s="33">
-        <v>53</v>
+        <v>52.4</v>
       </c>
       <c r="D114">
-        <v>49.72</v>
+        <v>49.466000000000001</v>
       </c>
       <c r="E114">
-        <v>56.35</v>
+        <v>55.628</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>179</v>
@@ -6455,7 +6461,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A377C34C-E29A-449A-980F-189EB1B76FFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B86B9-3716-4DBB-BAF5-8F4C9B2E49AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="3" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_list" sheetId="12" r:id="rId1"/>
@@ -2113,9 +2113,9 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4319,8 +4319,8 @@
   </sheetPr>
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4699,7 +4699,7 @@
         <v>44.9</v>
       </c>
       <c r="D22" s="33">
-        <v>47.776000000000003</v>
+        <v>41.77</v>
       </c>
       <c r="E22" s="33">
         <v>48.155999999999999</v>

--- a/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B86B9-3716-4DBB-BAF5-8F4C9B2E49AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186531F1-0327-4A96-810F-DF922F0D154C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" activeTab="3" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="data_format" sheetId="15" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">data!$A$1:$F$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">indicator_list!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="348">
   <si>
     <t>FAIR</t>
   </si>
@@ -2114,8 +2114,8 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4317,10 +4317,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="M120" sqref="M120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,75 +6375,89 @@
       <c r="A124" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B124" s="28">
-        <v>51317</v>
+      <c r="B124" s="29">
+        <v>44012</v>
       </c>
       <c r="C124" s="27">
-        <v>4.38</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>181</v>
+        <v>4.05</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B125" s="29">
-        <v>43281</v>
+        <v>172</v>
+      </c>
+      <c r="B125" s="28">
+        <v>51317</v>
       </c>
       <c r="C125" s="27">
-        <v>91.1</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>179</v>
+        <v>4.38</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B126" s="28">
-        <v>51317</v>
-      </c>
-      <c r="C126">
-        <v>95</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>181</v>
+      <c r="B126" s="29">
+        <v>43281</v>
+      </c>
+      <c r="C126" s="27">
+        <v>91.1</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B127" s="30">
-        <v>40724</v>
-      </c>
-      <c r="C127" s="33">
-        <v>64</v>
-      </c>
-      <c r="D127">
-        <v>60.9</v>
-      </c>
-      <c r="E127">
-        <v>67</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>179</v>
+        <v>165</v>
+      </c>
+      <c r="B127" s="28">
+        <v>51317</v>
+      </c>
+      <c r="C127">
+        <v>95</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B128" s="28">
+      <c r="B128" s="30">
+        <v>40724</v>
+      </c>
+      <c r="C128" s="33">
+        <v>64</v>
+      </c>
+      <c r="D128">
+        <v>60.9</v>
+      </c>
+      <c r="E128">
+        <v>67</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" s="28">
         <v>51317</v>
       </c>
-      <c r="C128" s="33">
+      <c r="C129" s="33">
         <v>70</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>181</v>
       </c>
     </row>
